--- a/data/Data_Tansplants_US.xlsx
+++ b/data/Data_Tansplants_US.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26616"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8923D9A2-B39E-4065-B11F-B6562301ABFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25C77E52-2F6D-4D95-86A7-AB5D12197B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="63">
   <si>
     <t>ORGANI</t>
   </si>
@@ -203,6 +203,21 @@
   <si>
     <t>all*p_AB*p_critical</t>
   </si>
+  <si>
+    <t>USCITE</t>
+  </si>
+  <si>
+    <t>TOTALE</t>
+  </si>
+  <si>
+    <t>MORTE</t>
+  </si>
+  <si>
+    <t>ALTRO</t>
+  </si>
+  <si>
+    <t>TRAPIANTI</t>
+  </si>
 </sst>
 </file>
 
@@ -269,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -314,11 +329,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,6 +376,9 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -358,6 +411,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,10 +745,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO113"/>
+  <dimension ref="A1:AO171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="S77" sqref="S77"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,10 +758,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1654,7 +1722,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="8"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1734,10 +1802,10 @@
       <c r="AO11" s="1"/>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -5056,10 +5124,10 @@
       </c>
     </row>
     <row r="45" spans="1:40">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="12"/>
+      <c r="B45" s="13"/>
       <c r="D45" s="1" t="s">
         <v>1</v>
       </c>
@@ -7670,20 +7738,20 @@
       <c r="AG66" s="5"/>
     </row>
     <row r="68" spans="1:33">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="12"/>
+      <c r="B68" s="13"/>
       <c r="D68" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I68" s="13" t="s">
+      <c r="I68" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="14"/>
+      <c r="J68" s="15"/>
       <c r="L68" s="2" t="s">
         <v>21</v>
       </c>
@@ -7698,11 +7766,11 @@
       <c r="B69" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="6">
         <f>AVERAGE(L46:Q46)</f>
         <v>35639.333333333336</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="6">
         <f>AVERAGE(F46:K46)</f>
         <v>39416.833333333336</v>
       </c>
@@ -7722,11 +7790,11 @@
       <c r="B70" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="6">
         <f t="shared" ref="D70:D88" si="26">AVERAGE(L47:Q47)</f>
         <v>35.5</v>
       </c>
-      <c r="F70" s="4">
+      <c r="F70" s="6">
         <f t="shared" ref="F70:F88" si="27">AVERAGE(F47:K47)</f>
         <v>22.333333333333332</v>
       </c>
@@ -7746,11 +7814,11 @@
       <c r="B71" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="6">
         <f t="shared" si="26"/>
         <v>25330.666666666668</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="6">
         <f t="shared" si="27"/>
         <v>28442.666666666668</v>
       </c>
@@ -7770,11 +7838,11 @@
       <c r="B72" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="6">
         <f t="shared" si="26"/>
         <v>10273.166666666666</v>
       </c>
-      <c r="F72" s="4">
+      <c r="F72" s="6">
         <f t="shared" si="27"/>
         <v>10951.833333333334</v>
       </c>
@@ -7797,11 +7865,11 @@
       <c r="B73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="6">
         <f t="shared" si="26"/>
         <v>17339</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="6">
         <f t="shared" si="27"/>
         <v>19278.666666666668</v>
       </c>
@@ -7821,11 +7889,11 @@
       <c r="B74" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="6">
         <f t="shared" si="26"/>
         <v>19.5</v>
       </c>
-      <c r="F74" s="4">
+      <c r="F74" s="6">
         <f t="shared" si="27"/>
         <v>11</v>
       </c>
@@ -7834,11 +7902,11 @@
       <c r="B75" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="6">
         <f t="shared" si="26"/>
         <v>12375</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="6">
         <f t="shared" si="27"/>
         <v>14055.166666666666</v>
       </c>
@@ -7847,11 +7915,11 @@
       <c r="B76" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="6">
         <f t="shared" si="26"/>
         <v>4944.5</v>
       </c>
-      <c r="F76" s="4">
+      <c r="F76" s="6">
         <f t="shared" si="27"/>
         <v>5212.5</v>
       </c>
@@ -7863,11 +7931,11 @@
       <c r="B77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="6">
         <f t="shared" si="26"/>
         <v>11691.166666666666</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="6">
         <f t="shared" si="27"/>
         <v>12744.5</v>
       </c>
@@ -7877,11 +7945,11 @@
       <c r="B78" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="6">
         <f t="shared" si="26"/>
         <v>10</v>
       </c>
-      <c r="F78" s="4">
+      <c r="F78" s="6">
         <f t="shared" si="27"/>
         <v>5.666666666666667</v>
       </c>
@@ -7890,11 +7958,11 @@
       <c r="B79" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="6">
         <f t="shared" si="26"/>
         <v>8276.8333333333339</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F79" s="6">
         <f t="shared" si="27"/>
         <v>9031.1666666666661</v>
       </c>
@@ -7903,11 +7971,11 @@
       <c r="B80" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="6">
         <f t="shared" si="26"/>
         <v>3404.3333333333335</v>
       </c>
-      <c r="F80" s="4">
+      <c r="F80" s="6">
         <f t="shared" si="27"/>
         <v>3707.6666666666665</v>
       </c>
@@ -7919,11 +7987,11 @@
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="6">
         <f t="shared" si="26"/>
         <v>5264.5</v>
       </c>
-      <c r="F81" s="4">
+      <c r="F81" s="6">
         <f t="shared" si="27"/>
         <v>5883</v>
       </c>
@@ -7932,11 +8000,11 @@
       <c r="B82" t="s">
         <v>17</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="6">
         <f t="shared" si="26"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="F82" s="4">
+      <c r="F82" s="6">
         <f t="shared" si="27"/>
         <v>4.166666666666667</v>
       </c>
@@ -7945,11 +8013,11 @@
       <c r="B83" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="6">
         <f t="shared" si="26"/>
         <v>3731</v>
       </c>
-      <c r="F83" s="4">
+      <c r="F83" s="6">
         <f t="shared" si="27"/>
         <v>4299.666666666667</v>
       </c>
@@ -7958,11 +8026,11 @@
       <c r="B84" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="6">
         <f t="shared" si="26"/>
         <v>1528.8333333333333</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="6">
         <f t="shared" si="27"/>
         <v>1579.1666666666667</v>
       </c>
@@ -7974,11 +8042,11 @@
       <c r="B85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="6">
         <f t="shared" si="26"/>
         <v>1345.5</v>
       </c>
-      <c r="F85" s="4">
+      <c r="F85" s="6">
         <f t="shared" si="27"/>
         <v>1511</v>
       </c>
@@ -7987,11 +8055,11 @@
       <c r="B86" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="6">
         <f t="shared" si="26"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="F86" s="4">
+      <c r="F86" s="6">
         <f t="shared" si="27"/>
         <v>1.5</v>
       </c>
@@ -8000,11 +8068,11 @@
       <c r="B87" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="6">
         <f t="shared" si="26"/>
         <v>948.66666666666663</v>
       </c>
-      <c r="F87" s="4">
+      <c r="F87" s="6">
         <f t="shared" si="27"/>
         <v>1057</v>
       </c>
@@ -8013,27 +8081,27 @@
       <c r="B88" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="6">
         <f t="shared" si="26"/>
         <v>395.5</v>
       </c>
-      <c r="F88" s="4">
+      <c r="F88" s="6">
         <f t="shared" si="27"/>
         <v>452.5</v>
       </c>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="17"/>
+      <c r="B90" s="18"/>
       <c r="I90" t="s">
         <v>24</v>
       </c>
-      <c r="K90" s="15" t="s">
+      <c r="K90" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="L90" s="15"/>
+      <c r="L90" s="16"/>
       <c r="N90" t="s">
         <v>26</v>
       </c>
@@ -8048,14 +8116,14 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="20"/>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="21"/>
+      <c r="C91" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="12"/>
+      <c r="D91" s="13"/>
       <c r="I91" s="4">
         <f>D75</f>
         <v>12375</v>
@@ -8085,11 +8153,11 @@
       <c r="A92" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="7">
+      <c r="B92" s="8">
         <f>D77/D69</f>
         <v>0.32804111562131721</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="8">
         <f>L71/L69</f>
         <v>0.370336861152608</v>
       </c>
@@ -8098,11 +8166,11 @@
       <c r="A93" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="7">
+      <c r="B93" s="8">
         <f>D81/D69</f>
         <v>0.14771600665930898</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="8">
         <f>L72/L69</f>
         <v>0.11885875397142677</v>
       </c>
@@ -8129,11 +8197,11 @@
       <c r="A94" t="s">
         <v>37</v>
       </c>
-      <c r="B94" s="7">
+      <c r="B94" s="8">
         <f>D85/D69</f>
         <v>3.7753231448399704E-2</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="8">
         <f>L73/L69</f>
         <v>3.3896521976981502E-2</v>
       </c>
@@ -8166,11 +8234,11 @@
       <c r="A95" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="7">
+      <c r="B95" s="8">
         <f>D73/D69</f>
         <v>0.48651302867618174</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="8">
         <f>L70/L69</f>
         <v>0.47690786289898368</v>
       </c>
@@ -8222,11 +8290,11 @@
       </c>
     </row>
     <row r="98" spans="1:40">
-      <c r="B98" s="7">
+      <c r="B98" s="8">
         <f>SUM(B92:B95)</f>
         <v>1.0000233824052076</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="8">
         <f>SUM(D92:D95)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -8255,7 +8323,7 @@
       <c r="A100" t="s">
         <v>47</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="10">
         <f>D72/D69</f>
         <v>0.28825361491984508</v>
       </c>
@@ -8288,7 +8356,7 @@
       <c r="A101" t="s">
         <v>48</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="10">
         <f>D70/D69</f>
         <v>9.9609046184926764E-4</v>
       </c>
@@ -8297,7 +8365,7 @@
       <c r="A102" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B102" s="10">
+      <c r="B102" s="11">
         <f>D71/D69</f>
         <v>0.71075029461830563</v>
       </c>
@@ -8441,7 +8509,7 @@
     </row>
     <row r="105" spans="1:40">
       <c r="A105" s="1"/>
-      <c r="B105" s="10">
+      <c r="B105" s="11">
         <f>SUM(B100:B102)</f>
         <v>1</v>
       </c>
@@ -8654,6 +8722,7 @@
       <c r="N111" s="3"/>
     </row>
     <row r="112" spans="1:40">
+      <c r="G112" s="5"/>
       <c r="I112" t="s">
         <v>56</v>
       </c>
@@ -8664,7 +8733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="113" spans="9:37">
+    <row r="113" spans="1:37">
       <c r="I113" s="4">
         <f>D86</f>
         <v>1.3333333333333333</v>
@@ -8679,12 +8748,3492 @@
       </c>
       <c r="AK113" s="5"/>
     </row>
+    <row r="115" spans="1:37">
+      <c r="A115" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B115" s="15"/>
+    </row>
+    <row r="116" spans="1:37">
+      <c r="A116" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="25"/>
+      <c r="C116" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:37">
+      <c r="A117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="4">
+        <f>AVERAGE(L141:Q141)</f>
+        <v>31352.666666666668</v>
+      </c>
+    </row>
+    <row r="118" spans="1:37">
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <f>AVERAGE(L156:Q156)+AVERAGE(L161:Q161)</f>
+        <v>30.333333333333336</v>
+      </c>
+    </row>
+    <row r="119" spans="1:37">
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="4">
+        <f>AVERAGE(L146:Q146)+AVERAGE(L151:Q151)</f>
+        <v>20160.833333333332</v>
+      </c>
+    </row>
+    <row r="120" spans="1:37">
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:37">
+      <c r="A121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="4">
+        <f>AVERAGE(L142:Q142)</f>
+        <v>15034.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:37">
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122">
+        <f>AVERAGE(L157:Q157)+AVERAGE(L162:Q162)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:37">
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="4">
+        <f>AVERAGE(L147:Q147)+AVERAGE(L152:Q152)</f>
+        <v>9452.3333333333339</v>
+      </c>
+    </row>
+    <row r="124" spans="1:37">
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="125" spans="1:37">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="4">
+        <f>AVERAGE(L143:Q143)</f>
+        <v>10557.833333333334</v>
+      </c>
+    </row>
+    <row r="126" spans="1:37">
+      <c r="B126" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126">
+        <f>AVERAGE(L158:Q158)+AVERAGE(L163:Q163)</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:37">
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="4">
+        <f>AVERAGE(L148:Q148)+AVERAGE(L153:Q153)</f>
+        <v>7021.333333333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:37">
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:35">
+      <c r="A129" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="4">
+        <f>AVERAGE(L144:Q144)</f>
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="130" spans="1:35">
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:35">
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="4">
+        <f>AVERAGE(L149:Q149)+AVERAGE(L154:Q154)</f>
+        <v>2789.6666666666665</v>
+      </c>
+    </row>
+    <row r="132" spans="1:35">
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:35">
+      <c r="A133" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="4">
+        <f>AVERAGE(L145:Q145)</f>
+        <v>1256.3333333333333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:35">
+      <c r="B134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:35">
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <f>AVERAGE(L150:Q150)+AVERAGE(L155:Q155)</f>
+        <v>897.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:35">
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:35">
+      <c r="D140" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F140" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G140" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H140" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I140" s="1">
+        <v>2019</v>
+      </c>
+      <c r="J140" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K140" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L140" s="1">
+        <v>2016</v>
+      </c>
+      <c r="M140" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N140" s="1">
+        <v>2014</v>
+      </c>
+      <c r="O140" s="1">
+        <v>2013</v>
+      </c>
+      <c r="P140" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q140" s="1">
+        <v>2011</v>
+      </c>
+      <c r="R140" s="1">
+        <v>2010</v>
+      </c>
+      <c r="S140" s="1">
+        <v>2009</v>
+      </c>
+      <c r="T140" s="1">
+        <v>2008</v>
+      </c>
+      <c r="U140" s="1">
+        <v>2007</v>
+      </c>
+      <c r="V140" s="1">
+        <v>2006</v>
+      </c>
+      <c r="W140" s="1">
+        <v>2005</v>
+      </c>
+      <c r="X140" s="1">
+        <v>2004</v>
+      </c>
+      <c r="Y140" s="1">
+        <v>2003</v>
+      </c>
+      <c r="Z140" s="1">
+        <v>2002</v>
+      </c>
+      <c r="AA140" s="1">
+        <v>2001</v>
+      </c>
+      <c r="AB140" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AC140" s="1">
+        <v>1999</v>
+      </c>
+      <c r="AD140" s="1">
+        <v>1998</v>
+      </c>
+      <c r="AE140" s="1">
+        <v>1997</v>
+      </c>
+      <c r="AF140" s="1">
+        <v>1996</v>
+      </c>
+      <c r="AG140" s="1">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:35">
+      <c r="A141" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="3">
+        <f>D142+D143+D144+D145</f>
+        <v>660539</v>
+      </c>
+      <c r="E141" s="3">
+        <f t="shared" ref="E141:AG141" si="30">E142+E143+E144+E145</f>
+        <v>17597</v>
+      </c>
+      <c r="F141" s="3">
+        <f t="shared" si="30"/>
+        <v>40032</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" si="30"/>
+        <v>38719</v>
+      </c>
+      <c r="H141" s="3">
+        <f t="shared" si="30"/>
+        <v>36976</v>
+      </c>
+      <c r="I141" s="3">
+        <f t="shared" si="30"/>
+        <v>38208</v>
+      </c>
+      <c r="J141" s="3">
+        <f t="shared" si="30"/>
+        <v>36616</v>
+      </c>
+      <c r="K141" s="3">
+        <f t="shared" si="30"/>
+        <v>35805</v>
+      </c>
+      <c r="L141" s="3">
+        <f t="shared" si="30"/>
+        <v>35255</v>
+      </c>
+      <c r="M141" s="3">
+        <f t="shared" si="30"/>
+        <v>33964</v>
+      </c>
+      <c r="N141" s="3">
+        <f t="shared" si="30"/>
+        <v>31403</v>
+      </c>
+      <c r="O141" s="3">
+        <f t="shared" si="30"/>
+        <v>29921</v>
+      </c>
+      <c r="P141" s="3">
+        <f t="shared" si="30"/>
+        <v>28866</v>
+      </c>
+      <c r="Q141" s="3">
+        <f t="shared" si="30"/>
+        <v>28707</v>
+      </c>
+      <c r="R141" s="3">
+        <f t="shared" si="30"/>
+        <v>27802</v>
+      </c>
+      <c r="S141" s="3">
+        <f t="shared" si="30"/>
+        <v>27104</v>
+      </c>
+      <c r="T141" s="3">
+        <f t="shared" si="30"/>
+        <v>26745</v>
+      </c>
+      <c r="U141" s="3">
+        <f t="shared" si="30"/>
+        <v>25876</v>
+      </c>
+      <c r="V141" s="3">
+        <f t="shared" si="30"/>
+        <v>25389</v>
+      </c>
+      <c r="W141" s="3">
+        <f t="shared" si="30"/>
+        <v>24185</v>
+      </c>
+      <c r="X141" s="3">
+        <f t="shared" si="30"/>
+        <v>21944</v>
+      </c>
+      <c r="Y141" s="3">
+        <f t="shared" si="30"/>
+        <v>20597</v>
+      </c>
+      <c r="Z141" s="3">
+        <f t="shared" si="30"/>
+        <v>20133</v>
+      </c>
+      <c r="AA141" s="3">
+        <f t="shared" si="30"/>
+        <v>18915</v>
+      </c>
+      <c r="AB141" s="3">
+        <f t="shared" si="30"/>
+        <v>18286</v>
+      </c>
+      <c r="AC141" s="3">
+        <f t="shared" si="30"/>
+        <v>17252</v>
+      </c>
+      <c r="AD141" s="3">
+        <f t="shared" si="30"/>
+        <v>15725</v>
+      </c>
+      <c r="AE141" s="3">
+        <f t="shared" si="30"/>
+        <v>14621</v>
+      </c>
+      <c r="AF141" s="3">
+        <f t="shared" si="30"/>
+        <v>13942</v>
+      </c>
+      <c r="AG141" s="3">
+        <f t="shared" si="30"/>
+        <v>13547</v>
+      </c>
+    </row>
+    <row r="142" spans="1:35">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="3">
+        <v>314605</v>
+      </c>
+      <c r="E142" s="3">
+        <v>8575</v>
+      </c>
+      <c r="F142" s="3">
+        <v>19336</v>
+      </c>
+      <c r="G142" s="3">
+        <v>18781</v>
+      </c>
+      <c r="H142" s="3">
+        <v>17845</v>
+      </c>
+      <c r="I142" s="3">
+        <v>18432</v>
+      </c>
+      <c r="J142" s="3">
+        <v>17616</v>
+      </c>
+      <c r="K142" s="3">
+        <v>17269</v>
+      </c>
+      <c r="L142" s="3">
+        <v>17020</v>
+      </c>
+      <c r="M142" s="3">
+        <v>16392</v>
+      </c>
+      <c r="N142" s="3">
+        <v>15034</v>
+      </c>
+      <c r="O142" s="3">
+        <v>14327</v>
+      </c>
+      <c r="P142" s="3">
+        <v>13733</v>
+      </c>
+      <c r="Q142" s="3">
+        <v>13701</v>
+      </c>
+      <c r="R142" s="3">
+        <v>13369</v>
+      </c>
+      <c r="S142" s="3">
+        <v>13068</v>
+      </c>
+      <c r="T142" s="3">
+        <v>12714</v>
+      </c>
+      <c r="U142" s="3">
+        <v>12452</v>
+      </c>
+      <c r="V142" s="3">
+        <v>12056</v>
+      </c>
+      <c r="W142" s="3">
+        <v>11495</v>
+      </c>
+      <c r="X142" s="3">
+        <v>10511</v>
+      </c>
+      <c r="Y142" s="3">
+        <v>9915</v>
+      </c>
+      <c r="Z142" s="3">
+        <v>9599</v>
+      </c>
+      <c r="AA142" s="3">
+        <v>8942</v>
+      </c>
+      <c r="AB142" s="3">
+        <v>8691</v>
+      </c>
+      <c r="AC142" s="3">
+        <v>7997</v>
+      </c>
+      <c r="AD142" s="3">
+        <v>7417</v>
+      </c>
+      <c r="AE142" s="3">
+        <v>6804</v>
+      </c>
+      <c r="AF142" s="3">
+        <v>6458</v>
+      </c>
+      <c r="AG142" s="3">
+        <v>6307</v>
+      </c>
+    </row>
+    <row r="143" spans="1:35">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="3">
+        <v>224273</v>
+      </c>
+      <c r="E143" s="3">
+        <v>5661</v>
+      </c>
+      <c r="F143" s="3">
+        <v>12980</v>
+      </c>
+      <c r="G143" s="3">
+        <v>12656</v>
+      </c>
+      <c r="H143" s="3">
+        <v>12197</v>
+      </c>
+      <c r="I143" s="3">
+        <v>12573</v>
+      </c>
+      <c r="J143" s="3">
+        <v>12041</v>
+      </c>
+      <c r="K143" s="3">
+        <v>11874</v>
+      </c>
+      <c r="L143" s="3">
+        <v>11818</v>
+      </c>
+      <c r="M143" s="3">
+        <v>11209</v>
+      </c>
+      <c r="N143" s="3">
+        <v>10645</v>
+      </c>
+      <c r="O143" s="3">
+        <v>10116</v>
+      </c>
+      <c r="P143" s="3">
+        <v>9808</v>
+      </c>
+      <c r="Q143" s="3">
+        <v>9751</v>
+      </c>
+      <c r="R143" s="3">
+        <v>9224</v>
+      </c>
+      <c r="S143" s="3">
+        <v>9146</v>
+      </c>
+      <c r="T143" s="3">
+        <v>9013</v>
+      </c>
+      <c r="U143" s="3">
+        <v>8671</v>
+      </c>
+      <c r="V143" s="3">
+        <v>8630</v>
+      </c>
+      <c r="W143" s="3">
+        <v>8229</v>
+      </c>
+      <c r="X143" s="3">
+        <v>7451</v>
+      </c>
+      <c r="Y143" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Z143" s="3">
+        <v>6907</v>
+      </c>
+      <c r="AA143" s="3">
+        <v>6587</v>
+      </c>
+      <c r="AB143" s="3">
+        <v>6382</v>
+      </c>
+      <c r="AC143" s="3">
+        <v>6040</v>
+      </c>
+      <c r="AD143" s="3">
+        <v>5485</v>
+      </c>
+      <c r="AE143" s="3">
+        <v>5219</v>
+      </c>
+      <c r="AF143" s="3">
+        <v>5118</v>
+      </c>
+      <c r="AG143" s="3">
+        <v>4808</v>
+      </c>
+      <c r="AH143" s="1"/>
+      <c r="AI143" s="1"/>
+    </row>
+    <row r="144" spans="1:35">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C144" s="1"/>
+      <c r="D144" s="3">
+        <v>94850</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2666</v>
+      </c>
+      <c r="F144" s="3">
+        <v>6157</v>
+      </c>
+      <c r="G144" s="3">
+        <v>5818</v>
+      </c>
+      <c r="H144" s="3">
+        <v>5499</v>
+      </c>
+      <c r="I144" s="3">
+        <v>5654</v>
+      </c>
+      <c r="J144" s="3">
+        <v>5509</v>
+      </c>
+      <c r="K144" s="3">
+        <v>5250</v>
+      </c>
+      <c r="L144" s="3">
+        <v>5099</v>
+      </c>
+      <c r="M144" s="3">
+        <v>4942</v>
+      </c>
+      <c r="N144" s="3">
+        <v>4507</v>
+      </c>
+      <c r="O144" s="3">
+        <v>4268</v>
+      </c>
+      <c r="P144" s="3">
+        <v>4122</v>
+      </c>
+      <c r="Q144" s="3">
+        <v>4086</v>
+      </c>
+      <c r="R144" s="3">
+        <v>4059</v>
+      </c>
+      <c r="S144" s="3">
+        <v>3811</v>
+      </c>
+      <c r="T144" s="3">
+        <v>3955</v>
+      </c>
+      <c r="U144" s="3">
+        <v>3683</v>
+      </c>
+      <c r="V144" s="3">
+        <v>3635</v>
+      </c>
+      <c r="W144" s="3">
+        <v>3495</v>
+      </c>
+      <c r="X144" s="3">
+        <v>3115</v>
+      </c>
+      <c r="Y144" s="3">
+        <v>2878</v>
+      </c>
+      <c r="Z144" s="3">
+        <v>2820</v>
+      </c>
+      <c r="AA144" s="3">
+        <v>2624</v>
+      </c>
+      <c r="AB144" s="3">
+        <v>2501</v>
+      </c>
+      <c r="AC144" s="3">
+        <v>2464</v>
+      </c>
+      <c r="AD144" s="3">
+        <v>2196</v>
+      </c>
+      <c r="AE144" s="3">
+        <v>2006</v>
+      </c>
+      <c r="AF144" s="3">
+        <v>1791</v>
+      </c>
+      <c r="AG144" s="3">
+        <v>1839</v>
+      </c>
+      <c r="AH144" s="1"/>
+      <c r="AI144" s="1"/>
+    </row>
+    <row r="145" spans="1:35">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="1"/>
+      <c r="D145" s="3">
+        <v>26811</v>
+      </c>
+      <c r="E145" s="1">
+        <v>695</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1559</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1464</v>
+      </c>
+      <c r="H145" s="3">
+        <v>1435</v>
+      </c>
+      <c r="I145" s="3">
+        <v>1549</v>
+      </c>
+      <c r="J145" s="3">
+        <v>1450</v>
+      </c>
+      <c r="K145" s="3">
+        <v>1412</v>
+      </c>
+      <c r="L145" s="3">
+        <v>1318</v>
+      </c>
+      <c r="M145" s="3">
+        <v>1421</v>
+      </c>
+      <c r="N145" s="3">
+        <v>1217</v>
+      </c>
+      <c r="O145" s="3">
+        <v>1210</v>
+      </c>
+      <c r="P145" s="3">
+        <v>1203</v>
+      </c>
+      <c r="Q145" s="3">
+        <v>1169</v>
+      </c>
+      <c r="R145" s="3">
+        <v>1150</v>
+      </c>
+      <c r="S145" s="3">
+        <v>1079</v>
+      </c>
+      <c r="T145" s="3">
+        <v>1063</v>
+      </c>
+      <c r="U145" s="3">
+        <v>1070</v>
+      </c>
+      <c r="V145" s="3">
+        <v>1068</v>
+      </c>
+      <c r="W145" s="1">
+        <v>966</v>
+      </c>
+      <c r="X145" s="1">
+        <v>867</v>
+      </c>
+      <c r="Y145" s="1">
+        <v>804</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>807</v>
+      </c>
+      <c r="AA145" s="1">
+        <v>762</v>
+      </c>
+      <c r="AB145" s="1">
+        <v>712</v>
+      </c>
+      <c r="AC145" s="1">
+        <v>751</v>
+      </c>
+      <c r="AD145" s="1">
+        <v>627</v>
+      </c>
+      <c r="AE145" s="1">
+        <v>592</v>
+      </c>
+      <c r="AF145" s="1">
+        <v>575</v>
+      </c>
+      <c r="AG145" s="1">
+        <v>593</v>
+      </c>
+      <c r="AH145" s="1"/>
+      <c r="AI145" s="1"/>
+    </row>
+    <row r="146" spans="1:35">
+      <c r="A146" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1">
+        <f>D147+D148+D149+D150</f>
+        <v>147</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" ref="E146:AG146" si="31">E147+E148+E149+E150</f>
+        <v>7</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="31"/>
+        <v>12</v>
+      </c>
+      <c r="G146" s="1">
+        <f t="shared" si="31"/>
+        <v>8</v>
+      </c>
+      <c r="H146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="T146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="V146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="W146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="X146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Y146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Z146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AB146" s="1">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AC146" s="1">
+        <f t="shared" si="31"/>
+        <v>35</v>
+      </c>
+      <c r="AD146" s="1">
+        <f t="shared" si="31"/>
+        <v>64</v>
+      </c>
+      <c r="AE146" s="1">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="AF146" s="1">
+        <f t="shared" si="31"/>
+        <v>6</v>
+      </c>
+      <c r="AG146" s="1">
+        <f t="shared" si="31"/>
+        <v>9</v>
+      </c>
+      <c r="AH146" s="1"/>
+      <c r="AI146" s="1"/>
+    </row>
+    <row r="147" spans="1:35">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1">
+        <v>81</v>
+      </c>
+      <c r="E147" s="1">
+        <v>3</v>
+      </c>
+      <c r="F147" s="1">
+        <v>5</v>
+      </c>
+      <c r="G147" s="1">
+        <v>4</v>
+      </c>
+      <c r="H147" s="1">
+        <v>0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>0</v>
+      </c>
+      <c r="M147" s="1">
+        <v>0</v>
+      </c>
+      <c r="N147" s="1">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+      <c r="P147" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q147" s="1">
+        <v>0</v>
+      </c>
+      <c r="R147" s="1">
+        <v>0</v>
+      </c>
+      <c r="S147" s="1">
+        <v>0</v>
+      </c>
+      <c r="T147" s="1">
+        <v>0</v>
+      </c>
+      <c r="U147" s="1">
+        <v>0</v>
+      </c>
+      <c r="V147" s="1">
+        <v>0</v>
+      </c>
+      <c r="W147" s="1">
+        <v>0</v>
+      </c>
+      <c r="X147" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="1">
+        <v>19</v>
+      </c>
+      <c r="AD147" s="1">
+        <v>37</v>
+      </c>
+      <c r="AE147" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF147" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG147" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH147" s="1"/>
+      <c r="AI147" s="1"/>
+    </row>
+    <row r="148" spans="1:35">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1">
+        <v>44</v>
+      </c>
+      <c r="E148" s="1">
+        <v>3</v>
+      </c>
+      <c r="F148" s="1">
+        <v>4</v>
+      </c>
+      <c r="G148" s="1">
+        <v>2</v>
+      </c>
+      <c r="H148" s="1">
+        <v>0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>0</v>
+      </c>
+      <c r="M148" s="1">
+        <v>0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+      <c r="P148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q148" s="1">
+        <v>0</v>
+      </c>
+      <c r="R148" s="1">
+        <v>0</v>
+      </c>
+      <c r="S148" s="1">
+        <v>0</v>
+      </c>
+      <c r="T148" s="1">
+        <v>0</v>
+      </c>
+      <c r="U148" s="1">
+        <v>0</v>
+      </c>
+      <c r="V148" s="1">
+        <v>0</v>
+      </c>
+      <c r="W148" s="1">
+        <v>0</v>
+      </c>
+      <c r="X148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="1">
+        <v>11</v>
+      </c>
+      <c r="AD148" s="1">
+        <v>20</v>
+      </c>
+      <c r="AE148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG148" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH148" s="1"/>
+      <c r="AI148" s="1"/>
+    </row>
+    <row r="149" spans="1:35">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1">
+        <v>21</v>
+      </c>
+      <c r="E149" s="1">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1">
+        <v>3</v>
+      </c>
+      <c r="G149" s="1">
+        <v>2</v>
+      </c>
+      <c r="H149" s="1">
+        <v>0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1">
+        <v>0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>0</v>
+      </c>
+      <c r="M149" s="1">
+        <v>0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>0</v>
+      </c>
+      <c r="P149" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q149" s="1">
+        <v>0</v>
+      </c>
+      <c r="R149" s="1">
+        <v>0</v>
+      </c>
+      <c r="S149" s="1">
+        <v>0</v>
+      </c>
+      <c r="T149" s="1">
+        <v>0</v>
+      </c>
+      <c r="U149" s="1">
+        <v>0</v>
+      </c>
+      <c r="V149" s="1">
+        <v>0</v>
+      </c>
+      <c r="W149" s="1">
+        <v>0</v>
+      </c>
+      <c r="X149" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD149" s="1">
+        <v>7</v>
+      </c>
+      <c r="AE149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH149" s="1"/>
+      <c r="AI149" s="1"/>
+    </row>
+    <row r="150" spans="1:35">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
+      <c r="H150" s="1">
+        <v>0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1">
+        <v>0</v>
+      </c>
+      <c r="L150" s="1">
+        <v>0</v>
+      </c>
+      <c r="M150" s="1">
+        <v>0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+      <c r="P150" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q150" s="1">
+        <v>0</v>
+      </c>
+      <c r="R150" s="1">
+        <v>0</v>
+      </c>
+      <c r="S150" s="1">
+        <v>0</v>
+      </c>
+      <c r="T150" s="1">
+        <v>0</v>
+      </c>
+      <c r="U150" s="1">
+        <v>0</v>
+      </c>
+      <c r="V150" s="1">
+        <v>0</v>
+      </c>
+      <c r="W150" s="1">
+        <v>0</v>
+      </c>
+      <c r="X150" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE150" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG150" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH150" s="1"/>
+      <c r="AI150" s="1"/>
+    </row>
+    <row r="151" spans="1:35">
+      <c r="A151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="3">
+        <f>D152+D153+D154+D155</f>
+        <v>496372</v>
+      </c>
+      <c r="E151" s="3">
+        <f t="shared" ref="E151:AG151" si="32">E152+E153+E154+E155</f>
+        <v>11689</v>
+      </c>
+      <c r="F151" s="3">
+        <f t="shared" si="32"/>
+        <v>27099</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="32"/>
+        <v>26976</v>
+      </c>
+      <c r="H151" s="3">
+        <f t="shared" si="32"/>
+        <v>25708</v>
+      </c>
+      <c r="I151" s="3">
+        <f t="shared" si="32"/>
+        <v>26030</v>
+      </c>
+      <c r="J151" s="3">
+        <f t="shared" si="32"/>
+        <v>23850</v>
+      </c>
+      <c r="K151" s="3">
+        <f t="shared" si="32"/>
+        <v>22749</v>
+      </c>
+      <c r="L151" s="3">
+        <f t="shared" si="32"/>
+        <v>22012</v>
+      </c>
+      <c r="M151" s="3">
+        <f t="shared" si="32"/>
+        <v>21151</v>
+      </c>
+      <c r="N151" s="3">
+        <f t="shared" si="32"/>
+        <v>19945</v>
+      </c>
+      <c r="O151" s="3">
+        <f t="shared" si="32"/>
+        <v>19615</v>
+      </c>
+      <c r="P151" s="3">
+        <f t="shared" si="32"/>
+        <v>18972</v>
+      </c>
+      <c r="Q151" s="3">
+        <f t="shared" si="32"/>
+        <v>19270</v>
+      </c>
+      <c r="R151" s="3">
+        <f t="shared" si="32"/>
+        <v>19133</v>
+      </c>
+      <c r="S151" s="3">
+        <f t="shared" si="32"/>
+        <v>18986</v>
+      </c>
+      <c r="T151" s="3">
+        <f t="shared" si="32"/>
+        <v>18953</v>
+      </c>
+      <c r="U151" s="3">
+        <f t="shared" si="32"/>
+        <v>19184</v>
+      </c>
+      <c r="V151" s="3">
+        <f t="shared" si="32"/>
+        <v>19739</v>
+      </c>
+      <c r="W151" s="3">
+        <f t="shared" si="32"/>
+        <v>19439</v>
+      </c>
+      <c r="X151" s="3">
+        <f t="shared" si="32"/>
+        <v>18053</v>
+      </c>
+      <c r="Y151" s="3">
+        <f t="shared" si="32"/>
+        <v>17649</v>
+      </c>
+      <c r="Z151" s="3">
+        <f t="shared" si="32"/>
+        <v>17305</v>
+      </c>
+      <c r="AA151" s="3">
+        <f t="shared" si="32"/>
+        <v>16556</v>
+      </c>
+      <c r="AB151" s="3">
+        <f t="shared" si="32"/>
+        <v>15838</v>
+      </c>
+      <c r="AC151" s="3">
+        <f t="shared" si="32"/>
+        <v>15091</v>
+      </c>
+      <c r="AD151" s="3">
+        <f t="shared" si="32"/>
+        <v>13818</v>
+      </c>
+      <c r="AE151" s="3">
+        <f t="shared" si="32"/>
+        <v>12841</v>
+      </c>
+      <c r="AF151" s="3">
+        <f t="shared" si="32"/>
+        <v>12247</v>
+      </c>
+      <c r="AG151" s="3">
+        <f t="shared" si="32"/>
+        <v>11641</v>
+      </c>
+      <c r="AH151" s="1"/>
+      <c r="AI151" s="1"/>
+    </row>
+    <row r="152" spans="1:35">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="3">
+        <v>232132</v>
+      </c>
+      <c r="E152" s="3">
+        <v>5592</v>
+      </c>
+      <c r="F152" s="3">
+        <v>12805</v>
+      </c>
+      <c r="G152" s="3">
+        <v>12873</v>
+      </c>
+      <c r="H152" s="3">
+        <v>12096</v>
+      </c>
+      <c r="I152" s="3">
+        <v>12252</v>
+      </c>
+      <c r="J152" s="3">
+        <v>11181</v>
+      </c>
+      <c r="K152" s="3">
+        <v>10681</v>
+      </c>
+      <c r="L152" s="3">
+        <v>10318</v>
+      </c>
+      <c r="M152" s="3">
+        <v>9962</v>
+      </c>
+      <c r="N152" s="3">
+        <v>9339</v>
+      </c>
+      <c r="O152" s="3">
+        <v>9198</v>
+      </c>
+      <c r="P152" s="3">
+        <v>8804</v>
+      </c>
+      <c r="Q152" s="3">
+        <v>9093</v>
+      </c>
+      <c r="R152" s="3">
+        <v>8999</v>
+      </c>
+      <c r="S152" s="3">
+        <v>8925</v>
+      </c>
+      <c r="T152" s="3">
+        <v>8742</v>
+      </c>
+      <c r="U152" s="3">
+        <v>9109</v>
+      </c>
+      <c r="V152" s="3">
+        <v>9217</v>
+      </c>
+      <c r="W152" s="3">
+        <v>9131</v>
+      </c>
+      <c r="X152" s="3">
+        <v>8525</v>
+      </c>
+      <c r="Y152" s="3">
+        <v>8445</v>
+      </c>
+      <c r="Z152" s="3">
+        <v>8175</v>
+      </c>
+      <c r="AA152" s="3">
+        <v>7759</v>
+      </c>
+      <c r="AB152" s="3">
+        <v>7474</v>
+      </c>
+      <c r="AC152" s="3">
+        <v>6915</v>
+      </c>
+      <c r="AD152" s="3">
+        <v>6442</v>
+      </c>
+      <c r="AE152" s="3">
+        <v>5915</v>
+      </c>
+      <c r="AF152" s="3">
+        <v>5641</v>
+      </c>
+      <c r="AG152" s="3">
+        <v>5396</v>
+      </c>
+      <c r="AH152" s="1"/>
+      <c r="AI152" s="1"/>
+    </row>
+    <row r="153" spans="1:35">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="3">
+        <v>172798</v>
+      </c>
+      <c r="E153" s="3">
+        <v>3861</v>
+      </c>
+      <c r="F153" s="3">
+        <v>9076</v>
+      </c>
+      <c r="G153" s="3">
+        <v>9011</v>
+      </c>
+      <c r="H153" s="3">
+        <v>8828</v>
+      </c>
+      <c r="I153" s="3">
+        <v>8846</v>
+      </c>
+      <c r="J153" s="3">
+        <v>8043</v>
+      </c>
+      <c r="K153" s="3">
+        <v>7862</v>
+      </c>
+      <c r="L153" s="3">
+        <v>7686</v>
+      </c>
+      <c r="M153" s="3">
+        <v>7191</v>
+      </c>
+      <c r="N153" s="3">
+        <v>7015</v>
+      </c>
+      <c r="O153" s="3">
+        <v>6857</v>
+      </c>
+      <c r="P153" s="3">
+        <v>6700</v>
+      </c>
+      <c r="Q153" s="3">
+        <v>6679</v>
+      </c>
+      <c r="R153" s="3">
+        <v>6523</v>
+      </c>
+      <c r="S153" s="3">
+        <v>6643</v>
+      </c>
+      <c r="T153" s="3">
+        <v>6632</v>
+      </c>
+      <c r="U153" s="3">
+        <v>6598</v>
+      </c>
+      <c r="V153" s="3">
+        <v>6871</v>
+      </c>
+      <c r="W153" s="3">
+        <v>6754</v>
+      </c>
+      <c r="X153" s="3">
+        <v>6270</v>
+      </c>
+      <c r="Y153" s="3">
+        <v>6077</v>
+      </c>
+      <c r="Z153" s="3">
+        <v>6029</v>
+      </c>
+      <c r="AA153" s="3">
+        <v>5850</v>
+      </c>
+      <c r="AB153" s="3">
+        <v>5595</v>
+      </c>
+      <c r="AC153" s="3">
+        <v>5328</v>
+      </c>
+      <c r="AD153" s="3">
+        <v>4906</v>
+      </c>
+      <c r="AE153" s="3">
+        <v>4642</v>
+      </c>
+      <c r="AF153" s="3">
+        <v>4540</v>
+      </c>
+      <c r="AG153" s="3">
+        <v>4194</v>
+      </c>
+      <c r="AH153" s="1"/>
+      <c r="AI153" s="1"/>
+    </row>
+    <row r="154" spans="1:35">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="3">
+        <v>69674</v>
+      </c>
+      <c r="E154" s="3">
+        <v>1744</v>
+      </c>
+      <c r="F154" s="3">
+        <v>4028</v>
+      </c>
+      <c r="G154" s="3">
+        <v>3991</v>
+      </c>
+      <c r="H154" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I154" s="3">
+        <v>3711</v>
+      </c>
+      <c r="J154" s="3">
+        <v>3556</v>
+      </c>
+      <c r="K154" s="3">
+        <v>3209</v>
+      </c>
+      <c r="L154" s="3">
+        <v>3097</v>
+      </c>
+      <c r="M154" s="3">
+        <v>2986</v>
+      </c>
+      <c r="N154" s="3">
+        <v>2753</v>
+      </c>
+      <c r="O154" s="3">
+        <v>2696</v>
+      </c>
+      <c r="P154" s="3">
+        <v>2585</v>
+      </c>
+      <c r="Q154" s="3">
+        <v>2621</v>
+      </c>
+      <c r="R154" s="3">
+        <v>2744</v>
+      </c>
+      <c r="S154" s="3">
+        <v>2590</v>
+      </c>
+      <c r="T154" s="3">
+        <v>2751</v>
+      </c>
+      <c r="U154" s="3">
+        <v>2615</v>
+      </c>
+      <c r="V154" s="3">
+        <v>2765</v>
+      </c>
+      <c r="W154" s="3">
+        <v>2741</v>
+      </c>
+      <c r="X154" s="3">
+        <v>2522</v>
+      </c>
+      <c r="Y154" s="3">
+        <v>2415</v>
+      </c>
+      <c r="Z154" s="3">
+        <v>2371</v>
+      </c>
+      <c r="AA154" s="3">
+        <v>2252</v>
+      </c>
+      <c r="AB154" s="3">
+        <v>2127</v>
+      </c>
+      <c r="AC154" s="3">
+        <v>2154</v>
+      </c>
+      <c r="AD154" s="3">
+        <v>1896</v>
+      </c>
+      <c r="AE154" s="3">
+        <v>1742</v>
+      </c>
+      <c r="AF154" s="3">
+        <v>1544</v>
+      </c>
+      <c r="AG154" s="3">
+        <v>1529</v>
+      </c>
+      <c r="AH154" s="1"/>
+      <c r="AI154" s="1"/>
+    </row>
+    <row r="155" spans="1:35">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="1"/>
+      <c r="D155" s="3">
+        <v>21768</v>
+      </c>
+      <c r="E155" s="1">
+        <v>492</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1190</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1101</v>
+      </c>
+      <c r="H155" s="3">
+        <v>1084</v>
+      </c>
+      <c r="I155" s="3">
+        <v>1221</v>
+      </c>
+      <c r="J155" s="3">
+        <v>1070</v>
+      </c>
+      <c r="K155" s="1">
+        <v>997</v>
+      </c>
+      <c r="L155" s="1">
+        <v>911</v>
+      </c>
+      <c r="M155" s="3">
+        <v>1012</v>
+      </c>
+      <c r="N155" s="1">
+        <v>838</v>
+      </c>
+      <c r="O155" s="1">
+        <v>864</v>
+      </c>
+      <c r="P155" s="1">
+        <v>883</v>
+      </c>
+      <c r="Q155" s="1">
+        <v>877</v>
+      </c>
+      <c r="R155" s="1">
+        <v>867</v>
+      </c>
+      <c r="S155" s="1">
+        <v>828</v>
+      </c>
+      <c r="T155" s="1">
+        <v>828</v>
+      </c>
+      <c r="U155" s="1">
+        <v>862</v>
+      </c>
+      <c r="V155" s="1">
+        <v>886</v>
+      </c>
+      <c r="W155" s="1">
+        <v>813</v>
+      </c>
+      <c r="X155" s="1">
+        <v>736</v>
+      </c>
+      <c r="Y155" s="1">
+        <v>712</v>
+      </c>
+      <c r="Z155" s="1">
+        <v>730</v>
+      </c>
+      <c r="AA155" s="1">
+        <v>695</v>
+      </c>
+      <c r="AB155" s="1">
+        <v>642</v>
+      </c>
+      <c r="AC155" s="1">
+        <v>694</v>
+      </c>
+      <c r="AD155" s="1">
+        <v>574</v>
+      </c>
+      <c r="AE155" s="1">
+        <v>542</v>
+      </c>
+      <c r="AF155" s="1">
+        <v>522</v>
+      </c>
+      <c r="AG155" s="1">
+        <v>522</v>
+      </c>
+      <c r="AH155" s="1"/>
+      <c r="AI155" s="1"/>
+    </row>
+    <row r="156" spans="1:35">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1">
+        <f>D158+D157+D159+D160</f>
+        <v>995</v>
+      </c>
+      <c r="E156" s="1">
+        <f t="shared" ref="E156:AG156" si="33">E158+E157+E159+E160</f>
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G156" s="1">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="H156" s="1">
+        <f t="shared" si="33"/>
+        <v>11</v>
+      </c>
+      <c r="I156" s="1">
+        <f t="shared" si="33"/>
+        <v>17</v>
+      </c>
+      <c r="J156" s="1">
+        <f t="shared" si="33"/>
+        <v>10</v>
+      </c>
+      <c r="K156" s="1">
+        <f t="shared" si="33"/>
+        <v>12</v>
+      </c>
+      <c r="L156" s="1">
+        <f t="shared" si="33"/>
+        <v>17</v>
+      </c>
+      <c r="M156" s="1">
+        <f t="shared" si="33"/>
+        <v>15</v>
+      </c>
+      <c r="N156" s="1">
+        <f t="shared" si="33"/>
+        <v>22</v>
+      </c>
+      <c r="O156" s="1">
+        <f t="shared" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="P156" s="1">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="Q156" s="1">
+        <f t="shared" si="33"/>
+        <v>40</v>
+      </c>
+      <c r="R156" s="1">
+        <f t="shared" si="33"/>
+        <v>44</v>
+      </c>
+      <c r="S156" s="1">
+        <f t="shared" si="33"/>
+        <v>37</v>
+      </c>
+      <c r="T156" s="1">
+        <f t="shared" si="33"/>
+        <v>43</v>
+      </c>
+      <c r="U156" s="1">
+        <f t="shared" si="33"/>
+        <v>57</v>
+      </c>
+      <c r="V156" s="1">
+        <f t="shared" si="33"/>
+        <v>55</v>
+      </c>
+      <c r="W156" s="1">
+        <f t="shared" si="33"/>
+        <v>64</v>
+      </c>
+      <c r="X156" s="1">
+        <f t="shared" si="33"/>
+        <v>36</v>
+      </c>
+      <c r="Y156" s="1">
+        <f t="shared" si="33"/>
+        <v>51</v>
+      </c>
+      <c r="Z156" s="1">
+        <f t="shared" si="33"/>
+        <v>39</v>
+      </c>
+      <c r="AA156" s="1">
+        <f t="shared" si="33"/>
+        <v>53</v>
+      </c>
+      <c r="AB156" s="1">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="AC156" s="1">
+        <f t="shared" si="33"/>
+        <v>68</v>
+      </c>
+      <c r="AD156" s="1">
+        <f t="shared" si="33"/>
+        <v>50</v>
+      </c>
+      <c r="AE156" s="1">
+        <f t="shared" si="33"/>
+        <v>59</v>
+      </c>
+      <c r="AF156" s="1">
+        <f t="shared" si="33"/>
+        <v>54</v>
+      </c>
+      <c r="AG156" s="1">
+        <f t="shared" si="33"/>
+        <v>71</v>
+      </c>
+      <c r="AH156" s="1"/>
+      <c r="AI156" s="1"/>
+    </row>
+    <row r="157" spans="1:35">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1">
+        <v>491</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>4</v>
+      </c>
+      <c r="I157" s="1">
+        <v>7</v>
+      </c>
+      <c r="J157" s="1">
+        <v>5</v>
+      </c>
+      <c r="K157" s="1">
+        <v>7</v>
+      </c>
+      <c r="L157" s="1">
+        <v>12</v>
+      </c>
+      <c r="M157" s="1">
+        <v>6</v>
+      </c>
+      <c r="N157" s="1">
+        <v>8</v>
+      </c>
+      <c r="O157" s="1">
+        <v>13</v>
+      </c>
+      <c r="P157" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q157" s="1">
+        <v>22</v>
+      </c>
+      <c r="R157" s="1">
+        <v>19</v>
+      </c>
+      <c r="S157" s="1">
+        <v>25</v>
+      </c>
+      <c r="T157" s="1">
+        <v>20</v>
+      </c>
+      <c r="U157" s="1">
+        <v>31</v>
+      </c>
+      <c r="V157" s="1">
+        <v>23</v>
+      </c>
+      <c r="W157" s="1">
+        <v>28</v>
+      </c>
+      <c r="X157" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y157" s="1">
+        <v>26</v>
+      </c>
+      <c r="Z157" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA157" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB157" s="1">
+        <v>34</v>
+      </c>
+      <c r="AC157" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD157" s="1">
+        <v>31</v>
+      </c>
+      <c r="AE157" s="1">
+        <v>27</v>
+      </c>
+      <c r="AF157" s="1">
+        <v>25</v>
+      </c>
+      <c r="AG157" s="1">
+        <v>34</v>
+      </c>
+      <c r="AH157" s="1"/>
+      <c r="AI157" s="1"/>
+    </row>
+    <row r="158" spans="1:35">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1">
+        <v>291</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1">
+        <v>0</v>
+      </c>
+      <c r="H158" s="1">
+        <v>4</v>
+      </c>
+      <c r="I158" s="1">
+        <v>5</v>
+      </c>
+      <c r="J158" s="1">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1">
+        <v>3</v>
+      </c>
+      <c r="L158" s="1">
+        <v>1</v>
+      </c>
+      <c r="M158" s="1">
+        <v>5</v>
+      </c>
+      <c r="N158" s="1">
+        <v>7</v>
+      </c>
+      <c r="O158" s="1">
+        <v>5</v>
+      </c>
+      <c r="P158" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q158" s="1">
+        <v>11</v>
+      </c>
+      <c r="R158" s="1">
+        <v>11</v>
+      </c>
+      <c r="S158" s="1">
+        <v>5</v>
+      </c>
+      <c r="T158" s="1">
+        <v>14</v>
+      </c>
+      <c r="U158" s="1">
+        <v>16</v>
+      </c>
+      <c r="V158" s="1">
+        <v>18</v>
+      </c>
+      <c r="W158" s="1">
+        <v>22</v>
+      </c>
+      <c r="X158" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y158" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z158" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA158" s="1">
+        <v>11</v>
+      </c>
+      <c r="AB158" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC158" s="1">
+        <v>21</v>
+      </c>
+      <c r="AD158" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE158" s="1">
+        <v>24</v>
+      </c>
+      <c r="AF158" s="1">
+        <v>23</v>
+      </c>
+      <c r="AG158" s="1">
+        <v>21</v>
+      </c>
+      <c r="AH158" s="1"/>
+      <c r="AI158" s="1"/>
+    </row>
+    <row r="159" spans="1:35">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1">
+        <v>177</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1">
+        <v>1</v>
+      </c>
+      <c r="H159" s="1">
+        <v>3</v>
+      </c>
+      <c r="I159" s="1">
+        <v>2</v>
+      </c>
+      <c r="J159" s="1">
+        <v>4</v>
+      </c>
+      <c r="K159" s="1">
+        <v>1</v>
+      </c>
+      <c r="L159" s="1">
+        <v>3</v>
+      </c>
+      <c r="M159" s="1">
+        <v>4</v>
+      </c>
+      <c r="N159" s="1">
+        <v>6</v>
+      </c>
+      <c r="O159" s="1">
+        <v>5</v>
+      </c>
+      <c r="P159" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>5</v>
+      </c>
+      <c r="R159" s="1">
+        <v>13</v>
+      </c>
+      <c r="S159" s="1">
+        <v>5</v>
+      </c>
+      <c r="T159" s="1">
+        <v>6</v>
+      </c>
+      <c r="U159" s="1">
+        <v>10</v>
+      </c>
+      <c r="V159" s="1">
+        <v>10</v>
+      </c>
+      <c r="W159" s="1">
+        <v>13</v>
+      </c>
+      <c r="X159" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y159" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z159" s="1">
+        <v>8</v>
+      </c>
+      <c r="AA159" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>7</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD159" s="1">
+        <v>9</v>
+      </c>
+      <c r="AE159" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF159" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG159" s="1">
+        <v>16</v>
+      </c>
+      <c r="AH159" s="1"/>
+      <c r="AI159" s="1"/>
+    </row>
+    <row r="160" spans="1:35">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1">
+        <v>36</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>3</v>
+      </c>
+      <c r="J160" s="1">
+        <v>1</v>
+      </c>
+      <c r="K160" s="1">
+        <v>1</v>
+      </c>
+      <c r="L160" s="1">
+        <v>1</v>
+      </c>
+      <c r="M160" s="1">
+        <v>0</v>
+      </c>
+      <c r="N160" s="1">
+        <v>1</v>
+      </c>
+      <c r="O160" s="1">
+        <v>2</v>
+      </c>
+      <c r="P160" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>2</v>
+      </c>
+      <c r="R160" s="1">
+        <v>1</v>
+      </c>
+      <c r="S160" s="1">
+        <v>2</v>
+      </c>
+      <c r="T160" s="1">
+        <v>3</v>
+      </c>
+      <c r="U160" s="1">
+        <v>0</v>
+      </c>
+      <c r="V160" s="1">
+        <v>4</v>
+      </c>
+      <c r="W160" s="1">
+        <v>1</v>
+      </c>
+      <c r="X160" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y160" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z160" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB160" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF160" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG160" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH160" s="1"/>
+      <c r="AI160" s="1"/>
+    </row>
+    <row r="161" spans="1:35">
+      <c r="A161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1">
+        <f>D162+D163+D164+D165</f>
+        <v>480</v>
+      </c>
+      <c r="E161" s="1">
+        <f t="shared" ref="E161:AG161" si="34">E162+E163+E164+E165</f>
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G161" s="1">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H161" s="1">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="I161" s="1">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="J161" s="1">
+        <f t="shared" si="34"/>
+        <v>5</v>
+      </c>
+      <c r="K161" s="1">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+      <c r="L161" s="1">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="M161" s="1">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="N161" s="1">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="O161" s="1">
+        <f t="shared" si="34"/>
+        <v>7</v>
+      </c>
+      <c r="P161" s="1">
+        <f t="shared" si="34"/>
+        <v>10</v>
+      </c>
+      <c r="Q161" s="1">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="R161" s="1">
+        <f t="shared" si="34"/>
+        <v>11</v>
+      </c>
+      <c r="S161" s="1">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="T161" s="1">
+        <f t="shared" si="34"/>
+        <v>19</v>
+      </c>
+      <c r="U161" s="1">
+        <f t="shared" si="34"/>
+        <v>26</v>
+      </c>
+      <c r="V161" s="1">
+        <f t="shared" si="34"/>
+        <v>24</v>
+      </c>
+      <c r="W161" s="1">
+        <f t="shared" si="34"/>
+        <v>31</v>
+      </c>
+      <c r="X161" s="1">
+        <f t="shared" si="34"/>
+        <v>36</v>
+      </c>
+      <c r="Y161" s="1">
+        <f t="shared" si="34"/>
+        <v>39</v>
+      </c>
+      <c r="Z161" s="1">
+        <f t="shared" si="34"/>
+        <v>44</v>
+      </c>
+      <c r="AA161" s="1">
+        <f t="shared" si="34"/>
+        <v>27</v>
+      </c>
+      <c r="AB161" s="1">
+        <f t="shared" si="34"/>
+        <v>33</v>
+      </c>
+      <c r="AC161" s="1">
+        <f t="shared" si="34"/>
+        <v>26</v>
+      </c>
+      <c r="AD161" s="1">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="AE161" s="1">
+        <f t="shared" si="34"/>
+        <v>17</v>
+      </c>
+      <c r="AF161" s="1">
+        <f t="shared" si="34"/>
+        <v>16</v>
+      </c>
+      <c r="AG161" s="1">
+        <f t="shared" si="34"/>
+        <v>27</v>
+      </c>
+      <c r="AH161" s="1"/>
+      <c r="AI161" s="1"/>
+    </row>
+    <row r="162" spans="1:35">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1">
+        <v>246</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1">
+        <v>0</v>
+      </c>
+      <c r="H162" s="1">
+        <v>2</v>
+      </c>
+      <c r="I162" s="1">
+        <v>1</v>
+      </c>
+      <c r="J162" s="1">
+        <v>3</v>
+      </c>
+      <c r="K162" s="1">
+        <v>1</v>
+      </c>
+      <c r="L162" s="1">
+        <v>5</v>
+      </c>
+      <c r="M162" s="1">
+        <v>4</v>
+      </c>
+      <c r="N162" s="1">
+        <v>6</v>
+      </c>
+      <c r="O162" s="1">
+        <v>4</v>
+      </c>
+      <c r="P162" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q162" s="1">
+        <v>6</v>
+      </c>
+      <c r="R162" s="1">
+        <v>1</v>
+      </c>
+      <c r="S162" s="1">
+        <v>15</v>
+      </c>
+      <c r="T162" s="1">
+        <v>12</v>
+      </c>
+      <c r="U162" s="1">
+        <v>14</v>
+      </c>
+      <c r="V162" s="1">
+        <v>7</v>
+      </c>
+      <c r="W162" s="1">
+        <v>13</v>
+      </c>
+      <c r="X162" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y162" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z162" s="1">
+        <v>19</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>14</v>
+      </c>
+      <c r="AB162" s="1">
+        <v>18</v>
+      </c>
+      <c r="AC162" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD162" s="1">
+        <v>13</v>
+      </c>
+      <c r="AE162" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF162" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG162" s="1">
+        <v>15</v>
+      </c>
+      <c r="AH162" s="1"/>
+      <c r="AI162" s="1"/>
+    </row>
+    <row r="163" spans="1:35">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1">
+        <v>164</v>
+      </c>
+      <c r="E163" s="1">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
+      <c r="H163" s="1">
+        <v>1</v>
+      </c>
+      <c r="I163" s="1">
+        <v>2</v>
+      </c>
+      <c r="J163" s="1">
+        <v>2</v>
+      </c>
+      <c r="K163" s="1">
+        <v>1</v>
+      </c>
+      <c r="L163" s="1">
+        <v>2</v>
+      </c>
+      <c r="M163" s="1">
+        <v>0</v>
+      </c>
+      <c r="N163" s="1">
+        <v>3</v>
+      </c>
+      <c r="O163" s="1">
+        <v>2</v>
+      </c>
+      <c r="P163" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q163" s="1">
+        <v>2</v>
+      </c>
+      <c r="R163" s="1">
+        <v>8</v>
+      </c>
+      <c r="S163" s="1">
+        <v>7</v>
+      </c>
+      <c r="T163" s="1">
+        <v>5</v>
+      </c>
+      <c r="U163" s="1">
+        <v>8</v>
+      </c>
+      <c r="V163" s="1">
+        <v>12</v>
+      </c>
+      <c r="W163" s="1">
+        <v>11</v>
+      </c>
+      <c r="X163" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y163" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z163" s="1">
+        <v>20</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>10</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>14</v>
+      </c>
+      <c r="AC163" s="1">
+        <v>8</v>
+      </c>
+      <c r="AD163" s="1">
+        <v>6</v>
+      </c>
+      <c r="AE163" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF163" s="1">
+        <v>6</v>
+      </c>
+      <c r="AG163" s="1">
+        <v>6</v>
+      </c>
+      <c r="AH163" s="1"/>
+      <c r="AI163" s="1"/>
+    </row>
+    <row r="164" spans="1:35">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1">
+        <v>58</v>
+      </c>
+      <c r="E164" s="1">
+        <v>0</v>
+      </c>
+      <c r="F164" s="1">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
+      <c r="H164" s="1">
+        <v>0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1">
+        <v>0</v>
+      </c>
+      <c r="K164" s="1">
+        <v>1</v>
+      </c>
+      <c r="L164" s="1">
+        <v>2</v>
+      </c>
+      <c r="M164" s="1">
+        <v>0</v>
+      </c>
+      <c r="N164" s="1">
+        <v>0</v>
+      </c>
+      <c r="O164" s="1">
+        <v>1</v>
+      </c>
+      <c r="P164" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="1">
+        <v>1</v>
+      </c>
+      <c r="R164" s="1">
+        <v>2</v>
+      </c>
+      <c r="S164" s="1">
+        <v>2</v>
+      </c>
+      <c r="T164" s="1">
+        <v>2</v>
+      </c>
+      <c r="U164" s="1">
+        <v>4</v>
+      </c>
+      <c r="V164" s="1">
+        <v>4</v>
+      </c>
+      <c r="W164" s="1">
+        <v>6</v>
+      </c>
+      <c r="X164" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y164" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z164" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA164" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB164" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD164" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE164" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF164" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG164" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH164" s="1"/>
+      <c r="AI164" s="1"/>
+    </row>
+    <row r="165" spans="1:35">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1">
+        <v>12</v>
+      </c>
+      <c r="E165" s="1">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1">
+        <v>0</v>
+      </c>
+      <c r="H165" s="1">
+        <v>0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0</v>
+      </c>
+      <c r="K165" s="1">
+        <v>0</v>
+      </c>
+      <c r="L165" s="1">
+        <v>1</v>
+      </c>
+      <c r="M165" s="1">
+        <v>0</v>
+      </c>
+      <c r="N165" s="1">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="1">
+        <v>0</v>
+      </c>
+      <c r="R165" s="1">
+        <v>0</v>
+      </c>
+      <c r="S165" s="1">
+        <v>0</v>
+      </c>
+      <c r="T165" s="1">
+        <v>0</v>
+      </c>
+      <c r="U165" s="1">
+        <v>0</v>
+      </c>
+      <c r="V165" s="1">
+        <v>1</v>
+      </c>
+      <c r="W165" s="1">
+        <v>1</v>
+      </c>
+      <c r="X165" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y165" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z165" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD165" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE165" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF165" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH165" s="1"/>
+      <c r="AI165" s="1"/>
+    </row>
+    <row r="166" spans="1:35">
+      <c r="A166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="3">
+        <f>D167+D168+D169+D170</f>
+        <v>217219</v>
+      </c>
+      <c r="E166" s="3">
+        <f t="shared" ref="E166:AG166" si="35">E167+E168+E169+E170</f>
+        <v>6438</v>
+      </c>
+      <c r="F166" s="3">
+        <f t="shared" si="35"/>
+        <v>14253</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="35"/>
+        <v>13027</v>
+      </c>
+      <c r="H166" s="3">
+        <f t="shared" si="35"/>
+        <v>12413</v>
+      </c>
+      <c r="I166" s="3">
+        <f t="shared" si="35"/>
+        <v>13334</v>
+      </c>
+      <c r="J166" s="3">
+        <f t="shared" si="35"/>
+        <v>13853</v>
+      </c>
+      <c r="K166" s="3">
+        <f t="shared" si="35"/>
+        <v>14119</v>
+      </c>
+      <c r="L166" s="3">
+        <f t="shared" si="35"/>
+        <v>14301</v>
+      </c>
+      <c r="M166" s="3">
+        <f t="shared" si="35"/>
+        <v>13844</v>
+      </c>
+      <c r="N166" s="3">
+        <f t="shared" si="35"/>
+        <v>12377</v>
+      </c>
+      <c r="O166" s="3">
+        <f t="shared" si="35"/>
+        <v>11162</v>
+      </c>
+      <c r="P166" s="3">
+        <f t="shared" si="35"/>
+        <v>10689</v>
+      </c>
+      <c r="Q166" s="3">
+        <f t="shared" si="35"/>
+        <v>10177</v>
+      </c>
+      <c r="R166" s="3">
+        <f t="shared" si="35"/>
+        <v>9349</v>
+      </c>
+      <c r="S166" s="3">
+        <f t="shared" si="35"/>
+        <v>8736</v>
+      </c>
+      <c r="T166" s="3">
+        <f t="shared" si="35"/>
+        <v>8429</v>
+      </c>
+      <c r="U166" s="3">
+        <f t="shared" si="35"/>
+        <v>7209</v>
+      </c>
+      <c r="V166" s="3">
+        <f t="shared" si="35"/>
+        <v>6067</v>
+      </c>
+      <c r="W166" s="3">
+        <f t="shared" si="35"/>
+        <v>5110</v>
+      </c>
+      <c r="X166" s="3">
+        <f t="shared" si="35"/>
+        <v>4172</v>
+      </c>
+      <c r="Y166" s="3">
+        <f t="shared" si="35"/>
+        <v>3071</v>
+      </c>
+      <c r="Z166" s="3">
+        <f t="shared" si="35"/>
+        <v>2980</v>
+      </c>
+      <c r="AA166" s="3">
+        <f t="shared" si="35"/>
+        <v>2480</v>
+      </c>
+      <c r="AB166" s="3">
+        <f t="shared" si="35"/>
+        <v>2598</v>
+      </c>
+      <c r="AC166" s="3">
+        <f t="shared" si="35"/>
+        <v>2170</v>
+      </c>
+      <c r="AD166" s="3">
+        <f t="shared" si="35"/>
+        <v>1902</v>
+      </c>
+      <c r="AE166" s="3">
+        <f t="shared" si="35"/>
+        <v>1831</v>
+      </c>
+      <c r="AF166" s="3">
+        <f t="shared" si="35"/>
+        <v>1758</v>
+      </c>
+      <c r="AG166" s="3">
+        <f t="shared" si="35"/>
+        <v>1923</v>
+      </c>
+      <c r="AH166" s="1"/>
+      <c r="AI166" s="1"/>
+    </row>
+    <row r="167" spans="1:35">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="1"/>
+      <c r="D167" s="3">
+        <v>108895</v>
+      </c>
+      <c r="E167" s="3">
+        <v>3262</v>
+      </c>
+      <c r="F167" s="3">
+        <v>7187</v>
+      </c>
+      <c r="G167" s="3">
+        <v>6571</v>
+      </c>
+      <c r="H167" s="3">
+        <v>6321</v>
+      </c>
+      <c r="I167" s="3">
+        <v>6751</v>
+      </c>
+      <c r="J167" s="3">
+        <v>6985</v>
+      </c>
+      <c r="K167" s="3">
+        <v>7119</v>
+      </c>
+      <c r="L167" s="3">
+        <v>7229</v>
+      </c>
+      <c r="M167" s="3">
+        <v>6914</v>
+      </c>
+      <c r="N167" s="3">
+        <v>6153</v>
+      </c>
+      <c r="O167" s="3">
+        <v>5546</v>
+      </c>
+      <c r="P167" s="3">
+        <v>5303</v>
+      </c>
+      <c r="Q167" s="3">
+        <v>4988</v>
+      </c>
+      <c r="R167" s="3">
+        <v>4719</v>
+      </c>
+      <c r="S167" s="3">
+        <v>4434</v>
+      </c>
+      <c r="T167" s="3">
+        <v>4279</v>
+      </c>
+      <c r="U167" s="3">
+        <v>3605</v>
+      </c>
+      <c r="V167" s="3">
+        <v>3065</v>
+      </c>
+      <c r="W167" s="3">
+        <v>2547</v>
+      </c>
+      <c r="X167" s="3">
+        <v>2127</v>
+      </c>
+      <c r="Y167" s="3">
+        <v>1534</v>
+      </c>
+      <c r="Z167" s="3">
+        <v>1488</v>
+      </c>
+      <c r="AA167" s="3">
+        <v>1247</v>
+      </c>
+      <c r="AB167" s="3">
+        <v>1286</v>
+      </c>
+      <c r="AC167" s="3">
+        <v>1091</v>
+      </c>
+      <c r="AD167" s="1">
+        <v>953</v>
+      </c>
+      <c r="AE167" s="1">
+        <v>920</v>
+      </c>
+      <c r="AF167" s="1">
+        <v>847</v>
+      </c>
+      <c r="AG167" s="1">
+        <v>916</v>
+      </c>
+      <c r="AH167" s="1"/>
+      <c r="AI167" s="1"/>
+    </row>
+    <row r="168" spans="1:35">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="1"/>
+      <c r="D168" s="3">
+        <v>68124</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1971</v>
+      </c>
+      <c r="F168" s="3">
+        <v>4308</v>
+      </c>
+      <c r="G168" s="3">
+        <v>4004</v>
+      </c>
+      <c r="H168" s="3">
+        <v>3740</v>
+      </c>
+      <c r="I168" s="3">
+        <v>4081</v>
+      </c>
+      <c r="J168" s="3">
+        <v>4334</v>
+      </c>
+      <c r="K168" s="3">
+        <v>4336</v>
+      </c>
+      <c r="L168" s="3">
+        <v>4486</v>
+      </c>
+      <c r="M168" s="3">
+        <v>4361</v>
+      </c>
+      <c r="N168" s="3">
+        <v>3938</v>
+      </c>
+      <c r="O168" s="3">
+        <v>3536</v>
+      </c>
+      <c r="P168" s="3">
+        <v>3366</v>
+      </c>
+      <c r="Q168" s="3">
+        <v>3309</v>
+      </c>
+      <c r="R168" s="3">
+        <v>2915</v>
+      </c>
+      <c r="S168" s="3">
+        <v>2719</v>
+      </c>
+      <c r="T168" s="3">
+        <v>2587</v>
+      </c>
+      <c r="U168" s="3">
+        <v>2233</v>
+      </c>
+      <c r="V168" s="3">
+        <v>1890</v>
+      </c>
+      <c r="W168" s="3">
+        <v>1602</v>
+      </c>
+      <c r="X168" s="3">
+        <v>1278</v>
+      </c>
+      <c r="Y168" s="1">
+        <v>954</v>
+      </c>
+      <c r="Z168" s="1">
+        <v>932</v>
+      </c>
+      <c r="AA168" s="1">
+        <v>781</v>
+      </c>
+      <c r="AB168" s="1">
+        <v>835</v>
+      </c>
+      <c r="AC168" s="1">
+        <v>715</v>
+      </c>
+      <c r="AD168" s="1">
+        <v>586</v>
+      </c>
+      <c r="AE168" s="1">
+        <v>588</v>
+      </c>
+      <c r="AF168" s="1">
+        <v>600</v>
+      </c>
+      <c r="AG168" s="1">
+        <v>622</v>
+      </c>
+      <c r="AH168" s="1"/>
+      <c r="AI168" s="1"/>
+    </row>
+    <row r="169" spans="1:35">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="3">
+        <v>33322</v>
+      </c>
+      <c r="E169" s="1">
+        <v>991</v>
+      </c>
+      <c r="F169" s="3">
+        <v>2339</v>
+      </c>
+      <c r="G169" s="3">
+        <v>2044</v>
+      </c>
+      <c r="H169" s="3">
+        <v>1964</v>
+      </c>
+      <c r="I169" s="3">
+        <v>2137</v>
+      </c>
+      <c r="J169" s="3">
+        <v>2124</v>
+      </c>
+      <c r="K169" s="3">
+        <v>2214</v>
+      </c>
+      <c r="L169" s="3">
+        <v>2140</v>
+      </c>
+      <c r="M169" s="3">
+        <v>2116</v>
+      </c>
+      <c r="N169" s="3">
+        <v>1871</v>
+      </c>
+      <c r="O169" s="3">
+        <v>1699</v>
+      </c>
+      <c r="P169" s="3">
+        <v>1663</v>
+      </c>
+      <c r="Q169" s="3">
+        <v>1564</v>
+      </c>
+      <c r="R169" s="3">
+        <v>1416</v>
+      </c>
+      <c r="S169" s="3">
+        <v>1301</v>
+      </c>
+      <c r="T169" s="3">
+        <v>1301</v>
+      </c>
+      <c r="U169" s="3">
+        <v>1142</v>
+      </c>
+      <c r="V169" s="1">
+        <v>921</v>
+      </c>
+      <c r="W169" s="1">
+        <v>802</v>
+      </c>
+      <c r="X169" s="1">
+        <v>627</v>
+      </c>
+      <c r="Y169" s="1">
+        <v>491</v>
+      </c>
+      <c r="Z169" s="1">
+        <v>481</v>
+      </c>
+      <c r="AA169" s="1">
+        <v>387</v>
+      </c>
+      <c r="AB169" s="1">
+        <v>402</v>
+      </c>
+      <c r="AC169" s="1">
+        <v>305</v>
+      </c>
+      <c r="AD169" s="1">
+        <v>308</v>
+      </c>
+      <c r="AE169" s="1">
+        <v>270</v>
+      </c>
+      <c r="AF169" s="1">
+        <v>255</v>
+      </c>
+      <c r="AG169" s="1">
+        <v>310</v>
+      </c>
+      <c r="AH169" s="1"/>
+      <c r="AI169" s="1"/>
+    </row>
+    <row r="170" spans="1:35">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="3">
+        <v>6878</v>
+      </c>
+      <c r="E170" s="1">
+        <v>214</v>
+      </c>
+      <c r="F170" s="1">
+        <v>419</v>
+      </c>
+      <c r="G170" s="1">
+        <v>408</v>
+      </c>
+      <c r="H170" s="1">
+        <v>388</v>
+      </c>
+      <c r="I170" s="1">
+        <v>365</v>
+      </c>
+      <c r="J170" s="1">
+        <v>410</v>
+      </c>
+      <c r="K170" s="1">
+        <v>450</v>
+      </c>
+      <c r="L170" s="1">
+        <v>446</v>
+      </c>
+      <c r="M170" s="1">
+        <v>453</v>
+      </c>
+      <c r="N170" s="1">
+        <v>415</v>
+      </c>
+      <c r="O170" s="1">
+        <v>381</v>
+      </c>
+      <c r="P170" s="1">
+        <v>357</v>
+      </c>
+      <c r="Q170" s="1">
+        <v>316</v>
+      </c>
+      <c r="R170" s="1">
+        <v>299</v>
+      </c>
+      <c r="S170" s="1">
+        <v>282</v>
+      </c>
+      <c r="T170" s="1">
+        <v>262</v>
+      </c>
+      <c r="U170" s="1">
+        <v>229</v>
+      </c>
+      <c r="V170" s="1">
+        <v>191</v>
+      </c>
+      <c r="W170" s="1">
+        <v>159</v>
+      </c>
+      <c r="X170" s="1">
+        <v>140</v>
+      </c>
+      <c r="Y170" s="1">
+        <v>92</v>
+      </c>
+      <c r="Z170" s="1">
+        <v>79</v>
+      </c>
+      <c r="AA170" s="1">
+        <v>65</v>
+      </c>
+      <c r="AB170" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC170" s="1">
+        <v>59</v>
+      </c>
+      <c r="AD170" s="1">
+        <v>55</v>
+      </c>
+      <c r="AE170" s="1">
+        <v>53</v>
+      </c>
+      <c r="AF170" s="1">
+        <v>56</v>
+      </c>
+      <c r="AG170" s="1">
+        <v>75</v>
+      </c>
+      <c r="AH170" s="1"/>
+      <c r="AI170" s="1"/>
+    </row>
+    <row r="171" spans="1:35">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="1"/>
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="1"/>
+      <c r="U171" s="1"/>
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+      <c r="X171" s="1"/>
+      <c r="Y171" s="1"/>
+      <c r="Z171" s="1"/>
+      <c r="AA171" s="1"/>
+      <c r="AB171" s="1"/>
+      <c r="AC171" s="1"/>
+      <c r="AD171" s="1"/>
+      <c r="AE171" s="1"/>
+      <c r="AF171" s="1"/>
+      <c r="AG171" s="1"/>
+      <c r="AH171" s="1"/>
+      <c r="AI171" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A115:B115"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A116:B116"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="K90:L90"/>

--- a/data/Data_Tansplants_US.xlsx
+++ b/data/Data_Tansplants_US.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC02ABC-BECE-4702-A137-88BDA1ABBD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF5F932-9BFF-4885-A88C-3890130FC173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
   <si>
     <t>ORGANI</t>
   </si>
@@ -216,6 +216,9 @@
     <t>TRAPIANTI</t>
   </si>
   <si>
+    <t>NCS</t>
+  </si>
+  <si>
     <t>PROBABILITÀ - USCITE</t>
   </si>
   <si>
@@ -238,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,16 +297,37 @@
       <name val="Liberation Sans"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -383,11 +407,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,16 +466,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -426,37 +520,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -776,10 +844,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO232"/>
+  <dimension ref="A1:AO237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,10 +858,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1629,10 +1697,10 @@
       <c r="AO8" s="1"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -4951,10 +5019,10 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="14"/>
+      <c r="B42" s="22"/>
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
@@ -7565,20 +7633,20 @@
       <c r="AG63" s="5"/>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="22"/>
       <c r="D65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="15" t="s">
+      <c r="I65" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="16"/>
+      <c r="J65" s="17"/>
       <c r="L65" s="2" t="s">
         <v>20</v>
       </c>
@@ -7919,17 +7987,17 @@
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="30"/>
       <c r="I87" t="s">
         <v>23</v>
       </c>
-      <c r="K87" s="17" t="s">
+      <c r="K87" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="17"/>
+      <c r="L87" s="28"/>
       <c r="N87" t="s">
         <v>25</v>
       </c>
@@ -7944,14 +8012,14 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="22"/>
-      <c r="C88" s="13" t="s">
+      <c r="B88" s="25"/>
+      <c r="C88" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="14"/>
+      <c r="D88" s="22"/>
       <c r="I88" s="4">
         <f>D72</f>
         <v>12375</v>
@@ -8577,36 +8645,39 @@
       <c r="AK110" s="5"/>
     </row>
     <row r="112" spans="1:40">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B112" s="16"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="28" t="s">
+      <c r="A113" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B113" s="27"/>
-      <c r="C113" s="25" t="s">
+      <c r="C113" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D113" s="26" t="s">
+      <c r="D113" s="15" t="s">
         <v>59</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F113" s="23" t="s">
+      <c r="F113" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I113" s="15" t="s">
+      <c r="G113" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="J113" s="24"/>
+      <c r="I113" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J113" s="20"/>
       <c r="K113" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L113" s="25" t="s">
+      <c r="L113" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8621,8 +8692,8 @@
         <f>AVERAGE(L138:Q138)</f>
         <v>31352.666666666668</v>
       </c>
-      <c r="D114" s="6">
-        <f>AVERAGE(M204:R204)</f>
+      <c r="D114" s="31">
+        <f>AVERAGE(M206:R206)</f>
         <v>4708</v>
       </c>
       <c r="E114" s="6">
@@ -8633,6 +8704,10 @@
         <f>AVERAGE(M172:R172)</f>
         <v>11706.833333333334</v>
       </c>
+      <c r="G114" s="32">
+        <f>D115+D116+D117</f>
+        <v>4787</v>
+      </c>
       <c r="I114" t="s">
         <v>3</v>
       </c>
@@ -8640,12 +8715,12 @@
         <v>9</v>
       </c>
       <c r="K114">
-        <f>D114/C114</f>
-        <v>0.15016266558931723</v>
+        <f>K118+K122+K126+K130</f>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L114">
-        <f>E114/C114</f>
-        <v>0.47644538476259329</v>
+        <f>L118+L122+L126+L130</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -8653,31 +8728,35 @@
         <v>16</v>
       </c>
       <c r="C115" s="6">
-        <f>(AVERAGE(L153:Q153)+AVERAGE(L158:Q158))/2</f>
-        <v>15.166666666666668</v>
+        <f>SUM(AVERAGE(L153:Q153),AVERAGE(L158:Q158))</f>
+        <v>30.333333333333336</v>
       </c>
       <c r="D115" s="6">
-        <f>(AVERAGE(M218:R218)+AVERAGE(M223:R223))/2</f>
-        <v>1.4166666666666667</v>
+        <f>SUM(AVERAGE(M220:R220),AVERAGE(M225:R225))</f>
+        <v>2.8333333333333335</v>
       </c>
       <c r="E115" s="6">
         <f t="shared" ref="E115:E133" si="30">C115-D115-F115</f>
-        <v>3.3333333333333357</v>
+        <v>6.6666666666666714</v>
       </c>
       <c r="F115" s="6">
-        <f>(AVERAGE(M186:R186)+AVERAGE(M191:R191))/2</f>
-        <v>10.416666666666666</v>
+        <f>SUM(AVERAGE(M186:R186),AVERAGE(M191:R191))</f>
+        <v>20.833333333333332</v>
+      </c>
+      <c r="G115" s="33">
+        <f>SUM(AVERAGE(M220:R220),AVERAGE(M225:R225))</f>
+        <v>2.8333333333333335</v>
       </c>
       <c r="J115" t="s">
         <v>16</v>
       </c>
       <c r="K115">
-        <f>D115/C115</f>
-        <v>9.3406593406593408E-2</v>
+        <f>K119+K123+K127+K131</f>
+        <v>1</v>
       </c>
       <c r="L115">
-        <f t="shared" ref="L115:L133" si="31">E115/C115</f>
-        <v>0.21978021978021992</v>
+        <f>L119+L123+L127+L131</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -8685,31 +8764,35 @@
         <v>17</v>
       </c>
       <c r="C116" s="6">
-        <f>(AVERAGE(L143:Q143)+AVERAGE(L148:Q148))/2</f>
-        <v>10080.416666666666</v>
+        <f>SUM(AVERAGE(L143:Q143),AVERAGE(L148:Q148))</f>
+        <v>20160.833333333332</v>
       </c>
       <c r="D116" s="6">
-        <f>(AVERAGE(M209:R209)+AVERAGE(M213:R213))/2</f>
-        <v>892.66666666666663</v>
+        <f>SUM(AVERAGE(M211:R211),AVERAGE(M215:R215))</f>
+        <v>1785.3333333333333</v>
       </c>
       <c r="E116" s="6">
         <f t="shared" si="30"/>
-        <v>3347.916666666667</v>
+        <v>6695.8333333333339</v>
       </c>
       <c r="F116" s="6">
-        <f>(AVERAGE(M177:R177)+AVERAGE(M181:R181))/2</f>
-        <v>5839.833333333333</v>
+        <f>SUM(AVERAGE(M177:R177),AVERAGE(M181:R181))</f>
+        <v>11679.666666666666</v>
+      </c>
+      <c r="G116" s="33">
+        <f>SUM(AVERAGE(M211:R211),AVERAGE(M215:R215))</f>
+        <v>1785.3333333333333</v>
       </c>
       <c r="J116" t="s">
         <v>17</v>
       </c>
       <c r="K116">
-        <f t="shared" ref="K116:K133" si="32">D116/C116</f>
-        <v>8.855454056958624E-2</v>
+        <f>K120+K124+K128+K132</f>
+        <v>1</v>
       </c>
       <c r="L116">
-        <f t="shared" si="31"/>
-        <v>0.3321208614061919</v>
+        <f>L120+L124+L128+L132</f>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -8721,7 +8804,7 @@
         <v>12091.666666666666</v>
       </c>
       <c r="D117" s="6">
-        <f>AVERAGE(M228:R228)</f>
+        <f>AVERAGE(M230:R230)</f>
         <v>2998.8333333333335</v>
       </c>
       <c r="E117" s="6">
@@ -8732,16 +8815,20 @@
         <f>AVERAGE(M196:R196)</f>
         <v>6.666666666666667</v>
       </c>
+      <c r="G117" s="34">
+        <f>AVERAGE(M230:R230)</f>
+        <v>2998.8333333333335</v>
+      </c>
       <c r="J117" t="s">
         <v>18</v>
       </c>
       <c r="K117">
-        <f t="shared" si="32"/>
-        <v>0.2480082701585114</v>
+        <f>K121+K125+K129+K133</f>
+        <v>1</v>
       </c>
       <c r="L117">
-        <f t="shared" si="31"/>
-        <v>0.75144038594073048</v>
+        <f>L121+L125+L129+L133</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -8756,17 +8843,18 @@
         <v>15034.5</v>
       </c>
       <c r="D118" s="6">
-        <f>AVERAGE(M205:R205)</f>
+        <f>AVERAGE(M207:R207)</f>
         <v>2431.6666666666665</v>
       </c>
       <c r="E118" s="6">
-        <f t="shared" si="30"/>
+        <f>C118-D118-F118</f>
         <v>7259.0000000000009</v>
       </c>
       <c r="F118" s="6">
         <f>AVERAGE(M173:R173)</f>
         <v>5343.833333333333</v>
       </c>
+      <c r="G118" s="6"/>
       <c r="I118" t="s">
         <v>4</v>
       </c>
@@ -8774,12 +8862,12 @@
         <v>9</v>
       </c>
       <c r="K118">
-        <f t="shared" si="32"/>
-        <v>0.16173911115545356</v>
+        <f>D118/D114</f>
+        <v>0.51649674313225713</v>
       </c>
       <c r="L118">
-        <f t="shared" si="31"/>
-        <v>0.48282284079949456</v>
+        <f>E118/E114</f>
+        <v>0.4859473149832082</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -8787,31 +8875,31 @@
         <v>16</v>
       </c>
       <c r="C119" s="6">
-        <f>(AVERAGE(L154:Q154)+AVERAGE(L159:Q159))/2</f>
-        <v>8</v>
+        <f>SUM(AVERAGE(L154:Q154),AVERAGE(L159:Q159))</f>
+        <v>16</v>
       </c>
       <c r="D119" s="6">
-        <f>(AVERAGE(M219:R219)+AVERAGE(M224:R224))/2</f>
-        <v>0.58333333333333337</v>
+        <f>SUM(AVERAGE(M221:R221),AVERAGE(M226:R226))</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="E119" s="6">
-        <f t="shared" si="30"/>
-        <v>2.0000000000000009</v>
+        <f>C119-D119-F119</f>
+        <v>4.0000000000000018</v>
       </c>
       <c r="F119" s="6">
-        <f>(AVERAGE(M187:R187)+AVERAGE(M192:R192))/2</f>
-        <v>5.4166666666666661</v>
+        <f>SUM(AVERAGE(M187:R187),AVERAGE(M192:R192))</f>
+        <v>10.833333333333332</v>
       </c>
       <c r="J119" t="s">
         <v>16</v>
       </c>
       <c r="K119">
-        <f t="shared" si="32"/>
-        <v>7.2916666666666671E-2</v>
+        <f>D119/D115</f>
+        <v>0.41176470588235292</v>
       </c>
       <c r="L119">
-        <f t="shared" si="31"/>
-        <v>0.25000000000000011</v>
+        <f>E119/E115</f>
+        <v>0.59999999999999987</v>
       </c>
     </row>
     <row r="120" spans="1:13">
@@ -8819,31 +8907,31 @@
         <v>17</v>
       </c>
       <c r="C120" s="6">
-        <f>(AVERAGE(L144:Q144)+AVERAGE(L149:Q149))/2</f>
-        <v>4726.166666666667</v>
+        <f>SUM(AVERAGE(L144:Q144),AVERAGE(L149:Q149))</f>
+        <v>9452.3333333333339</v>
       </c>
       <c r="D120" s="6">
-        <f>(AVERAGE(M210:R210)+AVERAGE(M214:R214))/2</f>
-        <v>479.33333333333331</v>
+        <f>SUM(AVERAGE(M212:R212),AVERAGE(M216:R216))</f>
+        <v>958.66666666666663</v>
       </c>
       <c r="E120" s="6">
         <f t="shared" si="30"/>
-        <v>1581.5000000000005</v>
+        <v>3163.0000000000009</v>
       </c>
       <c r="F120" s="6">
-        <f>(AVERAGE(M178:R178)+AVERAGE(M182:R182))/2</f>
-        <v>2665.3333333333335</v>
+        <f>SUM(AVERAGE(M178:R178),AVERAGE(M182:R182))</f>
+        <v>5330.666666666667</v>
       </c>
       <c r="J120" t="s">
         <v>17</v>
       </c>
       <c r="K120">
-        <f t="shared" si="32"/>
-        <v>0.101421165849702</v>
+        <f>D120/D116</f>
+        <v>0.53696788648244964</v>
       </c>
       <c r="L120">
-        <f t="shared" si="31"/>
-        <v>0.33462637091370745</v>
+        <f>E120/E116</f>
+        <v>0.47238332296204116</v>
       </c>
     </row>
     <row r="121" spans="1:13">
@@ -8855,7 +8943,7 @@
         <v>6022.166666666667</v>
       </c>
       <c r="D121" s="6">
-        <f>AVERAGE(M229:R229)</f>
+        <f>AVERAGE(M231:R231)</f>
         <v>1517.3333333333333</v>
       </c>
       <c r="E121" s="6">
@@ -8870,12 +8958,12 @@
         <v>18</v>
       </c>
       <c r="K121">
-        <f t="shared" si="32"/>
-        <v>0.25195804389339382</v>
+        <f>D121/D117</f>
+        <v>0.50597454565664424</v>
       </c>
       <c r="L121">
-        <f t="shared" si="31"/>
-        <v>0.74765449865773681</v>
+        <f>E121/E117</f>
+        <v>0.49553350331089396</v>
       </c>
     </row>
     <row r="122" spans="1:13">
@@ -8890,12 +8978,12 @@
         <v>10557.833333333334</v>
       </c>
       <c r="D122" s="6">
-        <f>AVERAGE(N206)</f>
-        <v>1415</v>
+        <f>AVERAGE(M208:R208)</f>
+        <v>1396.8333333333333</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="30"/>
-        <v>4941.0000000000009</v>
+        <v>4959.166666666667</v>
       </c>
       <c r="F122" s="6">
         <f>AVERAGE(M174:R174)</f>
@@ -8908,12 +8996,12 @@
         <v>9</v>
       </c>
       <c r="K122">
-        <f t="shared" si="32"/>
-        <v>0.13402371067296004</v>
+        <f>D122/D114</f>
+        <v>0.29669357122628148</v>
       </c>
       <c r="L122">
-        <f t="shared" si="31"/>
-        <v>0.46799374871738209</v>
+        <f>E122/E114</f>
+        <v>0.33198701284211229</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -8921,31 +9009,31 @@
         <v>16</v>
       </c>
       <c r="C123" s="6">
-        <f>(AVERAGE(L155:Q155)+AVERAGE(L160:Q160))/2</f>
-        <v>4.166666666666667</v>
+        <f>SUM(AVERAGE(L155:Q155),AVERAGE(L160:Q160))</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="D123" s="6">
-        <f>(AVERAGE(M220:R220)+AVERAGE(M225:R225))/2</f>
-        <v>0.66666666666666663</v>
+        <f>SUM(AVERAGE(M222:R222),AVERAGE(M227:R227))</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E123" s="6">
         <f t="shared" si="30"/>
-        <v>0.91666666666666741</v>
+        <v>1.8333333333333348</v>
       </c>
       <c r="F123" s="6">
-        <f>(AVERAGE(M188:R188)+AVERAGE(M193:R193))/2</f>
-        <v>2.583333333333333</v>
+        <f>SUM(AVERAGE(M188:R188),AVERAGE(M193:R193))</f>
+        <v>5.1666666666666661</v>
       </c>
       <c r="J123" t="s">
         <v>16</v>
       </c>
       <c r="K123">
-        <f t="shared" si="32"/>
-        <v>0.15999999999999998</v>
+        <f>D123/D115</f>
+        <v>0.47058823529411759</v>
       </c>
       <c r="L123">
-        <f t="shared" si="31"/>
-        <v>0.22000000000000017</v>
+        <f>E123/E115</f>
+        <v>0.27500000000000002</v>
       </c>
     </row>
     <row r="124" spans="1:13">
@@ -8953,31 +9041,31 @@
         <v>17</v>
       </c>
       <c r="C124" s="6">
-        <f>(AVERAGE(L145:Q145)+AVERAGE(L150:Q150))/2</f>
-        <v>3510.6666666666665</v>
+        <f>SUM(AVERAGE(L145:Q145),AVERAGE(L150:Q150))</f>
+        <v>7021.333333333333</v>
       </c>
       <c r="D124" s="6">
-        <f>(AVERAGE(M211:R211)+AVERAGE(M215:R215))/2</f>
-        <v>246.91666666666666</v>
+        <f>SUM(AVERAGE(M213:R213),AVERAGE(M217:R217))</f>
+        <v>493.83333333333331</v>
       </c>
       <c r="E124" s="6">
         <f>C124-D124-F124</f>
-        <v>1166.5</v>
+        <v>2333</v>
       </c>
       <c r="F124" s="6">
-        <f>(AVERAGE(M179:R179)+AVERAGE(M183:R183))/2</f>
-        <v>2097.25</v>
+        <f>SUM(AVERAGE(M179:R179),AVERAGE(M183:R183))</f>
+        <v>4194.5</v>
       </c>
       <c r="J124" t="s">
         <v>17</v>
       </c>
       <c r="K124">
-        <f t="shared" si="32"/>
-        <v>7.0333270034181536E-2</v>
+        <f>D124/D116</f>
+        <v>0.27660567587752055</v>
       </c>
       <c r="L124">
-        <f t="shared" si="31"/>
-        <v>0.33227307254082794</v>
+        <f>E124/E116</f>
+        <v>0.34842563783447417</v>
       </c>
     </row>
     <row r="125" spans="1:13">
@@ -8989,7 +9077,7 @@
         <v>3832.6666666666665</v>
       </c>
       <c r="D125" s="6">
-        <f>AVERAGE(M230:R230)</f>
+        <f>AVERAGE(M232:R232)</f>
         <v>918.66666666666663</v>
       </c>
       <c r="E125" s="6">
@@ -9004,12 +9092,12 @@
         <v>18</v>
       </c>
       <c r="K125">
-        <f t="shared" si="32"/>
-        <v>0.23969385980170466</v>
+        <f>D125/D117</f>
+        <v>0.30634135497137771</v>
       </c>
       <c r="L125">
-        <f t="shared" si="31"/>
-        <v>0.75965385284397291</v>
+        <f>E125/E117</f>
+        <v>0.3204321587761616</v>
       </c>
     </row>
     <row r="126" spans="1:13">
@@ -9024,7 +9112,7 @@
         <v>4504</v>
       </c>
       <c r="D126" s="6">
-        <f>AVERAGE(M207:R207)</f>
+        <f>AVERAGE(M209:R209)</f>
         <v>743.33333333333337</v>
       </c>
       <c r="E126" s="6">
@@ -9042,12 +9130,12 @@
         <v>9</v>
       </c>
       <c r="K126">
-        <f t="shared" si="32"/>
-        <v>0.16503848431024276</v>
+        <f>D126/D114</f>
+        <v>0.15788728405550836</v>
       </c>
       <c r="L126">
-        <f t="shared" si="31"/>
-        <v>0.49252516281823555</v>
+        <f>E126/E114</f>
+        <v>0.14850435694600955</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -9055,31 +9143,31 @@
         <v>16</v>
       </c>
       <c r="C127" s="6">
-        <f>(AVERAGE(L156:Q156)+AVERAGE(L161:Q161))/2</f>
-        <v>2.416666666666667</v>
+        <f>SUM(AVERAGE(L156:Q156),AVERAGE(L161:Q161))</f>
+        <v>4.8333333333333339</v>
       </c>
       <c r="D127" s="6">
-        <f>(AVERAGE(M221:R221)+AVERAGE(M226:R226))/2</f>
-        <v>0.16666666666666666</v>
+        <f>SUM(AVERAGE(M223:R223),AVERAGE(M228:R228))</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E127" s="6">
         <f t="shared" si="30"/>
-        <v>0.25000000000000044</v>
+        <v>0.50000000000000089</v>
       </c>
       <c r="F127" s="6">
-        <f>(AVERAGE(M189:R189)+AVERAGE(M194:R194))/2</f>
-        <v>2</v>
+        <f>SUM(AVERAGE(M189:R189),AVERAGE(M194:R194))</f>
+        <v>4</v>
       </c>
       <c r="J127" t="s">
         <v>16</v>
       </c>
       <c r="K127">
-        <f t="shared" si="32"/>
-        <v>6.8965517241379296E-2</v>
+        <f>D127/D115</f>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L127">
-        <f t="shared" si="31"/>
-        <v>0.10344827586206913</v>
+        <f>E127/E115</f>
+        <v>7.500000000000008E-2</v>
       </c>
       <c r="M127" s="5"/>
     </row>
@@ -9088,31 +9176,31 @@
         <v>17</v>
       </c>
       <c r="C128" s="6">
-        <f>(AVERAGE(L146:Q146)+AVERAGE(L151:Q151))/2</f>
-        <v>1394.8333333333333</v>
+        <f>SUM(AVERAGE(L146:Q146),AVERAGE(L151:Q151))</f>
+        <v>2789.6666666666665</v>
       </c>
       <c r="D128" s="6">
-        <f>(AVERAGE(M212:R212)+AVERAGE(M216:R216))/2</f>
-        <v>144.08333333333334</v>
+        <f>SUM(AVERAGE(M214:R214),AVERAGE(M218:R218))</f>
+        <v>288.16666666666669</v>
       </c>
       <c r="E128" s="6">
         <f>C128-D128-F128</f>
-        <v>482.16666666666663</v>
+        <v>964.33333333333326</v>
       </c>
       <c r="F128" s="6">
-        <f>(AVERAGE(M180:R180)+AVERAGE(M184:R184))/2</f>
-        <v>768.58333333333337</v>
+        <f>SUM(AVERAGE(M180:R180),AVERAGE(M184:R184))</f>
+        <v>1537.1666666666667</v>
       </c>
       <c r="J128" t="s">
         <v>17</v>
       </c>
       <c r="K128">
-        <f t="shared" si="32"/>
-        <v>0.10329788505197755</v>
+        <f>D128/D116</f>
+        <v>0.16140776699029127</v>
       </c>
       <c r="L128">
-        <f t="shared" si="31"/>
-        <v>0.34568048751344244</v>
+        <f>E128/E116</f>
+        <v>0.14401991288114496</v>
       </c>
     </row>
     <row r="129" spans="1:35">
@@ -9120,16 +9208,16 @@
         <v>18</v>
       </c>
       <c r="C129" s="6">
-        <f>AVERAGE(K166:Q166)</f>
-        <v>1895.2857142857142</v>
+        <f>AVERAGE(L166:Q166)</f>
+        <v>1842.1666666666667</v>
       </c>
       <c r="D129" s="6">
-        <f>AVERAGE(M231:R231)</f>
+        <f>AVERAGE(M233:R233)</f>
         <v>470.16666666666669</v>
       </c>
       <c r="E129" s="6">
         <f t="shared" si="30"/>
-        <v>1423.9523809523807</v>
+        <v>1370.8333333333333</v>
       </c>
       <c r="F129" s="6">
         <f>AVERAGE(M199:R199)</f>
@@ -9139,12 +9227,12 @@
         <v>18</v>
       </c>
       <c r="K129">
-        <f t="shared" si="32"/>
-        <v>0.24807165649104296</v>
+        <f>D129/D117</f>
+        <v>0.15678319346412495</v>
       </c>
       <c r="L129">
-        <f t="shared" si="31"/>
-        <v>0.75131278108590227</v>
+        <f>E129/E117</f>
+        <v>0.15087037071005374</v>
       </c>
     </row>
     <row r="130" spans="1:35">
@@ -9159,7 +9247,7 @@
         <v>1256.3333333333333</v>
       </c>
       <c r="D130" s="6">
-        <f>AVERAGE(M208:R208)</f>
+        <f>AVERAGE(M210:R210)</f>
         <v>136.16666666666666</v>
       </c>
       <c r="E130" s="6">
@@ -9177,12 +9265,12 @@
         <v>9</v>
       </c>
       <c r="K130">
-        <f t="shared" si="32"/>
-        <v>0.10838418678694614</v>
+        <f>D130/D114</f>
+        <v>2.8922401585952984E-2</v>
       </c>
       <c r="L130">
-        <f t="shared" si="31"/>
-        <v>0.39904483947996805</v>
+        <f>E130/E114</f>
+        <v>3.3561315228669918E-2</v>
       </c>
     </row>
     <row r="131" spans="1:35">
@@ -9190,31 +9278,31 @@
         <v>16</v>
       </c>
       <c r="C131" s="6">
-        <f>(AVERAGE(L157:Q157)+AVERAGE(L162:Q162))/2</f>
-        <v>0.58333333333333337</v>
+        <f>SUM(AVERAGE(L157:Q157),AVERAGE(L162:Q162))</f>
+        <v>1.1666666666666667</v>
       </c>
       <c r="D131" s="6">
-        <f>(AVERAGE(M222:R222)+AVERAGE(M227:R227))/2</f>
+        <f>SUM(AVERAGE(M224:R224),AVERAGE(M229:R229))</f>
         <v>0</v>
       </c>
       <c r="E131" s="6">
         <f>C131-D131-F131</f>
-        <v>0.16666666666666669</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F131" s="6">
-        <f>(AVERAGE(M190:R190)+AVERAGE(M195:R195))/2</f>
-        <v>0.41666666666666669</v>
+        <f>SUM(AVERAGE(M190:R190),AVERAGE(M195:R195))</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="J131" t="s">
         <v>16</v>
       </c>
       <c r="K131">
-        <f t="shared" si="32"/>
+        <f>D131/D115</f>
         <v>0</v>
       </c>
       <c r="L131">
-        <f t="shared" si="31"/>
-        <v>0.28571428571428575</v>
+        <f>E131/E115</f>
+        <v>4.9999999999999968E-2</v>
       </c>
     </row>
     <row r="132" spans="1:35">
@@ -9222,31 +9310,31 @@
         <v>17</v>
       </c>
       <c r="C132" s="6">
-        <f>(AVERAGE(L147:Q147)+AVERAGE(L152:Q152))/2</f>
-        <v>448.75</v>
+        <f>SUM(AVERAGE(L147:Q147),AVERAGE(L152:Q152))</f>
+        <v>897.5</v>
       </c>
       <c r="D132" s="6">
-        <f>(AVERAGE(M217:R217)+AVERAGE(0,0,0,0,0,0))/2</f>
-        <v>22.333333333333332</v>
+        <f>SUM(AVERAGE(M219:R219),AVERAGE(0,0,0,0,0,0))</f>
+        <v>44.666666666666664</v>
       </c>
       <c r="E132" s="6">
         <f>C132-D132-F132</f>
-        <v>117.75</v>
+        <v>235.5</v>
       </c>
       <c r="F132" s="6">
-        <f>(AVERAGE(M185:R185)+AVERAGE(0,0,0,0,0,0))/2</f>
-        <v>308.66666666666669</v>
+        <f>SUM(AVERAGE(M185:R185),AVERAGE(0,0,0,0,0,0))</f>
+        <v>617.33333333333337</v>
       </c>
       <c r="J132" t="s">
         <v>17</v>
       </c>
       <c r="K132">
-        <f t="shared" si="32"/>
-        <v>4.9767873723305475E-2</v>
+        <f>D132/D116</f>
+        <v>2.501867064973861E-2</v>
       </c>
       <c r="L132">
-        <f t="shared" si="31"/>
-        <v>0.26239554317548747</v>
+        <f>E132/E116</f>
+        <v>3.5171126322339763E-2</v>
       </c>
     </row>
     <row r="133" spans="1:35">
@@ -9258,7 +9346,7 @@
         <v>394.66666666666669</v>
       </c>
       <c r="D133" s="6">
-        <f>AVERAGE(M232:R232)</f>
+        <f>AVERAGE(M234:R234)</f>
         <v>92.666666666666671</v>
       </c>
       <c r="E133" s="6">
@@ -9273,22 +9361,39 @@
         <v>18</v>
       </c>
       <c r="K133">
-        <f t="shared" si="32"/>
-        <v>0.23479729729729729</v>
+        <f>D133/D117</f>
+        <v>3.0900905907853052E-2</v>
       </c>
       <c r="L133">
-        <f t="shared" si="31"/>
-        <v>0.76351351351351338</v>
+        <f>E133/E117</f>
+        <v>3.3163967202890839E-2</v>
       </c>
     </row>
     <row r="134" spans="1:35">
       <c r="C134" s="5"/>
     </row>
+    <row r="135" spans="1:35">
+      <c r="J135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+    </row>
     <row r="137" spans="1:35">
-      <c r="A137" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B137" s="16"/>
+      <c r="A137" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137" s="17"/>
       <c r="D137" s="1" t="s">
         <v>1</v>
       </c>
@@ -9393,119 +9498,119 @@
         <v>660539</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" ref="E138:AG138" si="33">E139+E140+E141+E142</f>
+        <f t="shared" ref="E138:AG138" si="31">E139+E140+E141+E142</f>
         <v>17597</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>40032</v>
       </c>
       <c r="G138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>38719</v>
       </c>
       <c r="H138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>36976</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>38208</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>36616</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>35805</v>
       </c>
       <c r="L138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>35255</v>
       </c>
       <c r="M138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>33964</v>
       </c>
       <c r="N138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>31403</v>
       </c>
       <c r="O138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>29921</v>
       </c>
       <c r="P138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>28866</v>
       </c>
       <c r="Q138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>28707</v>
       </c>
       <c r="R138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>27802</v>
       </c>
       <c r="S138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>27104</v>
       </c>
       <c r="T138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>26745</v>
       </c>
       <c r="U138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>25876</v>
       </c>
       <c r="V138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>25389</v>
       </c>
       <c r="W138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>24185</v>
       </c>
       <c r="X138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>21944</v>
       </c>
       <c r="Y138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>20597</v>
       </c>
       <c r="Z138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>20133</v>
       </c>
       <c r="AA138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>18915</v>
       </c>
       <c r="AB138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>18286</v>
       </c>
       <c r="AC138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>17252</v>
       </c>
       <c r="AD138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>15725</v>
       </c>
       <c r="AE138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>14621</v>
       </c>
       <c r="AF138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>13942</v>
       </c>
       <c r="AG138" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>13547</v>
       </c>
     </row>
@@ -9916,119 +10021,119 @@
         <v>147</v>
       </c>
       <c r="E143" s="1">
-        <f t="shared" ref="E143:AG143" si="34">E144+E145+E146+E147</f>
+        <f t="shared" ref="E143:AG143" si="32">E144+E145+E146+E147</f>
         <v>7</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="I143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="J143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="N143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="O143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="R143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="T143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="X143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AB143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>35</v>
       </c>
       <c r="AD143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>64</v>
       </c>
       <c r="AE143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="AF143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>6</v>
       </c>
       <c r="AG143" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="AH143" s="1"/>
@@ -10443,119 +10548,119 @@
         <v>496372</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" ref="E148:AG148" si="35">E149+E150+E151+E152</f>
+        <f t="shared" ref="E148:AG148" si="33">E149+E150+E151+E152</f>
         <v>11689</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>27099</v>
       </c>
       <c r="G148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>26976</v>
       </c>
       <c r="H148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>25708</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>26030</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>23850</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>22749</v>
       </c>
       <c r="L148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>22012</v>
       </c>
       <c r="M148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>21151</v>
       </c>
       <c r="N148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>19945</v>
       </c>
       <c r="O148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>19615</v>
       </c>
       <c r="P148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>18972</v>
       </c>
       <c r="Q148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>19270</v>
       </c>
       <c r="R148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>19133</v>
       </c>
       <c r="S148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>18986</v>
       </c>
       <c r="T148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>18953</v>
       </c>
       <c r="U148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>19184</v>
       </c>
       <c r="V148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>19739</v>
       </c>
       <c r="W148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>19439</v>
       </c>
       <c r="X148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>18053</v>
       </c>
       <c r="Y148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>17649</v>
       </c>
       <c r="Z148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>17305</v>
       </c>
       <c r="AA148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>16556</v>
       </c>
       <c r="AB148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>15838</v>
       </c>
       <c r="AC148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>15091</v>
       </c>
       <c r="AD148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>13818</v>
       </c>
       <c r="AE148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>12841</v>
       </c>
       <c r="AF148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>12247</v>
       </c>
       <c r="AG148" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>11641</v>
       </c>
       <c r="AH148" s="1"/>
@@ -10970,119 +11075,119 @@
         <v>995</v>
       </c>
       <c r="E153" s="1">
-        <f t="shared" ref="E153:AG153" si="36">E155+E154+E156+E157</f>
+        <f t="shared" ref="E153:AG153" si="34">E155+E154+E156+E157</f>
         <v>0</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>11</v>
       </c>
       <c r="I153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="J153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>10</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>12</v>
       </c>
       <c r="L153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>17</v>
       </c>
       <c r="M153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>15</v>
       </c>
       <c r="N153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>22</v>
       </c>
       <c r="O153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>25</v>
       </c>
       <c r="P153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>14</v>
       </c>
       <c r="Q153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>40</v>
       </c>
       <c r="R153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>44</v>
       </c>
       <c r="S153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>37</v>
       </c>
       <c r="T153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>43</v>
       </c>
       <c r="U153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>57</v>
       </c>
       <c r="V153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>55</v>
       </c>
       <c r="W153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>64</v>
       </c>
       <c r="X153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>36</v>
       </c>
       <c r="Y153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>51</v>
       </c>
       <c r="Z153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>39</v>
       </c>
       <c r="AA153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>53</v>
       </c>
       <c r="AB153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="AC153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>68</v>
       </c>
       <c r="AD153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>50</v>
       </c>
       <c r="AE153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>59</v>
       </c>
       <c r="AF153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>54</v>
       </c>
       <c r="AG153" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>71</v>
       </c>
       <c r="AH153" s="1"/>
@@ -11497,119 +11602,119 @@
         <v>480</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" ref="E158:AG158" si="37">E159+E160+E161+E162</f>
+        <f t="shared" ref="E158:AG158" si="35">E159+E160+E161+E162</f>
         <v>0</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="I158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="J158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="K158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>3</v>
       </c>
       <c r="L158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="M158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>4</v>
       </c>
       <c r="N158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="O158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>7</v>
       </c>
       <c r="P158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>10</v>
       </c>
       <c r="Q158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="R158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="S158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>24</v>
       </c>
       <c r="T158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>19</v>
       </c>
       <c r="U158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>26</v>
       </c>
       <c r="V158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>24</v>
       </c>
       <c r="W158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>31</v>
       </c>
       <c r="X158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>36</v>
       </c>
       <c r="Y158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>39</v>
       </c>
       <c r="Z158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>44</v>
       </c>
       <c r="AA158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
       <c r="AB158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>33</v>
       </c>
       <c r="AC158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>26</v>
       </c>
       <c r="AD158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>21</v>
       </c>
       <c r="AE158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="AF158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="AG158" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>27</v>
       </c>
       <c r="AH158" s="1"/>
@@ -12024,119 +12129,119 @@
         <v>217219</v>
       </c>
       <c r="E163" s="3">
-        <f t="shared" ref="E163:AG163" si="38">E164+E165+E166+E167</f>
+        <f t="shared" ref="E163:AG163" si="36">E164+E165+E166+E167</f>
         <v>6438</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>14253</v>
       </c>
       <c r="G163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>13027</v>
       </c>
       <c r="H163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>12413</v>
       </c>
       <c r="I163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>13334</v>
       </c>
       <c r="J163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>13853</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>14119</v>
       </c>
       <c r="L163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>14301</v>
       </c>
       <c r="M163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>13844</v>
       </c>
       <c r="N163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>12377</v>
       </c>
       <c r="O163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>11162</v>
       </c>
       <c r="P163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>10689</v>
       </c>
       <c r="Q163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>10177</v>
       </c>
       <c r="R163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>9349</v>
       </c>
       <c r="S163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>8736</v>
       </c>
       <c r="T163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>8429</v>
       </c>
       <c r="U163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>7209</v>
       </c>
       <c r="V163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>6067</v>
       </c>
       <c r="W163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>5110</v>
       </c>
       <c r="X163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>4172</v>
       </c>
       <c r="Y163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>3071</v>
       </c>
       <c r="Z163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2980</v>
       </c>
       <c r="AA163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2480</v>
       </c>
       <c r="AB163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2598</v>
       </c>
       <c r="AC163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>2170</v>
       </c>
       <c r="AD163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1902</v>
       </c>
       <c r="AE163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1831</v>
       </c>
       <c r="AF163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1758</v>
       </c>
       <c r="AG163" s="3">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1923</v>
       </c>
       <c r="AH163" s="1"/>
@@ -12576,10 +12681,10 @@
       <c r="AI168" s="1"/>
     </row>
     <row r="171" spans="1:35">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B171" s="16"/>
+      <c r="B171" s="17"/>
       <c r="E171" s="1" t="s">
         <v>1</v>
       </c>
@@ -12673,7 +12778,7 @@
     </row>
     <row r="172" spans="1:35">
       <c r="A172" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>9</v>
@@ -15498,891 +15603,770 @@
         <v>10</v>
       </c>
     </row>
+    <row r="202" spans="1:34">
+      <c r="M202" s="4"/>
+      <c r="N202" s="4"/>
+      <c r="O202" s="4"/>
+      <c r="P202" s="4"/>
+      <c r="Q202" s="4"/>
+      <c r="R202" s="4"/>
+    </row>
     <row r="203" spans="1:34">
-      <c r="A203" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B203" s="30"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F203" s="1">
+      <c r="E203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="P203" s="6"/>
+    </row>
+    <row r="205" spans="1:34">
+      <c r="A205" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B205" s="19"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205" s="1">
         <v>2023</v>
       </c>
-      <c r="G203" s="1">
+      <c r="G205" s="1">
         <v>2022</v>
       </c>
-      <c r="H203" s="1">
+      <c r="H205" s="1">
         <v>2021</v>
       </c>
-      <c r="I203" s="1">
+      <c r="I205" s="1">
         <v>2020</v>
       </c>
-      <c r="J203" s="1">
+      <c r="J205" s="1">
         <v>2019</v>
       </c>
-      <c r="K203" s="1">
+      <c r="K205" s="1">
         <v>2018</v>
       </c>
-      <c r="L203" s="1">
+      <c r="L205" s="1">
         <v>2017</v>
       </c>
-      <c r="M203" s="1">
+      <c r="M205" s="1">
         <v>2016</v>
       </c>
-      <c r="N203" s="1">
+      <c r="N205" s="1">
         <v>2015</v>
       </c>
-      <c r="O203" s="1">
+      <c r="O205" s="1">
         <v>2014</v>
       </c>
-      <c r="P203" s="1">
+      <c r="P205" s="1">
         <v>2013</v>
       </c>
-      <c r="Q203" s="1">
+      <c r="Q205" s="1">
         <v>2012</v>
       </c>
-      <c r="R203" s="1">
+      <c r="R205" s="1">
         <v>2011</v>
       </c>
-      <c r="S203" s="1">
+      <c r="S205" s="1">
         <v>2010</v>
       </c>
-      <c r="T203" s="1">
+      <c r="T205" s="1">
         <v>2009</v>
       </c>
-      <c r="U203" s="1">
+      <c r="U205" s="1">
         <v>2008</v>
       </c>
-      <c r="V203" s="1">
+      <c r="V205" s="1">
         <v>2007</v>
       </c>
-      <c r="W203" s="1">
+      <c r="W205" s="1">
         <v>2006</v>
       </c>
-      <c r="X203" s="1">
+      <c r="X205" s="1">
         <v>2005</v>
       </c>
-      <c r="Y203" s="1">
+      <c r="Y205" s="1">
         <v>2004</v>
       </c>
-      <c r="Z203" s="1">
+      <c r="Z205" s="1">
         <v>2003</v>
       </c>
-      <c r="AA203" s="1">
+      <c r="AA205" s="1">
         <v>2002</v>
       </c>
-      <c r="AB203" s="1">
+      <c r="AB205" s="1">
         <v>2001</v>
       </c>
-      <c r="AC203" s="1">
+      <c r="AC205" s="1">
         <v>2000</v>
       </c>
-      <c r="AD203" s="1">
+      <c r="AD205" s="1">
         <v>1999</v>
       </c>
-      <c r="AE203" s="1">
+      <c r="AE205" s="1">
         <v>1998</v>
       </c>
-      <c r="AF203" s="1">
+      <c r="AF205" s="1">
         <v>1997</v>
       </c>
-      <c r="AG203" s="1">
+      <c r="AG205" s="1">
         <v>1996</v>
       </c>
-      <c r="AH203" s="1">
+      <c r="AH205" s="1">
         <v>1995</v>
       </c>
     </row>
-    <row r="204" spans="1:34">
-      <c r="A204" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B204" s="1" t="s">
+    <row r="206" spans="1:34">
+      <c r="A206" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D204" s="1"/>
-      <c r="E204" s="3">
-        <v>112654</v>
-      </c>
-      <c r="F204" s="3">
-        <v>1397</v>
-      </c>
-      <c r="G204" s="3">
-        <v>4303</v>
-      </c>
-      <c r="H204" s="3">
-        <v>4972</v>
-      </c>
-      <c r="I204" s="3">
-        <v>4881</v>
-      </c>
-      <c r="J204" s="3">
-        <v>3870</v>
-      </c>
-      <c r="K204" s="3">
-        <v>4102</v>
-      </c>
-      <c r="L204" s="3">
-        <v>4297</v>
-      </c>
-      <c r="M204" s="3">
-        <v>4691</v>
-      </c>
-      <c r="N204" s="3">
-        <v>4796</v>
-      </c>
-      <c r="O204" s="3">
-        <v>4752</v>
-      </c>
-      <c r="P204" s="3">
-        <v>4607</v>
-      </c>
-      <c r="Q204" s="3">
-        <v>4619</v>
-      </c>
-      <c r="R204" s="3">
-        <v>4783</v>
-      </c>
-      <c r="S204" s="3">
-        <v>4678</v>
-      </c>
-      <c r="T204" s="3">
-        <v>4688</v>
-      </c>
-      <c r="U204" s="3">
-        <v>4653</v>
-      </c>
-      <c r="V204" s="3">
-        <v>4543</v>
-      </c>
-      <c r="W204" s="3">
-        <v>4517</v>
-      </c>
-      <c r="X204" s="3">
-        <v>4175</v>
-      </c>
-      <c r="Y204" s="3">
-        <v>4084</v>
-      </c>
-      <c r="Z204" s="3">
-        <v>3881</v>
-      </c>
-      <c r="AA204" s="3">
-        <v>3795</v>
-      </c>
-      <c r="AB204" s="3">
-        <v>3433</v>
-      </c>
-      <c r="AC204" s="3">
-        <v>3186</v>
-      </c>
-      <c r="AD204" s="3">
-        <v>3310</v>
-      </c>
-      <c r="AE204" s="3">
-        <v>2432</v>
-      </c>
-      <c r="AF204" s="3">
-        <v>2071</v>
-      </c>
-      <c r="AG204" s="3">
-        <v>1846</v>
-      </c>
-      <c r="AH204" s="3">
-        <v>1531</v>
-      </c>
-    </row>
-    <row r="205" spans="1:34">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D205" s="1"/>
-      <c r="E205" s="3">
-        <v>58818</v>
-      </c>
-      <c r="F205" s="1">
-        <v>728</v>
-      </c>
-      <c r="G205" s="3">
-        <v>2303</v>
-      </c>
-      <c r="H205" s="3">
-        <v>2644</v>
-      </c>
-      <c r="I205" s="3">
-        <v>2644</v>
-      </c>
-      <c r="J205" s="3">
-        <v>2102</v>
-      </c>
-      <c r="K205" s="3">
-        <v>2207</v>
-      </c>
-      <c r="L205" s="3">
-        <v>2230</v>
-      </c>
-      <c r="M205" s="3">
-        <v>2444</v>
-      </c>
-      <c r="N205" s="3">
-        <v>2484</v>
-      </c>
-      <c r="O205" s="3">
-        <v>2412</v>
-      </c>
-      <c r="P205" s="3">
-        <v>2383</v>
-      </c>
-      <c r="Q205" s="3">
-        <v>2414</v>
-      </c>
-      <c r="R205" s="3">
-        <v>2453</v>
-      </c>
-      <c r="S205" s="3">
-        <v>2427</v>
-      </c>
-      <c r="T205" s="3">
-        <v>2458</v>
-      </c>
-      <c r="U205" s="3">
-        <v>2461</v>
-      </c>
-      <c r="V205" s="3">
-        <v>2333</v>
-      </c>
-      <c r="W205" s="3">
-        <v>2305</v>
-      </c>
-      <c r="X205" s="3">
-        <v>2207</v>
-      </c>
-      <c r="Y205" s="3">
-        <v>2101</v>
-      </c>
-      <c r="Z205" s="3">
-        <v>1965</v>
-      </c>
-      <c r="AA205" s="3">
-        <v>2004</v>
-      </c>
-      <c r="AB205" s="3">
-        <v>1767</v>
-      </c>
-      <c r="AC205" s="3">
-        <v>1671</v>
-      </c>
-      <c r="AD205" s="3">
-        <v>1689</v>
-      </c>
-      <c r="AE205" s="3">
-        <v>1298</v>
-      </c>
-      <c r="AF205" s="3">
-        <v>1079</v>
-      </c>
-      <c r="AG205" s="1">
-        <v>934</v>
-      </c>
-      <c r="AH205" s="1">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="206" spans="1:34">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="3">
-        <v>32628</v>
-      </c>
-      <c r="F206" s="1">
-        <v>420</v>
+        <f>E210+E209+E208+E207</f>
+        <v>112656</v>
+      </c>
+      <c r="F206" s="3">
+        <f t="shared" ref="F206:AH206" si="37">F210+F209+F208+F207</f>
+        <v>1397</v>
       </c>
       <c r="G206" s="3">
-        <v>1196</v>
+        <f t="shared" si="37"/>
+        <v>4303</v>
       </c>
       <c r="H206" s="3">
-        <v>1413</v>
+        <f t="shared" si="37"/>
+        <v>4972</v>
       </c>
       <c r="I206" s="3">
-        <v>1390</v>
+        <f t="shared" si="37"/>
+        <v>4881</v>
       </c>
       <c r="J206" s="3">
-        <v>1042</v>
+        <f t="shared" si="37"/>
+        <v>3870</v>
       </c>
       <c r="K206" s="3">
-        <v>1144</v>
+        <f t="shared" si="37"/>
+        <v>4102</v>
       </c>
       <c r="L206" s="3">
-        <v>1259</v>
+        <f t="shared" si="37"/>
+        <v>4297</v>
       </c>
       <c r="M206" s="3">
-        <v>1374</v>
+        <f t="shared" si="37"/>
+        <v>4691</v>
       </c>
       <c r="N206" s="3">
-        <v>1415</v>
+        <f t="shared" si="37"/>
+        <v>4796</v>
       </c>
       <c r="O206" s="3">
-        <v>1427</v>
+        <f t="shared" si="37"/>
+        <v>4752</v>
       </c>
       <c r="P206" s="3">
-        <v>1380</v>
+        <f t="shared" si="37"/>
+        <v>4607</v>
       </c>
       <c r="Q206" s="3">
-        <v>1367</v>
+        <f t="shared" si="37"/>
+        <v>4619</v>
       </c>
       <c r="R206" s="3">
-        <v>1418</v>
+        <f t="shared" si="37"/>
+        <v>4783</v>
       </c>
       <c r="S206" s="3">
-        <v>1345</v>
+        <f t="shared" si="37"/>
+        <v>4678</v>
       </c>
       <c r="T206" s="3">
-        <v>1364</v>
+        <f t="shared" si="37"/>
+        <v>4688</v>
       </c>
       <c r="U206" s="3">
-        <v>1333</v>
+        <f t="shared" si="37"/>
+        <v>4653</v>
       </c>
       <c r="V206" s="3">
-        <v>1347</v>
+        <f t="shared" si="37"/>
+        <v>4543</v>
       </c>
       <c r="W206" s="3">
-        <v>1356</v>
+        <f t="shared" si="37"/>
+        <v>4517</v>
       </c>
       <c r="X206" s="3">
-        <v>1150</v>
+        <f t="shared" si="37"/>
+        <v>4175</v>
       </c>
       <c r="Y206" s="3">
-        <v>1169</v>
+        <f t="shared" si="37"/>
+        <v>4084</v>
       </c>
       <c r="Z206" s="3">
-        <v>1167</v>
+        <f t="shared" si="37"/>
+        <v>3881</v>
       </c>
       <c r="AA206" s="3">
-        <v>1067</v>
-      </c>
-      <c r="AB206" s="1">
-        <v>997</v>
-      </c>
-      <c r="AC206" s="1">
-        <v>936</v>
-      </c>
-      <c r="AD206" s="1">
-        <v>944</v>
-      </c>
-      <c r="AE206" s="1">
-        <v>665</v>
-      </c>
-      <c r="AF206" s="1">
-        <v>593</v>
-      </c>
-      <c r="AG206" s="1">
-        <v>580</v>
-      </c>
-      <c r="AH206" s="1">
-        <v>430</v>
+        <f t="shared" si="37"/>
+        <v>3795</v>
+      </c>
+      <c r="AB206" s="3">
+        <f t="shared" si="37"/>
+        <v>3433</v>
+      </c>
+      <c r="AC206" s="3">
+        <f t="shared" si="37"/>
+        <v>3187</v>
+      </c>
+      <c r="AD206" s="3">
+        <f t="shared" si="37"/>
+        <v>3310</v>
+      </c>
+      <c r="AE206" s="3">
+        <f t="shared" si="37"/>
+        <v>2432</v>
+      </c>
+      <c r="AF206" s="3">
+        <f t="shared" si="37"/>
+        <v>2071</v>
+      </c>
+      <c r="AG206" s="3">
+        <f t="shared" si="37"/>
+        <v>1846</v>
+      </c>
+      <c r="AH206" s="3">
+        <f t="shared" si="37"/>
+        <v>1531</v>
       </c>
     </row>
     <row r="207" spans="1:34">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="3">
-        <v>18074</v>
+        <v>58818</v>
       </c>
       <c r="F207" s="1">
-        <v>217</v>
-      </c>
-      <c r="G207" s="1">
-        <v>719</v>
-      </c>
-      <c r="H207" s="1">
-        <v>809</v>
-      </c>
-      <c r="I207" s="1">
-        <v>722</v>
-      </c>
-      <c r="J207" s="1">
-        <v>630</v>
-      </c>
-      <c r="K207" s="1">
-        <v>649</v>
-      </c>
-      <c r="L207" s="1">
-        <v>710</v>
-      </c>
-      <c r="M207" s="1">
-        <v>734</v>
-      </c>
-      <c r="N207" s="1">
-        <v>762</v>
-      </c>
-      <c r="O207" s="1">
-        <v>768</v>
-      </c>
-      <c r="P207" s="1">
-        <v>713</v>
-      </c>
-      <c r="Q207" s="1">
-        <v>714</v>
-      </c>
-      <c r="R207" s="1">
-        <v>769</v>
-      </c>
-      <c r="S207" s="1">
-        <v>737</v>
-      </c>
-      <c r="T207" s="1">
-        <v>717</v>
-      </c>
-      <c r="U207" s="1">
-        <v>715</v>
-      </c>
-      <c r="V207" s="1">
-        <v>753</v>
-      </c>
-      <c r="W207" s="1">
-        <v>710</v>
-      </c>
-      <c r="X207" s="1">
-        <v>710</v>
-      </c>
-      <c r="Y207" s="1">
-        <v>673</v>
-      </c>
-      <c r="Z207" s="1">
-        <v>638</v>
-      </c>
-      <c r="AA207" s="1">
-        <v>621</v>
-      </c>
-      <c r="AB207" s="1">
-        <v>576</v>
-      </c>
-      <c r="AC207" s="1">
-        <v>498</v>
-      </c>
-      <c r="AD207" s="1">
-        <v>569</v>
-      </c>
-      <c r="AE207" s="1">
-        <v>401</v>
-      </c>
-      <c r="AF207" s="1">
-        <v>341</v>
+        <v>728</v>
+      </c>
+      <c r="G207" s="3">
+        <v>2303</v>
+      </c>
+      <c r="H207" s="3">
+        <v>2644</v>
+      </c>
+      <c r="I207" s="3">
+        <v>2644</v>
+      </c>
+      <c r="J207" s="3">
+        <v>2102</v>
+      </c>
+      <c r="K207" s="3">
+        <v>2207</v>
+      </c>
+      <c r="L207" s="3">
+        <v>2230</v>
+      </c>
+      <c r="M207" s="3">
+        <v>2444</v>
+      </c>
+      <c r="N207" s="3">
+        <v>2484</v>
+      </c>
+      <c r="O207" s="3">
+        <v>2412</v>
+      </c>
+      <c r="P207" s="3">
+        <v>2383</v>
+      </c>
+      <c r="Q207" s="3">
+        <v>2414</v>
+      </c>
+      <c r="R207" s="3">
+        <v>2453</v>
+      </c>
+      <c r="S207" s="3">
+        <v>2427</v>
+      </c>
+      <c r="T207" s="3">
+        <v>2458</v>
+      </c>
+      <c r="U207" s="3">
+        <v>2461</v>
+      </c>
+      <c r="V207" s="3">
+        <v>2333</v>
+      </c>
+      <c r="W207" s="3">
+        <v>2305</v>
+      </c>
+      <c r="X207" s="3">
+        <v>2207</v>
+      </c>
+      <c r="Y207" s="3">
+        <v>2101</v>
+      </c>
+      <c r="Z207" s="3">
+        <v>1965</v>
+      </c>
+      <c r="AA207" s="3">
+        <v>2004</v>
+      </c>
+      <c r="AB207" s="3">
+        <v>1767</v>
+      </c>
+      <c r="AC207" s="3">
+        <v>1671</v>
+      </c>
+      <c r="AD207" s="3">
+        <v>1689</v>
+      </c>
+      <c r="AE207" s="3">
+        <v>1298</v>
+      </c>
+      <c r="AF207" s="3">
+        <v>1079</v>
       </c>
       <c r="AG207" s="1">
-        <v>286</v>
+        <v>934</v>
       </c>
       <c r="AH207" s="1">
-        <v>258</v>
+        <v>798</v>
       </c>
     </row>
     <row r="208" spans="1:34">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="3">
-        <v>3136</v>
+        <v>32628</v>
       </c>
       <c r="F208" s="1">
-        <v>32</v>
-      </c>
-      <c r="G208" s="1">
-        <v>85</v>
-      </c>
-      <c r="H208" s="1">
-        <v>106</v>
-      </c>
-      <c r="I208" s="1">
-        <v>125</v>
-      </c>
-      <c r="J208" s="1">
-        <v>96</v>
-      </c>
-      <c r="K208" s="1">
-        <v>102</v>
-      </c>
-      <c r="L208" s="1">
-        <v>98</v>
-      </c>
-      <c r="M208" s="1">
-        <v>139</v>
-      </c>
-      <c r="N208" s="1">
-        <v>135</v>
-      </c>
-      <c r="O208" s="1">
-        <v>145</v>
-      </c>
-      <c r="P208" s="1">
-        <v>131</v>
-      </c>
-      <c r="Q208" s="1">
-        <v>124</v>
-      </c>
-      <c r="R208" s="1">
-        <v>143</v>
-      </c>
-      <c r="S208" s="1">
-        <v>169</v>
-      </c>
-      <c r="T208" s="1">
-        <v>149</v>
-      </c>
-      <c r="U208" s="1">
-        <v>144</v>
-      </c>
-      <c r="V208" s="1">
-        <v>110</v>
-      </c>
-      <c r="W208" s="1">
-        <v>146</v>
-      </c>
-      <c r="X208" s="1">
-        <v>108</v>
-      </c>
-      <c r="Y208" s="1">
-        <v>141</v>
-      </c>
-      <c r="Z208" s="1">
-        <v>111</v>
-      </c>
-      <c r="AA208" s="1">
-        <v>103</v>
+        <v>420</v>
+      </c>
+      <c r="G208" s="3">
+        <v>1196</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1413</v>
+      </c>
+      <c r="I208" s="3">
+        <v>1390</v>
+      </c>
+      <c r="J208" s="3">
+        <v>1042</v>
+      </c>
+      <c r="K208" s="3">
+        <v>1144</v>
+      </c>
+      <c r="L208" s="3">
+        <v>1259</v>
+      </c>
+      <c r="M208" s="3">
+        <v>1374</v>
+      </c>
+      <c r="N208" s="3">
+        <v>1415</v>
+      </c>
+      <c r="O208" s="3">
+        <v>1427</v>
+      </c>
+      <c r="P208" s="3">
+        <v>1380</v>
+      </c>
+      <c r="Q208" s="3">
+        <v>1367</v>
+      </c>
+      <c r="R208" s="3">
+        <v>1418</v>
+      </c>
+      <c r="S208" s="3">
+        <v>1345</v>
+      </c>
+      <c r="T208" s="3">
+        <v>1364</v>
+      </c>
+      <c r="U208" s="3">
+        <v>1333</v>
+      </c>
+      <c r="V208" s="3">
+        <v>1347</v>
+      </c>
+      <c r="W208" s="3">
+        <v>1356</v>
+      </c>
+      <c r="X208" s="3">
+        <v>1150</v>
+      </c>
+      <c r="Y208" s="3">
+        <v>1169</v>
+      </c>
+      <c r="Z208" s="3">
+        <v>1167</v>
+      </c>
+      <c r="AA208" s="3">
+        <v>1067</v>
       </c>
       <c r="AB208" s="1">
-        <v>93</v>
+        <v>997</v>
       </c>
       <c r="AC208" s="1">
-        <v>82</v>
+        <v>936</v>
       </c>
       <c r="AD208" s="1">
-        <v>108</v>
+        <v>944</v>
       </c>
       <c r="AE208" s="1">
-        <v>68</v>
+        <v>665</v>
       </c>
       <c r="AF208" s="1">
-        <v>58</v>
+        <v>593</v>
       </c>
       <c r="AG208" s="1">
-        <v>46</v>
+        <v>580</v>
       </c>
       <c r="AH208" s="1">
-        <v>45</v>
+        <v>430</v>
       </c>
     </row>
     <row r="209" spans="1:34">
       <c r="A209" s="1"/>
-      <c r="B209" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D209" s="1"/>
-      <c r="E209" s="1">
-        <v>10</v>
+      <c r="E209" s="3">
+        <v>18074</v>
       </c>
       <c r="F209" s="1">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="G209" s="1">
-        <v>1</v>
+        <v>719</v>
       </c>
       <c r="H209" s="1">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="I209" s="1">
-        <v>0</v>
+        <v>722</v>
       </c>
       <c r="J209" s="1">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="K209" s="1">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="L209" s="1">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="M209" s="1">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="N209" s="1">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="O209" s="1">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="P209" s="1">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="Q209" s="1">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="R209" s="1">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="S209" s="1">
-        <v>0</v>
+        <v>737</v>
       </c>
       <c r="T209" s="1">
-        <v>0</v>
+        <v>717</v>
       </c>
       <c r="U209" s="1">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="V209" s="1">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="W209" s="1">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="X209" s="1">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="Y209" s="1">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="Z209" s="1">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="AA209" s="1">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="AB209" s="1">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="AC209" s="1">
-        <v>0</v>
+        <v>498</v>
       </c>
       <c r="AD209" s="1">
-        <v>1</v>
+        <v>569</v>
       </c>
       <c r="AE209" s="1">
-        <v>5</v>
+        <v>401</v>
       </c>
       <c r="AF209" s="1">
-        <v>1</v>
+        <v>341</v>
       </c>
       <c r="AG209" s="1">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="AH209" s="1">
-        <v>1</v>
+        <v>258</v>
       </c>
     </row>
     <row r="210" spans="1:34">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D210" s="1"/>
-      <c r="E210" s="1">
-        <v>3</v>
+      <c r="E210" s="3">
+        <v>3136</v>
       </c>
       <c r="F210" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G210" s="1">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H210" s="1">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="I210" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J210" s="1">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="K210" s="1">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="L210" s="1">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="M210" s="1">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="N210" s="1">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="O210" s="1">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="P210" s="1">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="Q210" s="1">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="R210" s="1">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="S210" s="1">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="T210" s="1">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="U210" s="1">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="V210" s="1">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="W210" s="1">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="X210" s="1">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="Y210" s="1">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="Z210" s="1">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AA210" s="1">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AB210" s="1">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AC210" s="1">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="AD210" s="1">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AE210" s="1">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="AF210" s="1">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="AG210" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AH210" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:34">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C211" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1">
-        <v>6</v>
+        <f>E214+E213+E212</f>
+        <v>10</v>
       </c>
       <c r="F211" s="1">
+        <f t="shared" ref="F211:AH211" si="38">F214+F213+F212</f>
         <v>1</v>
       </c>
       <c r="G211" s="1">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="H211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="I211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="J211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="K211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="R211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="S211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="T211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Y211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Z211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AA211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AB211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD211" s="1">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="AE211" s="1">
-        <v>2</v>
+        <f t="shared" si="38"/>
+        <v>5</v>
       </c>
       <c r="AF211" s="1">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="AG211" s="1">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AH211" s="1">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
@@ -16390,11 +16374,11 @@
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F212" s="1">
         <v>0</v>
@@ -16472,10 +16456,10 @@
         <v>0</v>
       </c>
       <c r="AE212" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF212" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG212" s="1">
         <v>0</v>
@@ -16486,801 +16470,861 @@
     </row>
     <row r="213" spans="1:34">
       <c r="A213" s="1"/>
-      <c r="B213" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D213" s="1"/>
-      <c r="E213" s="3">
-        <v>54564</v>
+      <c r="E213" s="1">
+        <v>6</v>
       </c>
       <c r="F213" s="1">
-        <v>423</v>
-      </c>
-      <c r="G213" s="3">
-        <v>1388</v>
-      </c>
-      <c r="H213" s="3">
-        <v>1883</v>
-      </c>
-      <c r="I213" s="3">
-        <v>1907</v>
-      </c>
-      <c r="J213" s="3">
-        <v>1546</v>
-      </c>
-      <c r="K213" s="3">
-        <v>1590</v>
-      </c>
-      <c r="L213" s="3">
-        <v>1586</v>
-      </c>
-      <c r="M213" s="3">
-        <v>1734</v>
-      </c>
-      <c r="N213" s="3">
-        <v>1767</v>
-      </c>
-      <c r="O213" s="3">
-        <v>1862</v>
-      </c>
-      <c r="P213" s="3">
-        <v>1783</v>
-      </c>
-      <c r="Q213" s="3">
-        <v>1718</v>
-      </c>
-      <c r="R213" s="3">
-        <v>1848</v>
-      </c>
-      <c r="S213" s="3">
-        <v>1928</v>
-      </c>
-      <c r="T213" s="3">
-        <v>1955</v>
-      </c>
-      <c r="U213" s="3">
-        <v>2079</v>
-      </c>
-      <c r="V213" s="3">
-        <v>2189</v>
-      </c>
-      <c r="W213" s="3">
-        <v>2350</v>
-      </c>
-      <c r="X213" s="3">
-        <v>2302</v>
-      </c>
-      <c r="Y213" s="3">
-        <v>2403</v>
-      </c>
-      <c r="Z213" s="3">
-        <v>2659</v>
-      </c>
-      <c r="AA213" s="3">
-        <v>2774</v>
-      </c>
-      <c r="AB213" s="3">
-        <v>2548</v>
-      </c>
-      <c r="AC213" s="3">
-        <v>2386</v>
-      </c>
-      <c r="AD213" s="3">
-        <v>2443</v>
-      </c>
-      <c r="AE213" s="3">
-        <v>1763</v>
-      </c>
-      <c r="AF213" s="3">
-        <v>1514</v>
-      </c>
-      <c r="AG213" s="3">
-        <v>1311</v>
-      </c>
-      <c r="AH213" s="3">
-        <v>1044</v>
+        <v>1</v>
+      </c>
+      <c r="G213" s="1">
+        <v>1</v>
+      </c>
+      <c r="H213" s="1">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1">
+        <v>0</v>
+      </c>
+      <c r="J213" s="1">
+        <v>0</v>
+      </c>
+      <c r="K213" s="1">
+        <v>0</v>
+      </c>
+      <c r="L213" s="1">
+        <v>0</v>
+      </c>
+      <c r="M213" s="1">
+        <v>0</v>
+      </c>
+      <c r="N213" s="1">
+        <v>0</v>
+      </c>
+      <c r="O213" s="1">
+        <v>0</v>
+      </c>
+      <c r="P213" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q213" s="1">
+        <v>0</v>
+      </c>
+      <c r="R213" s="1">
+        <v>0</v>
+      </c>
+      <c r="S213" s="1">
+        <v>0</v>
+      </c>
+      <c r="T213" s="1">
+        <v>0</v>
+      </c>
+      <c r="U213" s="1">
+        <v>0</v>
+      </c>
+      <c r="V213" s="1">
+        <v>0</v>
+      </c>
+      <c r="W213" s="1">
+        <v>0</v>
+      </c>
+      <c r="X213" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y213" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z213" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA213" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB213" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC213" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD213" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE213" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF213" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG213" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH213" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:34">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D214" s="1"/>
-      <c r="E214" s="3">
-        <v>29119</v>
+      <c r="E214" s="1">
+        <v>1</v>
       </c>
       <c r="F214" s="1">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="G214" s="1">
-        <v>776</v>
-      </c>
-      <c r="H214" s="3">
-        <v>1076</v>
-      </c>
-      <c r="I214" s="3">
-        <v>1048</v>
+        <v>0</v>
+      </c>
+      <c r="H214" s="1">
+        <v>0</v>
+      </c>
+      <c r="I214" s="1">
+        <v>0</v>
       </c>
       <c r="J214" s="1">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="K214" s="1">
-        <v>902</v>
+        <v>0</v>
       </c>
       <c r="L214" s="1">
-        <v>835</v>
+        <v>0</v>
       </c>
       <c r="M214" s="1">
-        <v>929</v>
+        <v>0</v>
       </c>
       <c r="N214" s="1">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="O214" s="1">
-        <v>988</v>
+        <v>0</v>
       </c>
       <c r="P214" s="1">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="Q214" s="1">
-        <v>909</v>
-      </c>
-      <c r="R214" s="3">
-        <v>1010</v>
-      </c>
-      <c r="S214" s="3">
-        <v>1019</v>
-      </c>
-      <c r="T214" s="3">
-        <v>1064</v>
-      </c>
-      <c r="U214" s="3">
-        <v>1102</v>
-      </c>
-      <c r="V214" s="3">
-        <v>1134</v>
-      </c>
-      <c r="W214" s="3">
-        <v>1208</v>
-      </c>
-      <c r="X214" s="3">
-        <v>1228</v>
-      </c>
-      <c r="Y214" s="3">
-        <v>1258</v>
-      </c>
-      <c r="Z214" s="3">
-        <v>1350</v>
-      </c>
-      <c r="AA214" s="3">
-        <v>1477</v>
-      </c>
-      <c r="AB214" s="3">
-        <v>1334</v>
-      </c>
-      <c r="AC214" s="3">
-        <v>1265</v>
-      </c>
-      <c r="AD214" s="3">
-        <v>1239</v>
+        <v>0</v>
+      </c>
+      <c r="R214" s="1">
+        <v>0</v>
+      </c>
+      <c r="S214" s="1">
+        <v>0</v>
+      </c>
+      <c r="T214" s="1">
+        <v>0</v>
+      </c>
+      <c r="U214" s="1">
+        <v>0</v>
+      </c>
+      <c r="V214" s="1">
+        <v>0</v>
+      </c>
+      <c r="W214" s="1">
+        <v>0</v>
+      </c>
+      <c r="X214" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y214" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC214" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD214" s="1">
+        <v>0</v>
       </c>
       <c r="AE214" s="1">
-        <v>950</v>
+        <v>1</v>
       </c>
       <c r="AF214" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="AG214" s="1">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="AH214" s="1">
-        <v>552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:34">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
+      <c r="B215" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C215" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="3">
-        <v>15044</v>
-      </c>
-      <c r="F215" s="1">
-        <v>100</v>
-      </c>
-      <c r="G215" s="1">
-        <v>362</v>
-      </c>
-      <c r="H215" s="1">
-        <v>462</v>
-      </c>
-      <c r="I215" s="1">
-        <v>530</v>
-      </c>
-      <c r="J215" s="1">
-        <v>368</v>
-      </c>
-      <c r="K215" s="1">
-        <v>402</v>
-      </c>
-      <c r="L215" s="1">
-        <v>439</v>
-      </c>
-      <c r="M215" s="1">
-        <v>472</v>
-      </c>
-      <c r="N215" s="1">
-        <v>486</v>
-      </c>
-      <c r="O215" s="1">
-        <v>506</v>
-      </c>
-      <c r="P215" s="1">
-        <v>496</v>
-      </c>
-      <c r="Q215" s="1">
-        <v>505</v>
-      </c>
-      <c r="R215" s="1">
-        <v>498</v>
-      </c>
-      <c r="S215" s="1">
-        <v>523</v>
-      </c>
-      <c r="T215" s="1">
-        <v>536</v>
-      </c>
-      <c r="U215" s="1">
-        <v>572</v>
-      </c>
-      <c r="V215" s="1">
-        <v>622</v>
-      </c>
-      <c r="W215" s="1">
-        <v>703</v>
-      </c>
-      <c r="X215" s="1">
-        <v>622</v>
-      </c>
-      <c r="Y215" s="1">
-        <v>682</v>
-      </c>
-      <c r="Z215" s="1">
-        <v>784</v>
-      </c>
-      <c r="AA215" s="1">
-        <v>762</v>
-      </c>
-      <c r="AB215" s="1">
-        <v>729</v>
-      </c>
-      <c r="AC215" s="1">
-        <v>680</v>
-      </c>
-      <c r="AD215" s="1">
-        <v>669</v>
-      </c>
-      <c r="AE215" s="1">
-        <v>470</v>
-      </c>
-      <c r="AF215" s="1">
-        <v>416</v>
-      </c>
-      <c r="AG215" s="1">
-        <v>397</v>
-      </c>
-      <c r="AH215" s="1">
-        <v>279</v>
+        <f>E219+E218+E217+E216</f>
+        <v>54566</v>
+      </c>
+      <c r="F215" s="3">
+        <f t="shared" ref="F215:AH215" si="39">F219+F218+F217+F216</f>
+        <v>423</v>
+      </c>
+      <c r="G215" s="3">
+        <f t="shared" si="39"/>
+        <v>1388</v>
+      </c>
+      <c r="H215" s="3">
+        <f t="shared" si="39"/>
+        <v>1883</v>
+      </c>
+      <c r="I215" s="3">
+        <f t="shared" si="39"/>
+        <v>1907</v>
+      </c>
+      <c r="J215" s="3">
+        <f t="shared" si="39"/>
+        <v>1546</v>
+      </c>
+      <c r="K215" s="3">
+        <f t="shared" si="39"/>
+        <v>1590</v>
+      </c>
+      <c r="L215" s="3">
+        <f t="shared" si="39"/>
+        <v>1586</v>
+      </c>
+      <c r="M215" s="3">
+        <f t="shared" si="39"/>
+        <v>1734</v>
+      </c>
+      <c r="N215" s="3">
+        <f t="shared" si="39"/>
+        <v>1767</v>
+      </c>
+      <c r="O215" s="3">
+        <f t="shared" si="39"/>
+        <v>1862</v>
+      </c>
+      <c r="P215" s="3">
+        <f t="shared" si="39"/>
+        <v>1783</v>
+      </c>
+      <c r="Q215" s="3">
+        <f t="shared" si="39"/>
+        <v>1718</v>
+      </c>
+      <c r="R215" s="3">
+        <f t="shared" si="39"/>
+        <v>1848</v>
+      </c>
+      <c r="S215" s="3">
+        <f t="shared" si="39"/>
+        <v>1928</v>
+      </c>
+      <c r="T215" s="3">
+        <f t="shared" si="39"/>
+        <v>1955</v>
+      </c>
+      <c r="U215" s="3">
+        <f t="shared" si="39"/>
+        <v>2079</v>
+      </c>
+      <c r="V215" s="3">
+        <f t="shared" si="39"/>
+        <v>2189</v>
+      </c>
+      <c r="W215" s="3">
+        <f t="shared" si="39"/>
+        <v>2350</v>
+      </c>
+      <c r="X215" s="3">
+        <f t="shared" si="39"/>
+        <v>2302</v>
+      </c>
+      <c r="Y215" s="3">
+        <f t="shared" si="39"/>
+        <v>2403</v>
+      </c>
+      <c r="Z215" s="3">
+        <f t="shared" si="39"/>
+        <v>2659</v>
+      </c>
+      <c r="AA215" s="3">
+        <f t="shared" si="39"/>
+        <v>2774</v>
+      </c>
+      <c r="AB215" s="3">
+        <f t="shared" si="39"/>
+        <v>2548</v>
+      </c>
+      <c r="AC215" s="3">
+        <f t="shared" si="39"/>
+        <v>2387</v>
+      </c>
+      <c r="AD215" s="3">
+        <f t="shared" si="39"/>
+        <v>2443</v>
+      </c>
+      <c r="AE215" s="3">
+        <f t="shared" si="39"/>
+        <v>1763</v>
+      </c>
+      <c r="AF215" s="3">
+        <f t="shared" si="39"/>
+        <v>1514</v>
+      </c>
+      <c r="AG215" s="3">
+        <f t="shared" si="39"/>
+        <v>1311</v>
+      </c>
+      <c r="AH215" s="3">
+        <f t="shared" si="39"/>
+        <v>1044</v>
       </c>
     </row>
     <row r="216" spans="1:34">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="3">
-        <v>9008</v>
+        <v>29119</v>
       </c>
       <c r="F216" s="1">
-        <v>59</v>
+        <v>259</v>
       </c>
       <c r="G216" s="1">
-        <v>224</v>
-      </c>
-      <c r="H216" s="1">
-        <v>319</v>
-      </c>
-      <c r="I216" s="1">
-        <v>289</v>
+        <v>776</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1076</v>
+      </c>
+      <c r="I216" s="3">
+        <v>1048</v>
       </c>
       <c r="J216" s="1">
-        <v>270</v>
+        <v>874</v>
       </c>
       <c r="K216" s="1">
-        <v>251</v>
+        <v>902</v>
       </c>
       <c r="L216" s="1">
-        <v>282</v>
+        <v>835</v>
       </c>
       <c r="M216" s="1">
-        <v>291</v>
+        <v>929</v>
       </c>
       <c r="N216" s="1">
-        <v>283</v>
+        <v>954</v>
       </c>
       <c r="O216" s="1">
-        <v>322</v>
+        <v>988</v>
       </c>
       <c r="P216" s="1">
-        <v>280</v>
+        <v>962</v>
       </c>
       <c r="Q216" s="1">
-        <v>262</v>
-      </c>
-      <c r="R216" s="1">
-        <v>291</v>
-      </c>
-      <c r="S216" s="1">
-        <v>324</v>
-      </c>
-      <c r="T216" s="1">
-        <v>299</v>
-      </c>
-      <c r="U216" s="1">
-        <v>339</v>
-      </c>
-      <c r="V216" s="1">
-        <v>384</v>
-      </c>
-      <c r="W216" s="1">
-        <v>370</v>
-      </c>
-      <c r="X216" s="1">
-        <v>399</v>
-      </c>
-      <c r="Y216" s="1">
-        <v>392</v>
-      </c>
-      <c r="Z216" s="1">
-        <v>453</v>
-      </c>
-      <c r="AA216" s="1">
-        <v>460</v>
-      </c>
-      <c r="AB216" s="1">
-        <v>420</v>
-      </c>
-      <c r="AC216" s="1">
-        <v>381</v>
-      </c>
-      <c r="AD216" s="1">
-        <v>453</v>
+        <v>909</v>
+      </c>
+      <c r="R216" s="3">
+        <v>1010</v>
+      </c>
+      <c r="S216" s="3">
+        <v>1019</v>
+      </c>
+      <c r="T216" s="3">
+        <v>1064</v>
+      </c>
+      <c r="U216" s="3">
+        <v>1102</v>
+      </c>
+      <c r="V216" s="3">
+        <v>1134</v>
+      </c>
+      <c r="W216" s="3">
+        <v>1208</v>
+      </c>
+      <c r="X216" s="3">
+        <v>1228</v>
+      </c>
+      <c r="Y216" s="3">
+        <v>1258</v>
+      </c>
+      <c r="Z216" s="3">
+        <v>1350</v>
+      </c>
+      <c r="AA216" s="3">
+        <v>1477</v>
+      </c>
+      <c r="AB216" s="3">
+        <v>1334</v>
+      </c>
+      <c r="AC216" s="3">
+        <v>1265</v>
+      </c>
+      <c r="AD216" s="3">
+        <v>1239</v>
       </c>
       <c r="AE216" s="1">
-        <v>292</v>
+        <v>950</v>
       </c>
       <c r="AF216" s="1">
-        <v>252</v>
+        <v>800</v>
       </c>
       <c r="AG216" s="1">
-        <v>205</v>
+        <v>680</v>
       </c>
       <c r="AH216" s="1">
-        <v>185</v>
+        <v>552</v>
       </c>
     </row>
     <row r="217" spans="1:34">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="3">
-        <v>1395</v>
+        <v>15044</v>
       </c>
       <c r="F217" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="G217" s="1">
-        <v>26</v>
+        <v>362</v>
       </c>
       <c r="H217" s="1">
-        <v>26</v>
+        <v>462</v>
       </c>
       <c r="I217" s="1">
-        <v>40</v>
+        <v>530</v>
       </c>
       <c r="J217" s="1">
-        <v>34</v>
+        <v>368</v>
       </c>
       <c r="K217" s="1">
-        <v>35</v>
+        <v>402</v>
       </c>
       <c r="L217" s="1">
-        <v>30</v>
+        <v>439</v>
       </c>
       <c r="M217" s="1">
-        <v>42</v>
+        <v>472</v>
       </c>
       <c r="N217" s="1">
-        <v>44</v>
+        <v>486</v>
       </c>
       <c r="O217" s="1">
-        <v>46</v>
+        <v>506</v>
       </c>
       <c r="P217" s="1">
-        <v>45</v>
+        <v>496</v>
       </c>
       <c r="Q217" s="1">
-        <v>42</v>
+        <v>505</v>
       </c>
       <c r="R217" s="1">
-        <v>49</v>
+        <v>498</v>
       </c>
       <c r="S217" s="1">
-        <v>62</v>
+        <v>523</v>
       </c>
       <c r="T217" s="1">
-        <v>56</v>
+        <v>536</v>
       </c>
       <c r="U217" s="1">
-        <v>66</v>
+        <v>572</v>
       </c>
       <c r="V217" s="1">
-        <v>49</v>
+        <v>622</v>
       </c>
       <c r="W217" s="1">
-        <v>69</v>
+        <v>703</v>
       </c>
       <c r="X217" s="1">
-        <v>53</v>
+        <v>622</v>
       </c>
       <c r="Y217" s="1">
-        <v>71</v>
+        <v>682</v>
       </c>
       <c r="Z217" s="1">
-        <v>72</v>
+        <v>784</v>
       </c>
       <c r="AA217" s="1">
-        <v>75</v>
+        <v>762</v>
       </c>
       <c r="AB217" s="1">
-        <v>65</v>
+        <v>729</v>
       </c>
       <c r="AC217" s="1">
-        <v>61</v>
+        <v>680</v>
       </c>
       <c r="AD217" s="1">
-        <v>82</v>
+        <v>669</v>
       </c>
       <c r="AE217" s="1">
-        <v>51</v>
+        <v>470</v>
       </c>
       <c r="AF217" s="1">
-        <v>46</v>
+        <v>416</v>
       </c>
       <c r="AG217" s="1">
-        <v>29</v>
+        <v>397</v>
       </c>
       <c r="AH217" s="1">
-        <v>28</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:34">
       <c r="A218" s="1"/>
-      <c r="B218" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B218" s="1"/>
       <c r="C218" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D218" s="1"/>
-      <c r="E218" s="1">
-        <v>135</v>
+      <c r="E218" s="3">
+        <v>9008</v>
       </c>
       <c r="F218" s="1">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G218" s="1">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H218" s="1">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I218" s="1">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="J218" s="1">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="K218" s="1">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="L218" s="1">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="M218" s="1">
-        <v>1</v>
+        <v>291</v>
       </c>
       <c r="N218" s="1">
-        <v>1</v>
+        <v>283</v>
       </c>
       <c r="O218" s="1">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="P218" s="1">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="Q218" s="1">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="R218" s="1">
-        <v>8</v>
+        <v>291</v>
       </c>
       <c r="S218" s="1">
-        <v>10</v>
+        <v>324</v>
       </c>
       <c r="T218" s="1">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="U218" s="1">
-        <v>5</v>
+        <v>339</v>
       </c>
       <c r="V218" s="1">
-        <v>10</v>
+        <v>384</v>
       </c>
       <c r="W218" s="1">
-        <v>15</v>
+        <v>370</v>
       </c>
       <c r="X218" s="1">
-        <v>12</v>
+        <v>399</v>
       </c>
       <c r="Y218" s="1">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="Z218" s="1">
-        <v>7</v>
+        <v>453</v>
       </c>
       <c r="AA218" s="1">
-        <v>10</v>
+        <v>460</v>
       </c>
       <c r="AB218" s="1">
-        <v>8</v>
+        <v>420</v>
       </c>
       <c r="AC218" s="1">
-        <v>3</v>
+        <v>381</v>
       </c>
       <c r="AD218" s="1">
-        <v>9</v>
+        <v>453</v>
       </c>
       <c r="AE218" s="1">
-        <v>5</v>
+        <v>292</v>
       </c>
       <c r="AF218" s="1">
-        <v>3</v>
+        <v>252</v>
       </c>
       <c r="AG218" s="1">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="AH218" s="1">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219" spans="1:34">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D219" s="1"/>
-      <c r="E219" s="1">
+      <c r="E219" s="3">
+        <v>1395</v>
+      </c>
+      <c r="F219" s="1">
+        <v>5</v>
+      </c>
+      <c r="G219" s="1">
+        <v>26</v>
+      </c>
+      <c r="H219" s="1">
+        <v>26</v>
+      </c>
+      <c r="I219" s="1">
+        <v>40</v>
+      </c>
+      <c r="J219" s="1">
+        <v>34</v>
+      </c>
+      <c r="K219" s="1">
+        <v>35</v>
+      </c>
+      <c r="L219" s="1">
+        <v>30</v>
+      </c>
+      <c r="M219" s="1">
+        <v>42</v>
+      </c>
+      <c r="N219" s="1">
+        <v>44</v>
+      </c>
+      <c r="O219" s="1">
+        <v>46</v>
+      </c>
+      <c r="P219" s="1">
+        <v>45</v>
+      </c>
+      <c r="Q219" s="1">
+        <v>42</v>
+      </c>
+      <c r="R219" s="1">
+        <v>49</v>
+      </c>
+      <c r="S219" s="1">
+        <v>62</v>
+      </c>
+      <c r="T219" s="1">
+        <v>56</v>
+      </c>
+      <c r="U219" s="1">
+        <v>66</v>
+      </c>
+      <c r="V219" s="1">
+        <v>49</v>
+      </c>
+      <c r="W219" s="1">
+        <v>69</v>
+      </c>
+      <c r="X219" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y219" s="1">
+        <v>71</v>
+      </c>
+      <c r="Z219" s="1">
+        <v>72</v>
+      </c>
+      <c r="AA219" s="1">
+        <v>75</v>
+      </c>
+      <c r="AB219" s="1">
         <v>65</v>
       </c>
-      <c r="F219" s="1">
-        <v>0</v>
-      </c>
-      <c r="G219" s="1">
-        <v>0</v>
-      </c>
-      <c r="H219" s="1">
-        <v>0</v>
-      </c>
-      <c r="I219" s="1">
-        <v>0</v>
-      </c>
-      <c r="J219" s="1">
-        <v>1</v>
-      </c>
-      <c r="K219" s="1">
-        <v>1</v>
-      </c>
-      <c r="L219" s="1">
-        <v>2</v>
-      </c>
-      <c r="M219" s="1">
-        <v>1</v>
-      </c>
-      <c r="N219" s="1">
-        <v>0</v>
-      </c>
-      <c r="O219" s="1">
-        <v>1</v>
-      </c>
-      <c r="P219" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q219" s="1">
-        <v>0</v>
-      </c>
-      <c r="R219" s="1">
-        <v>4</v>
-      </c>
-      <c r="S219" s="1">
-        <v>4</v>
-      </c>
-      <c r="T219" s="1">
-        <v>5</v>
-      </c>
-      <c r="U219" s="1">
-        <v>4</v>
-      </c>
-      <c r="V219" s="1">
-        <v>6</v>
-      </c>
-      <c r="W219" s="1">
-        <v>7</v>
-      </c>
-      <c r="X219" s="1">
-        <v>5</v>
-      </c>
-      <c r="Y219" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z219" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA219" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB219" s="1">
-        <v>4</v>
-      </c>
       <c r="AC219" s="1">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="AD219" s="1">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="AE219" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="AF219" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="AG219" s="1">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AH219" s="1">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220" spans="1:34">
       <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
+      <c r="B220" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C220" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D220" s="1"/>
       <c r="E220" s="1">
-        <v>36</v>
+        <f>E224+E223+E222+E221</f>
+        <v>135</v>
       </c>
       <c r="F220" s="1">
+        <f t="shared" ref="F220:AH220" si="40">F224+F223+F222+F221</f>
         <v>0</v>
       </c>
       <c r="G220" s="1">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="H220" s="1">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I220" s="1">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J220" s="1">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="K220" s="1">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="L220" s="1">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>2</v>
       </c>
       <c r="M220" s="1">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="N220" s="1">
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="O220" s="1">
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>1</v>
       </c>
       <c r="P220" s="1">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q220" s="1">
-        <v>2</v>
+        <f t="shared" si="40"/>
+        <v>3</v>
       </c>
       <c r="R220" s="1">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="S220" s="1">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="T220" s="1">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="U220" s="1">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="V220" s="1">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="W220" s="1">
+        <f t="shared" si="40"/>
+        <v>15</v>
+      </c>
+      <c r="X220" s="1">
+        <f t="shared" si="40"/>
+        <v>12</v>
+      </c>
+      <c r="Y220" s="1">
+        <f t="shared" si="40"/>
+        <v>6</v>
+      </c>
+      <c r="Z220" s="1">
+        <f t="shared" si="40"/>
+        <v>7</v>
+      </c>
+      <c r="AA220" s="1">
+        <f t="shared" si="40"/>
+        <v>10</v>
+      </c>
+      <c r="AB220" s="1">
+        <f t="shared" si="40"/>
+        <v>8</v>
+      </c>
+      <c r="AC220" s="1">
+        <f t="shared" si="40"/>
         <v>3</v>
       </c>
-      <c r="S220" s="1">
-        <v>2</v>
-      </c>
-      <c r="T220" s="1">
-        <v>1</v>
-      </c>
-      <c r="U220" s="1">
-        <v>0</v>
-      </c>
-      <c r="V220" s="1">
-        <v>0</v>
-      </c>
-      <c r="W220" s="1">
+      <c r="AD220" s="1">
+        <f t="shared" si="40"/>
+        <v>9</v>
+      </c>
+      <c r="AE220" s="1">
+        <f t="shared" si="40"/>
+        <v>5</v>
+      </c>
+      <c r="AF220" s="1">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="AG220" s="1">
+        <f t="shared" si="40"/>
+        <v>3</v>
+      </c>
+      <c r="AH220" s="1">
+        <f t="shared" si="40"/>
         <v>4</v>
-      </c>
-      <c r="X220" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y220" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z220" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA220" s="1">
-        <v>3</v>
-      </c>
-      <c r="AB220" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC220" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD220" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE220" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF220" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG220" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH220" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:34">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="F221" s="1">
         <v>0</v>
@@ -17295,90 +17339,90 @@
         <v>0</v>
       </c>
       <c r="J221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N221" s="1">
         <v>0</v>
       </c>
       <c r="O221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P221" s="1">
         <v>0</v>
       </c>
       <c r="Q221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R221" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S221" s="1">
+        <v>4</v>
+      </c>
+      <c r="T221" s="1">
+        <v>5</v>
+      </c>
+      <c r="U221" s="1">
+        <v>4</v>
+      </c>
+      <c r="V221" s="1">
+        <v>6</v>
+      </c>
+      <c r="W221" s="1">
+        <v>7</v>
+      </c>
+      <c r="X221" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y221" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z221" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA221" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB221" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC221" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD221" s="1">
         <v>3</v>
-      </c>
-      <c r="T221" s="1">
-        <v>0</v>
-      </c>
-      <c r="U221" s="1">
-        <v>1</v>
-      </c>
-      <c r="V221" s="1">
-        <v>4</v>
-      </c>
-      <c r="W221" s="1">
-        <v>3</v>
-      </c>
-      <c r="X221" s="1">
-        <v>3</v>
-      </c>
-      <c r="Y221" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z221" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA221" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB221" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC221" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD221" s="1">
-        <v>2</v>
       </c>
       <c r="AE221" s="1">
         <v>2</v>
       </c>
       <c r="AF221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG221" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH221" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:34">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="F222" s="1">
         <v>0</v>
@@ -17405,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="N222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O222" s="1">
         <v>0</v>
@@ -17414,13 +17458,13 @@
         <v>0</v>
       </c>
       <c r="Q222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R222" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S222" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T222" s="1">
         <v>1</v>
@@ -17432,19 +17476,19 @@
         <v>0</v>
       </c>
       <c r="W222" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X222" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y222" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z222" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA222" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB222" s="1">
         <v>1</v>
@@ -17453,32 +17497,30 @@
         <v>0</v>
       </c>
       <c r="AD222" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF222" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:34">
       <c r="A223" s="1"/>
-      <c r="B223" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B223" s="1"/>
       <c r="C223" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F223" s="1">
         <v>0</v>
@@ -17508,7 +17550,7 @@
         <v>0</v>
       </c>
       <c r="O223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P223" s="1">
         <v>0</v>
@@ -17520,63 +17562,63 @@
         <v>1</v>
       </c>
       <c r="S223" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T223" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U223" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V223" s="1">
         <v>4</v>
       </c>
       <c r="W223" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X223" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y223" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z223" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA223" s="1">
         <v>2</v>
       </c>
       <c r="AB223" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AC223" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AD223" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE223" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG223" s="1">
         <v>0</v>
       </c>
       <c r="AH223" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:34">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="F224" s="1">
         <v>0</v>
@@ -17615,164 +17657,196 @@
         <v>0</v>
       </c>
       <c r="R224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S224" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T224" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U224" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V224" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W224" s="1">
         <v>1</v>
       </c>
       <c r="X224" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y224" s="1">
         <v>0</v>
       </c>
       <c r="Z224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB224" s="1">
         <v>1</v>
       </c>
       <c r="AC224" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD224" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE224" s="1">
         <v>0</v>
       </c>
       <c r="AF224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG224" s="1">
         <v>0</v>
       </c>
       <c r="AH224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:34">
       <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
+      <c r="B225" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C225" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1">
-        <v>18</v>
+        <f>E229+E228+E227+E226</f>
+        <v>49</v>
       </c>
       <c r="F225" s="1">
+        <f t="shared" ref="F225:AH225" si="41">F229+F228+F227+F226</f>
         <v>0</v>
       </c>
       <c r="G225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="H225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="I225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="J225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O225" s="1">
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="P225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q225" s="1">
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="R225" s="1">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="S225" s="1">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="T225" s="1">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>2</v>
       </c>
       <c r="U225" s="1">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="V225" s="1">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="W225" s="1">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="X225" s="1">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="Y225" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="Z225" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AA225" s="1">
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
-      <c r="V225" s="1">
-        <v>1</v>
-      </c>
-      <c r="W225" s="1">
+      <c r="AB225" s="1">
+        <f t="shared" si="41"/>
+        <v>6</v>
+      </c>
+      <c r="AC225" s="1">
+        <f t="shared" si="41"/>
+        <v>11</v>
+      </c>
+      <c r="AD225" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AE225" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AF225" s="1">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="AG225" s="1">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AH225" s="1">
+        <f t="shared" si="41"/>
         <v>2</v>
-      </c>
-      <c r="X225" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y225" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA225" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB225" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC225" s="1">
-        <v>3</v>
-      </c>
-      <c r="AD225" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE225" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG225" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH225" s="1">
-        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:34">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F226" s="1">
         <v>0</v>
@@ -17811,40 +17885,40 @@
         <v>0</v>
       </c>
       <c r="R226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S226" s="1">
         <v>0</v>
       </c>
       <c r="T226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U226" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V226" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W226" s="1">
         <v>1</v>
       </c>
       <c r="X226" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB226" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC226" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD226" s="1">
         <v>0</v>
@@ -17853,24 +17927,24 @@
         <v>0</v>
       </c>
       <c r="AF226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG226" s="1">
         <v>0</v>
       </c>
       <c r="AH226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:34">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F227" s="1">
         <v>0</v>
@@ -17900,13 +17974,13 @@
         <v>0</v>
       </c>
       <c r="O227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P227" s="1">
         <v>0</v>
       </c>
       <c r="Q227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R227" s="1">
         <v>0</v>
@@ -17918,13 +17992,13 @@
         <v>0</v>
       </c>
       <c r="U227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W227" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X227" s="1">
         <v>1</v>
@@ -17936,19 +18010,19 @@
         <v>0</v>
       </c>
       <c r="AA227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB227" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC227" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF227" s="1">
         <v>0</v>
@@ -17957,518 +18031,754 @@
         <v>0</v>
       </c>
       <c r="AH227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:34">
       <c r="A228" s="1"/>
-      <c r="B228" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B228" s="1"/>
       <c r="C228" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D228" s="1"/>
-      <c r="E228" s="3">
-        <v>59604</v>
+      <c r="E228" s="1">
+        <v>5</v>
       </c>
       <c r="F228" s="1">
-        <v>991</v>
-      </c>
-      <c r="G228" s="3">
-        <v>2990</v>
-      </c>
-      <c r="H228" s="3">
-        <v>3203</v>
-      </c>
-      <c r="I228" s="3">
-        <v>3067</v>
-      </c>
-      <c r="J228" s="3">
-        <v>2406</v>
-      </c>
-      <c r="K228" s="3">
-        <v>2572</v>
-      </c>
-      <c r="L228" s="3">
-        <v>2789</v>
-      </c>
-      <c r="M228" s="3">
-        <v>3047</v>
-      </c>
-      <c r="N228" s="3">
-        <v>3095</v>
-      </c>
-      <c r="O228" s="3">
-        <v>2970</v>
-      </c>
-      <c r="P228" s="3">
-        <v>2893</v>
-      </c>
-      <c r="Q228" s="3">
-        <v>2979</v>
-      </c>
-      <c r="R228" s="3">
-        <v>3009</v>
-      </c>
-      <c r="S228" s="3">
-        <v>2812</v>
-      </c>
-      <c r="T228" s="3">
-        <v>2783</v>
-      </c>
-      <c r="U228" s="3">
-        <v>2639</v>
-      </c>
-      <c r="V228" s="3">
-        <v>2405</v>
-      </c>
-      <c r="W228" s="3">
-        <v>2206</v>
-      </c>
-      <c r="X228" s="3">
-        <v>1910</v>
-      </c>
-      <c r="Y228" s="3">
-        <v>1722</v>
-      </c>
-      <c r="Z228" s="3">
-        <v>1251</v>
-      </c>
-      <c r="AA228" s="3">
-        <v>1039</v>
+        <v>0</v>
+      </c>
+      <c r="G228" s="1">
+        <v>0</v>
+      </c>
+      <c r="H228" s="1">
+        <v>0</v>
+      </c>
+      <c r="I228" s="1">
+        <v>0</v>
+      </c>
+      <c r="J228" s="1">
+        <v>0</v>
+      </c>
+      <c r="K228" s="1">
+        <v>0</v>
+      </c>
+      <c r="L228" s="1">
+        <v>0</v>
+      </c>
+      <c r="M228" s="1">
+        <v>0</v>
+      </c>
+      <c r="N228" s="1">
+        <v>0</v>
+      </c>
+      <c r="O228" s="1">
+        <v>0</v>
+      </c>
+      <c r="P228" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q228" s="1">
+        <v>0</v>
+      </c>
+      <c r="R228" s="1">
+        <v>0</v>
+      </c>
+      <c r="S228" s="1">
+        <v>0</v>
+      </c>
+      <c r="T228" s="1">
+        <v>0</v>
+      </c>
+      <c r="U228" s="1">
+        <v>1</v>
+      </c>
+      <c r="V228" s="1">
+        <v>0</v>
+      </c>
+      <c r="W228" s="1">
+        <v>1</v>
+      </c>
+      <c r="X228" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y228" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z228" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA228" s="1">
+        <v>0</v>
       </c>
       <c r="AB228" s="1">
-        <v>912</v>
+        <v>2</v>
       </c>
       <c r="AC228" s="1">
-        <v>813</v>
+        <v>0</v>
       </c>
       <c r="AD228" s="1">
-        <v>876</v>
+        <v>0</v>
       </c>
       <c r="AE228" s="1">
-        <v>675</v>
+        <v>0</v>
       </c>
       <c r="AF228" s="1">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="AG228" s="1">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="AH228" s="1">
-        <v>489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:34">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D229" s="1"/>
-      <c r="E229" s="3">
-        <v>30569</v>
+      <c r="E229" s="1">
+        <v>1</v>
       </c>
       <c r="F229" s="1">
-        <v>479</v>
-      </c>
-      <c r="G229" s="3">
-        <v>1568</v>
-      </c>
-      <c r="H229" s="3">
-        <v>1645</v>
-      </c>
-      <c r="I229" s="3">
-        <v>1651</v>
-      </c>
-      <c r="J229" s="3">
-        <v>1262</v>
-      </c>
-      <c r="K229" s="3">
-        <v>1343</v>
-      </c>
-      <c r="L229" s="3">
-        <v>1441</v>
-      </c>
-      <c r="M229" s="3">
-        <v>1567</v>
-      </c>
-      <c r="N229" s="3">
-        <v>1567</v>
-      </c>
-      <c r="O229" s="3">
-        <v>1463</v>
-      </c>
-      <c r="P229" s="3">
-        <v>1461</v>
-      </c>
-      <c r="Q229" s="3">
-        <v>1553</v>
-      </c>
-      <c r="R229" s="3">
-        <v>1493</v>
-      </c>
-      <c r="S229" s="3">
-        <v>1446</v>
-      </c>
-      <c r="T229" s="3">
-        <v>1422</v>
-      </c>
-      <c r="U229" s="3">
-        <v>1397</v>
-      </c>
-      <c r="V229" s="3">
-        <v>1228</v>
-      </c>
-      <c r="W229" s="3">
-        <v>1118</v>
+        <v>0</v>
+      </c>
+      <c r="G229" s="1">
+        <v>0</v>
+      </c>
+      <c r="H229" s="1">
+        <v>0</v>
+      </c>
+      <c r="I229" s="1">
+        <v>0</v>
+      </c>
+      <c r="J229" s="1">
+        <v>0</v>
+      </c>
+      <c r="K229" s="1">
+        <v>0</v>
+      </c>
+      <c r="L229" s="1">
+        <v>0</v>
+      </c>
+      <c r="M229" s="1">
+        <v>0</v>
+      </c>
+      <c r="N229" s="1">
+        <v>0</v>
+      </c>
+      <c r="O229" s="1">
+        <v>0</v>
+      </c>
+      <c r="P229" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="1">
+        <v>0</v>
+      </c>
+      <c r="R229" s="1">
+        <v>0</v>
+      </c>
+      <c r="S229" s="1">
+        <v>0</v>
+      </c>
+      <c r="T229" s="1">
+        <v>0</v>
+      </c>
+      <c r="U229" s="1">
+        <v>0</v>
+      </c>
+      <c r="V229" s="1">
+        <v>0</v>
+      </c>
+      <c r="W229" s="1">
+        <v>0</v>
       </c>
       <c r="X229" s="1">
-        <v>993</v>
+        <v>1</v>
       </c>
       <c r="Y229" s="1">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="Z229" s="1">
-        <v>630</v>
+        <v>0</v>
       </c>
       <c r="AA229" s="1">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="AB229" s="1">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="AC229" s="1">
-        <v>412</v>
+        <v>0</v>
       </c>
       <c r="AD229" s="1">
-        <v>461</v>
+        <v>0</v>
       </c>
       <c r="AE229" s="1">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF229" s="1">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="AG229" s="1">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="AH229" s="1">
-        <v>245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:34">
       <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C230" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D230" s="1"/>
       <c r="E230" s="3">
-        <v>17907</v>
-      </c>
-      <c r="F230" s="1">
-        <v>324</v>
-      </c>
-      <c r="G230" s="1">
-        <v>852</v>
-      </c>
-      <c r="H230" s="1">
-        <v>969</v>
-      </c>
-      <c r="I230" s="1">
-        <v>884</v>
-      </c>
-      <c r="J230" s="1">
-        <v>696</v>
-      </c>
-      <c r="K230" s="1">
-        <v>754</v>
-      </c>
-      <c r="L230" s="1">
-        <v>834</v>
-      </c>
-      <c r="M230" s="1">
-        <v>923</v>
-      </c>
-      <c r="N230" s="1">
-        <v>942</v>
-      </c>
-      <c r="O230" s="1">
-        <v>940</v>
-      </c>
-      <c r="P230" s="1">
-        <v>897</v>
-      </c>
-      <c r="Q230" s="1">
-        <v>878</v>
-      </c>
-      <c r="R230" s="1">
-        <v>932</v>
-      </c>
-      <c r="S230" s="1">
-        <v>837</v>
-      </c>
-      <c r="T230" s="1">
-        <v>838</v>
-      </c>
-      <c r="U230" s="1">
-        <v>769</v>
-      </c>
-      <c r="V230" s="1">
-        <v>738</v>
-      </c>
-      <c r="W230" s="1">
-        <v>665</v>
-      </c>
-      <c r="X230" s="1">
-        <v>542</v>
-      </c>
-      <c r="Y230" s="1">
-        <v>495</v>
-      </c>
-      <c r="Z230" s="1">
-        <v>390</v>
-      </c>
-      <c r="AA230" s="1">
-        <v>306</v>
-      </c>
-      <c r="AB230" s="1">
-        <v>275</v>
-      </c>
-      <c r="AC230" s="1">
-        <v>258</v>
-      </c>
-      <c r="AD230" s="1">
-        <v>274</v>
-      </c>
-      <c r="AE230" s="1">
-        <v>194</v>
-      </c>
-      <c r="AF230" s="1">
-        <v>180</v>
-      </c>
-      <c r="AG230" s="1">
-        <v>187</v>
-      </c>
-      <c r="AH230" s="1">
-        <v>150</v>
+        <f>E234+E233+E232+E231</f>
+        <v>59604</v>
+      </c>
+      <c r="F230" s="3">
+        <f t="shared" ref="F230:AH230" si="42">F234+F233+F232+F231</f>
+        <v>991</v>
+      </c>
+      <c r="G230" s="3">
+        <f t="shared" si="42"/>
+        <v>2990</v>
+      </c>
+      <c r="H230" s="3">
+        <f t="shared" si="42"/>
+        <v>3203</v>
+      </c>
+      <c r="I230" s="3">
+        <f t="shared" si="42"/>
+        <v>3067</v>
+      </c>
+      <c r="J230" s="3">
+        <f t="shared" si="42"/>
+        <v>2406</v>
+      </c>
+      <c r="K230" s="3">
+        <f t="shared" si="42"/>
+        <v>2572</v>
+      </c>
+      <c r="L230" s="3">
+        <f t="shared" si="42"/>
+        <v>2789</v>
+      </c>
+      <c r="M230" s="3">
+        <f t="shared" si="42"/>
+        <v>3047</v>
+      </c>
+      <c r="N230" s="3">
+        <f t="shared" si="42"/>
+        <v>3095</v>
+      </c>
+      <c r="O230" s="3">
+        <f t="shared" si="42"/>
+        <v>2970</v>
+      </c>
+      <c r="P230" s="3">
+        <f t="shared" si="42"/>
+        <v>2893</v>
+      </c>
+      <c r="Q230" s="3">
+        <f t="shared" si="42"/>
+        <v>2979</v>
+      </c>
+      <c r="R230" s="3">
+        <f t="shared" si="42"/>
+        <v>3009</v>
+      </c>
+      <c r="S230" s="3">
+        <f t="shared" si="42"/>
+        <v>2812</v>
+      </c>
+      <c r="T230" s="3">
+        <f t="shared" si="42"/>
+        <v>2783</v>
+      </c>
+      <c r="U230" s="3">
+        <f t="shared" si="42"/>
+        <v>2639</v>
+      </c>
+      <c r="V230" s="3">
+        <f t="shared" si="42"/>
+        <v>2405</v>
+      </c>
+      <c r="W230" s="3">
+        <f t="shared" si="42"/>
+        <v>2206</v>
+      </c>
+      <c r="X230" s="3">
+        <f t="shared" si="42"/>
+        <v>1910</v>
+      </c>
+      <c r="Y230" s="3">
+        <f t="shared" si="42"/>
+        <v>1722</v>
+      </c>
+      <c r="Z230" s="3">
+        <f t="shared" si="42"/>
+        <v>1251</v>
+      </c>
+      <c r="AA230" s="3">
+        <f t="shared" si="42"/>
+        <v>1039</v>
+      </c>
+      <c r="AB230" s="3">
+        <f t="shared" si="42"/>
+        <v>912</v>
+      </c>
+      <c r="AC230" s="3">
+        <f t="shared" si="42"/>
+        <v>813</v>
+      </c>
+      <c r="AD230" s="3">
+        <f t="shared" si="42"/>
+        <v>876</v>
+      </c>
+      <c r="AE230" s="3">
+        <f t="shared" si="42"/>
+        <v>675</v>
+      </c>
+      <c r="AF230" s="3">
+        <f t="shared" si="42"/>
+        <v>565</v>
+      </c>
+      <c r="AG230" s="3">
+        <f t="shared" si="42"/>
+        <v>550</v>
+      </c>
+      <c r="AH230" s="3">
+        <f t="shared" si="42"/>
+        <v>489</v>
       </c>
     </row>
     <row r="231" spans="1:34">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="3">
-        <v>9362</v>
+        <v>30569</v>
       </c>
       <c r="F231" s="1">
-        <v>161</v>
-      </c>
-      <c r="G231" s="1">
-        <v>509</v>
-      </c>
-      <c r="H231" s="1">
-        <v>508</v>
-      </c>
-      <c r="I231" s="1">
-        <v>446</v>
-      </c>
-      <c r="J231" s="1">
-        <v>382</v>
-      </c>
-      <c r="K231" s="1">
-        <v>408</v>
-      </c>
-      <c r="L231" s="1">
-        <v>445</v>
-      </c>
-      <c r="M231" s="1">
-        <v>459</v>
-      </c>
-      <c r="N231" s="1">
-        <v>494</v>
-      </c>
-      <c r="O231" s="1">
-        <v>467</v>
-      </c>
-      <c r="P231" s="1">
-        <v>447</v>
-      </c>
-      <c r="Q231" s="1">
-        <v>464</v>
-      </c>
-      <c r="R231" s="1">
-        <v>490</v>
-      </c>
-      <c r="S231" s="1">
-        <v>422</v>
-      </c>
-      <c r="T231" s="1">
-        <v>430</v>
-      </c>
-      <c r="U231" s="1">
-        <v>393</v>
-      </c>
-      <c r="V231" s="1">
-        <v>376</v>
-      </c>
-      <c r="W231" s="1">
-        <v>346</v>
+        <v>479</v>
+      </c>
+      <c r="G231" s="3">
+        <v>1568</v>
+      </c>
+      <c r="H231" s="3">
+        <v>1645</v>
+      </c>
+      <c r="I231" s="3">
+        <v>1651</v>
+      </c>
+      <c r="J231" s="3">
+        <v>1262</v>
+      </c>
+      <c r="K231" s="3">
+        <v>1343</v>
+      </c>
+      <c r="L231" s="3">
+        <v>1441</v>
+      </c>
+      <c r="M231" s="3">
+        <v>1567</v>
+      </c>
+      <c r="N231" s="3">
+        <v>1567</v>
+      </c>
+      <c r="O231" s="3">
+        <v>1463</v>
+      </c>
+      <c r="P231" s="3">
+        <v>1461</v>
+      </c>
+      <c r="Q231" s="3">
+        <v>1553</v>
+      </c>
+      <c r="R231" s="3">
+        <v>1493</v>
+      </c>
+      <c r="S231" s="3">
+        <v>1446</v>
+      </c>
+      <c r="T231" s="3">
+        <v>1422</v>
+      </c>
+      <c r="U231" s="3">
+        <v>1397</v>
+      </c>
+      <c r="V231" s="3">
+        <v>1228</v>
+      </c>
+      <c r="W231" s="3">
+        <v>1118</v>
       </c>
       <c r="X231" s="1">
-        <v>321</v>
+        <v>993</v>
       </c>
       <c r="Y231" s="1">
-        <v>284</v>
+        <v>871</v>
       </c>
       <c r="Z231" s="1">
-        <v>192</v>
+        <v>630</v>
       </c>
       <c r="AA231" s="1">
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="AB231" s="1">
-        <v>161</v>
+        <v>449</v>
       </c>
       <c r="AC231" s="1">
-        <v>121</v>
+        <v>412</v>
       </c>
       <c r="AD231" s="1">
-        <v>115</v>
+        <v>461</v>
       </c>
       <c r="AE231" s="1">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="AF231" s="1">
-        <v>91</v>
+        <v>281</v>
       </c>
       <c r="AG231" s="1">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="AH231" s="1">
-        <v>76</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:34">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D232" s="1"/>
       <c r="E232" s="3">
+        <v>17907</v>
+      </c>
+      <c r="F232" s="1">
+        <v>324</v>
+      </c>
+      <c r="G232" s="1">
+        <v>852</v>
+      </c>
+      <c r="H232" s="1">
+        <v>969</v>
+      </c>
+      <c r="I232" s="1">
+        <v>884</v>
+      </c>
+      <c r="J232" s="1">
+        <v>696</v>
+      </c>
+      <c r="K232" s="1">
+        <v>754</v>
+      </c>
+      <c r="L232" s="1">
+        <v>834</v>
+      </c>
+      <c r="M232" s="1">
+        <v>923</v>
+      </c>
+      <c r="N232" s="1">
+        <v>942</v>
+      </c>
+      <c r="O232" s="1">
+        <v>940</v>
+      </c>
+      <c r="P232" s="1">
+        <v>897</v>
+      </c>
+      <c r="Q232" s="1">
+        <v>878</v>
+      </c>
+      <c r="R232" s="1">
+        <v>932</v>
+      </c>
+      <c r="S232" s="1">
+        <v>837</v>
+      </c>
+      <c r="T232" s="1">
+        <v>838</v>
+      </c>
+      <c r="U232" s="1">
+        <v>769</v>
+      </c>
+      <c r="V232" s="1">
+        <v>738</v>
+      </c>
+      <c r="W232" s="1">
+        <v>665</v>
+      </c>
+      <c r="X232" s="1">
+        <v>542</v>
+      </c>
+      <c r="Y232" s="1">
+        <v>495</v>
+      </c>
+      <c r="Z232" s="1">
+        <v>390</v>
+      </c>
+      <c r="AA232" s="1">
+        <v>306</v>
+      </c>
+      <c r="AB232" s="1">
+        <v>275</v>
+      </c>
+      <c r="AC232" s="1">
+        <v>258</v>
+      </c>
+      <c r="AD232" s="1">
+        <v>274</v>
+      </c>
+      <c r="AE232" s="1">
+        <v>194</v>
+      </c>
+      <c r="AF232" s="1">
+        <v>180</v>
+      </c>
+      <c r="AG232" s="1">
+        <v>187</v>
+      </c>
+      <c r="AH232" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="233" spans="1:34">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D233" s="1"/>
+      <c r="E233" s="3">
+        <v>9362</v>
+      </c>
+      <c r="F233" s="1">
+        <v>161</v>
+      </c>
+      <c r="G233" s="1">
+        <v>509</v>
+      </c>
+      <c r="H233" s="1">
+        <v>508</v>
+      </c>
+      <c r="I233" s="1">
+        <v>446</v>
+      </c>
+      <c r="J233" s="1">
+        <v>382</v>
+      </c>
+      <c r="K233" s="1">
+        <v>408</v>
+      </c>
+      <c r="L233" s="1">
+        <v>445</v>
+      </c>
+      <c r="M233" s="1">
+        <v>459</v>
+      </c>
+      <c r="N233" s="1">
+        <v>494</v>
+      </c>
+      <c r="O233" s="1">
+        <v>467</v>
+      </c>
+      <c r="P233" s="1">
+        <v>447</v>
+      </c>
+      <c r="Q233" s="1">
+        <v>464</v>
+      </c>
+      <c r="R233" s="1">
+        <v>490</v>
+      </c>
+      <c r="S233" s="1">
+        <v>422</v>
+      </c>
+      <c r="T233" s="1">
+        <v>430</v>
+      </c>
+      <c r="U233" s="1">
+        <v>393</v>
+      </c>
+      <c r="V233" s="1">
+        <v>376</v>
+      </c>
+      <c r="W233" s="1">
+        <v>346</v>
+      </c>
+      <c r="X233" s="1">
+        <v>321</v>
+      </c>
+      <c r="Y233" s="1">
+        <v>284</v>
+      </c>
+      <c r="Z233" s="1">
+        <v>192</v>
+      </c>
+      <c r="AA233" s="1">
+        <v>169</v>
+      </c>
+      <c r="AB233" s="1">
+        <v>161</v>
+      </c>
+      <c r="AC233" s="1">
+        <v>121</v>
+      </c>
+      <c r="AD233" s="1">
+        <v>115</v>
+      </c>
+      <c r="AE233" s="1">
+        <v>113</v>
+      </c>
+      <c r="AF233" s="1">
+        <v>91</v>
+      </c>
+      <c r="AG233" s="1">
+        <v>83</v>
+      </c>
+      <c r="AH233" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="234" spans="1:34">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="1"/>
+      <c r="E234" s="3">
         <v>1766</v>
       </c>
-      <c r="F232" s="1">
+      <c r="F234" s="1">
         <v>27</v>
       </c>
-      <c r="G232" s="1">
+      <c r="G234" s="1">
         <v>61</v>
       </c>
-      <c r="H232" s="1">
+      <c r="H234" s="1">
         <v>81</v>
       </c>
-      <c r="I232" s="1">
+      <c r="I234" s="1">
         <v>86</v>
       </c>
-      <c r="J232" s="1">
+      <c r="J234" s="1">
         <v>66</v>
       </c>
-      <c r="K232" s="1">
+      <c r="K234" s="1">
         <v>67</v>
       </c>
-      <c r="L232" s="1">
+      <c r="L234" s="1">
         <v>69</v>
       </c>
-      <c r="M232" s="1">
+      <c r="M234" s="1">
         <v>98</v>
       </c>
-      <c r="N232" s="1">
+      <c r="N234" s="1">
         <v>92</v>
       </c>
-      <c r="O232" s="1">
+      <c r="O234" s="1">
         <v>100</v>
       </c>
-      <c r="P232" s="1">
+      <c r="P234" s="1">
         <v>88</v>
       </c>
-      <c r="Q232" s="1">
+      <c r="Q234" s="1">
         <v>84</v>
       </c>
-      <c r="R232" s="1">
+      <c r="R234" s="1">
         <v>94</v>
       </c>
-      <c r="S232" s="1">
+      <c r="S234" s="1">
         <v>107</v>
       </c>
-      <c r="T232" s="1">
+      <c r="T234" s="1">
         <v>93</v>
       </c>
-      <c r="U232" s="1">
+      <c r="U234" s="1">
         <v>80</v>
       </c>
-      <c r="V232" s="1">
+      <c r="V234" s="1">
         <v>63</v>
       </c>
-      <c r="W232" s="1">
+      <c r="W234" s="1">
         <v>77</v>
       </c>
-      <c r="X232" s="1">
+      <c r="X234" s="1">
         <v>54</v>
       </c>
-      <c r="Y232" s="1">
+      <c r="Y234" s="1">
         <v>72</v>
       </c>
-      <c r="Z232" s="1">
+      <c r="Z234" s="1">
         <v>39</v>
       </c>
-      <c r="AA232" s="1">
+      <c r="AA234" s="1">
         <v>28</v>
       </c>
-      <c r="AB232" s="1">
+      <c r="AB234" s="1">
         <v>27</v>
       </c>
-      <c r="AC232" s="1">
+      <c r="AC234" s="1">
         <v>22</v>
       </c>
-      <c r="AD232" s="1">
+      <c r="AD234" s="1">
         <v>26</v>
       </c>
-      <c r="AE232" s="1">
+      <c r="AE234" s="1">
         <v>18</v>
       </c>
-      <c r="AF232" s="1">
+      <c r="AF234" s="1">
         <v>13</v>
       </c>
-      <c r="AG232" s="1">
+      <c r="AG234" s="1">
         <v>18</v>
       </c>
-      <c r="AH232" s="1">
+      <c r="AH234" s="1">
         <v>18</v>
       </c>
+    </row>
+    <row r="237" spans="1:34">
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="4"/>
+      <c r="N237" s="4"/>
+      <c r="O237" s="4"/>
+      <c r="P237" s="4"/>
+      <c r="Q237" s="4"/>
+      <c r="R237" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A65:B65"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A137:B137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape"/>

--- a/data/Data_Tansplants_US.xlsx
+++ b/data/Data_Tansplants_US.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FF5F932-9BFF-4885-A88C-3890130FC173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0926EB-6D89-467C-841C-300FA50C6DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="67">
   <si>
     <t>ORGANI</t>
   </si>
@@ -216,9 +216,6 @@
     <t>TRAPIANTI</t>
   </si>
   <si>
-    <t>NCS</t>
-  </si>
-  <si>
     <t>PROBABILITÀ - USCITE</t>
   </si>
   <si>
@@ -313,21 +310,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -407,48 +398,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -520,13 +474,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -846,12 +799,13 @@
   </sheetPr>
   <dimension ref="A1:AO237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="M116" sqref="M116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -8667,11 +8621,9 @@
       <c r="F113" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="G113" s="35" t="s">
+      <c r="G113" s="31"/>
+      <c r="I113" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="I113" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="J113" s="20"/>
       <c r="K113" s="9" t="s">
@@ -8690,37 +8642,26 @@
       </c>
       <c r="C114" s="6">
         <f>AVERAGE(L138:Q138)</f>
-        <v>31352.666666666668</v>
-      </c>
-      <c r="D114" s="31">
+        <v>32282.833333333332</v>
+      </c>
+      <c r="D114" s="32">
         <f>AVERAGE(M206:R206)</f>
-        <v>4708</v>
+        <v>4787</v>
       </c>
       <c r="E114" s="6">
         <f>C114-D114-F114</f>
-        <v>14937.833333333334</v>
+        <v>15788.666666666666</v>
       </c>
       <c r="F114" s="6">
         <f>AVERAGE(M172:R172)</f>
-        <v>11706.833333333334</v>
-      </c>
-      <c r="G114" s="32">
-        <f>D115+D116+D117</f>
-        <v>4787</v>
-      </c>
+        <v>11707.166666666666</v>
+      </c>
+      <c r="G114" s="33"/>
       <c r="I114" t="s">
         <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>9</v>
-      </c>
-      <c r="K114">
-        <f>K118+K122+K126+K130</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="L114">
-        <f>L118+L122+L126+L130</f>
-        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="115" spans="1:13">
@@ -8743,20 +8684,9 @@
         <f>SUM(AVERAGE(M186:R186),AVERAGE(M191:R191))</f>
         <v>20.833333333333332</v>
       </c>
-      <c r="G115" s="33">
-        <f>SUM(AVERAGE(M220:R220),AVERAGE(M225:R225))</f>
-        <v>2.8333333333333335</v>
-      </c>
+      <c r="G115" s="34"/>
       <c r="J115" t="s">
         <v>16</v>
-      </c>
-      <c r="K115">
-        <f>K119+K123+K127+K131</f>
-        <v>1</v>
-      </c>
-      <c r="L115">
-        <f>L119+L123+L127+L131</f>
-        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="116" spans="1:13">
@@ -8779,20 +8709,9 @@
         <f>SUM(AVERAGE(M177:R177),AVERAGE(M181:R181))</f>
         <v>11679.666666666666</v>
       </c>
-      <c r="G116" s="33">
-        <f>SUM(AVERAGE(M211:R211),AVERAGE(M215:R215))</f>
-        <v>1785.3333333333333</v>
-      </c>
+      <c r="G116" s="34"/>
       <c r="J116" t="s">
         <v>17</v>
-      </c>
-      <c r="K116">
-        <f>K120+K124+K128+K132</f>
-        <v>1</v>
-      </c>
-      <c r="L116">
-        <f>L120+L124+L128+L132</f>
-        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:13">
@@ -8815,20 +8734,9 @@
         <f>AVERAGE(M196:R196)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="G117" s="34">
-        <f>AVERAGE(M230:R230)</f>
-        <v>2998.8333333333335</v>
-      </c>
+      <c r="G117" s="34"/>
       <c r="J117" t="s">
         <v>18</v>
-      </c>
-      <c r="K117">
-        <f>K121+K125+K129+K133</f>
-        <v>1</v>
-      </c>
-      <c r="L117">
-        <f>L121+L125+L129+L133</f>
-        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:13">
@@ -8840,15 +8748,15 @@
       </c>
       <c r="C118" s="6">
         <f>AVERAGE(L139:Q139)</f>
-        <v>15034.5</v>
+        <v>15490.5</v>
       </c>
       <c r="D118" s="6">
         <f>AVERAGE(M207:R207)</f>
-        <v>2431.6666666666665</v>
+        <v>2477.1666666666665</v>
       </c>
       <c r="E118" s="6">
         <f>C118-D118-F118</f>
-        <v>7259.0000000000009</v>
+        <v>7669.5000000000009</v>
       </c>
       <c r="F118" s="6">
         <f>AVERAGE(M173:R173)</f>
@@ -8863,11 +8771,11 @@
       </c>
       <c r="K118">
         <f>D118/D114</f>
-        <v>0.51649674313225713</v>
+        <v>0.51747789151173318</v>
       </c>
       <c r="L118">
         <f>E118/E114</f>
-        <v>0.4859473149832082</v>
+        <v>0.48575982772452819</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -8975,20 +8883,21 @@
       </c>
       <c r="C122" s="6">
         <f>AVERAGE(L140:Q140)</f>
-        <v>10557.833333333334</v>
+        <v>10862.333333333334</v>
       </c>
       <c r="D122" s="6">
         <f>AVERAGE(M208:R208)</f>
-        <v>1396.8333333333333</v>
+        <v>1413.8333333333333</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" si="30"/>
-        <v>4959.166666666667</v>
+        <v>5246.333333333333</v>
       </c>
       <c r="F122" s="6">
         <f>AVERAGE(M174:R174)</f>
-        <v>4201.833333333333</v>
-      </c>
+        <v>4202.166666666667</v>
+      </c>
+      <c r="G122" s="6"/>
       <c r="I122" t="s">
         <v>5</v>
       </c>
@@ -8997,11 +8906,11 @@
       </c>
       <c r="K122">
         <f>D122/D114</f>
-        <v>0.29669357122628148</v>
+        <v>0.295348513334726</v>
       </c>
       <c r="L122">
         <f>E122/E114</f>
-        <v>0.33198701284211229</v>
+        <v>0.3322847612211291</v>
       </c>
     </row>
     <row r="123" spans="1:13">
@@ -9109,20 +9018,21 @@
       </c>
       <c r="C126" s="6">
         <f>AVERAGE(L141:Q141)</f>
-        <v>4504</v>
+        <v>4636.666666666667</v>
       </c>
       <c r="D126" s="6">
         <f>AVERAGE(M209:R209)</f>
-        <v>743.33333333333337</v>
+        <v>758.66666666666663</v>
       </c>
       <c r="E126" s="6">
         <f t="shared" si="30"/>
-        <v>2218.333333333333</v>
+        <v>2335.666666666667</v>
       </c>
       <c r="F126" s="6">
         <f>AVERAGE(M175:R175)</f>
         <v>1542.3333333333333</v>
       </c>
+      <c r="G126" s="6"/>
       <c r="I126" t="s">
         <v>6</v>
       </c>
@@ -9131,11 +9041,11 @@
       </c>
       <c r="K126">
         <f>D126/D114</f>
-        <v>0.15788728405550836</v>
+        <v>0.15848478518209039</v>
       </c>
       <c r="L126">
         <f>E126/E114</f>
-        <v>0.14850435694600955</v>
+        <v>0.1479331165815142</v>
       </c>
     </row>
     <row r="127" spans="1:13">
@@ -9244,20 +9154,21 @@
       </c>
       <c r="C130" s="6">
         <f>AVERAGE(L142:Q142)</f>
-        <v>1256.3333333333333</v>
+        <v>1293.3333333333333</v>
       </c>
       <c r="D130" s="6">
         <f>AVERAGE(M210:R210)</f>
-        <v>136.16666666666666</v>
+        <v>137.33333333333334</v>
       </c>
       <c r="E130" s="6">
         <f>C130-D130-F130</f>
-        <v>501.33333333333314</v>
+        <v>537.16666666666663</v>
       </c>
       <c r="F130" s="6">
         <f>AVERAGE(M176:R176)</f>
         <v>618.83333333333337</v>
       </c>
+      <c r="G130" s="6"/>
       <c r="I130" t="s">
         <v>7</v>
       </c>
@@ -9266,11 +9177,11 @@
       </c>
       <c r="K130">
         <f>D130/D114</f>
-        <v>2.8922401585952984E-2</v>
+        <v>2.8688809971450457E-2</v>
       </c>
       <c r="L130">
         <f>E130/E114</f>
-        <v>3.3561315228669918E-2</v>
+        <v>3.4022294472828611E-2</v>
       </c>
     </row>
     <row r="131" spans="1:35">
@@ -9373,7 +9284,10 @@
       <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:35">
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
@@ -9391,7 +9305,7 @@
     </row>
     <row r="137" spans="1:35">
       <c r="A137" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B137" s="17"/>
       <c r="D137" s="1" t="s">
@@ -9495,123 +9409,123 @@
       <c r="C138" s="1"/>
       <c r="D138" s="3">
         <f>D139+D140+D141+D142</f>
-        <v>660539</v>
+        <v>715213</v>
       </c>
       <c r="E138" s="3">
         <f t="shared" ref="E138:AG138" si="31">E139+E140+E141+E142</f>
-        <v>17597</v>
+        <v>18134</v>
       </c>
       <c r="F138" s="3">
         <f t="shared" si="31"/>
-        <v>40032</v>
+        <v>41364</v>
       </c>
       <c r="G138" s="3">
         <f t="shared" si="31"/>
-        <v>38719</v>
+        <v>40012</v>
       </c>
       <c r="H138" s="3">
         <f t="shared" si="31"/>
-        <v>36976</v>
+        <v>38135</v>
       </c>
       <c r="I138" s="3">
         <f t="shared" si="31"/>
-        <v>38208</v>
+        <v>39384</v>
       </c>
       <c r="J138" s="3">
         <f t="shared" si="31"/>
-        <v>36616</v>
+        <v>37718</v>
       </c>
       <c r="K138" s="3">
         <f t="shared" si="31"/>
-        <v>35805</v>
+        <v>36883</v>
       </c>
       <c r="L138" s="3">
         <f t="shared" si="31"/>
-        <v>35255</v>
+        <v>36340</v>
       </c>
       <c r="M138" s="3">
         <f t="shared" si="31"/>
-        <v>33964</v>
+        <v>35014</v>
       </c>
       <c r="N138" s="3">
         <f t="shared" si="31"/>
-        <v>31403</v>
+        <v>32353</v>
       </c>
       <c r="O138" s="3">
         <f t="shared" si="31"/>
-        <v>29921</v>
+        <v>30809</v>
       </c>
       <c r="P138" s="3">
         <f t="shared" si="31"/>
-        <v>28866</v>
+        <v>29685</v>
       </c>
       <c r="Q138" s="3">
         <f t="shared" si="31"/>
-        <v>28707</v>
+        <v>29496</v>
       </c>
       <c r="R138" s="3">
         <f t="shared" si="31"/>
-        <v>27802</v>
+        <v>28537</v>
       </c>
       <c r="S138" s="3">
         <f t="shared" si="31"/>
-        <v>27104</v>
+        <v>27783</v>
       </c>
       <c r="T138" s="3">
         <f t="shared" si="31"/>
-        <v>26745</v>
+        <v>27444</v>
       </c>
       <c r="U138" s="3">
         <f t="shared" si="31"/>
-        <v>25876</v>
+        <v>26476</v>
       </c>
       <c r="V138" s="3">
         <f t="shared" si="31"/>
-        <v>25389</v>
+        <v>25885</v>
       </c>
       <c r="W138" s="3">
         <f t="shared" si="31"/>
-        <v>24185</v>
+        <v>24644</v>
       </c>
       <c r="X138" s="3">
         <f t="shared" si="31"/>
-        <v>21944</v>
+        <v>22297</v>
       </c>
       <c r="Y138" s="3">
         <f t="shared" si="31"/>
-        <v>20597</v>
+        <v>20810</v>
       </c>
       <c r="Z138" s="3">
         <f t="shared" si="31"/>
-        <v>20133</v>
+        <v>20368</v>
       </c>
       <c r="AA138" s="3">
         <f t="shared" si="31"/>
-        <v>18915</v>
+        <v>19116</v>
       </c>
       <c r="AB138" s="3">
         <f t="shared" si="31"/>
-        <v>18286</v>
+        <v>18523</v>
       </c>
       <c r="AC138" s="3">
         <f t="shared" si="31"/>
-        <v>17252</v>
+        <v>17390</v>
       </c>
       <c r="AD138" s="3">
         <f t="shared" si="31"/>
-        <v>15725</v>
+        <v>15855</v>
       </c>
       <c r="AE138" s="3">
         <f t="shared" si="31"/>
-        <v>14621</v>
+        <v>14754</v>
       </c>
       <c r="AF138" s="3">
         <f t="shared" si="31"/>
-        <v>13942</v>
+        <v>14081</v>
       </c>
       <c r="AG138" s="3">
         <f t="shared" si="31"/>
-        <v>13547</v>
+        <v>13671</v>
       </c>
     </row>
     <row r="139" spans="1:35">
@@ -9621,94 +9535,124 @@
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="3">
-        <v>314605</v>
+        <f>SUM(D144,D149,D154,D159,D164)</f>
+        <v>341845</v>
       </c>
       <c r="E139" s="3">
-        <v>8575</v>
+        <f t="shared" ref="E139:AG139" si="32">SUM(E144,E149,E154,E159,E164)</f>
+        <v>8857</v>
       </c>
       <c r="F139" s="3">
-        <v>19336</v>
+        <f t="shared" si="32"/>
+        <v>19997</v>
       </c>
       <c r="G139" s="3">
-        <v>18781</v>
+        <f t="shared" si="32"/>
+        <v>19448</v>
       </c>
       <c r="H139" s="3">
-        <v>17845</v>
+        <f t="shared" si="32"/>
+        <v>18423</v>
       </c>
       <c r="I139" s="3">
-        <v>18432</v>
+        <f t="shared" si="32"/>
+        <v>19011</v>
       </c>
       <c r="J139" s="3">
-        <v>17616</v>
+        <f t="shared" si="32"/>
+        <v>18174</v>
       </c>
       <c r="K139" s="3">
-        <v>17269</v>
+        <f t="shared" si="32"/>
+        <v>17808</v>
       </c>
       <c r="L139" s="3">
-        <v>17020</v>
+        <f t="shared" si="32"/>
+        <v>17564</v>
       </c>
       <c r="M139" s="3">
-        <v>16392</v>
+        <f t="shared" si="32"/>
+        <v>16886</v>
       </c>
       <c r="N139" s="3">
-        <v>15034</v>
+        <f t="shared" si="32"/>
+        <v>15506</v>
       </c>
       <c r="O139" s="3">
-        <v>14327</v>
+        <f t="shared" si="32"/>
+        <v>14761</v>
       </c>
       <c r="P139" s="3">
-        <v>13733</v>
+        <f t="shared" si="32"/>
+        <v>14117</v>
       </c>
       <c r="Q139" s="3">
-        <v>13701</v>
+        <f t="shared" si="32"/>
+        <v>14109</v>
       </c>
       <c r="R139" s="3">
-        <v>13369</v>
+        <f t="shared" si="32"/>
+        <v>13738</v>
       </c>
       <c r="S139" s="3">
-        <v>13068</v>
+        <f t="shared" si="32"/>
+        <v>13399</v>
       </c>
       <c r="T139" s="3">
-        <v>12714</v>
+        <f t="shared" si="32"/>
+        <v>13053</v>
       </c>
       <c r="U139" s="3">
-        <v>12452</v>
+        <f t="shared" si="32"/>
+        <v>12759</v>
       </c>
       <c r="V139" s="3">
-        <v>12056</v>
+        <f t="shared" si="32"/>
+        <v>12312</v>
       </c>
       <c r="W139" s="3">
-        <v>11495</v>
+        <f t="shared" si="32"/>
+        <v>11719</v>
       </c>
       <c r="X139" s="3">
-        <v>10511</v>
+        <f t="shared" si="32"/>
+        <v>10688</v>
       </c>
       <c r="Y139" s="3">
-        <v>9915</v>
+        <f t="shared" si="32"/>
+        <v>10027</v>
       </c>
       <c r="Z139" s="3">
-        <v>9599</v>
+        <f t="shared" si="32"/>
+        <v>9702</v>
       </c>
       <c r="AA139" s="3">
-        <v>8942</v>
+        <f t="shared" si="32"/>
+        <v>9046</v>
       </c>
       <c r="AB139" s="3">
-        <v>8691</v>
+        <f t="shared" si="32"/>
+        <v>8812</v>
       </c>
       <c r="AC139" s="3">
-        <v>7997</v>
+        <f t="shared" si="32"/>
+        <v>8070</v>
       </c>
       <c r="AD139" s="3">
-        <v>7417</v>
+        <f t="shared" si="32"/>
+        <v>7476</v>
       </c>
       <c r="AE139" s="3">
-        <v>6804</v>
+        <f t="shared" si="32"/>
+        <v>6874</v>
       </c>
       <c r="AF139" s="3">
-        <v>6458</v>
+        <f t="shared" si="32"/>
+        <v>6525</v>
       </c>
       <c r="AG139" s="3">
-        <v>6307</v>
+        <f t="shared" si="32"/>
+        <v>6365</v>
       </c>
     </row>
     <row r="140" spans="1:35">
@@ -9718,94 +9662,124 @@
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="3">
-        <v>224273</v>
+        <f>SUM(D145,D150,D155,D160,D165)</f>
+        <v>241421</v>
       </c>
       <c r="E140" s="3">
-        <v>5661</v>
+        <f t="shared" ref="E140:AG140" si="33">SUM(E145,E150,E155,E160,E165)</f>
+        <v>5835</v>
       </c>
       <c r="F140" s="3">
-        <v>12980</v>
+        <f t="shared" si="33"/>
+        <v>13388</v>
       </c>
       <c r="G140" s="3">
-        <v>12656</v>
+        <f t="shared" si="33"/>
+        <v>13017</v>
       </c>
       <c r="H140" s="3">
-        <v>12197</v>
+        <f t="shared" si="33"/>
+        <v>12573</v>
       </c>
       <c r="I140" s="3">
-        <v>12573</v>
+        <f t="shared" si="33"/>
+        <v>12934</v>
       </c>
       <c r="J140" s="3">
-        <v>12041</v>
+        <f t="shared" si="33"/>
+        <v>12379</v>
       </c>
       <c r="K140" s="3">
-        <v>11874</v>
+        <f t="shared" si="33"/>
+        <v>12202</v>
       </c>
       <c r="L140" s="3">
-        <v>11818</v>
+        <f t="shared" si="33"/>
+        <v>12175</v>
       </c>
       <c r="M140" s="3">
-        <v>11209</v>
+        <f t="shared" si="33"/>
+        <v>11557</v>
       </c>
       <c r="N140" s="3">
-        <v>10645</v>
+        <f t="shared" si="33"/>
+        <v>10963</v>
       </c>
       <c r="O140" s="3">
-        <v>10116</v>
+        <f t="shared" si="33"/>
+        <v>10400</v>
       </c>
       <c r="P140" s="3">
-        <v>9808</v>
+        <f t="shared" si="33"/>
+        <v>10078</v>
       </c>
       <c r="Q140" s="3">
-        <v>9751</v>
+        <f t="shared" si="33"/>
+        <v>10001</v>
       </c>
       <c r="R140" s="3">
-        <v>9224</v>
+        <f t="shared" si="33"/>
+        <v>9457</v>
       </c>
       <c r="S140" s="3">
-        <v>9146</v>
+        <f t="shared" si="33"/>
+        <v>9374</v>
       </c>
       <c r="T140" s="3">
-        <v>9013</v>
+        <f t="shared" si="33"/>
+        <v>9238</v>
       </c>
       <c r="U140" s="3">
-        <v>8671</v>
+        <f t="shared" si="33"/>
+        <v>8855</v>
       </c>
       <c r="V140" s="3">
-        <v>8630</v>
+        <f t="shared" si="33"/>
+        <v>8791</v>
       </c>
       <c r="W140" s="3">
-        <v>8229</v>
+        <f t="shared" si="33"/>
+        <v>8389</v>
       </c>
       <c r="X140" s="3">
-        <v>7451</v>
+        <f t="shared" si="33"/>
+        <v>7569</v>
       </c>
       <c r="Y140" s="3">
-        <v>7000</v>
+        <f t="shared" si="33"/>
+        <v>7059</v>
       </c>
       <c r="Z140" s="3">
-        <v>6907</v>
+        <f t="shared" si="33"/>
+        <v>6989</v>
       </c>
       <c r="AA140" s="3">
-        <v>6587</v>
+        <f t="shared" si="33"/>
+        <v>6652</v>
       </c>
       <c r="AB140" s="3">
-        <v>6382</v>
+        <f t="shared" si="33"/>
+        <v>6457</v>
       </c>
       <c r="AC140" s="3">
-        <v>6040</v>
+        <f t="shared" si="33"/>
+        <v>6083</v>
       </c>
       <c r="AD140" s="3">
-        <v>5485</v>
+        <f t="shared" si="33"/>
+        <v>5527</v>
       </c>
       <c r="AE140" s="3">
-        <v>5219</v>
+        <f t="shared" si="33"/>
+        <v>5260</v>
       </c>
       <c r="AF140" s="3">
-        <v>5118</v>
+        <f t="shared" si="33"/>
+        <v>5169</v>
       </c>
       <c r="AG140" s="3">
-        <v>4808</v>
+        <f t="shared" si="33"/>
+        <v>4847</v>
       </c>
       <c r="AH140" s="1"/>
       <c r="AI140" s="1"/>
@@ -9817,94 +9791,124 @@
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="3">
-        <v>94850</v>
+        <f>SUM(D146,D151,D156,D161,D166)</f>
+        <v>103252</v>
       </c>
       <c r="E141" s="3">
-        <v>2666</v>
+        <f t="shared" ref="E141:AG141" si="34">SUM(E146,E151,E156,E161,E166)</f>
+        <v>2736</v>
       </c>
       <c r="F141" s="3">
-        <v>6157</v>
+        <f t="shared" si="34"/>
+        <v>6370</v>
       </c>
       <c r="G141" s="3">
-        <v>5818</v>
+        <f t="shared" si="34"/>
+        <v>6038</v>
       </c>
       <c r="H141" s="3">
-        <v>5499</v>
+        <f t="shared" si="34"/>
+        <v>5667</v>
       </c>
       <c r="I141" s="3">
-        <v>5654</v>
+        <f t="shared" si="34"/>
+        <v>5850</v>
       </c>
       <c r="J141" s="3">
-        <v>5509</v>
+        <f t="shared" si="34"/>
+        <v>5684</v>
       </c>
       <c r="K141" s="3">
-        <v>5250</v>
+        <f t="shared" si="34"/>
+        <v>5425</v>
       </c>
       <c r="L141" s="3">
-        <v>5099</v>
+        <f t="shared" si="34"/>
+        <v>5242</v>
       </c>
       <c r="M141" s="3">
-        <v>4942</v>
+        <f t="shared" si="34"/>
+        <v>5106</v>
       </c>
       <c r="N141" s="3">
-        <v>4507</v>
+        <f t="shared" si="34"/>
+        <v>4630</v>
       </c>
       <c r="O141" s="3">
-        <v>4268</v>
+        <f t="shared" si="34"/>
+        <v>4401</v>
       </c>
       <c r="P141" s="3">
-        <v>4122</v>
+        <f t="shared" si="34"/>
+        <v>4250</v>
       </c>
       <c r="Q141" s="3">
-        <v>4086</v>
+        <f t="shared" si="34"/>
+        <v>4191</v>
       </c>
       <c r="R141" s="3">
-        <v>4059</v>
+        <f t="shared" si="34"/>
+        <v>4175</v>
       </c>
       <c r="S141" s="3">
-        <v>3811</v>
+        <f t="shared" si="34"/>
+        <v>3898</v>
       </c>
       <c r="T141" s="3">
-        <v>3955</v>
+        <f t="shared" si="34"/>
+        <v>4060</v>
       </c>
       <c r="U141" s="3">
-        <v>3683</v>
+        <f t="shared" si="34"/>
+        <v>3771</v>
       </c>
       <c r="V141" s="3">
-        <v>3635</v>
+        <f t="shared" si="34"/>
+        <v>3700</v>
       </c>
       <c r="W141" s="3">
-        <v>3495</v>
+        <f t="shared" si="34"/>
+        <v>3562</v>
       </c>
       <c r="X141" s="3">
-        <v>3115</v>
+        <f t="shared" si="34"/>
+        <v>3161</v>
       </c>
       <c r="Y141" s="3">
-        <v>2878</v>
+        <f t="shared" si="34"/>
+        <v>2917</v>
       </c>
       <c r="Z141" s="3">
-        <v>2820</v>
+        <f t="shared" si="34"/>
+        <v>2865</v>
       </c>
       <c r="AA141" s="3">
-        <v>2624</v>
+        <f t="shared" si="34"/>
+        <v>2655</v>
       </c>
       <c r="AB141" s="3">
-        <v>2501</v>
+        <f t="shared" si="34"/>
+        <v>2536</v>
       </c>
       <c r="AC141" s="3">
-        <v>2464</v>
+        <f t="shared" si="34"/>
+        <v>2482</v>
       </c>
       <c r="AD141" s="3">
-        <v>2196</v>
+        <f t="shared" si="34"/>
+        <v>2221</v>
       </c>
       <c r="AE141" s="3">
-        <v>2006</v>
+        <f t="shared" si="34"/>
+        <v>2023</v>
       </c>
       <c r="AF141" s="3">
-        <v>1791</v>
+        <f t="shared" si="34"/>
+        <v>1807</v>
       </c>
       <c r="AG141" s="3">
-        <v>1839</v>
+        <f t="shared" si="34"/>
+        <v>1859</v>
       </c>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
@@ -9916,94 +9920,124 @@
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="3">
-        <v>26811</v>
-      </c>
-      <c r="E142" s="1">
-        <v>695</v>
+        <f>SUM(D147,D152,D157,D162,D167)</f>
+        <v>28695</v>
+      </c>
+      <c r="E142" s="3">
+        <f t="shared" ref="E142:AG142" si="35">SUM(E147,E152,E157,E162,E167)</f>
+        <v>706</v>
       </c>
       <c r="F142" s="3">
-        <v>1559</v>
+        <f t="shared" si="35"/>
+        <v>1609</v>
       </c>
       <c r="G142" s="3">
-        <v>1464</v>
+        <f t="shared" si="35"/>
+        <v>1509</v>
       </c>
       <c r="H142" s="3">
-        <v>1435</v>
+        <f t="shared" si="35"/>
+        <v>1472</v>
       </c>
       <c r="I142" s="3">
-        <v>1549</v>
+        <f t="shared" si="35"/>
+        <v>1589</v>
       </c>
       <c r="J142" s="3">
-        <v>1450</v>
+        <f t="shared" si="35"/>
+        <v>1481</v>
       </c>
       <c r="K142" s="3">
-        <v>1412</v>
+        <f t="shared" si="35"/>
+        <v>1448</v>
       </c>
       <c r="L142" s="3">
-        <v>1318</v>
+        <f t="shared" si="35"/>
+        <v>1359</v>
       </c>
       <c r="M142" s="3">
-        <v>1421</v>
+        <f t="shared" si="35"/>
+        <v>1465</v>
       </c>
       <c r="N142" s="3">
-        <v>1217</v>
+        <f t="shared" si="35"/>
+        <v>1254</v>
       </c>
       <c r="O142" s="3">
-        <v>1210</v>
+        <f t="shared" si="35"/>
+        <v>1247</v>
       </c>
       <c r="P142" s="3">
-        <v>1203</v>
+        <f t="shared" si="35"/>
+        <v>1240</v>
       </c>
       <c r="Q142" s="3">
-        <v>1169</v>
+        <f t="shared" si="35"/>
+        <v>1195</v>
       </c>
       <c r="R142" s="3">
-        <v>1150</v>
+        <f t="shared" si="35"/>
+        <v>1167</v>
       </c>
       <c r="S142" s="3">
-        <v>1079</v>
+        <f t="shared" si="35"/>
+        <v>1112</v>
       </c>
       <c r="T142" s="3">
-        <v>1063</v>
+        <f t="shared" si="35"/>
+        <v>1093</v>
       </c>
       <c r="U142" s="3">
-        <v>1070</v>
+        <f t="shared" si="35"/>
+        <v>1091</v>
       </c>
       <c r="V142" s="3">
-        <v>1068</v>
-      </c>
-      <c r="W142" s="1">
-        <v>966</v>
-      </c>
-      <c r="X142" s="1">
-        <v>867</v>
-      </c>
-      <c r="Y142" s="1">
-        <v>804</v>
-      </c>
-      <c r="Z142" s="1">
+        <f t="shared" si="35"/>
+        <v>1082</v>
+      </c>
+      <c r="W142" s="3">
+        <f t="shared" si="35"/>
+        <v>974</v>
+      </c>
+      <c r="X142" s="3">
+        <f t="shared" si="35"/>
+        <v>879</v>
+      </c>
+      <c r="Y142" s="3">
+        <f t="shared" si="35"/>
         <v>807</v>
       </c>
-      <c r="AA142" s="1">
-        <v>762</v>
-      </c>
-      <c r="AB142" s="1">
-        <v>712</v>
-      </c>
-      <c r="AC142" s="1">
-        <v>751</v>
-      </c>
-      <c r="AD142" s="1">
-        <v>627</v>
-      </c>
-      <c r="AE142" s="1">
-        <v>592</v>
-      </c>
-      <c r="AF142" s="1">
-        <v>575</v>
-      </c>
-      <c r="AG142" s="1">
-        <v>593</v>
+      <c r="Z142" s="3">
+        <f t="shared" si="35"/>
+        <v>812</v>
+      </c>
+      <c r="AA142" s="3">
+        <f t="shared" si="35"/>
+        <v>763</v>
+      </c>
+      <c r="AB142" s="3">
+        <f t="shared" si="35"/>
+        <v>718</v>
+      </c>
+      <c r="AC142" s="3">
+        <f t="shared" si="35"/>
+        <v>755</v>
+      </c>
+      <c r="AD142" s="3">
+        <f t="shared" si="35"/>
+        <v>631</v>
+      </c>
+      <c r="AE142" s="3">
+        <f t="shared" si="35"/>
+        <v>597</v>
+      </c>
+      <c r="AF142" s="3">
+        <f t="shared" si="35"/>
+        <v>580</v>
+      </c>
+      <c r="AG142" s="3">
+        <f t="shared" si="35"/>
+        <v>600</v>
       </c>
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
@@ -10021,119 +10055,119 @@
         <v>147</v>
       </c>
       <c r="E143" s="1">
-        <f t="shared" ref="E143:AG143" si="32">E144+E145+E146+E147</f>
+        <f>E144+E145+E146+E147</f>
         <v>7</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="E143:AG143" si="36">F144+F145+F146+F147</f>
         <v>12</v>
       </c>
       <c r="G143" s="1">
-        <f t="shared" si="32"/>
+        <f>G144+G145+G146+G147</f>
         <v>8</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="I143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="J143" s="1">
-        <f t="shared" si="32"/>
+        <f>J144+J145+J146+J147</f>
         <v>0</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="R143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="T143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="V143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="W143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="X143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Y143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AA143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AB143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AC143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>35</v>
       </c>
       <c r="AD143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>64</v>
       </c>
       <c r="AE143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="AF143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="AG143" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AH143" s="1"/>
@@ -10548,119 +10582,119 @@
         <v>496372</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" ref="E148:AG148" si="33">E149+E150+E151+E152</f>
+        <f t="shared" ref="E148:AG148" si="37">E149+E150+E151+E152</f>
         <v>11689</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>27099</v>
       </c>
       <c r="G148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>26976</v>
       </c>
       <c r="H148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>25708</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>26030</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" si="33"/>
+        <f>J149+J150+J151+J152</f>
         <v>23850</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>22749</v>
       </c>
       <c r="L148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>22012</v>
       </c>
       <c r="M148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>21151</v>
       </c>
       <c r="N148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>19945</v>
       </c>
       <c r="O148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>19615</v>
       </c>
       <c r="P148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>18972</v>
       </c>
       <c r="Q148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>19270</v>
       </c>
       <c r="R148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>19133</v>
       </c>
       <c r="S148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>18986</v>
       </c>
       <c r="T148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>18953</v>
       </c>
       <c r="U148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>19184</v>
       </c>
       <c r="V148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>19739</v>
       </c>
       <c r="W148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>19439</v>
       </c>
       <c r="X148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>18053</v>
       </c>
       <c r="Y148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>17649</v>
       </c>
       <c r="Z148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>17305</v>
       </c>
       <c r="AA148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>16556</v>
       </c>
       <c r="AB148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15838</v>
       </c>
       <c r="AC148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>15091</v>
       </c>
       <c r="AD148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13818</v>
       </c>
       <c r="AE148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>12841</v>
       </c>
       <c r="AF148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>12247</v>
       </c>
       <c r="AG148" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>11641</v>
       </c>
       <c r="AH148" s="1"/>
@@ -11075,119 +11109,119 @@
         <v>995</v>
       </c>
       <c r="E153" s="1">
-        <f t="shared" ref="E153:AG153" si="34">E155+E154+E156+E157</f>
+        <f t="shared" ref="E153:AG153" si="38">E155+E154+E156+E157</f>
         <v>0</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="I153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="J153" s="1">
-        <f t="shared" si="34"/>
+        <f>J155+J154+J156+J157</f>
         <v>10</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>12</v>
       </c>
       <c r="L153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>17</v>
       </c>
       <c r="M153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>15</v>
       </c>
       <c r="N153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>22</v>
       </c>
       <c r="O153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>25</v>
       </c>
       <c r="P153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>14</v>
       </c>
       <c r="Q153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>40</v>
       </c>
       <c r="R153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>44</v>
       </c>
       <c r="S153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>37</v>
       </c>
       <c r="T153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>43</v>
       </c>
       <c r="U153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>57</v>
       </c>
       <c r="V153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>55</v>
       </c>
       <c r="W153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>64</v>
       </c>
       <c r="X153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>36</v>
       </c>
       <c r="Y153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>51</v>
       </c>
       <c r="Z153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>39</v>
       </c>
       <c r="AA153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>53</v>
       </c>
       <c r="AB153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>54</v>
       </c>
       <c r="AC153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>68</v>
       </c>
       <c r="AD153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>50</v>
       </c>
       <c r="AE153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>59</v>
       </c>
       <c r="AF153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>54</v>
       </c>
       <c r="AG153" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>71</v>
       </c>
       <c r="AH153" s="1"/>
@@ -11602,119 +11636,119 @@
         <v>480</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" ref="E158:AG158" si="35">E159+E160+E161+E162</f>
+        <f t="shared" ref="E158:AG158" si="39">E159+E160+E161+E162</f>
         <v>0</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="I158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="J158" s="1">
-        <f t="shared" si="35"/>
+        <f>J159+J160+J161+J162</f>
         <v>5</v>
       </c>
       <c r="K158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>3</v>
       </c>
       <c r="L158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="M158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>4</v>
       </c>
       <c r="N158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="O158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>7</v>
       </c>
       <c r="P158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="Q158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>9</v>
       </c>
       <c r="R158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>11</v>
       </c>
       <c r="S158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="T158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>19</v>
       </c>
       <c r="U158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>26</v>
       </c>
       <c r="V158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>24</v>
       </c>
       <c r="W158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>31</v>
       </c>
       <c r="X158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>36</v>
       </c>
       <c r="Y158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>39</v>
       </c>
       <c r="Z158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>44</v>
       </c>
       <c r="AA158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>27</v>
       </c>
       <c r="AB158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>33</v>
       </c>
       <c r="AC158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>26</v>
       </c>
       <c r="AD158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>21</v>
       </c>
       <c r="AE158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>17</v>
       </c>
       <c r="AF158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>16</v>
       </c>
       <c r="AG158" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>27</v>
       </c>
       <c r="AH158" s="1"/>
@@ -12129,119 +12163,119 @@
         <v>217219</v>
       </c>
       <c r="E163" s="3">
-        <f t="shared" ref="E163:AG163" si="36">E164+E165+E166+E167</f>
+        <f t="shared" ref="E163:AG163" si="40">E164+E165+E166+E167</f>
         <v>6438</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14253</v>
       </c>
       <c r="G163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13027</v>
       </c>
       <c r="H163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12413</v>
       </c>
       <c r="I163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13334</v>
       </c>
       <c r="J163" s="3">
-        <f t="shared" si="36"/>
+        <f>J164+J165+J166+J167</f>
         <v>13853</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14119</v>
       </c>
       <c r="L163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>14301</v>
       </c>
       <c r="M163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>13844</v>
       </c>
       <c r="N163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>12377</v>
       </c>
       <c r="O163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>11162</v>
       </c>
       <c r="P163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>10689</v>
       </c>
       <c r="Q163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>10177</v>
       </c>
       <c r="R163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9349</v>
       </c>
       <c r="S163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8736</v>
       </c>
       <c r="T163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>8429</v>
       </c>
       <c r="U163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>7209</v>
       </c>
       <c r="V163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6067</v>
       </c>
       <c r="W163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>5110</v>
       </c>
       <c r="X163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>4172</v>
       </c>
       <c r="Y163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>3071</v>
       </c>
       <c r="Z163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2980</v>
       </c>
       <c r="AA163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2480</v>
       </c>
       <c r="AB163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2598</v>
       </c>
       <c r="AC163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>2170</v>
       </c>
       <c r="AD163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1902</v>
       </c>
       <c r="AE163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1831</v>
       </c>
       <c r="AF163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1758</v>
       </c>
       <c r="AG163" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1923</v>
       </c>
       <c r="AH163" s="1"/>
@@ -12778,7 +12812,7 @@
     </row>
     <row r="172" spans="1:35">
       <c r="A172" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>9</v>
@@ -12787,94 +12821,124 @@
         <v>3</v>
       </c>
       <c r="E172" s="3">
-        <v>308327</v>
+        <f>SUM(E173,E174,E175,E176)</f>
+        <v>308602</v>
       </c>
       <c r="F172" s="3">
+        <f t="shared" ref="F172:AH172" si="41">SUM(F173,F174,F175,F176)</f>
         <v>8673</v>
       </c>
       <c r="G172" s="3">
+        <f t="shared" si="41"/>
         <v>19617</v>
       </c>
       <c r="H172" s="3">
+        <f t="shared" si="41"/>
         <v>18682</v>
       </c>
       <c r="I172" s="3">
+        <f t="shared" si="41"/>
         <v>17573</v>
       </c>
       <c r="J172" s="3">
+        <f t="shared" si="41"/>
         <v>16518</v>
       </c>
       <c r="K172" s="3">
+        <f t="shared" si="41"/>
         <v>14714</v>
       </c>
       <c r="L172" s="3">
+        <f t="shared" si="41"/>
         <v>14022</v>
       </c>
       <c r="M172" s="3">
+        <f t="shared" si="41"/>
         <v>13418</v>
       </c>
       <c r="N172" s="3">
+        <f t="shared" si="41"/>
         <v>12236</v>
       </c>
       <c r="O172" s="3">
+        <f t="shared" si="41"/>
         <v>11559</v>
       </c>
       <c r="P172" s="3">
-        <v>11152</v>
+        <f t="shared" si="41"/>
+        <v>11153</v>
       </c>
       <c r="Q172" s="3">
-        <v>10850</v>
+        <f t="shared" si="41"/>
+        <v>10851</v>
       </c>
       <c r="R172" s="3">
+        <f t="shared" si="41"/>
         <v>11026</v>
       </c>
       <c r="S172" s="3">
-        <v>10600</v>
+        <f t="shared" si="41"/>
+        <v>10601</v>
       </c>
       <c r="T172" s="3">
-        <v>10430</v>
+        <f t="shared" si="41"/>
+        <v>10432</v>
       </c>
       <c r="U172" s="3">
+        <f t="shared" si="41"/>
         <v>10527</v>
       </c>
       <c r="V172" s="3">
-        <v>10572</v>
+        <f t="shared" si="41"/>
+        <v>10573</v>
       </c>
       <c r="W172" s="3">
-        <v>10600</v>
+        <f t="shared" si="41"/>
+        <v>10605</v>
       </c>
       <c r="X172" s="3">
-        <v>9864</v>
+        <f t="shared" si="41"/>
+        <v>9868</v>
       </c>
       <c r="Y172" s="3">
-        <v>9293</v>
+        <f t="shared" si="41"/>
+        <v>9294</v>
       </c>
       <c r="Z172" s="3">
-        <v>8602</v>
+        <f t="shared" si="41"/>
+        <v>8604</v>
       </c>
       <c r="AA172" s="3">
+        <f t="shared" si="41"/>
         <v>8453</v>
       </c>
       <c r="AB172" s="3">
-        <v>8168</v>
+        <f t="shared" si="41"/>
+        <v>8169</v>
       </c>
       <c r="AC172" s="3">
+        <f t="shared" si="41"/>
         <v>8040</v>
       </c>
       <c r="AD172" s="3">
+        <f t="shared" si="41"/>
         <v>7993</v>
       </c>
       <c r="AE172" s="3">
+        <f t="shared" si="41"/>
         <v>7991</v>
       </c>
       <c r="AF172" s="3">
+        <f t="shared" si="41"/>
         <v>7728</v>
       </c>
       <c r="AG172" s="3">
+        <f t="shared" si="41"/>
         <v>7659</v>
       </c>
       <c r="AH172" s="3">
-        <v>7636</v>
+        <f t="shared" si="41"/>
+        <v>7638</v>
       </c>
     </row>
     <row r="173" spans="1:35">
@@ -12884,94 +12948,124 @@
         <v>4</v>
       </c>
       <c r="E173" s="3">
-        <v>140198</v>
+        <f>SUM(E178,E182,E187,E192,E197)</f>
+        <v>140322</v>
       </c>
       <c r="F173" s="3">
+        <f t="shared" ref="F173:AH173" si="42">SUM(F178,F182,F187,F192,F197)</f>
         <v>4073</v>
       </c>
       <c r="G173" s="3">
+        <f t="shared" si="42"/>
         <v>9173</v>
       </c>
       <c r="H173" s="3">
+        <f t="shared" si="42"/>
         <v>8734</v>
       </c>
       <c r="I173" s="3">
+        <f t="shared" si="42"/>
         <v>8111</v>
       </c>
       <c r="J173" s="3">
+        <f t="shared" si="42"/>
         <v>7612</v>
       </c>
       <c r="K173" s="3">
+        <f t="shared" si="42"/>
         <v>6683</v>
       </c>
       <c r="L173" s="3">
+        <f t="shared" si="42"/>
         <v>6500</v>
       </c>
       <c r="M173" s="3">
+        <f t="shared" si="42"/>
         <v>6096</v>
       </c>
       <c r="N173" s="3">
+        <f t="shared" si="42"/>
         <v>5662</v>
       </c>
       <c r="O173" s="3">
+        <f t="shared" si="42"/>
         <v>5242</v>
       </c>
       <c r="P173" s="3">
+        <f t="shared" si="42"/>
         <v>5121</v>
       </c>
       <c r="Q173" s="3">
+        <f t="shared" si="42"/>
         <v>4892</v>
       </c>
       <c r="R173" s="3">
+        <f t="shared" si="42"/>
         <v>5050</v>
       </c>
       <c r="S173" s="3">
-        <v>4878</v>
+        <f t="shared" si="42"/>
+        <v>4879</v>
       </c>
       <c r="T173" s="3">
+        <f t="shared" si="42"/>
         <v>4722</v>
       </c>
       <c r="U173" s="3">
+        <f t="shared" si="42"/>
         <v>4653</v>
       </c>
       <c r="V173" s="3">
-        <v>4897</v>
+        <f t="shared" si="42"/>
+        <v>4898</v>
       </c>
       <c r="W173" s="3">
-        <v>4772</v>
+        <f t="shared" si="42"/>
+        <v>4774</v>
       </c>
       <c r="X173" s="3">
-        <v>4440</v>
+        <f t="shared" si="42"/>
+        <v>4442</v>
       </c>
       <c r="Y173" s="3">
+        <f t="shared" si="42"/>
         <v>4235</v>
       </c>
       <c r="Z173" s="3">
-        <v>3983</v>
+        <f t="shared" si="42"/>
+        <v>3984</v>
       </c>
       <c r="AA173" s="3">
+        <f t="shared" si="42"/>
         <v>3729</v>
       </c>
       <c r="AB173" s="3">
+        <f t="shared" si="42"/>
         <v>3585</v>
       </c>
       <c r="AC173" s="3">
+        <f t="shared" si="42"/>
         <v>3561</v>
       </c>
       <c r="AD173" s="3">
+        <f t="shared" si="42"/>
         <v>3422</v>
       </c>
       <c r="AE173" s="3">
+        <f t="shared" si="42"/>
         <v>3534</v>
       </c>
       <c r="AF173" s="3">
+        <f t="shared" si="42"/>
         <v>3400</v>
       </c>
       <c r="AG173" s="3">
+        <f t="shared" si="42"/>
         <v>3361</v>
       </c>
       <c r="AH173" s="3">
-        <v>3426</v>
+        <f t="shared" si="42"/>
+        <v>3427</v>
       </c>
     </row>
     <row r="174" spans="1:35">
@@ -12981,94 +13075,124 @@
         <v>5</v>
       </c>
       <c r="E174" s="3">
-        <v>110853</v>
+        <f>SUM(E179,E183,E188,E193,E198)</f>
+        <v>110950</v>
       </c>
       <c r="F174" s="3">
+        <f t="shared" ref="F174:AH174" si="43">SUM(F179,F183,F188,F193,F198)</f>
         <v>2893</v>
       </c>
       <c r="G174" s="3">
+        <f t="shared" si="43"/>
         <v>6631</v>
       </c>
       <c r="H174" s="3">
+        <f t="shared" si="43"/>
         <v>6428</v>
       </c>
       <c r="I174" s="3">
+        <f t="shared" si="43"/>
         <v>6110</v>
       </c>
       <c r="J174" s="3">
+        <f t="shared" si="43"/>
         <v>5742</v>
       </c>
       <c r="K174" s="3">
+        <f t="shared" si="43"/>
         <v>5091</v>
       </c>
       <c r="L174" s="3">
+        <f t="shared" si="43"/>
         <v>4895</v>
       </c>
       <c r="M174" s="3">
+        <f t="shared" si="43"/>
         <v>4834</v>
       </c>
       <c r="N174" s="3">
+        <f t="shared" si="43"/>
         <v>4248</v>
       </c>
       <c r="O174" s="3">
+        <f t="shared" si="43"/>
         <v>4224</v>
       </c>
       <c r="P174" s="3">
-        <v>4026</v>
+        <f t="shared" si="43"/>
+        <v>4027</v>
       </c>
       <c r="Q174" s="3">
-        <v>3915</v>
+        <f t="shared" si="43"/>
+        <v>3916</v>
       </c>
       <c r="R174" s="3">
+        <f t="shared" si="43"/>
         <v>3964</v>
       </c>
       <c r="S174" s="3">
+        <f t="shared" si="43"/>
         <v>3714</v>
       </c>
       <c r="T174" s="3">
-        <v>3810</v>
+        <f t="shared" si="43"/>
+        <v>3812</v>
       </c>
       <c r="U174" s="3">
+        <f t="shared" si="43"/>
         <v>3866</v>
       </c>
       <c r="V174" s="3">
+        <f t="shared" si="43"/>
         <v>3772</v>
       </c>
       <c r="W174" s="3">
-        <v>3847</v>
+        <f t="shared" si="43"/>
+        <v>3849</v>
       </c>
       <c r="X174" s="3">
-        <v>3636</v>
+        <f t="shared" si="43"/>
+        <v>3638</v>
       </c>
       <c r="Y174" s="3">
-        <v>3396</v>
+        <f t="shared" si="43"/>
+        <v>3397</v>
       </c>
       <c r="Z174" s="3">
-        <v>3178</v>
+        <f t="shared" si="43"/>
+        <v>3179</v>
       </c>
       <c r="AA174" s="3">
+        <f t="shared" si="43"/>
         <v>3245</v>
       </c>
       <c r="AB174" s="3">
-        <v>3155</v>
+        <f t="shared" si="43"/>
+        <v>3156</v>
       </c>
       <c r="AC174" s="3">
+        <f t="shared" si="43"/>
         <v>3105</v>
       </c>
       <c r="AD174" s="3">
+        <f t="shared" si="43"/>
         <v>3067</v>
       </c>
       <c r="AE174" s="3">
+        <f t="shared" si="43"/>
         <v>3078</v>
       </c>
       <c r="AF174" s="3">
+        <f t="shared" si="43"/>
         <v>2981</v>
       </c>
       <c r="AG174" s="3">
+        <f t="shared" si="43"/>
         <v>3040</v>
       </c>
       <c r="AH174" s="3">
-        <v>2915</v>
+        <f t="shared" si="43"/>
+        <v>2916</v>
       </c>
     </row>
     <row r="175" spans="1:35">
@@ -13078,93 +13202,123 @@
         <v>6</v>
       </c>
       <c r="E175" s="3">
-        <v>41478</v>
+        <f>SUM(E180,E184,E189,E194,E199)</f>
+        <v>41502</v>
       </c>
       <c r="F175" s="3">
+        <f t="shared" ref="F175:AH175" si="44">SUM(F180,F184,F189,F194,F199)</f>
         <v>1297</v>
       </c>
       <c r="G175" s="3">
+        <f t="shared" si="44"/>
         <v>2892</v>
       </c>
       <c r="H175" s="3">
+        <f t="shared" si="44"/>
         <v>2677</v>
       </c>
       <c r="I175" s="3">
+        <f t="shared" si="44"/>
         <v>2477</v>
       </c>
       <c r="J175" s="3">
+        <f t="shared" si="44"/>
         <v>2278</v>
       </c>
       <c r="K175" s="3">
+        <f t="shared" si="44"/>
         <v>2168</v>
       </c>
       <c r="L175" s="3">
+        <f t="shared" si="44"/>
         <v>1898</v>
       </c>
       <c r="M175" s="3">
+        <f t="shared" si="44"/>
         <v>1860</v>
       </c>
       <c r="N175" s="3">
+        <f t="shared" si="44"/>
         <v>1599</v>
       </c>
       <c r="O175" s="3">
+        <f t="shared" si="44"/>
         <v>1522</v>
       </c>
       <c r="P175" s="3">
+        <f t="shared" si="44"/>
         <v>1423</v>
       </c>
       <c r="Q175" s="3">
+        <f t="shared" si="44"/>
         <v>1430</v>
       </c>
       <c r="R175" s="3">
+        <f t="shared" si="44"/>
         <v>1420</v>
       </c>
       <c r="S175" s="3">
+        <f t="shared" si="44"/>
         <v>1422</v>
       </c>
       <c r="T175" s="3">
+        <f t="shared" si="44"/>
         <v>1347</v>
       </c>
       <c r="U175" s="3">
+        <f t="shared" si="44"/>
         <v>1474</v>
       </c>
       <c r="V175" s="3">
+        <f t="shared" si="44"/>
         <v>1326</v>
       </c>
       <c r="W175" s="3">
-        <v>1407</v>
+        <f t="shared" si="44"/>
+        <v>1408</v>
       </c>
       <c r="X175" s="3">
+        <f t="shared" si="44"/>
         <v>1258</v>
       </c>
       <c r="Y175" s="3">
+        <f t="shared" si="44"/>
         <v>1225</v>
       </c>
       <c r="Z175" s="3">
+        <f t="shared" si="44"/>
         <v>1015</v>
       </c>
       <c r="AA175" s="3">
+        <f t="shared" si="44"/>
         <v>1025</v>
       </c>
-      <c r="AB175" s="1">
+      <c r="AB175" s="3">
+        <f t="shared" si="44"/>
         <v>981</v>
       </c>
-      <c r="AC175" s="1">
+      <c r="AC175" s="3">
+        <f t="shared" si="44"/>
         <v>957</v>
       </c>
       <c r="AD175" s="3">
+        <f t="shared" si="44"/>
         <v>1037</v>
       </c>
-      <c r="AE175" s="1">
+      <c r="AE175" s="3">
+        <f t="shared" si="44"/>
         <v>998</v>
       </c>
-      <c r="AF175" s="1">
+      <c r="AF175" s="3">
+        <f t="shared" si="44"/>
         <v>958</v>
       </c>
-      <c r="AG175" s="1">
+      <c r="AG175" s="3">
+        <f t="shared" si="44"/>
         <v>836</v>
       </c>
-      <c r="AH175" s="1">
+      <c r="AH175" s="3">
+        <f t="shared" si="44"/>
         <v>896</v>
       </c>
     </row>
@@ -13175,93 +13329,123 @@
         <v>7</v>
       </c>
       <c r="E176" s="3">
-        <v>15812</v>
-      </c>
-      <c r="F176" s="1">
+        <f>SUM(E185,E190,E195,E200)</f>
+        <v>15828</v>
+      </c>
+      <c r="F176" s="3">
+        <f t="shared" ref="F176:AH176" si="45">SUM(F185,F190,F195,F200)</f>
         <v>410</v>
       </c>
-      <c r="G176" s="1">
+      <c r="G176" s="3">
+        <f t="shared" si="45"/>
         <v>921</v>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="3">
+        <f t="shared" si="45"/>
         <v>843</v>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="3">
+        <f t="shared" si="45"/>
         <v>875</v>
       </c>
-      <c r="J176" s="1">
+      <c r="J176" s="3">
+        <f t="shared" si="45"/>
         <v>886</v>
       </c>
-      <c r="K176" s="1">
+      <c r="K176" s="3">
+        <f t="shared" si="45"/>
         <v>772</v>
       </c>
-      <c r="L176" s="1">
+      <c r="L176" s="3">
+        <f t="shared" si="45"/>
         <v>729</v>
       </c>
-      <c r="M176" s="1">
+      <c r="M176" s="3">
+        <f t="shared" si="45"/>
         <v>628</v>
       </c>
-      <c r="N176" s="1">
+      <c r="N176" s="3">
+        <f t="shared" si="45"/>
         <v>727</v>
       </c>
-      <c r="O176" s="1">
+      <c r="O176" s="3">
+        <f t="shared" si="45"/>
         <v>571</v>
       </c>
-      <c r="P176" s="1">
+      <c r="P176" s="3">
+        <f t="shared" si="45"/>
         <v>582</v>
       </c>
-      <c r="Q176" s="1">
+      <c r="Q176" s="3">
+        <f t="shared" si="45"/>
         <v>613</v>
       </c>
-      <c r="R176" s="1">
+      <c r="R176" s="3">
+        <f t="shared" si="45"/>
         <v>592</v>
       </c>
-      <c r="S176" s="1">
+      <c r="S176" s="3">
+        <f t="shared" si="45"/>
         <v>586</v>
       </c>
-      <c r="T176" s="1">
+      <c r="T176" s="3">
+        <f t="shared" si="45"/>
         <v>551</v>
       </c>
-      <c r="U176" s="1">
+      <c r="U176" s="3">
+        <f t="shared" si="45"/>
         <v>534</v>
       </c>
-      <c r="V176" s="1">
+      <c r="V176" s="3">
+        <f t="shared" si="45"/>
         <v>577</v>
       </c>
-      <c r="W176" s="1">
+      <c r="W176" s="3">
+        <f t="shared" si="45"/>
         <v>574</v>
       </c>
-      <c r="X176" s="1">
+      <c r="X176" s="3">
+        <f t="shared" si="45"/>
         <v>530</v>
       </c>
-      <c r="Y176" s="1">
+      <c r="Y176" s="3">
+        <f t="shared" si="45"/>
         <v>437</v>
       </c>
-      <c r="Z176" s="1">
+      <c r="Z176" s="3">
+        <f t="shared" si="45"/>
         <v>426</v>
       </c>
-      <c r="AA176" s="1">
+      <c r="AA176" s="3">
+        <f t="shared" si="45"/>
         <v>454</v>
       </c>
-      <c r="AB176" s="1">
+      <c r="AB176" s="3">
+        <f t="shared" si="45"/>
         <v>447</v>
       </c>
-      <c r="AC176" s="1">
+      <c r="AC176" s="3">
+        <f t="shared" si="45"/>
         <v>417</v>
       </c>
-      <c r="AD176" s="1">
+      <c r="AD176" s="3">
+        <f t="shared" si="45"/>
         <v>467</v>
       </c>
-      <c r="AE176" s="1">
+      <c r="AE176" s="3">
+        <f t="shared" si="45"/>
         <v>381</v>
       </c>
-      <c r="AF176" s="1">
+      <c r="AF176" s="3">
+        <f t="shared" si="45"/>
         <v>389</v>
       </c>
-      <c r="AG176" s="1">
+      <c r="AG176" s="3">
+        <f t="shared" si="45"/>
         <v>422</v>
       </c>
-      <c r="AH176" s="1">
+      <c r="AH176" s="3">
+        <f t="shared" si="45"/>
         <v>399</v>
       </c>
     </row>
@@ -15620,7 +15804,7 @@
     </row>
     <row r="205" spans="1:34">
       <c r="A205" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B205" s="19"/>
       <c r="C205" s="1"/>
@@ -15718,7 +15902,7 @@
     </row>
     <row r="206" spans="1:34">
       <c r="A206" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>9</v>
@@ -15729,123 +15913,123 @@
       <c r="D206" s="1"/>
       <c r="E206" s="3">
         <f>E210+E209+E208+E207</f>
-        <v>112656</v>
+        <v>114364</v>
       </c>
       <c r="F206" s="3">
-        <f t="shared" ref="F206:AH206" si="37">F210+F209+F208+F207</f>
-        <v>1397</v>
+        <f t="shared" ref="F206:AH206" si="46">F210+F209+F208+F207</f>
+        <v>1415</v>
       </c>
       <c r="G206" s="3">
-        <f t="shared" si="37"/>
-        <v>4303</v>
+        <f t="shared" si="46"/>
+        <v>4379</v>
       </c>
       <c r="H206" s="3">
-        <f t="shared" si="37"/>
-        <v>4972</v>
+        <f t="shared" si="46"/>
+        <v>5086</v>
       </c>
       <c r="I206" s="3">
-        <f t="shared" si="37"/>
-        <v>4881</v>
+        <f t="shared" si="46"/>
+        <v>4974</v>
       </c>
       <c r="J206" s="3">
-        <f t="shared" si="37"/>
-        <v>3870</v>
+        <f t="shared" si="46"/>
+        <v>3953</v>
       </c>
       <c r="K206" s="3">
-        <f t="shared" si="37"/>
-        <v>4102</v>
+        <f t="shared" si="46"/>
+        <v>4163</v>
       </c>
       <c r="L206" s="3">
-        <f t="shared" si="37"/>
-        <v>4297</v>
+        <f t="shared" si="46"/>
+        <v>4377</v>
       </c>
       <c r="M206" s="3">
-        <f t="shared" si="37"/>
-        <v>4691</v>
+        <f t="shared" si="46"/>
+        <v>4782</v>
       </c>
       <c r="N206" s="3">
-        <f t="shared" si="37"/>
-        <v>4796</v>
+        <f t="shared" si="46"/>
+        <v>4863</v>
       </c>
       <c r="O206" s="3">
-        <f t="shared" si="37"/>
-        <v>4752</v>
+        <f t="shared" si="46"/>
+        <v>4834</v>
       </c>
       <c r="P206" s="3">
-        <f t="shared" si="37"/>
-        <v>4607</v>
+        <f t="shared" si="46"/>
+        <v>4676</v>
       </c>
       <c r="Q206" s="3">
-        <f t="shared" si="37"/>
-        <v>4619</v>
+        <f t="shared" si="46"/>
+        <v>4701</v>
       </c>
       <c r="R206" s="3">
-        <f t="shared" si="37"/>
-        <v>4783</v>
+        <f t="shared" si="46"/>
+        <v>4866</v>
       </c>
       <c r="S206" s="3">
-        <f t="shared" si="37"/>
-        <v>4678</v>
+        <f t="shared" si="46"/>
+        <v>4750</v>
       </c>
       <c r="T206" s="3">
-        <f t="shared" si="37"/>
-        <v>4688</v>
+        <f t="shared" si="46"/>
+        <v>4747</v>
       </c>
       <c r="U206" s="3">
-        <f t="shared" si="37"/>
-        <v>4653</v>
+        <f t="shared" si="46"/>
+        <v>4729</v>
       </c>
       <c r="V206" s="3">
-        <f t="shared" si="37"/>
-        <v>4543</v>
+        <f t="shared" si="46"/>
+        <v>4608</v>
       </c>
       <c r="W206" s="3">
-        <f t="shared" si="37"/>
-        <v>4517</v>
+        <f t="shared" si="46"/>
+        <v>4575</v>
       </c>
       <c r="X206" s="3">
-        <f t="shared" si="37"/>
-        <v>4175</v>
+        <f t="shared" si="46"/>
+        <v>4228</v>
       </c>
       <c r="Y206" s="3">
-        <f t="shared" si="37"/>
-        <v>4084</v>
+        <f t="shared" si="46"/>
+        <v>4132</v>
       </c>
       <c r="Z206" s="3">
-        <f t="shared" si="37"/>
-        <v>3881</v>
+        <f t="shared" si="46"/>
+        <v>3918</v>
       </c>
       <c r="AA206" s="3">
-        <f t="shared" si="37"/>
-        <v>3795</v>
+        <f t="shared" si="46"/>
+        <v>3825</v>
       </c>
       <c r="AB206" s="3">
-        <f t="shared" si="37"/>
-        <v>3433</v>
+        <f t="shared" si="46"/>
+        <v>3474</v>
       </c>
       <c r="AC206" s="3">
-        <f t="shared" si="37"/>
-        <v>3187</v>
+        <f t="shared" si="46"/>
+        <v>3214</v>
       </c>
       <c r="AD206" s="3">
-        <f t="shared" si="37"/>
-        <v>3310</v>
+        <f t="shared" si="46"/>
+        <v>3330</v>
       </c>
       <c r="AE206" s="3">
-        <f t="shared" si="37"/>
-        <v>2432</v>
+        <f t="shared" si="46"/>
+        <v>2449</v>
       </c>
       <c r="AF206" s="3">
-        <f t="shared" si="37"/>
-        <v>2071</v>
+        <f t="shared" si="46"/>
+        <v>2084</v>
       </c>
       <c r="AG206" s="3">
-        <f t="shared" si="37"/>
-        <v>1846</v>
+        <f t="shared" si="46"/>
+        <v>1864</v>
       </c>
       <c r="AH206" s="3">
-        <f t="shared" si="37"/>
-        <v>1531</v>
+        <f t="shared" si="46"/>
+        <v>1540</v>
       </c>
     </row>
     <row r="207" spans="1:34">
@@ -15856,94 +16040,124 @@
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="3">
-        <v>58818</v>
-      </c>
-      <c r="F207" s="1">
-        <v>728</v>
+        <f>SUM(E212,E216,E221,E226,E231)</f>
+        <v>59781</v>
+      </c>
+      <c r="F207" s="3">
+        <f t="shared" ref="F207:AH207" si="47">SUM(F212,F216,F221,F226,F231)</f>
+        <v>738</v>
       </c>
       <c r="G207" s="3">
-        <v>2303</v>
+        <f t="shared" si="47"/>
+        <v>2344</v>
       </c>
       <c r="H207" s="3">
-        <v>2644</v>
+        <f t="shared" si="47"/>
+        <v>2721</v>
       </c>
       <c r="I207" s="3">
-        <v>2644</v>
+        <f t="shared" si="47"/>
+        <v>2699</v>
       </c>
       <c r="J207" s="3">
-        <v>2102</v>
+        <f t="shared" si="47"/>
+        <v>2137</v>
       </c>
       <c r="K207" s="3">
-        <v>2207</v>
+        <f t="shared" si="47"/>
+        <v>2246</v>
       </c>
       <c r="L207" s="3">
-        <v>2230</v>
+        <f t="shared" si="47"/>
+        <v>2278</v>
       </c>
       <c r="M207" s="3">
-        <v>2444</v>
+        <f t="shared" si="47"/>
+        <v>2497</v>
       </c>
       <c r="N207" s="3">
-        <v>2484</v>
+        <f t="shared" si="47"/>
+        <v>2521</v>
       </c>
       <c r="O207" s="3">
-        <v>2412</v>
+        <f t="shared" si="47"/>
+        <v>2452</v>
       </c>
       <c r="P207" s="3">
-        <v>2383</v>
+        <f t="shared" si="47"/>
+        <v>2423</v>
       </c>
       <c r="Q207" s="3">
-        <v>2414</v>
+        <f t="shared" si="47"/>
+        <v>2462</v>
       </c>
       <c r="R207" s="3">
-        <v>2453</v>
+        <f t="shared" si="47"/>
+        <v>2508</v>
       </c>
       <c r="S207" s="3">
-        <v>2427</v>
+        <f t="shared" si="47"/>
+        <v>2469</v>
       </c>
       <c r="T207" s="3">
-        <v>2458</v>
+        <f t="shared" si="47"/>
+        <v>2493</v>
       </c>
       <c r="U207" s="3">
-        <v>2461</v>
+        <f t="shared" si="47"/>
+        <v>2506</v>
       </c>
       <c r="V207" s="3">
-        <v>2333</v>
+        <f t="shared" si="47"/>
+        <v>2371</v>
       </c>
       <c r="W207" s="3">
-        <v>2305</v>
+        <f t="shared" si="47"/>
+        <v>2334</v>
       </c>
       <c r="X207" s="3">
-        <v>2207</v>
+        <f t="shared" si="47"/>
+        <v>2228</v>
       </c>
       <c r="Y207" s="3">
-        <v>2101</v>
+        <f t="shared" si="47"/>
+        <v>2130</v>
       </c>
       <c r="Z207" s="3">
-        <v>1965</v>
+        <f t="shared" si="47"/>
+        <v>1982</v>
       </c>
       <c r="AA207" s="3">
-        <v>2004</v>
+        <f t="shared" si="47"/>
+        <v>2019</v>
       </c>
       <c r="AB207" s="3">
-        <v>1767</v>
+        <f t="shared" si="47"/>
+        <v>1788</v>
       </c>
       <c r="AC207" s="3">
-        <v>1671</v>
+        <f t="shared" si="47"/>
+        <v>1687</v>
       </c>
       <c r="AD207" s="3">
-        <v>1689</v>
+        <f t="shared" si="47"/>
+        <v>1703</v>
       </c>
       <c r="AE207" s="3">
-        <v>1298</v>
+        <f t="shared" si="47"/>
+        <v>1304</v>
       </c>
       <c r="AF207" s="3">
-        <v>1079</v>
-      </c>
-      <c r="AG207" s="1">
-        <v>934</v>
-      </c>
-      <c r="AH207" s="1">
-        <v>798</v>
+        <f t="shared" si="47"/>
+        <v>1084</v>
+      </c>
+      <c r="AG207" s="3">
+        <f t="shared" si="47"/>
+        <v>944</v>
+      </c>
+      <c r="AH207" s="3">
+        <f t="shared" si="47"/>
+        <v>801</v>
       </c>
     </row>
     <row r="208" spans="1:34">
@@ -15954,94 +16168,124 @@
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="3">
-        <v>32628</v>
-      </c>
-      <c r="F208" s="1">
-        <v>420</v>
+        <f>SUM(E213,E217,E222,E227,E232)</f>
+        <v>33011</v>
+      </c>
+      <c r="F208" s="3">
+        <f t="shared" ref="F208:AH208" si="48">SUM(F213,F217,F222,F227,F232)</f>
+        <v>425</v>
       </c>
       <c r="G208" s="3">
-        <v>1196</v>
+        <f t="shared" si="48"/>
+        <v>1215</v>
       </c>
       <c r="H208" s="3">
-        <v>1413</v>
+        <f t="shared" si="48"/>
+        <v>1431</v>
       </c>
       <c r="I208" s="3">
-        <v>1390</v>
+        <f t="shared" si="48"/>
+        <v>1414</v>
       </c>
       <c r="J208" s="3">
-        <v>1042</v>
+        <f t="shared" si="48"/>
+        <v>1064</v>
       </c>
       <c r="K208" s="3">
-        <v>1144</v>
+        <f t="shared" si="48"/>
+        <v>1156</v>
       </c>
       <c r="L208" s="3">
-        <v>1259</v>
+        <f t="shared" si="48"/>
+        <v>1273</v>
       </c>
       <c r="M208" s="3">
+        <f t="shared" si="48"/>
+        <v>1395</v>
+      </c>
+      <c r="N208" s="3">
+        <f t="shared" si="48"/>
+        <v>1429</v>
+      </c>
+      <c r="O208" s="3">
+        <f t="shared" si="48"/>
+        <v>1447</v>
+      </c>
+      <c r="P208" s="3">
+        <f t="shared" si="48"/>
+        <v>1393</v>
+      </c>
+      <c r="Q208" s="3">
+        <f t="shared" si="48"/>
+        <v>1386</v>
+      </c>
+      <c r="R208" s="3">
+        <f t="shared" si="48"/>
+        <v>1433</v>
+      </c>
+      <c r="S208" s="3">
+        <f t="shared" si="48"/>
+        <v>1362</v>
+      </c>
+      <c r="T208" s="3">
+        <f t="shared" si="48"/>
+        <v>1375</v>
+      </c>
+      <c r="U208" s="3">
+        <f t="shared" si="48"/>
+        <v>1343</v>
+      </c>
+      <c r="V208" s="3">
+        <f t="shared" si="48"/>
+        <v>1361</v>
+      </c>
+      <c r="W208" s="3">
+        <f t="shared" si="48"/>
         <v>1374</v>
       </c>
-      <c r="N208" s="3">
-        <v>1415</v>
-      </c>
-      <c r="O208" s="3">
-        <v>1427</v>
-      </c>
-      <c r="P208" s="3">
-        <v>1380</v>
-      </c>
-      <c r="Q208" s="3">
-        <v>1367</v>
-      </c>
-      <c r="R208" s="3">
-        <v>1418</v>
-      </c>
-      <c r="S208" s="3">
-        <v>1345</v>
-      </c>
-      <c r="T208" s="3">
-        <v>1364</v>
-      </c>
-      <c r="U208" s="3">
-        <v>1333</v>
-      </c>
-      <c r="V208" s="3">
-        <v>1347</v>
-      </c>
-      <c r="W208" s="3">
-        <v>1356</v>
-      </c>
       <c r="X208" s="3">
-        <v>1150</v>
+        <f t="shared" si="48"/>
+        <v>1169</v>
       </c>
       <c r="Y208" s="3">
-        <v>1169</v>
+        <f t="shared" si="48"/>
+        <v>1180</v>
       </c>
       <c r="Z208" s="3">
-        <v>1167</v>
+        <f t="shared" si="48"/>
+        <v>1178</v>
       </c>
       <c r="AA208" s="3">
-        <v>1067</v>
-      </c>
-      <c r="AB208" s="1">
-        <v>997</v>
-      </c>
-      <c r="AC208" s="1">
-        <v>936</v>
-      </c>
-      <c r="AD208" s="1">
-        <v>944</v>
-      </c>
-      <c r="AE208" s="1">
-        <v>665</v>
-      </c>
-      <c r="AF208" s="1">
-        <v>593</v>
-      </c>
-      <c r="AG208" s="1">
-        <v>580</v>
-      </c>
-      <c r="AH208" s="1">
-        <v>430</v>
+        <f t="shared" si="48"/>
+        <v>1072</v>
+      </c>
+      <c r="AB208" s="3">
+        <f t="shared" si="48"/>
+        <v>1008</v>
+      </c>
+      <c r="AC208" s="3">
+        <f t="shared" si="48"/>
+        <v>941</v>
+      </c>
+      <c r="AD208" s="3">
+        <f t="shared" si="48"/>
+        <v>948</v>
+      </c>
+      <c r="AE208" s="3">
+        <f t="shared" si="48"/>
+        <v>668</v>
+      </c>
+      <c r="AF208" s="3">
+        <f t="shared" si="48"/>
+        <v>598</v>
+      </c>
+      <c r="AG208" s="3">
+        <f t="shared" si="48"/>
+        <v>585</v>
+      </c>
+      <c r="AH208" s="3">
+        <f t="shared" si="48"/>
+        <v>432</v>
       </c>
     </row>
     <row r="209" spans="1:34">
@@ -16052,94 +16296,124 @@
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="3">
-        <v>18074</v>
-      </c>
-      <c r="F209" s="1">
-        <v>217</v>
-      </c>
-      <c r="G209" s="1">
-        <v>719</v>
-      </c>
-      <c r="H209" s="1">
-        <v>809</v>
-      </c>
-      <c r="I209" s="1">
-        <v>722</v>
-      </c>
-      <c r="J209" s="1">
-        <v>630</v>
-      </c>
-      <c r="K209" s="1">
-        <v>649</v>
-      </c>
-      <c r="L209" s="1">
-        <v>710</v>
-      </c>
-      <c r="M209" s="1">
+        <f>SUM(E214,E218,E223,E228,E233)</f>
+        <v>18405</v>
+      </c>
+      <c r="F209" s="3">
+        <f t="shared" ref="F209:AH209" si="49">SUM(F214,F218,F223,F228,F233)</f>
+        <v>220</v>
+      </c>
+      <c r="G209" s="3">
+        <f t="shared" si="49"/>
+        <v>733</v>
+      </c>
+      <c r="H209" s="3">
+        <f t="shared" si="49"/>
+        <v>827</v>
+      </c>
+      <c r="I209" s="3">
+        <f t="shared" si="49"/>
+        <v>735</v>
+      </c>
+      <c r="J209" s="3">
+        <f t="shared" si="49"/>
+        <v>652</v>
+      </c>
+      <c r="K209" s="3">
+        <f t="shared" si="49"/>
+        <v>659</v>
+      </c>
+      <c r="L209" s="3">
+        <f t="shared" si="49"/>
+        <v>727</v>
+      </c>
+      <c r="M209" s="3">
+        <f t="shared" si="49"/>
+        <v>750</v>
+      </c>
+      <c r="N209" s="3">
+        <f t="shared" si="49"/>
+        <v>777</v>
+      </c>
+      <c r="O209" s="3">
+        <f t="shared" si="49"/>
+        <v>789</v>
+      </c>
+      <c r="P209" s="3">
+        <f t="shared" si="49"/>
+        <v>727</v>
+      </c>
+      <c r="Q209" s="3">
+        <f t="shared" si="49"/>
+        <v>727</v>
+      </c>
+      <c r="R209" s="3">
+        <f t="shared" si="49"/>
+        <v>782</v>
+      </c>
+      <c r="S209" s="3">
+        <f t="shared" si="49"/>
+        <v>749</v>
+      </c>
+      <c r="T209" s="3">
+        <f t="shared" si="49"/>
+        <v>729</v>
+      </c>
+      <c r="U209" s="3">
+        <f t="shared" si="49"/>
         <v>734</v>
       </c>
-      <c r="N209" s="1">
-        <v>762</v>
-      </c>
-      <c r="O209" s="1">
-        <v>768</v>
-      </c>
-      <c r="P209" s="1">
-        <v>713</v>
-      </c>
-      <c r="Q209" s="1">
-        <v>714</v>
-      </c>
-      <c r="R209" s="1">
-        <v>769</v>
-      </c>
-      <c r="S209" s="1">
-        <v>737</v>
-      </c>
-      <c r="T209" s="1">
-        <v>717</v>
-      </c>
-      <c r="U209" s="1">
-        <v>715</v>
-      </c>
-      <c r="V209" s="1">
-        <v>753</v>
-      </c>
-      <c r="W209" s="1">
-        <v>710</v>
-      </c>
-      <c r="X209" s="1">
-        <v>710</v>
-      </c>
-      <c r="Y209" s="1">
-        <v>673</v>
-      </c>
-      <c r="Z209" s="1">
-        <v>638</v>
-      </c>
-      <c r="AA209" s="1">
-        <v>621</v>
-      </c>
-      <c r="AB209" s="1">
-        <v>576</v>
-      </c>
-      <c r="AC209" s="1">
-        <v>498</v>
-      </c>
-      <c r="AD209" s="1">
-        <v>569</v>
-      </c>
-      <c r="AE209" s="1">
-        <v>401</v>
-      </c>
-      <c r="AF209" s="1">
-        <v>341</v>
-      </c>
-      <c r="AG209" s="1">
-        <v>286</v>
-      </c>
-      <c r="AH209" s="1">
-        <v>258</v>
+      <c r="V209" s="3">
+        <f t="shared" si="49"/>
+        <v>764</v>
+      </c>
+      <c r="W209" s="3">
+        <f t="shared" si="49"/>
+        <v>720</v>
+      </c>
+      <c r="X209" s="3">
+        <f t="shared" si="49"/>
+        <v>723</v>
+      </c>
+      <c r="Y209" s="3">
+        <f t="shared" si="49"/>
+        <v>679</v>
+      </c>
+      <c r="Z209" s="3">
+        <f t="shared" si="49"/>
+        <v>647</v>
+      </c>
+      <c r="AA209" s="3">
+        <f t="shared" si="49"/>
+        <v>631</v>
+      </c>
+      <c r="AB209" s="3">
+        <f t="shared" si="49"/>
+        <v>585</v>
+      </c>
+      <c r="AC209" s="3">
+        <f t="shared" si="49"/>
+        <v>503</v>
+      </c>
+      <c r="AD209" s="3">
+        <f t="shared" si="49"/>
+        <v>570</v>
+      </c>
+      <c r="AE209" s="3">
+        <f t="shared" si="49"/>
+        <v>408</v>
+      </c>
+      <c r="AF209" s="3">
+        <f t="shared" si="49"/>
+        <v>343</v>
+      </c>
+      <c r="AG209" s="3">
+        <f t="shared" si="49"/>
+        <v>288</v>
+      </c>
+      <c r="AH209" s="3">
+        <f t="shared" si="49"/>
+        <v>261</v>
       </c>
     </row>
     <row r="210" spans="1:34">
@@ -16150,94 +16424,124 @@
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="3">
-        <v>3136</v>
-      </c>
-      <c r="F210" s="1">
+        <f>SUM(E219,E224,E229,E234)</f>
+        <v>3167</v>
+      </c>
+      <c r="F210" s="3">
+        <f t="shared" ref="F210:AH210" si="50">SUM(F219,F224,F229,F234)</f>
         <v>32</v>
       </c>
-      <c r="G210" s="1">
-        <v>85</v>
-      </c>
-      <c r="H210" s="1">
-        <v>106</v>
-      </c>
-      <c r="I210" s="1">
-        <v>125</v>
-      </c>
-      <c r="J210" s="1">
-        <v>96</v>
-      </c>
-      <c r="K210" s="1">
+      <c r="G210" s="3">
+        <f t="shared" si="50"/>
+        <v>87</v>
+      </c>
+      <c r="H210" s="3">
+        <f t="shared" si="50"/>
+        <v>107</v>
+      </c>
+      <c r="I210" s="3">
+        <f t="shared" si="50"/>
+        <v>126</v>
+      </c>
+      <c r="J210" s="3">
+        <f t="shared" si="50"/>
+        <v>100</v>
+      </c>
+      <c r="K210" s="3">
+        <f t="shared" si="50"/>
         <v>102</v>
       </c>
-      <c r="L210" s="1">
-        <v>98</v>
-      </c>
-      <c r="M210" s="1">
-        <v>139</v>
-      </c>
-      <c r="N210" s="1">
-        <v>135</v>
-      </c>
-      <c r="O210" s="1">
-        <v>145</v>
-      </c>
-      <c r="P210" s="1">
-        <v>131</v>
-      </c>
-      <c r="Q210" s="1">
-        <v>124</v>
-      </c>
-      <c r="R210" s="1">
+      <c r="L210" s="3">
+        <f t="shared" si="50"/>
+        <v>99</v>
+      </c>
+      <c r="M210" s="3">
+        <f t="shared" si="50"/>
+        <v>140</v>
+      </c>
+      <c r="N210" s="3">
+        <f t="shared" si="50"/>
+        <v>136</v>
+      </c>
+      <c r="O210" s="3">
+        <f t="shared" si="50"/>
+        <v>146</v>
+      </c>
+      <c r="P210" s="3">
+        <f t="shared" si="50"/>
+        <v>133</v>
+      </c>
+      <c r="Q210" s="3">
+        <f t="shared" si="50"/>
+        <v>126</v>
+      </c>
+      <c r="R210" s="3">
+        <f t="shared" si="50"/>
         <v>143</v>
       </c>
-      <c r="S210" s="1">
-        <v>169</v>
-      </c>
-      <c r="T210" s="1">
-        <v>149</v>
-      </c>
-      <c r="U210" s="1">
-        <v>144</v>
-      </c>
-      <c r="V210" s="1">
-        <v>110</v>
-      </c>
-      <c r="W210" s="1">
+      <c r="S210" s="3">
+        <f t="shared" si="50"/>
+        <v>170</v>
+      </c>
+      <c r="T210" s="3">
+        <f t="shared" si="50"/>
+        <v>150</v>
+      </c>
+      <c r="U210" s="3">
+        <f t="shared" si="50"/>
         <v>146</v>
       </c>
-      <c r="X210" s="1">
+      <c r="V210" s="3">
+        <f t="shared" si="50"/>
+        <v>112</v>
+      </c>
+      <c r="W210" s="3">
+        <f t="shared" si="50"/>
+        <v>147</v>
+      </c>
+      <c r="X210" s="3">
+        <f t="shared" si="50"/>
         <v>108</v>
       </c>
-      <c r="Y210" s="1">
-        <v>141</v>
-      </c>
-      <c r="Z210" s="1">
+      <c r="Y210" s="3">
+        <f t="shared" si="50"/>
+        <v>143</v>
+      </c>
+      <c r="Z210" s="3">
+        <f t="shared" si="50"/>
         <v>111</v>
       </c>
-      <c r="AA210" s="1">
+      <c r="AA210" s="3">
+        <f t="shared" si="50"/>
         <v>103</v>
       </c>
-      <c r="AB210" s="1">
+      <c r="AB210" s="3">
+        <f t="shared" si="50"/>
         <v>93</v>
       </c>
-      <c r="AC210" s="1">
-        <v>82</v>
-      </c>
-      <c r="AD210" s="1">
-        <v>108</v>
-      </c>
-      <c r="AE210" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF210" s="1">
-        <v>58</v>
-      </c>
-      <c r="AG210" s="1">
+      <c r="AC210" s="3">
+        <f t="shared" si="50"/>
+        <v>83</v>
+      </c>
+      <c r="AD210" s="3">
+        <f t="shared" si="50"/>
+        <v>109</v>
+      </c>
+      <c r="AE210" s="3">
+        <f t="shared" si="50"/>
+        <v>69</v>
+      </c>
+      <c r="AF210" s="3">
+        <f t="shared" si="50"/>
+        <v>59</v>
+      </c>
+      <c r="AG210" s="3">
+        <f t="shared" si="50"/>
+        <v>47</v>
+      </c>
+      <c r="AH210" s="3">
+        <f t="shared" si="50"/>
         <v>46</v>
-      </c>
-      <c r="AH210" s="1">
-        <v>45</v>
       </c>
     </row>
     <row r="211" spans="1:34">
@@ -16254,119 +16558,119 @@
         <v>10</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" ref="F211:AH211" si="38">F214+F213+F212</f>
+        <f t="shared" ref="F211:AH211" si="51">F214+F213+F212</f>
         <v>1</v>
       </c>
       <c r="G211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="H211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="I211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="J211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="K211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="M211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="N211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="O211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Q211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="R211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="S211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="T211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="U211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="V211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="X211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Y211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="Z211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AA211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AB211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AC211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AD211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AE211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="AF211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="AG211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AH211" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
     </row>
@@ -16678,119 +16982,119 @@
         <v>54566</v>
       </c>
       <c r="F215" s="3">
-        <f t="shared" ref="F215:AH215" si="39">F219+F218+F217+F216</f>
+        <f t="shared" ref="F215:AH215" si="52">F219+F218+F217+F216</f>
         <v>423</v>
       </c>
       <c r="G215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1388</v>
       </c>
       <c r="H215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1883</v>
       </c>
       <c r="I215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1907</v>
       </c>
       <c r="J215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1546</v>
       </c>
       <c r="K215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1590</v>
       </c>
       <c r="L215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1586</v>
       </c>
       <c r="M215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1734</v>
       </c>
       <c r="N215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1767</v>
       </c>
       <c r="O215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1862</v>
       </c>
       <c r="P215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1783</v>
       </c>
       <c r="Q215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1718</v>
       </c>
       <c r="R215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1848</v>
       </c>
       <c r="S215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1928</v>
       </c>
       <c r="T215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1955</v>
       </c>
       <c r="U215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2079</v>
       </c>
       <c r="V215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2189</v>
       </c>
       <c r="W215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2350</v>
       </c>
       <c r="X215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2302</v>
       </c>
       <c r="Y215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2403</v>
       </c>
       <c r="Z215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2659</v>
       </c>
       <c r="AA215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2774</v>
       </c>
       <c r="AB215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2548</v>
       </c>
       <c r="AC215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2387</v>
       </c>
       <c r="AD215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>2443</v>
       </c>
       <c r="AE215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1763</v>
       </c>
       <c r="AF215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1514</v>
       </c>
       <c r="AG215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1311</v>
       </c>
       <c r="AH215" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="52"/>
         <v>1044</v>
       </c>
     </row>
@@ -17200,119 +17504,119 @@
         <v>135</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" ref="F220:AH220" si="40">F224+F223+F222+F221</f>
+        <f t="shared" ref="F220:AH220" si="53">F224+F223+F222+F221</f>
         <v>0</v>
       </c>
       <c r="G220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="H220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="I220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="J220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="K220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="M220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="N220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="O220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="P220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Q220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="R220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="S220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="T220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="U220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="V220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="W220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>15</v>
       </c>
       <c r="X220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>12</v>
       </c>
       <c r="Y220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>6</v>
       </c>
       <c r="Z220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>7</v>
       </c>
       <c r="AA220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>10</v>
       </c>
       <c r="AB220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="AC220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AD220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="AE220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>5</v>
       </c>
       <c r="AF220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AG220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>3</v>
       </c>
       <c r="AH220" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
     </row>
@@ -17722,119 +18026,119 @@
         <v>49</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" ref="F225:AH225" si="41">F229+F228+F227+F226</f>
+        <f t="shared" ref="F225:AH225" si="54">F229+F228+F227+F226</f>
         <v>0</v>
       </c>
       <c r="G225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="H225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="I225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="J225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="K225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="O225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="P225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Q225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="R225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="S225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="U225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="V225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="W225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="X225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>4</v>
       </c>
       <c r="Y225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="Z225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AA225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="AB225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>6</v>
       </c>
       <c r="AC225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="AD225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AE225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AF225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AG225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="AH225" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
     </row>
@@ -18244,119 +18548,119 @@
         <v>59604</v>
       </c>
       <c r="F230" s="3">
-        <f t="shared" ref="F230:AH230" si="42">F234+F233+F232+F231</f>
+        <f t="shared" ref="F230:AH230" si="55">F234+F233+F232+F231</f>
         <v>991</v>
       </c>
       <c r="G230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2990</v>
       </c>
       <c r="H230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>3203</v>
       </c>
       <c r="I230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>3067</v>
       </c>
       <c r="J230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2406</v>
       </c>
       <c r="K230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2572</v>
       </c>
       <c r="L230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2789</v>
       </c>
       <c r="M230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>3047</v>
       </c>
       <c r="N230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>3095</v>
       </c>
       <c r="O230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2970</v>
       </c>
       <c r="P230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2893</v>
       </c>
       <c r="Q230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2979</v>
       </c>
       <c r="R230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>3009</v>
       </c>
       <c r="S230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2812</v>
       </c>
       <c r="T230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2783</v>
       </c>
       <c r="U230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2639</v>
       </c>
       <c r="V230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2405</v>
       </c>
       <c r="W230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>2206</v>
       </c>
       <c r="X230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>1910</v>
       </c>
       <c r="Y230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>1722</v>
       </c>
       <c r="Z230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>1251</v>
       </c>
       <c r="AA230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>1039</v>
       </c>
       <c r="AB230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>912</v>
       </c>
       <c r="AC230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>813</v>
       </c>
       <c r="AD230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>876</v>
       </c>
       <c r="AE230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>675</v>
       </c>
       <c r="AF230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>565</v>
       </c>
       <c r="AG230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>550</v>
       </c>
       <c r="AH230" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>489</v>
       </c>
     </row>

--- a/data/Data_Tansplants_US.xlsx
+++ b/data/Data_Tansplants_US.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE0926EB-6D89-467C-841C-300FA50C6DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE039D8-2120-46F7-BDF9-5396C8675076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -799,8 +799,8 @@
   </sheetPr>
   <dimension ref="A1:AO237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="M116" sqref="M116"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="P118" activeCellId="1" sqref="K114 P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8663,6 +8663,14 @@
       <c r="J114" t="s">
         <v>9</v>
       </c>
+      <c r="K114">
+        <f>K118+K122+K126+K130</f>
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <f>L118+L122+L126+L130</f>
+        <v>1.0000000000000002</v>
+      </c>
     </row>
     <row r="115" spans="1:13">
       <c r="B115" t="s">
@@ -8688,6 +8696,14 @@
       <c r="J115" t="s">
         <v>16</v>
       </c>
+      <c r="K115">
+        <f>K119+K123+K127+K131</f>
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <f>L119+L123+L127+L131</f>
+        <v>0.99999999999999989</v>
+      </c>
     </row>
     <row r="116" spans="1:13">
       <c r="B116" t="s">
@@ -8713,6 +8729,14 @@
       <c r="J116" t="s">
         <v>17</v>
       </c>
+      <c r="K116">
+        <f>K120+K124+K128+K132</f>
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <f>L120+L124+L128+L132</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:13">
       <c r="B117" t="s">
@@ -8737,6 +8761,14 @@
       <c r="G117" s="34"/>
       <c r="J117" t="s">
         <v>18</v>
+      </c>
+      <c r="K117">
+        <f>K121+K125+K129+K133</f>
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <f>L121+L125+L129+L133</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="118" spans="1:13">

--- a/data/Data_Tansplants_US.xlsx
+++ b/data/Data_Tansplants_US.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE039D8-2120-46F7-BDF9-5396C8675076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{628F8164-228D-435C-82AC-A7409DBC0CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="74">
   <si>
     <t>ORGANI</t>
   </si>
@@ -230,6 +230,27 @@
   <si>
     <t>Died</t>
   </si>
+  <si>
+    <t>RIPETIZ TRAP.</t>
+  </si>
+  <si>
+    <t>All Transplant</t>
+  </si>
+  <si>
+    <t>Primary Transplant</t>
+  </si>
+  <si>
+    <t>Repeat Transplant</t>
+  </si>
+  <si>
+    <t>RIPETIZ. TRAP - TASSI</t>
+  </si>
+  <si>
+    <t>PROBABILITÀ - RIPETIZ.</t>
+  </si>
+  <si>
+    <t>VALORE</t>
+  </si>
 </sst>
 </file>
 
@@ -318,7 +339,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -364,21 +385,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -398,6 +404,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -410,23 +440,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -456,22 +474,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,6 +489,27 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -797,10 +827,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO237"/>
+  <dimension ref="A1:AO260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="P118" activeCellId="1" sqref="K114 P118"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="J261" sqref="J261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,10 +842,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1571,7 +1601,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1651,10 +1681,10 @@
       <c r="AO8" s="1"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -4973,10 +5003,10 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="18"/>
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
@@ -7587,20 +7617,20 @@
       <c r="AG63" s="5"/>
     </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B65" s="22"/>
+      <c r="B65" s="18"/>
       <c r="D65" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I65" s="16" t="s">
+      <c r="I65" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J65" s="17"/>
+      <c r="J65" s="13"/>
       <c r="L65" s="2" t="s">
         <v>20</v>
       </c>
@@ -7941,17 +7971,19 @@
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="29" t="s">
+      <c r="A87" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B87" s="30"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="13"/>
       <c r="I87" t="s">
         <v>23</v>
       </c>
-      <c r="K87" s="28" t="s">
+      <c r="K87" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="L87" s="28"/>
+      <c r="L87" s="23"/>
       <c r="N87" t="s">
         <v>25</v>
       </c>
@@ -7966,14 +7998,14 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="21" t="s">
+      <c r="B88" s="33"/>
+      <c r="C88" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D88" s="22"/>
+      <c r="D88" s="34"/>
       <c r="I88" s="4">
         <f>D72</f>
         <v>12375</v>
@@ -8003,11 +8035,11 @@
       <c r="A89" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="7">
         <f>D74/D66</f>
         <v>0.32804111562131721</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89" s="7">
         <f>L68/L66</f>
         <v>0.370336861152608</v>
       </c>
@@ -8016,11 +8048,11 @@
       <c r="A90" t="s">
         <v>31</v>
       </c>
-      <c r="B90" s="8">
+      <c r="B90" s="7">
         <f>D78/D66</f>
         <v>0.14771600665930898</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="7">
         <f>L69/L66</f>
         <v>0.11885875397142677</v>
       </c>
@@ -8047,11 +8079,11 @@
       <c r="A91" t="s">
         <v>36</v>
       </c>
-      <c r="B91" s="8">
+      <c r="B91" s="7">
         <f>D82/D66</f>
         <v>3.7753231448399704E-2</v>
       </c>
-      <c r="D91" s="8">
+      <c r="D91" s="7">
         <f>L70/L66</f>
         <v>3.3896521976981502E-2</v>
       </c>
@@ -8084,11 +8116,11 @@
       <c r="A92" t="s">
         <v>37</v>
       </c>
-      <c r="B92" s="8">
+      <c r="B92" s="7">
         <f>D70/D66</f>
         <v>0.48651302867618174</v>
       </c>
-      <c r="D92" s="8">
+      <c r="D92" s="7">
         <f>L67/L66</f>
         <v>0.47690786289898368</v>
       </c>
@@ -8140,11 +8172,11 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="B95" s="8">
+      <c r="B95" s="7">
         <f>SUM(B89:B92)</f>
         <v>1.0000233824052076</v>
       </c>
-      <c r="D95" s="8">
+      <c r="D95" s="7">
         <f>SUM(D89:D92)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -8173,7 +8205,7 @@
       <c r="A97" t="s">
         <v>46</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="9">
         <f>D69/D66</f>
         <v>0.28825361491984508</v>
       </c>
@@ -8206,7 +8238,7 @@
       <c r="A98" t="s">
         <v>47</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="9">
         <f>D67/D66</f>
         <v>9.9609046184926764E-4</v>
       </c>
@@ -8215,7 +8247,7 @@
       <c r="A99" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B99" s="12">
+      <c r="B99" s="10">
         <f>D68/D66</f>
         <v>0.71075029461830563</v>
       </c>
@@ -8359,7 +8391,7 @@
     </row>
     <row r="102" spans="1:40">
       <c r="A102" s="1"/>
-      <c r="B102" s="12">
+      <c r="B102" s="10">
         <f>SUM(B97:B99)</f>
         <v>1</v>
       </c>
@@ -8599,37 +8631,47 @@
       <c r="AK110" s="5"/>
     </row>
     <row r="112" spans="1:40">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B112" s="17"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="13"/>
     </row>
     <row r="113" spans="1:13">
-      <c r="A113" s="26" t="s">
+      <c r="A113" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B113" s="27"/>
-      <c r="C113" s="14" t="s">
+      <c r="B113" s="22"/>
+      <c r="C113" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D113" s="15" t="s">
+      <c r="D113" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E113" s="7" t="s">
+      <c r="E113" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="F113" s="13" t="s">
+      <c r="F113" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G113" s="31"/>
-      <c r="I113" s="16" t="s">
+      <c r="G113" s="24"/>
+      <c r="I113" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="J113" s="20"/>
-      <c r="K113" s="9" t="s">
+      <c r="J113" s="22"/>
+      <c r="K113" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="L113" s="14" t="s">
+      <c r="L113" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -8644,7 +8686,7 @@
         <f>AVERAGE(L138:Q138)</f>
         <v>32282.833333333332</v>
       </c>
-      <c r="D114" s="32">
+      <c r="D114" s="25">
         <f>AVERAGE(M206:R206)</f>
         <v>4787</v>
       </c>
@@ -8656,7 +8698,7 @@
         <f>AVERAGE(M172:R172)</f>
         <v>11707.166666666666</v>
       </c>
-      <c r="G114" s="33"/>
+      <c r="G114" s="26"/>
       <c r="I114" t="s">
         <v>3</v>
       </c>
@@ -8692,7 +8734,7 @@
         <f>SUM(AVERAGE(M186:R186),AVERAGE(M191:R191))</f>
         <v>20.833333333333332</v>
       </c>
-      <c r="G115" s="34"/>
+      <c r="G115" s="27"/>
       <c r="J115" t="s">
         <v>16</v>
       </c>
@@ -8725,7 +8767,7 @@
         <f>SUM(AVERAGE(M177:R177),AVERAGE(M181:R181))</f>
         <v>11679.666666666666</v>
       </c>
-      <c r="G116" s="34"/>
+      <c r="G116" s="27"/>
       <c r="J116" t="s">
         <v>17</v>
       </c>
@@ -8758,7 +8800,7 @@
         <f>AVERAGE(M196:R196)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="G117" s="34"/>
+      <c r="G117" s="27"/>
       <c r="J117" t="s">
         <v>18</v>
       </c>
@@ -9336,10 +9378,10 @@
       <c r="Y135" s="4"/>
     </row>
     <row r="137" spans="1:35">
-      <c r="A137" s="16" t="s">
+      <c r="A137" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B137" s="17"/>
+      <c r="B137" s="13"/>
       <c r="D137" s="1" t="s">
         <v>1</v>
       </c>
@@ -12747,10 +12789,10 @@
       <c r="AI168" s="1"/>
     </row>
     <row r="171" spans="1:35">
-      <c r="A171" s="16" t="s">
+      <c r="A171" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B171" s="17"/>
+      <c r="B171" s="13"/>
       <c r="E171" s="1" t="s">
         <v>1</v>
       </c>
@@ -15835,10 +15877,10 @@
       <c r="P203" s="6"/>
     </row>
     <row r="205" spans="1:34">
-      <c r="A205" s="18" t="s">
+      <c r="A205" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B205" s="19"/>
+      <c r="B205" s="15"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
@@ -18044,7 +18086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:34">
+    <row r="225" spans="1:40">
       <c r="A225" s="1"/>
       <c r="B225" s="1" t="s">
         <v>13</v>
@@ -18174,7 +18216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:34">
+    <row r="226" spans="1:40">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1" t="s">
@@ -18272,7 +18314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:34">
+    <row r="227" spans="1:40">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1" t="s">
@@ -18370,7 +18412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:34">
+    <row r="228" spans="1:40">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1" t="s">
@@ -18468,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:34">
+    <row r="229" spans="1:40">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1" t="s">
@@ -18566,7 +18608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:34">
+    <row r="230" spans="1:40">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>14</v>
@@ -18696,7 +18738,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="231" spans="1:34">
+    <row r="231" spans="1:40">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1" t="s">
@@ -18794,7 +18836,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="232" spans="1:34">
+    <row r="232" spans="1:40">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1" t="s">
@@ -18892,7 +18934,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="233" spans="1:34">
+    <row r="233" spans="1:40">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1" t="s">
@@ -18990,7 +19032,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="234" spans="1:34">
+    <row r="234" spans="1:40">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1" t="s">
@@ -19088,23 +19130,2272 @@
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:34">
-      <c r="K237" s="4"/>
-      <c r="L237" s="4"/>
-      <c r="M237" s="4"/>
-      <c r="N237" s="4"/>
-      <c r="O237" s="4"/>
-      <c r="P237" s="4"/>
-      <c r="Q237" s="4"/>
-      <c r="R237" s="4"/>
+    <row r="237" spans="1:40">
+      <c r="A237" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B237" s="15"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E237" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F237" s="1">
+        <v>2022</v>
+      </c>
+      <c r="G237" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H237" s="1">
+        <v>2020</v>
+      </c>
+      <c r="I237" s="1">
+        <v>2019</v>
+      </c>
+      <c r="J237" s="1">
+        <v>2018</v>
+      </c>
+      <c r="K237" s="1">
+        <v>2017</v>
+      </c>
+      <c r="L237" s="1">
+        <v>2016</v>
+      </c>
+      <c r="M237" s="1">
+        <v>2015</v>
+      </c>
+      <c r="N237" s="1">
+        <v>2014</v>
+      </c>
+      <c r="O237" s="1">
+        <v>2013</v>
+      </c>
+      <c r="P237" s="1">
+        <v>2012</v>
+      </c>
+      <c r="Q237" s="1">
+        <v>2011</v>
+      </c>
+      <c r="R237" s="1">
+        <v>2010</v>
+      </c>
+      <c r="S237" s="1">
+        <v>2009</v>
+      </c>
+      <c r="T237" s="1">
+        <v>2008</v>
+      </c>
+      <c r="U237" s="1">
+        <v>2007</v>
+      </c>
+      <c r="V237" s="1">
+        <v>2006</v>
+      </c>
+      <c r="W237" s="1">
+        <v>2005</v>
+      </c>
+      <c r="X237" s="1">
+        <v>2004</v>
+      </c>
+      <c r="Y237" s="1">
+        <v>2003</v>
+      </c>
+      <c r="Z237" s="1">
+        <v>2002</v>
+      </c>
+      <c r="AA237" s="1">
+        <v>2001</v>
+      </c>
+      <c r="AB237" s="1">
+        <v>2000</v>
+      </c>
+      <c r="AC237" s="1">
+        <v>1999</v>
+      </c>
+      <c r="AD237" s="1">
+        <v>1998</v>
+      </c>
+      <c r="AE237" s="1">
+        <v>1997</v>
+      </c>
+      <c r="AF237" s="1">
+        <v>1996</v>
+      </c>
+      <c r="AG237" s="1">
+        <v>1995</v>
+      </c>
+      <c r="AH237" s="1">
+        <v>1994</v>
+      </c>
+      <c r="AI237" s="1">
+        <v>1993</v>
+      </c>
+      <c r="AJ237" s="1">
+        <v>1992</v>
+      </c>
+      <c r="AK237" s="1">
+        <v>1991</v>
+      </c>
+      <c r="AL237" s="1">
+        <v>1990</v>
+      </c>
+      <c r="AM237" s="1">
+        <v>1989</v>
+      </c>
+      <c r="AN237" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="238" spans="1:40">
+      <c r="A238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C238" s="1"/>
+      <c r="D238" s="3">
+        <f>SUM(D240,D239)</f>
+        <v>553885</v>
+      </c>
+      <c r="E238" s="3">
+        <f t="shared" ref="E238:AN238" si="56">SUM(E240,E239)</f>
+        <v>11157</v>
+      </c>
+      <c r="F238" s="3">
+        <f t="shared" si="56"/>
+        <v>25500</v>
+      </c>
+      <c r="G238" s="3">
+        <f t="shared" si="56"/>
+        <v>24670</v>
+      </c>
+      <c r="H238" s="3">
+        <f t="shared" si="56"/>
+        <v>22817</v>
+      </c>
+      <c r="I238" s="3">
+        <f t="shared" si="56"/>
+        <v>23401</v>
+      </c>
+      <c r="J238" s="3">
+        <f t="shared" si="56"/>
+        <v>21167</v>
+      </c>
+      <c r="K238" s="3">
+        <f t="shared" si="56"/>
+        <v>19849</v>
+      </c>
+      <c r="L238" s="3">
+        <f t="shared" si="56"/>
+        <v>19060</v>
+      </c>
+      <c r="M238" s="3">
+        <f t="shared" si="56"/>
+        <v>17878</v>
+      </c>
+      <c r="N238" s="3">
+        <f t="shared" si="56"/>
+        <v>17108</v>
+      </c>
+      <c r="O238" s="3">
+        <f t="shared" si="56"/>
+        <v>16896</v>
+      </c>
+      <c r="P238" s="3">
+        <f t="shared" si="56"/>
+        <v>16487</v>
+      </c>
+      <c r="Q238" s="3">
+        <f t="shared" si="56"/>
+        <v>16816</v>
+      </c>
+      <c r="R238" s="3">
+        <f t="shared" si="56"/>
+        <v>16900</v>
+      </c>
+      <c r="S238" s="3">
+        <f t="shared" si="56"/>
+        <v>16829</v>
+      </c>
+      <c r="T238" s="3">
+        <f t="shared" si="56"/>
+        <v>16521</v>
+      </c>
+      <c r="U238" s="3">
+        <f t="shared" si="56"/>
+        <v>16634</v>
+      </c>
+      <c r="V238" s="3">
+        <f t="shared" si="56"/>
+        <v>17095</v>
+      </c>
+      <c r="W238" s="3">
+        <f t="shared" si="56"/>
+        <v>16485</v>
+      </c>
+      <c r="X238" s="3">
+        <f t="shared" si="56"/>
+        <v>16007</v>
+      </c>
+      <c r="Y238" s="3">
+        <f t="shared" si="56"/>
+        <v>15138</v>
+      </c>
+      <c r="Z238" s="3">
+        <f t="shared" si="56"/>
+        <v>14781</v>
+      </c>
+      <c r="AA238" s="3">
+        <f t="shared" si="56"/>
+        <v>14279</v>
+      </c>
+      <c r="AB238" s="3">
+        <f t="shared" si="56"/>
+        <v>13631</v>
+      </c>
+      <c r="AC238" s="3">
+        <f t="shared" si="56"/>
+        <v>12765</v>
+      </c>
+      <c r="AD238" s="3">
+        <f t="shared" si="56"/>
+        <v>12451</v>
+      </c>
+      <c r="AE238" s="3">
+        <f t="shared" si="56"/>
+        <v>11710</v>
+      </c>
+      <c r="AF238" s="3">
+        <f t="shared" si="56"/>
+        <v>11411</v>
+      </c>
+      <c r="AG238" s="3">
+        <f t="shared" si="56"/>
+        <v>11084</v>
+      </c>
+      <c r="AH238" s="3">
+        <f t="shared" si="56"/>
+        <v>10646</v>
+      </c>
+      <c r="AI238" s="3">
+        <f t="shared" si="56"/>
+        <v>10360</v>
+      </c>
+      <c r="AJ238" s="3">
+        <f t="shared" si="56"/>
+        <v>9738</v>
+      </c>
+      <c r="AK238" s="3">
+        <f t="shared" si="56"/>
+        <v>9677</v>
+      </c>
+      <c r="AL238" s="3">
+        <f t="shared" si="56"/>
+        <v>9405</v>
+      </c>
+      <c r="AM238" s="3">
+        <f t="shared" si="56"/>
+        <v>8655</v>
+      </c>
+      <c r="AN238" s="3">
+        <f t="shared" si="56"/>
+        <v>8877</v>
+      </c>
+    </row>
+    <row r="239" spans="1:40">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" s="3">
+        <f>SUM(D242,D245,D248,D251)</f>
+        <v>488019</v>
+      </c>
+      <c r="E239" s="3">
+        <f t="shared" ref="E239:AN239" si="57">SUM(E242,E245,E248,E251)</f>
+        <v>10003</v>
+      </c>
+      <c r="F239" s="3">
+        <f t="shared" si="57"/>
+        <v>23175</v>
+      </c>
+      <c r="G239" s="3">
+        <f t="shared" si="57"/>
+        <v>22196</v>
+      </c>
+      <c r="H239" s="3">
+        <f t="shared" si="57"/>
+        <v>20642</v>
+      </c>
+      <c r="I239" s="3">
+        <f t="shared" si="57"/>
+        <v>20993</v>
+      </c>
+      <c r="J239" s="3">
+        <f t="shared" si="57"/>
+        <v>18973</v>
+      </c>
+      <c r="K239" s="3">
+        <f t="shared" si="57"/>
+        <v>17583</v>
+      </c>
+      <c r="L239" s="3">
+        <f t="shared" si="57"/>
+        <v>16705</v>
+      </c>
+      <c r="M239" s="3">
+        <f t="shared" si="57"/>
+        <v>15554</v>
+      </c>
+      <c r="N239" s="3">
+        <f t="shared" si="57"/>
+        <v>15098</v>
+      </c>
+      <c r="O239" s="3">
+        <f t="shared" si="57"/>
+        <v>14965</v>
+      </c>
+      <c r="P239" s="3">
+        <f t="shared" si="57"/>
+        <v>14498</v>
+      </c>
+      <c r="Q239" s="3">
+        <f t="shared" si="57"/>
+        <v>14909</v>
+      </c>
+      <c r="R239" s="3">
+        <f t="shared" si="57"/>
+        <v>14954</v>
+      </c>
+      <c r="S239" s="3">
+        <f t="shared" si="57"/>
+        <v>14868</v>
+      </c>
+      <c r="T239" s="3">
+        <f t="shared" si="57"/>
+        <v>14751</v>
+      </c>
+      <c r="U239" s="3">
+        <f t="shared" si="57"/>
+        <v>14814</v>
+      </c>
+      <c r="V239" s="3">
+        <f t="shared" si="57"/>
+        <v>15112</v>
+      </c>
+      <c r="W239" s="3">
+        <f t="shared" si="57"/>
+        <v>14568</v>
+      </c>
+      <c r="X239" s="3">
+        <f t="shared" si="57"/>
+        <v>14099</v>
+      </c>
+      <c r="Y239" s="3">
+        <f t="shared" si="57"/>
+        <v>13343</v>
+      </c>
+      <c r="Z239" s="3">
+        <f t="shared" si="57"/>
+        <v>13015</v>
+      </c>
+      <c r="AA239" s="3">
+        <f t="shared" si="57"/>
+        <v>12549</v>
+      </c>
+      <c r="AB239" s="3">
+        <f t="shared" si="57"/>
+        <v>11959</v>
+      </c>
+      <c r="AC239" s="3">
+        <f t="shared" si="57"/>
+        <v>11300</v>
+      </c>
+      <c r="AD239" s="3">
+        <f t="shared" si="57"/>
+        <v>10971</v>
+      </c>
+      <c r="AE239" s="3">
+        <f t="shared" si="57"/>
+        <v>10324</v>
+      </c>
+      <c r="AF239" s="3">
+        <f t="shared" si="57"/>
+        <v>10046</v>
+      </c>
+      <c r="AG239" s="3">
+        <f t="shared" si="57"/>
+        <v>9734</v>
+      </c>
+      <c r="AH239" s="3">
+        <f t="shared" si="57"/>
+        <v>9325</v>
+      </c>
+      <c r="AI239" s="3">
+        <f t="shared" si="57"/>
+        <v>9025</v>
+      </c>
+      <c r="AJ239" s="3">
+        <f t="shared" si="57"/>
+        <v>8181</v>
+      </c>
+      <c r="AK239" s="3">
+        <f t="shared" si="57"/>
+        <v>7976</v>
+      </c>
+      <c r="AL239" s="3">
+        <f t="shared" si="57"/>
+        <v>7775</v>
+      </c>
+      <c r="AM239" s="3">
+        <f t="shared" si="57"/>
+        <v>7070</v>
+      </c>
+      <c r="AN239" s="3">
+        <f t="shared" si="57"/>
+        <v>6966</v>
+      </c>
+    </row>
+    <row r="240" spans="1:40">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="3">
+        <f>SUM(D243,D246,D249,D252)</f>
+        <v>65866</v>
+      </c>
+      <c r="E240" s="3">
+        <f t="shared" ref="E240:AN240" si="58">SUM(E243,E246,E249,E252)</f>
+        <v>1154</v>
+      </c>
+      <c r="F240" s="3">
+        <f t="shared" si="58"/>
+        <v>2325</v>
+      </c>
+      <c r="G240" s="3">
+        <f t="shared" si="58"/>
+        <v>2474</v>
+      </c>
+      <c r="H240" s="3">
+        <f t="shared" si="58"/>
+        <v>2175</v>
+      </c>
+      <c r="I240" s="3">
+        <f t="shared" si="58"/>
+        <v>2408</v>
+      </c>
+      <c r="J240" s="3">
+        <f t="shared" si="58"/>
+        <v>2194</v>
+      </c>
+      <c r="K240" s="3">
+        <f t="shared" si="58"/>
+        <v>2266</v>
+      </c>
+      <c r="L240" s="3">
+        <f t="shared" si="58"/>
+        <v>2355</v>
+      </c>
+      <c r="M240" s="3">
+        <f t="shared" si="58"/>
+        <v>2324</v>
+      </c>
+      <c r="N240" s="3">
+        <f t="shared" si="58"/>
+        <v>2010</v>
+      </c>
+      <c r="O240" s="3">
+        <f t="shared" si="58"/>
+        <v>1931</v>
+      </c>
+      <c r="P240" s="3">
+        <f t="shared" si="58"/>
+        <v>1989</v>
+      </c>
+      <c r="Q240" s="3">
+        <f t="shared" si="58"/>
+        <v>1907</v>
+      </c>
+      <c r="R240" s="3">
+        <f t="shared" si="58"/>
+        <v>1946</v>
+      </c>
+      <c r="S240" s="3">
+        <f t="shared" si="58"/>
+        <v>1961</v>
+      </c>
+      <c r="T240" s="3">
+        <f t="shared" si="58"/>
+        <v>1770</v>
+      </c>
+      <c r="U240" s="3">
+        <f t="shared" si="58"/>
+        <v>1820</v>
+      </c>
+      <c r="V240" s="3">
+        <f t="shared" si="58"/>
+        <v>1983</v>
+      </c>
+      <c r="W240" s="3">
+        <f t="shared" si="58"/>
+        <v>1917</v>
+      </c>
+      <c r="X240" s="3">
+        <f t="shared" si="58"/>
+        <v>1908</v>
+      </c>
+      <c r="Y240" s="3">
+        <f t="shared" si="58"/>
+        <v>1795</v>
+      </c>
+      <c r="Z240" s="3">
+        <f t="shared" si="58"/>
+        <v>1766</v>
+      </c>
+      <c r="AA240" s="3">
+        <f t="shared" si="58"/>
+        <v>1730</v>
+      </c>
+      <c r="AB240" s="3">
+        <f t="shared" si="58"/>
+        <v>1672</v>
+      </c>
+      <c r="AC240" s="3">
+        <f t="shared" si="58"/>
+        <v>1465</v>
+      </c>
+      <c r="AD240" s="3">
+        <f t="shared" si="58"/>
+        <v>1480</v>
+      </c>
+      <c r="AE240" s="3">
+        <f t="shared" si="58"/>
+        <v>1386</v>
+      </c>
+      <c r="AF240" s="3">
+        <f t="shared" si="58"/>
+        <v>1365</v>
+      </c>
+      <c r="AG240" s="3">
+        <f t="shared" si="58"/>
+        <v>1350</v>
+      </c>
+      <c r="AH240" s="3">
+        <f t="shared" si="58"/>
+        <v>1321</v>
+      </c>
+      <c r="AI240" s="3">
+        <f t="shared" si="58"/>
+        <v>1335</v>
+      </c>
+      <c r="AJ240" s="3">
+        <f t="shared" si="58"/>
+        <v>1557</v>
+      </c>
+      <c r="AK240" s="3">
+        <f t="shared" si="58"/>
+        <v>1701</v>
+      </c>
+      <c r="AL240" s="3">
+        <f t="shared" si="58"/>
+        <v>1630</v>
+      </c>
+      <c r="AM240" s="3">
+        <f t="shared" si="58"/>
+        <v>1585</v>
+      </c>
+      <c r="AN240" s="3">
+        <f t="shared" si="58"/>
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="241" spans="1:40">
+      <c r="A241" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="3">
+        <f>SUM(D243,D242)</f>
+        <v>250146</v>
+      </c>
+      <c r="E241" s="3">
+        <f t="shared" ref="E241:AN241" si="59">SUM(E243,E242)</f>
+        <v>5137</v>
+      </c>
+      <c r="F241" s="3">
+        <f t="shared" si="59"/>
+        <v>11725</v>
+      </c>
+      <c r="G241" s="3">
+        <f t="shared" si="59"/>
+        <v>11359</v>
+      </c>
+      <c r="H241" s="3">
+        <f t="shared" si="59"/>
+        <v>10393</v>
+      </c>
+      <c r="I241" s="3">
+        <f t="shared" si="59"/>
+        <v>10616</v>
+      </c>
+      <c r="J241" s="3">
+        <f t="shared" si="59"/>
+        <v>9523</v>
+      </c>
+      <c r="K241" s="3">
+        <f t="shared" si="59"/>
+        <v>8995</v>
+      </c>
+      <c r="L241" s="3">
+        <f t="shared" si="59"/>
+        <v>8612</v>
+      </c>
+      <c r="M241" s="3">
+        <f t="shared" si="59"/>
+        <v>8088</v>
+      </c>
+      <c r="N241" s="3">
+        <f t="shared" si="59"/>
+        <v>7659</v>
+      </c>
+      <c r="O241" s="3">
+        <f t="shared" si="59"/>
+        <v>7631</v>
+      </c>
+      <c r="P241" s="3">
+        <f t="shared" si="59"/>
+        <v>7314</v>
+      </c>
+      <c r="Q241" s="3">
+        <f t="shared" si="59"/>
+        <v>7606</v>
+      </c>
+      <c r="R241" s="3">
+        <f t="shared" si="59"/>
+        <v>7637</v>
+      </c>
+      <c r="S241" s="3">
+        <f t="shared" si="59"/>
+        <v>7604</v>
+      </c>
+      <c r="T241" s="3">
+        <f t="shared" si="59"/>
+        <v>7336</v>
+      </c>
+      <c r="U241" s="3">
+        <f t="shared" si="59"/>
+        <v>7606</v>
+      </c>
+      <c r="V241" s="3">
+        <f t="shared" si="59"/>
+        <v>7665</v>
+      </c>
+      <c r="W241" s="3">
+        <f t="shared" si="59"/>
+        <v>7407</v>
+      </c>
+      <c r="X241" s="3">
+        <f t="shared" si="59"/>
+        <v>7312</v>
+      </c>
+      <c r="Y241" s="3">
+        <f t="shared" si="59"/>
+        <v>6948</v>
+      </c>
+      <c r="Z241" s="3">
+        <f t="shared" si="59"/>
+        <v>6631</v>
+      </c>
+      <c r="AA241" s="3">
+        <f t="shared" si="59"/>
+        <v>6401</v>
+      </c>
+      <c r="AB241" s="3">
+        <f t="shared" si="59"/>
+        <v>6129</v>
+      </c>
+      <c r="AC241" s="3">
+        <f t="shared" si="59"/>
+        <v>5543</v>
+      </c>
+      <c r="AD241" s="3">
+        <f t="shared" si="59"/>
+        <v>5546</v>
+      </c>
+      <c r="AE241" s="3">
+        <f t="shared" si="59"/>
+        <v>5139</v>
+      </c>
+      <c r="AF241" s="3">
+        <f t="shared" si="59"/>
+        <v>5077</v>
+      </c>
+      <c r="AG241" s="3">
+        <f t="shared" si="59"/>
+        <v>4936</v>
+      </c>
+      <c r="AH241" s="3">
+        <f t="shared" si="59"/>
+        <v>4860</v>
+      </c>
+      <c r="AI241" s="3">
+        <f t="shared" si="59"/>
+        <v>4660</v>
+      </c>
+      <c r="AJ241" s="3">
+        <f t="shared" si="59"/>
+        <v>4505</v>
+      </c>
+      <c r="AK241" s="3">
+        <f t="shared" si="59"/>
+        <v>4366</v>
+      </c>
+      <c r="AL241" s="3">
+        <f t="shared" si="59"/>
+        <v>4172</v>
+      </c>
+      <c r="AM241" s="3">
+        <f t="shared" si="59"/>
+        <v>3968</v>
+      </c>
+      <c r="AN241" s="3">
+        <f t="shared" si="59"/>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="242" spans="1:40">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="3">
+        <v>220798</v>
+      </c>
+      <c r="E242" s="3">
+        <v>4623</v>
+      </c>
+      <c r="F242" s="3">
+        <v>10630</v>
+      </c>
+      <c r="G242" s="3">
+        <v>10238</v>
+      </c>
+      <c r="H242" s="3">
+        <v>9386</v>
+      </c>
+      <c r="I242" s="3">
+        <v>9509</v>
+      </c>
+      <c r="J242" s="3">
+        <v>8558</v>
+      </c>
+      <c r="K242" s="3">
+        <v>7941</v>
+      </c>
+      <c r="L242" s="3">
+        <v>7510</v>
+      </c>
+      <c r="M242" s="3">
+        <v>6968</v>
+      </c>
+      <c r="N242" s="3">
+        <v>6754</v>
+      </c>
+      <c r="O242" s="3">
+        <v>6741</v>
+      </c>
+      <c r="P242" s="3">
+        <v>6443</v>
+      </c>
+      <c r="Q242" s="3">
+        <v>6760</v>
+      </c>
+      <c r="R242" s="3">
+        <v>6741</v>
+      </c>
+      <c r="S242" s="3">
+        <v>6750</v>
+      </c>
+      <c r="T242" s="3">
+        <v>6565</v>
+      </c>
+      <c r="U242" s="3">
+        <v>6834</v>
+      </c>
+      <c r="V242" s="3">
+        <v>6802</v>
+      </c>
+      <c r="W242" s="3">
+        <v>6553</v>
+      </c>
+      <c r="X242" s="3">
+        <v>6406</v>
+      </c>
+      <c r="Y242" s="3">
+        <v>6123</v>
+      </c>
+      <c r="Z242" s="3">
+        <v>5882</v>
+      </c>
+      <c r="AA242" s="3">
+        <v>5616</v>
+      </c>
+      <c r="AB242" s="3">
+        <v>5398</v>
+      </c>
+      <c r="AC242" s="3">
+        <v>4938</v>
+      </c>
+      <c r="AD242" s="3">
+        <v>4917</v>
+      </c>
+      <c r="AE242" s="3">
+        <v>4571</v>
+      </c>
+      <c r="AF242" s="3">
+        <v>4482</v>
+      </c>
+      <c r="AG242" s="3">
+        <v>4377</v>
+      </c>
+      <c r="AH242" s="3">
+        <v>4291</v>
+      </c>
+      <c r="AI242" s="3">
+        <v>4093</v>
+      </c>
+      <c r="AJ242" s="3">
+        <v>3825</v>
+      </c>
+      <c r="AK242" s="3">
+        <v>3614</v>
+      </c>
+      <c r="AL242" s="3">
+        <v>3474</v>
+      </c>
+      <c r="AM242" s="3">
+        <v>3288</v>
+      </c>
+      <c r="AN242" s="3">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="243" spans="1:40">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="3">
+        <v>29348</v>
+      </c>
+      <c r="E243" s="1">
+        <v>514</v>
+      </c>
+      <c r="F243" s="3">
+        <v>1095</v>
+      </c>
+      <c r="G243" s="3">
+        <v>1121</v>
+      </c>
+      <c r="H243" s="3">
+        <v>1007</v>
+      </c>
+      <c r="I243" s="3">
+        <v>1107</v>
+      </c>
+      <c r="J243" s="1">
+        <v>965</v>
+      </c>
+      <c r="K243" s="3">
+        <v>1054</v>
+      </c>
+      <c r="L243" s="3">
+        <v>1102</v>
+      </c>
+      <c r="M243" s="3">
+        <v>1120</v>
+      </c>
+      <c r="N243" s="1">
+        <v>905</v>
+      </c>
+      <c r="O243" s="1">
+        <v>890</v>
+      </c>
+      <c r="P243" s="1">
+        <v>871</v>
+      </c>
+      <c r="Q243" s="1">
+        <v>846</v>
+      </c>
+      <c r="R243" s="1">
+        <v>896</v>
+      </c>
+      <c r="S243" s="1">
+        <v>854</v>
+      </c>
+      <c r="T243" s="1">
+        <v>771</v>
+      </c>
+      <c r="U243" s="1">
+        <v>772</v>
+      </c>
+      <c r="V243" s="1">
+        <v>863</v>
+      </c>
+      <c r="W243" s="1">
+        <v>854</v>
+      </c>
+      <c r="X243" s="1">
+        <v>906</v>
+      </c>
+      <c r="Y243" s="1">
+        <v>825</v>
+      </c>
+      <c r="Z243" s="1">
+        <v>749</v>
+      </c>
+      <c r="AA243" s="1">
+        <v>785</v>
+      </c>
+      <c r="AB243" s="1">
+        <v>731</v>
+      </c>
+      <c r="AC243" s="1">
+        <v>605</v>
+      </c>
+      <c r="AD243" s="1">
+        <v>629</v>
+      </c>
+      <c r="AE243" s="1">
+        <v>568</v>
+      </c>
+      <c r="AF243" s="1">
+        <v>595</v>
+      </c>
+      <c r="AG243" s="1">
+        <v>559</v>
+      </c>
+      <c r="AH243" s="1">
+        <v>569</v>
+      </c>
+      <c r="AI243" s="1">
+        <v>567</v>
+      </c>
+      <c r="AJ243" s="1">
+        <v>680</v>
+      </c>
+      <c r="AK243" s="1">
+        <v>752</v>
+      </c>
+      <c r="AL243" s="1">
+        <v>698</v>
+      </c>
+      <c r="AM243" s="1">
+        <v>680</v>
+      </c>
+      <c r="AN243" s="1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="244" spans="1:40">
+      <c r="A244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C244" s="1"/>
+      <c r="D244" s="3">
+        <f>SUM(D246,D245)</f>
+        <v>205213</v>
+      </c>
+      <c r="E244" s="3">
+        <f t="shared" ref="E244:AN244" si="60">SUM(E246,E245)</f>
+        <v>3870</v>
+      </c>
+      <c r="F244" s="3">
+        <f t="shared" si="60"/>
+        <v>8864</v>
+      </c>
+      <c r="G244" s="3">
+        <f t="shared" si="60"/>
+        <v>8678</v>
+      </c>
+      <c r="H244" s="3">
+        <f t="shared" si="60"/>
+        <v>8180</v>
+      </c>
+      <c r="I244" s="3">
+        <f t="shared" si="60"/>
+        <v>8372</v>
+      </c>
+      <c r="J244" s="3">
+        <f t="shared" si="60"/>
+        <v>7553</v>
+      </c>
+      <c r="K244" s="3">
+        <f t="shared" si="60"/>
+        <v>7214</v>
+      </c>
+      <c r="L244" s="3">
+        <f t="shared" si="60"/>
+        <v>7001</v>
+      </c>
+      <c r="M244" s="3">
+        <f t="shared" si="60"/>
+        <v>6470</v>
+      </c>
+      <c r="N244" s="3">
+        <f t="shared" si="60"/>
+        <v>6364</v>
+      </c>
+      <c r="O244" s="3">
+        <f t="shared" si="60"/>
+        <v>6254</v>
+      </c>
+      <c r="P244" s="3">
+        <f t="shared" si="60"/>
+        <v>6150</v>
+      </c>
+      <c r="Q244" s="3">
+        <f t="shared" si="60"/>
+        <v>6227</v>
+      </c>
+      <c r="R244" s="3">
+        <f t="shared" si="60"/>
+        <v>6124</v>
+      </c>
+      <c r="S244" s="3">
+        <f t="shared" si="60"/>
+        <v>6236</v>
+      </c>
+      <c r="T244" s="3">
+        <f t="shared" si="60"/>
+        <v>6158</v>
+      </c>
+      <c r="U244" s="3">
+        <f t="shared" si="60"/>
+        <v>6117</v>
+      </c>
+      <c r="V244" s="3">
+        <f t="shared" si="60"/>
+        <v>6354</v>
+      </c>
+      <c r="W244" s="3">
+        <f t="shared" si="60"/>
+        <v>6187</v>
+      </c>
+      <c r="X244" s="3">
+        <f t="shared" si="60"/>
+        <v>5931</v>
+      </c>
+      <c r="Y244" s="3">
+        <f t="shared" si="60"/>
+        <v>5635</v>
+      </c>
+      <c r="Z244" s="3">
+        <f t="shared" si="60"/>
+        <v>5610</v>
+      </c>
+      <c r="AA244" s="3">
+        <f t="shared" si="60"/>
+        <v>5466</v>
+      </c>
+      <c r="AB244" s="3">
+        <f t="shared" si="60"/>
+        <v>5216</v>
+      </c>
+      <c r="AC244" s="3">
+        <f t="shared" si="60"/>
+        <v>4925</v>
+      </c>
+      <c r="AD244" s="3">
+        <f t="shared" si="60"/>
+        <v>4768</v>
+      </c>
+      <c r="AE244" s="3">
+        <f t="shared" si="60"/>
+        <v>4586</v>
+      </c>
+      <c r="AF244" s="3">
+        <f t="shared" si="60"/>
+        <v>4474</v>
+      </c>
+      <c r="AG244" s="3">
+        <f t="shared" si="60"/>
+        <v>4292</v>
+      </c>
+      <c r="AH244" s="3">
+        <f t="shared" si="60"/>
+        <v>4046</v>
+      </c>
+      <c r="AI244" s="3">
+        <f t="shared" si="60"/>
+        <v>4060</v>
+      </c>
+      <c r="AJ244" s="3">
+        <f t="shared" si="60"/>
+        <v>3674</v>
+      </c>
+      <c r="AK244" s="3">
+        <f t="shared" si="60"/>
+        <v>3760</v>
+      </c>
+      <c r="AL244" s="3">
+        <f t="shared" si="60"/>
+        <v>3721</v>
+      </c>
+      <c r="AM244" s="3">
+        <f t="shared" si="60"/>
+        <v>3263</v>
+      </c>
+      <c r="AN244" s="3">
+        <f t="shared" si="60"/>
+        <v>3413</v>
+      </c>
+    </row>
+    <row r="245" spans="1:40">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C245" s="1"/>
+      <c r="D245" s="3">
+        <v>179246</v>
+      </c>
+      <c r="E245" s="3">
+        <v>3431</v>
+      </c>
+      <c r="F245" s="3">
+        <v>8042</v>
+      </c>
+      <c r="G245" s="3">
+        <v>7745</v>
+      </c>
+      <c r="H245" s="3">
+        <v>7380</v>
+      </c>
+      <c r="I245" s="3">
+        <v>7491</v>
+      </c>
+      <c r="J245" s="3">
+        <v>6720</v>
+      </c>
+      <c r="K245" s="3">
+        <v>6370</v>
+      </c>
+      <c r="L245" s="3">
+        <v>6098</v>
+      </c>
+      <c r="M245" s="3">
+        <v>5617</v>
+      </c>
+      <c r="N245" s="3">
+        <v>5571</v>
+      </c>
+      <c r="O245" s="3">
+        <v>5514</v>
+      </c>
+      <c r="P245" s="3">
+        <v>5355</v>
+      </c>
+      <c r="Q245" s="3">
+        <v>5473</v>
+      </c>
+      <c r="R245" s="3">
+        <v>5408</v>
+      </c>
+      <c r="S245" s="3">
+        <v>5444</v>
+      </c>
+      <c r="T245" s="3">
+        <v>5425</v>
+      </c>
+      <c r="U245" s="3">
+        <v>5367</v>
+      </c>
+      <c r="V245" s="3">
+        <v>5563</v>
+      </c>
+      <c r="W245" s="3">
+        <v>5433</v>
+      </c>
+      <c r="X245" s="3">
+        <v>5202</v>
+      </c>
+      <c r="Y245" s="3">
+        <v>4946</v>
+      </c>
+      <c r="Z245" s="3">
+        <v>4892</v>
+      </c>
+      <c r="AA245" s="3">
+        <v>4787</v>
+      </c>
+      <c r="AB245" s="3">
+        <v>4532</v>
+      </c>
+      <c r="AC245" s="3">
+        <v>4331</v>
+      </c>
+      <c r="AD245" s="3">
+        <v>4117</v>
+      </c>
+      <c r="AE245" s="3">
+        <v>3992</v>
+      </c>
+      <c r="AF245" s="3">
+        <v>3902</v>
+      </c>
+      <c r="AG245" s="3">
+        <v>3713</v>
+      </c>
+      <c r="AH245" s="3">
+        <v>3484</v>
+      </c>
+      <c r="AI245" s="3">
+        <v>3515</v>
+      </c>
+      <c r="AJ245" s="3">
+        <v>3028</v>
+      </c>
+      <c r="AK245" s="3">
+        <v>3065</v>
+      </c>
+      <c r="AL245" s="3">
+        <v>3027</v>
+      </c>
+      <c r="AM245" s="3">
+        <v>2624</v>
+      </c>
+      <c r="AN245" s="3">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="246" spans="1:40">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C246" s="1"/>
+      <c r="D246" s="3">
+        <v>25967</v>
+      </c>
+      <c r="E246" s="1">
+        <v>439</v>
+      </c>
+      <c r="F246" s="1">
+        <v>822</v>
+      </c>
+      <c r="G246" s="1">
+        <v>933</v>
+      </c>
+      <c r="H246" s="1">
+        <v>800</v>
+      </c>
+      <c r="I246" s="1">
+        <v>881</v>
+      </c>
+      <c r="J246" s="1">
+        <v>833</v>
+      </c>
+      <c r="K246" s="1">
+        <v>844</v>
+      </c>
+      <c r="L246" s="1">
+        <v>903</v>
+      </c>
+      <c r="M246" s="1">
+        <v>853</v>
+      </c>
+      <c r="N246" s="1">
+        <v>793</v>
+      </c>
+      <c r="O246" s="1">
+        <v>740</v>
+      </c>
+      <c r="P246" s="1">
+        <v>795</v>
+      </c>
+      <c r="Q246" s="1">
+        <v>754</v>
+      </c>
+      <c r="R246" s="1">
+        <v>716</v>
+      </c>
+      <c r="S246" s="1">
+        <v>792</v>
+      </c>
+      <c r="T246" s="1">
+        <v>733</v>
+      </c>
+      <c r="U246" s="1">
+        <v>750</v>
+      </c>
+      <c r="V246" s="1">
+        <v>791</v>
+      </c>
+      <c r="W246" s="1">
+        <v>754</v>
+      </c>
+      <c r="X246" s="1">
+        <v>729</v>
+      </c>
+      <c r="Y246" s="1">
+        <v>689</v>
+      </c>
+      <c r="Z246" s="1">
+        <v>718</v>
+      </c>
+      <c r="AA246" s="1">
+        <v>679</v>
+      </c>
+      <c r="AB246" s="1">
+        <v>684</v>
+      </c>
+      <c r="AC246" s="1">
+        <v>594</v>
+      </c>
+      <c r="AD246" s="1">
+        <v>651</v>
+      </c>
+      <c r="AE246" s="1">
+        <v>594</v>
+      </c>
+      <c r="AF246" s="1">
+        <v>572</v>
+      </c>
+      <c r="AG246" s="1">
+        <v>579</v>
+      </c>
+      <c r="AH246" s="1">
+        <v>562</v>
+      </c>
+      <c r="AI246" s="1">
+        <v>545</v>
+      </c>
+      <c r="AJ246" s="1">
+        <v>646</v>
+      </c>
+      <c r="AK246" s="1">
+        <v>695</v>
+      </c>
+      <c r="AL246" s="1">
+        <v>694</v>
+      </c>
+      <c r="AM246" s="1">
+        <v>639</v>
+      </c>
+      <c r="AN246" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="247" spans="1:40">
+      <c r="A247" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C247" s="1"/>
+      <c r="D247" s="3">
+        <f>SUM(D249,D248)</f>
+        <v>72371</v>
+      </c>
+      <c r="E247" s="3">
+        <f t="shared" ref="E247:AN247" si="61">SUM(E249,E248)</f>
+        <v>1627</v>
+      </c>
+      <c r="F247" s="3">
+        <f t="shared" si="61"/>
+        <v>3709</v>
+      </c>
+      <c r="G247" s="3">
+        <f t="shared" si="61"/>
+        <v>3531</v>
+      </c>
+      <c r="H247" s="3">
+        <f t="shared" si="61"/>
+        <v>3194</v>
+      </c>
+      <c r="I247" s="3">
+        <f t="shared" si="61"/>
+        <v>3233</v>
+      </c>
+      <c r="J247" s="3">
+        <f t="shared" si="61"/>
+        <v>3061</v>
+      </c>
+      <c r="K247" s="3">
+        <f t="shared" si="61"/>
+        <v>2672</v>
+      </c>
+      <c r="L247" s="3">
+        <f t="shared" si="61"/>
+        <v>2587</v>
+      </c>
+      <c r="M247" s="3">
+        <f t="shared" si="61"/>
+        <v>2366</v>
+      </c>
+      <c r="N247" s="3">
+        <f t="shared" si="61"/>
+        <v>2284</v>
+      </c>
+      <c r="O247" s="3">
+        <f t="shared" si="61"/>
+        <v>2196</v>
+      </c>
+      <c r="P247" s="3">
+        <f t="shared" si="61"/>
+        <v>2164</v>
+      </c>
+      <c r="Q247" s="3">
+        <f t="shared" si="61"/>
+        <v>2164</v>
+      </c>
+      <c r="R247" s="3">
+        <f t="shared" si="61"/>
+        <v>2314</v>
+      </c>
+      <c r="S247" s="3">
+        <f t="shared" si="61"/>
+        <v>2191</v>
+      </c>
+      <c r="T247" s="3">
+        <f t="shared" si="61"/>
+        <v>2259</v>
+      </c>
+      <c r="U247" s="3">
+        <f t="shared" si="61"/>
+        <v>2083</v>
+      </c>
+      <c r="V247" s="3">
+        <f t="shared" si="61"/>
+        <v>2254</v>
+      </c>
+      <c r="W247" s="3">
+        <f t="shared" si="61"/>
+        <v>2121</v>
+      </c>
+      <c r="X247" s="3">
+        <f t="shared" si="61"/>
+        <v>2064</v>
+      </c>
+      <c r="Y247" s="3">
+        <f t="shared" si="61"/>
+        <v>1887</v>
+      </c>
+      <c r="Z247" s="3">
+        <f t="shared" si="61"/>
+        <v>1847</v>
+      </c>
+      <c r="AA247" s="3">
+        <f t="shared" si="61"/>
+        <v>1745</v>
+      </c>
+      <c r="AB247" s="3">
+        <f t="shared" si="61"/>
+        <v>1661</v>
+      </c>
+      <c r="AC247" s="3">
+        <f t="shared" si="61"/>
+        <v>1663</v>
+      </c>
+      <c r="AD247" s="3">
+        <f t="shared" si="61"/>
+        <v>1568</v>
+      </c>
+      <c r="AE247" s="3">
+        <f t="shared" si="61"/>
+        <v>1459</v>
+      </c>
+      <c r="AF247" s="3">
+        <f t="shared" si="61"/>
+        <v>1322</v>
+      </c>
+      <c r="AG247" s="3">
+        <f t="shared" si="61"/>
+        <v>1320</v>
+      </c>
+      <c r="AH247" s="3">
+        <f t="shared" si="61"/>
+        <v>1236</v>
+      </c>
+      <c r="AI247" s="3">
+        <f t="shared" si="61"/>
+        <v>1214</v>
+      </c>
+      <c r="AJ247" s="3">
+        <f t="shared" si="61"/>
+        <v>1102</v>
+      </c>
+      <c r="AK247" s="3">
+        <f t="shared" si="61"/>
+        <v>1117</v>
+      </c>
+      <c r="AL247" s="3">
+        <f t="shared" si="61"/>
+        <v>1093</v>
+      </c>
+      <c r="AM247" s="3">
+        <f t="shared" si="61"/>
+        <v>1041</v>
+      </c>
+      <c r="AN247" s="3">
+        <f t="shared" si="61"/>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="248" spans="1:40">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C248" s="1"/>
+      <c r="D248" s="3">
+        <v>65079</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1480</v>
+      </c>
+      <c r="F248" s="3">
+        <v>3416</v>
+      </c>
+      <c r="G248" s="3">
+        <v>3222</v>
+      </c>
+      <c r="H248" s="3">
+        <v>2927</v>
+      </c>
+      <c r="I248" s="3">
+        <v>2941</v>
+      </c>
+      <c r="J248" s="3">
+        <v>2782</v>
+      </c>
+      <c r="K248" s="3">
+        <v>2407</v>
+      </c>
+      <c r="L248" s="3">
+        <v>2335</v>
+      </c>
+      <c r="M248" s="3">
+        <v>2119</v>
+      </c>
+      <c r="N248" s="3">
+        <v>2056</v>
+      </c>
+      <c r="O248" s="3">
+        <v>1980</v>
+      </c>
+      <c r="P248" s="3">
+        <v>1946</v>
+      </c>
+      <c r="Q248" s="3">
+        <v>1948</v>
+      </c>
+      <c r="R248" s="3">
+        <v>2076</v>
+      </c>
+      <c r="S248" s="3">
+        <v>1977</v>
+      </c>
+      <c r="T248" s="3">
+        <v>2086</v>
+      </c>
+      <c r="U248" s="3">
+        <v>1888</v>
+      </c>
+      <c r="V248" s="3">
+        <v>2034</v>
+      </c>
+      <c r="W248" s="3">
+        <v>1906</v>
+      </c>
+      <c r="X248" s="3">
+        <v>1876</v>
+      </c>
+      <c r="Y248" s="3">
+        <v>1707</v>
+      </c>
+      <c r="Z248" s="3">
+        <v>1645</v>
+      </c>
+      <c r="AA248" s="3">
+        <v>1561</v>
+      </c>
+      <c r="AB248" s="3">
+        <v>1476</v>
+      </c>
+      <c r="AC248" s="3">
+        <v>1480</v>
+      </c>
+      <c r="AD248" s="3">
+        <v>1433</v>
+      </c>
+      <c r="AE248" s="3">
+        <v>1298</v>
+      </c>
+      <c r="AF248" s="3">
+        <v>1199</v>
+      </c>
+      <c r="AG248" s="3">
+        <v>1194</v>
+      </c>
+      <c r="AH248" s="3">
+        <v>1118</v>
+      </c>
+      <c r="AI248" s="3">
+        <v>1051</v>
+      </c>
+      <c r="AJ248" s="1">
+        <v>946</v>
+      </c>
+      <c r="AK248" s="1">
+        <v>960</v>
+      </c>
+      <c r="AL248" s="1">
+        <v>930</v>
+      </c>
+      <c r="AM248" s="1">
+        <v>857</v>
+      </c>
+      <c r="AN248" s="1">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="249" spans="1:40">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" s="3">
+        <v>7292</v>
+      </c>
+      <c r="E249" s="1">
+        <v>147</v>
+      </c>
+      <c r="F249" s="1">
+        <v>293</v>
+      </c>
+      <c r="G249" s="1">
+        <v>309</v>
+      </c>
+      <c r="H249" s="1">
+        <v>267</v>
+      </c>
+      <c r="I249" s="1">
+        <v>292</v>
+      </c>
+      <c r="J249" s="1">
+        <v>279</v>
+      </c>
+      <c r="K249" s="1">
+        <v>265</v>
+      </c>
+      <c r="L249" s="1">
+        <v>252</v>
+      </c>
+      <c r="M249" s="1">
+        <v>247</v>
+      </c>
+      <c r="N249" s="1">
+        <v>228</v>
+      </c>
+      <c r="O249" s="1">
+        <v>216</v>
+      </c>
+      <c r="P249" s="1">
+        <v>218</v>
+      </c>
+      <c r="Q249" s="1">
+        <v>216</v>
+      </c>
+      <c r="R249" s="1">
+        <v>238</v>
+      </c>
+      <c r="S249" s="1">
+        <v>214</v>
+      </c>
+      <c r="T249" s="1">
+        <v>173</v>
+      </c>
+      <c r="U249" s="1">
+        <v>195</v>
+      </c>
+      <c r="V249" s="1">
+        <v>220</v>
+      </c>
+      <c r="W249" s="1">
+        <v>215</v>
+      </c>
+      <c r="X249" s="1">
+        <v>188</v>
+      </c>
+      <c r="Y249" s="1">
+        <v>180</v>
+      </c>
+      <c r="Z249" s="1">
+        <v>202</v>
+      </c>
+      <c r="AA249" s="1">
+        <v>184</v>
+      </c>
+      <c r="AB249" s="1">
+        <v>185</v>
+      </c>
+      <c r="AC249" s="1">
+        <v>183</v>
+      </c>
+      <c r="AD249" s="1">
+        <v>135</v>
+      </c>
+      <c r="AE249" s="1">
+        <v>161</v>
+      </c>
+      <c r="AF249" s="1">
+        <v>123</v>
+      </c>
+      <c r="AG249" s="1">
+        <v>126</v>
+      </c>
+      <c r="AH249" s="1">
+        <v>118</v>
+      </c>
+      <c r="AI249" s="1">
+        <v>163</v>
+      </c>
+      <c r="AJ249" s="1">
+        <v>156</v>
+      </c>
+      <c r="AK249" s="1">
+        <v>157</v>
+      </c>
+      <c r="AL249" s="1">
+        <v>163</v>
+      </c>
+      <c r="AM249" s="1">
+        <v>184</v>
+      </c>
+      <c r="AN249" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="250" spans="1:40">
+      <c r="A250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" s="3">
+        <f>SUM(D252,D251)</f>
+        <v>26155</v>
+      </c>
+      <c r="E250" s="3">
+        <f t="shared" ref="E250:AN250" si="62">SUM(E252,E251)</f>
+        <v>523</v>
+      </c>
+      <c r="F250" s="3">
+        <f t="shared" si="62"/>
+        <v>1202</v>
+      </c>
+      <c r="G250" s="3">
+        <f t="shared" si="62"/>
+        <v>1102</v>
+      </c>
+      <c r="H250" s="3">
+        <f t="shared" si="62"/>
+        <v>1050</v>
+      </c>
+      <c r="I250" s="3">
+        <f t="shared" si="62"/>
+        <v>1180</v>
+      </c>
+      <c r="J250" s="3">
+        <f t="shared" si="62"/>
+        <v>1030</v>
+      </c>
+      <c r="K250" s="3">
+        <f t="shared" si="62"/>
+        <v>968</v>
+      </c>
+      <c r="L250" s="3">
+        <f t="shared" si="62"/>
+        <v>860</v>
+      </c>
+      <c r="M250" s="3">
+        <f t="shared" si="62"/>
+        <v>954</v>
+      </c>
+      <c r="N250" s="3">
+        <f t="shared" si="62"/>
+        <v>801</v>
+      </c>
+      <c r="O250" s="3">
+        <f t="shared" si="62"/>
+        <v>815</v>
+      </c>
+      <c r="P250" s="3">
+        <f t="shared" si="62"/>
+        <v>859</v>
+      </c>
+      <c r="Q250" s="3">
+        <f t="shared" si="62"/>
+        <v>819</v>
+      </c>
+      <c r="R250" s="3">
+        <f t="shared" si="62"/>
+        <v>825</v>
+      </c>
+      <c r="S250" s="3">
+        <f t="shared" si="62"/>
+        <v>798</v>
+      </c>
+      <c r="T250" s="3">
+        <f t="shared" si="62"/>
+        <v>768</v>
+      </c>
+      <c r="U250" s="3">
+        <f t="shared" si="62"/>
+        <v>828</v>
+      </c>
+      <c r="V250" s="3">
+        <f t="shared" si="62"/>
+        <v>822</v>
+      </c>
+      <c r="W250" s="3">
+        <f t="shared" si="62"/>
+        <v>770</v>
+      </c>
+      <c r="X250" s="3">
+        <f t="shared" si="62"/>
+        <v>700</v>
+      </c>
+      <c r="Y250" s="3">
+        <f t="shared" si="62"/>
+        <v>668</v>
+      </c>
+      <c r="Z250" s="3">
+        <f t="shared" si="62"/>
+        <v>693</v>
+      </c>
+      <c r="AA250" s="3">
+        <f t="shared" si="62"/>
+        <v>667</v>
+      </c>
+      <c r="AB250" s="3">
+        <f t="shared" si="62"/>
+        <v>625</v>
+      </c>
+      <c r="AC250" s="3">
+        <f t="shared" si="62"/>
+        <v>634</v>
+      </c>
+      <c r="AD250" s="3">
+        <f t="shared" si="62"/>
+        <v>569</v>
+      </c>
+      <c r="AE250" s="3">
+        <f t="shared" si="62"/>
+        <v>526</v>
+      </c>
+      <c r="AF250" s="3">
+        <f t="shared" si="62"/>
+        <v>538</v>
+      </c>
+      <c r="AG250" s="3">
+        <f t="shared" si="62"/>
+        <v>536</v>
+      </c>
+      <c r="AH250" s="3">
+        <f t="shared" si="62"/>
+        <v>504</v>
+      </c>
+      <c r="AI250" s="3">
+        <f t="shared" si="62"/>
+        <v>426</v>
+      </c>
+      <c r="AJ250" s="3">
+        <f t="shared" si="62"/>
+        <v>457</v>
+      </c>
+      <c r="AK250" s="3">
+        <f t="shared" si="62"/>
+        <v>434</v>
+      </c>
+      <c r="AL250" s="3">
+        <f t="shared" si="62"/>
+        <v>419</v>
+      </c>
+      <c r="AM250" s="3">
+        <f t="shared" si="62"/>
+        <v>383</v>
+      </c>
+      <c r="AN250" s="3">
+        <f t="shared" si="62"/>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="251" spans="1:40">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" s="3">
+        <v>22896</v>
+      </c>
+      <c r="E251" s="1">
+        <v>469</v>
+      </c>
+      <c r="F251" s="3">
+        <v>1087</v>
+      </c>
+      <c r="G251" s="1">
+        <v>991</v>
+      </c>
+      <c r="H251" s="1">
+        <v>949</v>
+      </c>
+      <c r="I251" s="3">
+        <v>1052</v>
+      </c>
+      <c r="J251" s="1">
+        <v>913</v>
+      </c>
+      <c r="K251" s="1">
+        <v>865</v>
+      </c>
+      <c r="L251" s="1">
+        <v>762</v>
+      </c>
+      <c r="M251" s="1">
+        <v>850</v>
+      </c>
+      <c r="N251" s="1">
+        <v>717</v>
+      </c>
+      <c r="O251" s="1">
+        <v>730</v>
+      </c>
+      <c r="P251" s="1">
+        <v>754</v>
+      </c>
+      <c r="Q251" s="1">
+        <v>728</v>
+      </c>
+      <c r="R251" s="1">
+        <v>729</v>
+      </c>
+      <c r="S251" s="1">
+        <v>697</v>
+      </c>
+      <c r="T251" s="1">
+        <v>675</v>
+      </c>
+      <c r="U251" s="1">
+        <v>725</v>
+      </c>
+      <c r="V251" s="1">
+        <v>713</v>
+      </c>
+      <c r="W251" s="1">
+        <v>676</v>
+      </c>
+      <c r="X251" s="1">
+        <v>615</v>
+      </c>
+      <c r="Y251" s="1">
+        <v>567</v>
+      </c>
+      <c r="Z251" s="1">
+        <v>596</v>
+      </c>
+      <c r="AA251" s="1">
+        <v>585</v>
+      </c>
+      <c r="AB251" s="1">
+        <v>553</v>
+      </c>
+      <c r="AC251" s="1">
+        <v>551</v>
+      </c>
+      <c r="AD251" s="1">
+        <v>504</v>
+      </c>
+      <c r="AE251" s="1">
+        <v>463</v>
+      </c>
+      <c r="AF251" s="1">
+        <v>463</v>
+      </c>
+      <c r="AG251" s="1">
+        <v>450</v>
+      </c>
+      <c r="AH251" s="1">
+        <v>432</v>
+      </c>
+      <c r="AI251" s="1">
+        <v>366</v>
+      </c>
+      <c r="AJ251" s="1">
+        <v>382</v>
+      </c>
+      <c r="AK251" s="1">
+        <v>337</v>
+      </c>
+      <c r="AL251" s="1">
+        <v>344</v>
+      </c>
+      <c r="AM251" s="1">
+        <v>301</v>
+      </c>
+      <c r="AN251" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="252" spans="1:40">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" s="3">
+        <v>3259</v>
+      </c>
+      <c r="E252" s="1">
+        <v>54</v>
+      </c>
+      <c r="F252" s="1">
+        <v>115</v>
+      </c>
+      <c r="G252" s="1">
+        <v>111</v>
+      </c>
+      <c r="H252" s="1">
+        <v>101</v>
+      </c>
+      <c r="I252" s="1">
+        <v>128</v>
+      </c>
+      <c r="J252" s="1">
+        <v>117</v>
+      </c>
+      <c r="K252" s="1">
+        <v>103</v>
+      </c>
+      <c r="L252" s="1">
+        <v>98</v>
+      </c>
+      <c r="M252" s="1">
+        <v>104</v>
+      </c>
+      <c r="N252" s="1">
+        <v>84</v>
+      </c>
+      <c r="O252" s="1">
+        <v>85</v>
+      </c>
+      <c r="P252" s="1">
+        <v>105</v>
+      </c>
+      <c r="Q252" s="1">
+        <v>91</v>
+      </c>
+      <c r="R252" s="1">
+        <v>96</v>
+      </c>
+      <c r="S252" s="1">
+        <v>101</v>
+      </c>
+      <c r="T252" s="1">
+        <v>93</v>
+      </c>
+      <c r="U252" s="1">
+        <v>103</v>
+      </c>
+      <c r="V252" s="1">
+        <v>109</v>
+      </c>
+      <c r="W252" s="1">
+        <v>94</v>
+      </c>
+      <c r="X252" s="1">
+        <v>85</v>
+      </c>
+      <c r="Y252" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z252" s="1">
+        <v>97</v>
+      </c>
+      <c r="AA252" s="1">
+        <v>82</v>
+      </c>
+      <c r="AB252" s="1">
+        <v>72</v>
+      </c>
+      <c r="AC252" s="1">
+        <v>83</v>
+      </c>
+      <c r="AD252" s="1">
+        <v>65</v>
+      </c>
+      <c r="AE252" s="1">
+        <v>63</v>
+      </c>
+      <c r="AF252" s="1">
+        <v>75</v>
+      </c>
+      <c r="AG252" s="1">
+        <v>86</v>
+      </c>
+      <c r="AH252" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI252" s="1">
+        <v>60</v>
+      </c>
+      <c r="AJ252" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK252" s="1">
+        <v>97</v>
+      </c>
+      <c r="AL252" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM252" s="1">
+        <v>82</v>
+      </c>
+      <c r="AN252" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="256" spans="1:40">
+      <c r="A256" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B256" s="16"/>
+      <c r="C256" s="16"/>
+      <c r="D256" s="16"/>
+      <c r="E256" s="16"/>
+      <c r="F256" s="16"/>
+      <c r="G256" s="16"/>
+      <c r="H256" s="16"/>
+      <c r="I256" s="16"/>
+      <c r="J256" s="13"/>
+    </row>
+    <row r="257" spans="1:10">
+      <c r="A257" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B257" s="22"/>
+      <c r="C257" s="22"/>
+      <c r="D257" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G257" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H257" s="22"/>
+      <c r="I257" s="22"/>
+      <c r="J257" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10">
+      <c r="A258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="D258" s="4">
+        <f>AVERAGE(L238:Q238)</f>
+        <v>17374.166666666668</v>
+      </c>
+      <c r="E258" s="4"/>
+      <c r="G258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I258" s="1"/>
+      <c r="J258">
+        <f>J259+J260</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="D259" s="4">
+        <f>AVERAGE(L239:Q239)</f>
+        <v>15288.166666666666</v>
+      </c>
+      <c r="G259" s="1"/>
+      <c r="H259" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I259" s="1"/>
+      <c r="J259">
+        <f>D259/D258</f>
+        <v>0.87993668761091648</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" s="4">
+        <f>AVERAGE(L240:Q240)</f>
+        <v>2086</v>
+      </c>
+      <c r="G260" s="1"/>
+      <c r="H260" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I260" s="1"/>
+      <c r="J260">
+        <f>D260/D258</f>
+        <v>0.1200633123890834</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="G257:I257"/>
+    <mergeCell ref="A256:J256"/>
     <mergeCell ref="C88:D88"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K87:L87"/>
-    <mergeCell ref="A87:B87"/>
     <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A1:B1"/>
@@ -19113,7 +21404,6 @@
     <mergeCell ref="A171:B171"/>
     <mergeCell ref="A205:B205"/>
     <mergeCell ref="I113:J113"/>
-    <mergeCell ref="A112:B112"/>
     <mergeCell ref="A137:B137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Data_Tansplants_US.xlsx
+++ b/data/Data_Tansplants_US.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26611"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{628F8164-228D-435C-82AC-A7409DBC0CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F05BF6A1-BC51-4148-8CDB-F29F7178DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="93">
   <si>
     <t>ORGANI</t>
   </si>
@@ -87,16 +87,67 @@
     <t>Low</t>
   </si>
   <si>
+    <t>2011-2016</t>
+  </si>
+  <si>
     <t>VALORI MEDI - P</t>
   </si>
   <si>
-    <t>2011-2016</t>
+    <t>p/anno</t>
+  </si>
+  <si>
+    <t>p/giorno</t>
+  </si>
+  <si>
+    <t>p/ora</t>
   </si>
   <si>
     <t>2017-2022</t>
   </si>
   <si>
     <t>VALORI MEDI - O</t>
+  </si>
+  <si>
+    <t>o/anno</t>
+  </si>
+  <si>
+    <t>o/giorno</t>
+  </si>
+  <si>
+    <t>o/ora</t>
+  </si>
+  <si>
+    <t>ORE/ANNO</t>
+  </si>
+  <si>
+    <t>GIORNI/ANNO</t>
+  </si>
+  <si>
+    <t>USCITE - O (al giorno)</t>
+  </si>
+  <si>
+    <t>PROB USCITA - O</t>
+  </si>
+  <si>
+    <t>INFINITE SERVER - TDS EXPO</t>
+  </si>
+  <si>
+    <t>SERVIZIO - ACTIVATION DELAY</t>
+  </si>
+  <si>
+    <t>SERVIZIO - TRANSPLANT</t>
+  </si>
+  <si>
+    <t>UDM</t>
+  </si>
+  <si>
+    <t>Tasso servizio</t>
+  </si>
+  <si>
+    <t>Tempo medio</t>
+  </si>
+  <si>
+    <t>giorni</t>
   </si>
   <si>
     <t>normal_0</t>
@@ -201,6 +252,12 @@
     <t>all*p_AB*p_critical</t>
   </si>
   <si>
+    <t>2011-2016 (USCITE ALL'ANNO) - p/anno</t>
+  </si>
+  <si>
+    <t>2011-2016 (USCITE AL GIORNO) - p/giorno</t>
+  </si>
+  <si>
     <t>USCITE - P</t>
   </si>
   <si>
@@ -256,8 +313,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -339,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -428,11 +486,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,19 +571,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,40 +630,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +1011,7 @@
   <dimension ref="A1:AO260"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="J261" sqref="J261"/>
+      <selection activeCell="L258" sqref="L258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,14 +1019,17 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="32"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1681,10 +1865,10 @@
       <c r="AO8" s="1"/>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
         <v>1</v>
@@ -5003,10 +5187,10 @@
       </c>
     </row>
     <row r="42" spans="1:40">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="30"/>
       <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
@@ -7616,28 +7800,59 @@
     <row r="63" spans="1:33">
       <c r="AG63" s="5"/>
     </row>
+    <row r="64" spans="1:33">
+      <c r="C64" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
+      <c r="K64" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="24"/>
+      <c r="M64" s="25"/>
+    </row>
     <row r="65" spans="1:19">
-      <c r="A65" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="29" t="s">
         <v>20</v>
       </c>
+      <c r="B65" s="30"/>
+      <c r="C65" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="F65" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="13"/>
-      <c r="L65" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="I65" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" s="25"/>
+      <c r="K65" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L65" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="M65" s="47" t="s">
+        <v>28</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O65" s="5"/>
+      <c r="P65" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="42">
+        <v>8766</v>
+      </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="1" t="s">
@@ -7646,9 +7861,13 @@
       <c r="B66" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="6">
+      <c r="C66" s="6">
         <f>AVERAGE(L43:Q43)</f>
         <v>35639.333333333336</v>
+      </c>
+      <c r="D66" s="43">
+        <f>C66/R66</f>
+        <v>97.6420091324201</v>
       </c>
       <c r="F66" s="6">
         <f>AVERAGE(F43:K43)</f>
@@ -7657,36 +7876,64 @@
       <c r="I66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="4">
+      <c r="K66" s="4">
         <f>AVERAGE(L2:Q2)</f>
         <v>7921.166666666667</v>
+      </c>
+      <c r="L66" s="4">
+        <f>K66/R66</f>
+        <v>21.701826484018266</v>
+      </c>
+      <c r="M66">
+        <f>K66/R65</f>
+        <v>0.90362384972241239</v>
       </c>
       <c r="N66" s="4">
         <f>AVERAGE(F2:K2)</f>
         <v>11630.333333333334</v>
       </c>
+      <c r="P66" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="18">
+        <f>365</f>
+        <v>365</v>
+      </c>
     </row>
     <row r="67" spans="1:19">
       <c r="B67" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="6">
-        <f t="shared" ref="D67:D85" si="26">AVERAGE(L44:Q44)</f>
+      <c r="C67" s="6">
+        <f>AVERAGE(L44:Q44)</f>
         <v>35.5</v>
       </c>
+      <c r="D67" s="43">
+        <f>C67/R66</f>
+        <v>9.7260273972602743E-2</v>
+      </c>
       <c r="F67" s="6">
-        <f t="shared" ref="F67:F85" si="27">AVERAGE(F44:K44)</f>
+        <f t="shared" ref="F67:F85" si="26">AVERAGE(F44:K44)</f>
         <v>22.333333333333332</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="K67" s="4">
+        <f t="shared" ref="K67:K70" si="27">AVERAGE(L3:Q3)</f>
+        <v>3777.6666666666665</v>
+      </c>
       <c r="L67" s="4">
-        <f t="shared" ref="L67:L70" si="28">AVERAGE(L3:Q3)</f>
-        <v>3777.6666666666665</v>
+        <f>K67/R66</f>
+        <v>10.349771689497716</v>
+      </c>
+      <c r="M67">
+        <f>K67/R65</f>
+        <v>0.43094531903566807</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" ref="N67:N70" si="29">AVERAGE(F3:K3)</f>
+        <f t="shared" ref="N67:N70" si="28">AVERAGE(F3:K3)</f>
         <v>5566.833333333333</v>
       </c>
     </row>
@@ -7694,47 +7941,72 @@
       <c r="B68" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="6">
+      <c r="C68" s="6">
+        <f>AVERAGE(L45:Q45)</f>
+        <v>25330.666666666668</v>
+      </c>
+      <c r="D68" s="43">
+        <f>C68/R66</f>
+        <v>69.399086757990872</v>
+      </c>
+      <c r="F68" s="6">
         <f t="shared" si="26"/>
-        <v>25330.666666666668</v>
-      </c>
-      <c r="F68" s="6">
-        <f t="shared" si="27"/>
         <v>28442.666666666668</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="K68" s="4">
+        <f>AVERAGE(L4:Q4)</f>
+        <v>2933.5</v>
+      </c>
       <c r="L68" s="4">
+        <f>K68/R66</f>
+        <v>8.036986301369863</v>
+      </c>
+      <c r="M68">
+        <f>K68/R65</f>
+        <v>0.33464522016883413</v>
+      </c>
+      <c r="N68" s="4">
         <f t="shared" si="28"/>
-        <v>2933.5</v>
-      </c>
-      <c r="N68" s="4">
-        <f t="shared" si="29"/>
         <v>4306.833333333333</v>
       </c>
+      <c r="R68" s="49"/>
     </row>
     <row r="69" spans="1:19">
       <c r="B69" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="6">
+      <c r="C69" s="6">
+        <f>AVERAGE(L46:Q46)</f>
+        <v>10273.166666666666</v>
+      </c>
+      <c r="D69" s="43">
+        <f>C69/R66</f>
+        <v>28.145662100456619</v>
+      </c>
+      <c r="F69" s="6">
         <f t="shared" si="26"/>
-        <v>10273.166666666666</v>
-      </c>
-      <c r="F69" s="6">
-        <f t="shared" si="27"/>
         <v>10951.833333333334</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="K69" s="4">
+        <f t="shared" si="27"/>
+        <v>941.5</v>
+      </c>
       <c r="L69" s="4">
+        <f>K69/R66</f>
+        <v>2.5794520547945203</v>
+      </c>
+      <c r="M69">
+        <f>K69/R65</f>
+        <v>0.10740360483686973</v>
+      </c>
+      <c r="N69" s="4">
         <f t="shared" si="28"/>
-        <v>941.5</v>
-      </c>
-      <c r="N69" s="4">
-        <f t="shared" si="29"/>
         <v>1348.1666666666667</v>
       </c>
     </row>
@@ -7745,23 +8017,35 @@
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="6">
+      <c r="C70" s="6">
+        <f>AVERAGE(L47:Q47)</f>
+        <v>17339</v>
+      </c>
+      <c r="D70" s="43">
+        <f>C70/R66</f>
+        <v>47.504109589041093</v>
+      </c>
+      <c r="F70" s="6">
         <f t="shared" si="26"/>
-        <v>17339</v>
-      </c>
-      <c r="F70" s="6">
-        <f t="shared" si="27"/>
         <v>19278.666666666668</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="K70" s="4">
+        <f t="shared" si="27"/>
+        <v>268.5</v>
+      </c>
       <c r="L70" s="4">
+        <f>K70/R66</f>
+        <v>0.73561643835616441</v>
+      </c>
+      <c r="M70">
+        <f>K70/R65</f>
+        <v>3.0629705681040384E-2</v>
+      </c>
+      <c r="N70" s="4">
         <f t="shared" si="28"/>
-        <v>268.5</v>
-      </c>
-      <c r="N70" s="4">
-        <f t="shared" si="29"/>
         <v>408.5</v>
       </c>
     </row>
@@ -7769,12 +8053,16 @@
       <c r="B71" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="6">
+      <c r="C71" s="6">
+        <f>AVERAGE(L48:Q48)</f>
+        <v>19.5</v>
+      </c>
+      <c r="D71" s="43">
+        <f>C71/R66</f>
+        <v>5.3424657534246578E-2</v>
+      </c>
+      <c r="F71" s="6">
         <f t="shared" si="26"/>
-        <v>19.5</v>
-      </c>
-      <c r="F71" s="6">
-        <f t="shared" si="27"/>
         <v>11</v>
       </c>
     </row>
@@ -7782,12 +8070,16 @@
       <c r="B72" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="6">
+      <c r="C72" s="6">
+        <f>AVERAGE(L49:Q49)</f>
+        <v>12375</v>
+      </c>
+      <c r="D72" s="43">
+        <f>C72/R66</f>
+        <v>33.904109589041099</v>
+      </c>
+      <c r="F72" s="6">
         <f t="shared" si="26"/>
-        <v>12375</v>
-      </c>
-      <c r="F72" s="6">
-        <f t="shared" si="27"/>
         <v>14055.166666666666</v>
       </c>
     </row>
@@ -7795,14 +8087,26 @@
       <c r="B73" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="6">
+      <c r="C73" s="6">
+        <f>AVERAGE(L50:Q50)</f>
+        <v>4944.5</v>
+      </c>
+      <c r="D73" s="43">
+        <f>C73/R66</f>
+        <v>13.546575342465754</v>
+      </c>
+      <c r="F73" s="6">
         <f t="shared" si="26"/>
-        <v>4944.5</v>
-      </c>
-      <c r="F73" s="6">
-        <f t="shared" si="27"/>
         <v>5212.5</v>
       </c>
+      <c r="I73" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="35"/>
+      <c r="L73" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M73" s="25"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="1" t="s">
@@ -7811,13 +8115,30 @@
       <c r="B74" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D74" s="6">
+      <c r="C74" s="6">
+        <f>AVERAGE(L51:Q51)</f>
+        <v>11691.166666666666</v>
+      </c>
+      <c r="D74" s="43">
+        <f>C74/R66</f>
+        <v>32.030593607305931</v>
+      </c>
+      <c r="F74" s="6">
         <f t="shared" si="26"/>
-        <v>11691.166666666666</v>
-      </c>
-      <c r="F74" s="6">
-        <f t="shared" si="27"/>
         <v>12744.5</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <f>J74/L66</f>
+        <v>4.6079070843941333E-2</v>
       </c>
       <c r="S74" s="5"/>
     </row>
@@ -7825,12 +8146,16 @@
       <c r="B75" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="6">
+      <c r="C75" s="6">
+        <f>AVERAGE(L52:Q52)</f>
+        <v>10</v>
+      </c>
+      <c r="D75" s="43">
+        <f>C75/R66</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="F75" s="6">
         <f t="shared" si="26"/>
-        <v>10</v>
-      </c>
-      <c r="F75" s="6">
-        <f t="shared" si="27"/>
         <v>5.666666666666667</v>
       </c>
     </row>
@@ -7838,12 +8163,16 @@
       <c r="B76" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="6">
+      <c r="C76" s="6">
+        <f>AVERAGE(L53:Q53)</f>
+        <v>8276.8333333333339</v>
+      </c>
+      <c r="D76" s="43">
+        <f>C76/R66</f>
+        <v>22.676255707762557</v>
+      </c>
+      <c r="F76" s="6">
         <f t="shared" si="26"/>
-        <v>8276.8333333333339</v>
-      </c>
-      <c r="F76" s="6">
-        <f t="shared" si="27"/>
         <v>9031.1666666666661</v>
       </c>
     </row>
@@ -7851,14 +8180,21 @@
       <c r="B77" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="6">
+      <c r="C77" s="6">
+        <f>AVERAGE(L54:Q54)</f>
+        <v>3404.3333333333335</v>
+      </c>
+      <c r="D77" s="43">
+        <f>C77/R66</f>
+        <v>9.3269406392694076</v>
+      </c>
+      <c r="F77" s="6">
         <f t="shared" si="26"/>
-        <v>3404.3333333333335</v>
-      </c>
-      <c r="F77" s="6">
-        <f t="shared" si="27"/>
         <v>3707.6666666666665</v>
       </c>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="1" t="s">
@@ -7867,52 +8203,111 @@
       <c r="B78" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="6">
+      <c r="C78" s="6">
+        <f>AVERAGE(L55:Q55)</f>
+        <v>5264.5</v>
+      </c>
+      <c r="D78" s="43">
+        <f>C78/R66</f>
+        <v>14.423287671232877</v>
+      </c>
+      <c r="F78" s="6">
         <f t="shared" si="26"/>
-        <v>5264.5</v>
-      </c>
-      <c r="F78" s="6">
-        <f t="shared" si="27"/>
         <v>5883</v>
       </c>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="39"/>
     </row>
     <row r="79" spans="1:19">
       <c r="B79" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="6">
+      <c r="C79" s="6">
+        <f>AVERAGE(L56:Q56)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="D79" s="43">
+        <f>C79/R66</f>
+        <v>1.2785388127853882E-2</v>
+      </c>
+      <c r="F79" s="6">
         <f t="shared" si="26"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F79" s="6">
-        <f t="shared" si="27"/>
         <v>4.166666666666667</v>
       </c>
+      <c r="I79" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="25"/>
     </row>
     <row r="80" spans="1:19">
       <c r="B80" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="6">
+      <c r="C80" s="6">
+        <f>AVERAGE(L57:Q57)</f>
+        <v>3731</v>
+      </c>
+      <c r="D80" s="43">
+        <f>C80/R66</f>
+        <v>10.221917808219178</v>
+      </c>
+      <c r="F80" s="6">
         <f t="shared" si="26"/>
-        <v>3731</v>
-      </c>
-      <c r="F80" s="6">
-        <f t="shared" si="27"/>
         <v>4299.666666666667</v>
+      </c>
+      <c r="I80" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" s="40"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
+      <c r="O80" s="57" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:22">
       <c r="B81" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="6">
+      <c r="C81" s="6">
+        <f>AVERAGE(L58:Q58)</f>
+        <v>1528.8333333333333</v>
+      </c>
+      <c r="D81" s="43">
+        <f>C81/R66</f>
+        <v>4.188584474885845</v>
+      </c>
+      <c r="F81" s="6">
         <f t="shared" si="26"/>
-        <v>1528.8333333333333</v>
-      </c>
-      <c r="F81" s="6">
-        <f t="shared" si="27"/>
         <v>1579.1666666666667</v>
+      </c>
+      <c r="I81" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="J81" s="54"/>
+      <c r="K81" s="55">
+        <f>1/K82</f>
+        <v>9.1324200913242006E-4</v>
+      </c>
+      <c r="L81" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81" s="54"/>
+      <c r="N81" s="56">
+        <f>1/N82</f>
+        <v>6</v>
+      </c>
+      <c r="O81" s="59" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:22">
@@ -7922,25 +8317,52 @@
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="6">
+      <c r="C82" s="6">
+        <f>AVERAGE(L59:Q59)</f>
+        <v>1345.5</v>
+      </c>
+      <c r="D82" s="43">
+        <f>C82/R66</f>
+        <v>3.6863013698630138</v>
+      </c>
+      <c r="F82" s="6">
         <f t="shared" si="26"/>
-        <v>1345.5</v>
-      </c>
-      <c r="F82" s="6">
-        <f t="shared" si="27"/>
         <v>1511</v>
+      </c>
+      <c r="I82" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J82" s="41"/>
+      <c r="K82" s="18">
+        <f>3*R66</f>
+        <v>1095</v>
+      </c>
+      <c r="L82" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M82" s="41"/>
+      <c r="N82" s="46">
+        <f>4/24</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="O82" s="58" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:22">
       <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="6">
+      <c r="C83" s="6">
+        <f>AVERAGE(L60:Q60)</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D83" s="43">
+        <f>C83/R66</f>
+        <v>3.6529680365296802E-3</v>
+      </c>
+      <c r="F83" s="6">
         <f t="shared" si="26"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F83" s="6">
-        <f t="shared" si="27"/>
         <v>1.5</v>
       </c>
     </row>
@@ -7948,12 +8370,16 @@
       <c r="B84" t="s">
         <v>17</v>
       </c>
-      <c r="D84" s="6">
+      <c r="C84" s="6">
+        <f>AVERAGE(L61:Q61)</f>
+        <v>948.66666666666663</v>
+      </c>
+      <c r="D84" s="43">
+        <f>C84/R66</f>
+        <v>2.5990867579908676</v>
+      </c>
+      <c r="F84" s="6">
         <f t="shared" si="26"/>
-        <v>948.66666666666663</v>
-      </c>
-      <c r="F84" s="6">
-        <f t="shared" si="27"/>
         <v>1057</v>
       </c>
     </row>
@@ -7961,79 +8387,83 @@
       <c r="B85" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="6">
+      <c r="C85" s="6">
+        <f>AVERAGE(L62:Q62)</f>
+        <v>395.5</v>
+      </c>
+      <c r="D85" s="43">
+        <f>C85/R66</f>
+        <v>1.0835616438356164</v>
+      </c>
+      <c r="F85" s="6">
         <f t="shared" si="26"/>
-        <v>395.5</v>
-      </c>
-      <c r="F85" s="6">
-        <f t="shared" si="27"/>
         <v>452.5</v>
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="13"/>
+      <c r="A87" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
       <c r="I87" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L87" s="23"/>
+        <v>40</v>
+      </c>
+      <c r="K87" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="L87" s="28"/>
       <c r="N87" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q87" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="S87" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="V87" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="32" t="s">
-        <v>28</v>
+      <c r="A88" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="B88" s="33"/>
-      <c r="C88" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D88" s="34"/>
-      <c r="I88" s="4">
+      <c r="C88" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D88" s="27"/>
+      <c r="I88" s="43">
         <f>D72</f>
-        <v>12375</v>
+        <v>33.904109589041099</v>
       </c>
       <c r="K88" s="6">
         <f>D66*B92*B99</f>
-        <v>12323.699358386801</v>
+        <v>33.763559885991235</v>
       </c>
       <c r="N88" s="4">
         <f>IMABS(K88-I88)</f>
-        <v>51.300641613199332</v>
-      </c>
-      <c r="Q88" s="4">
+        <v>0.14054970304986369</v>
+      </c>
+      <c r="Q88" s="43">
         <f>D73</f>
-        <v>4944.5</v>
+        <v>13.546575342465754</v>
       </c>
       <c r="S88" s="6">
         <f>D66*B92*B97</f>
-        <v>4998.0294290951942</v>
+        <v>13.693231312589571</v>
       </c>
       <c r="V88" s="4">
         <f>IMABS(S88-Q88)</f>
-        <v>53.529429095194246</v>
+        <v>0.14665597012381681</v>
       </c>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B89" s="7">
         <f>D74/D66</f>
@@ -8046,38 +8476,38 @@
     </row>
     <row r="90" spans="1:22">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B90" s="7">
         <f>D78/D66</f>
-        <v>0.14771600665930898</v>
+        <v>0.14771600665930901</v>
       </c>
       <c r="D90" s="7">
         <f>L69/L66</f>
-        <v>0.11885875397142677</v>
+        <v>0.11885875397142676</v>
       </c>
       <c r="I90" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="K90" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N90" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q90" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="S90" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="V90" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B91" s="7">
         <f>D82/D66</f>
@@ -8087,38 +8517,38 @@
         <f>L70/L66</f>
         <v>3.3896521976981502E-2</v>
       </c>
-      <c r="I91" s="4">
+      <c r="I91" s="43">
         <f>D76</f>
-        <v>8276.8333333333339</v>
+        <v>22.676255707762557</v>
       </c>
       <c r="K91">
         <f>D66*B89*B99</f>
-        <v>8309.5001527650475</v>
+        <v>22.765753843191909</v>
       </c>
       <c r="N91" s="4">
         <f>IMABS(K91-I91)</f>
-        <v>32.66681943171352</v>
-      </c>
-      <c r="Q91" s="4">
+        <v>8.9498135429352033E-2</v>
+      </c>
+      <c r="Q91" s="43">
         <f>D77</f>
-        <v>3404.3333333333335</v>
+        <v>9.3269406392694076</v>
       </c>
       <c r="S91">
         <f>D66*B89*B97</f>
-        <v>3370.0210542970622</v>
+        <v>9.2329343953344161</v>
       </c>
       <c r="V91" s="4">
         <f>IMABS(S91-Q91)</f>
-        <v>34.31227903627132</v>
+        <v>9.4006243934991573E-2</v>
       </c>
     </row>
     <row r="92" spans="1:22">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B92" s="7">
         <f>D70/D66</f>
-        <v>0.48651302867618174</v>
+        <v>0.48651302867618168</v>
       </c>
       <c r="D92" s="7">
         <f>L67/L66</f>
@@ -8127,48 +8557,48 @@
     </row>
     <row r="93" spans="1:22">
       <c r="I93" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="K93" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N93" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="Q93" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="S93" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="V93" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:22">
-      <c r="I94" s="4">
+      <c r="I94" s="43">
         <f>D80</f>
-        <v>3731</v>
+        <v>10.221917808219178</v>
       </c>
       <c r="K94">
         <f>D66*B90*B99</f>
-        <v>3741.7449260180692</v>
+        <v>10.251355961693344</v>
       </c>
       <c r="N94" s="4">
         <f>IMABS(K94-I94)</f>
-        <v>10.744926018069236</v>
-      </c>
-      <c r="Q94" s="4">
+        <v>2.9438153474165674E-2</v>
+      </c>
+      <c r="Q94" s="43">
         <f>D81</f>
-        <v>1528.8333333333333</v>
+        <v>4.188584474885845</v>
       </c>
       <c r="S94">
         <f>D66*B90*B97</f>
-        <v>1517.5111557455241</v>
+        <v>4.1575648102617109</v>
       </c>
       <c r="V94" s="4">
         <f>IMABS(S94-Q94)</f>
-        <v>11.322177587809165</v>
+        <v>3.101966462413408E-2</v>
       </c>
     </row>
     <row r="95" spans="1:22">
@@ -8183,60 +8613,60 @@
     </row>
     <row r="96" spans="1:22">
       <c r="I96" t="s">
+        <v>59</v>
+      </c>
+      <c r="K96" t="s">
+        <v>60</v>
+      </c>
+      <c r="N96" t="s">
         <v>42</v>
       </c>
-      <c r="K96" t="s">
-        <v>43</v>
-      </c>
-      <c r="N96" t="s">
-        <v>25</v>
-      </c>
       <c r="Q96" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="S96" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="V96" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:40">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B97" s="9">
         <f>D69/D66</f>
         <v>0.28825361491984508</v>
       </c>
-      <c r="I97" s="4">
+      <c r="I97" s="43">
         <f>D84</f>
-        <v>948.66666666666663</v>
+        <v>2.5990867579908676</v>
       </c>
       <c r="K97">
         <f>D66*B91*B99</f>
-        <v>956.3145214089302</v>
+        <v>2.6200397846820009</v>
       </c>
       <c r="N97" s="4">
         <f>IMABS(K97-I97)</f>
-        <v>7.6478547422635756</v>
-      </c>
-      <c r="Q97" s="4">
+        <v>2.0953026691133303E-2</v>
+      </c>
+      <c r="Q97" s="43">
         <f>D85</f>
-        <v>395.5</v>
+        <v>1.0835616438356164</v>
       </c>
       <c r="S97">
         <f>D66*B91*B97</f>
-        <v>387.84523887465156</v>
+        <v>1.0625896955469907</v>
       </c>
       <c r="V97" s="4">
         <f>IMABS(S97-Q97)</f>
-        <v>7.6547611253484433</v>
+        <v>2.0971948288625697E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B98" s="9">
         <f>D67/D66</f>
@@ -8245,7 +8675,7 @@
     </row>
     <row r="99" spans="1:40">
       <c r="A99" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B99" s="10">
         <f>D68/D66</f>
@@ -8300,16 +8730,16 @@
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
@@ -8347,20 +8777,20 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
-      <c r="I101" s="3">
+      <c r="I101" s="45">
         <f>D71</f>
-        <v>19.5</v>
+        <v>5.3424657534246578E-2</v>
       </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3">
         <f>D66*B92*B98</f>
-        <v>17.27121251800445</v>
+        <v>4.7318390460286165E-2</v>
       </c>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="4">
         <f>IMABS(K101-I101)</f>
-        <v>2.2287874819955498</v>
+        <v>6.1062670739604127E-3</v>
       </c>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
@@ -8444,16 +8874,16 @@
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="J103" s="3"/>
       <c r="K103" s="3" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="L103" s="3"/>
       <c r="M103" s="1"/>
       <c r="N103" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="O103" s="1"/>
       <c r="P103" s="1"/>
@@ -8491,20 +8921,20 @@
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="3">
+      <c r="I104" s="45">
         <f>D75</f>
-        <v>10</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1">
         <f>D66*B89*B98</f>
-        <v>11.645459604556763</v>
+        <v>3.1905368779607562E-2</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
       <c r="N104" s="4">
         <f>IMABS(K104-I104)</f>
-        <v>1.6454596045567627</v>
+        <v>4.5081085056349612E-3</v>
       </c>
       <c r="O104" s="1"/>
       <c r="P104" s="1"/>
@@ -8577,27 +9007,27 @@
     </row>
     <row r="106" spans="1:40">
       <c r="I106" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="K106" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:40">
-      <c r="I107" s="4">
+      <c r="I107" s="43">
         <f>D79</f>
-        <v>4.666666666666667</v>
+        <v>1.2785388127853882E-2</v>
       </c>
       <c r="K107">
         <f>D66*B90*B98</f>
-        <v>5.2439182364054684</v>
+        <v>1.4366899277823204E-2</v>
       </c>
       <c r="N107" s="4">
         <f>IMABS(K107-I107)</f>
-        <v>0.57725156973880143</v>
+        <v>1.5815111499693224E-3</v>
       </c>
     </row>
     <row r="108" spans="1:40">
@@ -8606,76 +9036,100 @@
     <row r="109" spans="1:40">
       <c r="G109" s="5"/>
       <c r="I109" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K109" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="N109" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:40">
-      <c r="I110" s="4">
+      <c r="I110" s="43">
         <f>D83</f>
-        <v>1.3333333333333333</v>
+        <v>3.6529680365296802E-3</v>
       </c>
       <c r="K110">
         <f>D66*B91*B98</f>
-        <v>1.3402397164181896</v>
+        <v>3.6718896340224372E-3</v>
       </c>
       <c r="N110" s="4">
         <f>IMABS(K110-I110)</f>
-        <v>6.9063830848563601E-3</v>
+        <v>1.8921597492756962E-5</v>
       </c>
       <c r="AK110" s="5"/>
     </row>
     <row r="112" spans="1:40">
-      <c r="A112" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="16"/>
-      <c r="L112" s="13"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="A112" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B112" s="24"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="25"/>
+      <c r="O112" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P112" s="24"/>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="24"/>
+      <c r="S112" s="24"/>
+      <c r="T112" s="25"/>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="21" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B113" s="22"/>
-      <c r="C113" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D113" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E113" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F113" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G113" s="24"/>
+      <c r="C113" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F113" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G113" s="12"/>
       <c r="I113" s="21" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="J113" s="22"/>
       <c r="K113" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L113" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>78</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="O113" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="R113" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S113" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T113" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -8686,7 +9140,7 @@
         <f>AVERAGE(L138:Q138)</f>
         <v>32282.833333333332</v>
       </c>
-      <c r="D114" s="25">
+      <c r="D114" s="6">
         <f>AVERAGE(M206:R206)</f>
         <v>4787</v>
       </c>
@@ -8698,7 +9152,7 @@
         <f>AVERAGE(M172:R172)</f>
         <v>11707.166666666666</v>
       </c>
-      <c r="G114" s="26"/>
+      <c r="G114" s="13"/>
       <c r="I114" t="s">
         <v>3</v>
       </c>
@@ -8713,8 +9167,30 @@
         <f>L118+L122+L126+L130</f>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="O114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q114" s="43">
+        <f>C114/R66</f>
+        <v>88.44611872146119</v>
+      </c>
+      <c r="R114" s="43">
+        <f>AVERAGE(AA206:AF206)/R66</f>
+        <v>8.3908675799086758</v>
+      </c>
+      <c r="S114" s="43">
+        <f>Q114-R114-T114</f>
+        <v>57.966666666666669</v>
+      </c>
+      <c r="T114" s="43">
+        <f>AVERAGE(AA172:AF172)/R66</f>
+        <v>22.088584474885845</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="B115" t="s">
         <v>16</v>
       </c>
@@ -8727,14 +9203,14 @@
         <v>2.8333333333333335</v>
       </c>
       <c r="E115" s="6">
-        <f t="shared" ref="E115:E133" si="30">C115-D115-F115</f>
+        <f t="shared" ref="E115:E133" si="29">C115-D115-F115</f>
         <v>6.6666666666666714</v>
       </c>
       <c r="F115" s="6">
         <f>SUM(AVERAGE(M186:R186),AVERAGE(M191:R191))</f>
         <v>20.833333333333332</v>
       </c>
-      <c r="G115" s="27"/>
+      <c r="G115" s="6"/>
       <c r="J115" t="s">
         <v>16</v>
       </c>
@@ -8746,8 +9222,27 @@
         <f>L119+L123+L127+L131</f>
         <v>0.99999999999999989</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="P115" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q115" s="43">
+        <f>SUM(AVERAGE(Z153:AE153),AVERAGE(Z158:AE158))/R66</f>
+        <v>0.22420091324200916</v>
+      </c>
+      <c r="R115" s="43">
+        <f>SUM(AVERAGE(AA220:AF220),AVERAGE(AA225:AF225))/R66</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="S115" s="43">
+        <f t="shared" ref="S115:S133" si="30">Q115-R115-T115</f>
+        <v>5.251141552511418E-2</v>
+      </c>
+      <c r="T115" s="43">
+        <f>SUM(AVERAGE(AA186:AF186),AVERAGE(AA191:AF191))/R66</f>
+        <v>0.14429223744292238</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="B116" t="s">
         <v>17</v>
       </c>
@@ -8760,14 +9255,14 @@
         <v>1785.3333333333333</v>
       </c>
       <c r="E116" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6695.8333333333339</v>
       </c>
       <c r="F116" s="6">
         <f>SUM(AVERAGE(M177:R177),AVERAGE(M181:R181))</f>
         <v>11679.666666666666</v>
       </c>
-      <c r="G116" s="27"/>
+      <c r="G116" s="6"/>
       <c r="J116" t="s">
         <v>17</v>
       </c>
@@ -8779,8 +9274,27 @@
         <f>L120+L124+L128+L132</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="P116" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q116" s="43">
+        <f>SUM(AVERAGE(Z143:AE143),AVERAGE(Z148:AE148))/R66</f>
+        <v>41.805479452054797</v>
+      </c>
+      <c r="R116" s="43">
+        <f>SUM(AVERAGE(AA211:AF211),AVERAGE(AA215:AF215))/R66</f>
+        <v>6.1351598173515978</v>
+      </c>
+      <c r="S116" s="43">
+        <f t="shared" si="30"/>
+        <v>13.93287671232877</v>
+      </c>
+      <c r="T116" s="43">
+        <f>SUM(AVERAGE(AA177:AF177),AVERAGE(AA181:AF181))/R66</f>
+        <v>21.737442922374427</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="B117" t="s">
         <v>18</v>
       </c>
@@ -8793,14 +9307,14 @@
         <v>2998.8333333333335</v>
       </c>
       <c r="E117" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>9086.1666666666661</v>
       </c>
       <c r="F117" s="6">
         <f>AVERAGE(M196:R196)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="G117" s="27"/>
+      <c r="G117" s="6"/>
       <c r="J117" t="s">
         <v>18</v>
       </c>
@@ -8812,8 +9326,27 @@
         <f>L121+L125+L129+L133</f>
         <v>1.0000000000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="P117" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q117" s="43">
+        <f>AVERAGE(Z163:AE163)/R66</f>
+        <v>6.3748858447488592</v>
+      </c>
+      <c r="R117" s="43">
+        <f>AVERAGE(AA230:AF230)/R66</f>
+        <v>2.2283105022831053</v>
+      </c>
+      <c r="S117" s="43">
+        <f t="shared" si="30"/>
+        <v>3.9397260273972607</v>
+      </c>
+      <c r="T117" s="43">
+        <f>AVERAGE(AA196:AF196)/R66</f>
+        <v>0.20684931506849316</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" s="1" t="s">
         <v>4</v>
       </c>
@@ -8851,8 +9384,30 @@
         <f>E118/E114</f>
         <v>0.48575982772452819</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="O118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q118" s="43">
+        <f>AVERAGE(Z139:AE139)/R66</f>
+        <v>22.82191780821918</v>
+      </c>
+      <c r="R118" s="43">
+        <f>AVERAGE(AA207:AF207)/R66</f>
+        <v>4.3767123287671232</v>
+      </c>
+      <c r="S118" s="43">
+        <f>Q118-R118-T118</f>
+        <v>8.75068493150685</v>
+      </c>
+      <c r="T118" s="43">
+        <f>AVERAGE(AA173:AF173)/R66</f>
+        <v>9.6945205479452063</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="B119" t="s">
         <v>16</v>
       </c>
@@ -8883,8 +9438,27 @@
         <f>E119/E115</f>
         <v>0.59999999999999987</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="P119" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q119" s="43">
+        <f>SUM(AVERAGE(Z154:AE154),AVERAGE(Z159:AE159))/R66</f>
+        <v>0.11643835616438356</v>
+      </c>
+      <c r="R119" s="43">
+        <f>SUM(AVERAGE(AA221:AF221),AVERAGE(AA226:AF226))/R66</f>
+        <v>1.2785388127853882E-2</v>
+      </c>
+      <c r="S119" s="43">
+        <f>Q119-R119-T119</f>
+        <v>2.6027397260273977E-2</v>
+      </c>
+      <c r="T119" s="43">
+        <f>SUM(AVERAGE(AA187:AF187),AVERAGE(AA192:AF192))/R66</f>
+        <v>7.7625570776255703E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="B120" t="s">
         <v>17</v>
       </c>
@@ -8897,7 +9471,7 @@
         <v>958.66666666666663</v>
       </c>
       <c r="E120" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3163.0000000000009</v>
       </c>
       <c r="F120" s="6">
@@ -8915,8 +9489,27 @@
         <f>E120/E116</f>
         <v>0.47238332296204116</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="P120" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q120" s="43">
+        <f>SUM(AVERAGE(Z144:AE144),AVERAGE(Z149:AE149))/R66</f>
+        <v>19.515981735159816</v>
+      </c>
+      <c r="R120" s="43">
+        <f>SUM(AVERAGE(AA212:AF212),AVERAGE(AA216:AF216))/R66</f>
+        <v>3.2273972602739724</v>
+      </c>
+      <c r="S120" s="43">
+        <f t="shared" ref="S120:S133" si="31">Q120-R120-T120</f>
+        <v>6.7538812785388131</v>
+      </c>
+      <c r="T120" s="43">
+        <f>SUM(AVERAGE(AA178:AF178),AVERAGE(AA182:AF182))/R66</f>
+        <v>9.5347031963470315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="B121" t="s">
         <v>18</v>
       </c>
@@ -8929,7 +9522,7 @@
         <v>1517.3333333333333</v>
       </c>
       <c r="E121" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>4502.5000000000009</v>
       </c>
       <c r="F121" s="6">
@@ -8947,8 +9540,27 @@
         <f>E121/E117</f>
         <v>0.49553350331089396</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="P121" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q121" s="43">
+        <f>AVERAGE(Z164:AE164)/R66</f>
+        <v>3.1894977168949774</v>
+      </c>
+      <c r="R121" s="43">
+        <f>AVERAGE(AA231:AF231)/R66</f>
+        <v>1.1365296803652967</v>
+      </c>
+      <c r="S121" s="43">
+        <f t="shared" si="31"/>
+        <v>1.9707762557077628</v>
+      </c>
+      <c r="T121" s="43">
+        <f>AVERAGE(AA197:AF197)/R66</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" s="1" t="s">
         <v>5</v>
       </c>
@@ -8964,7 +9576,7 @@
         <v>1413.8333333333333</v>
       </c>
       <c r="E122" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>5246.333333333333</v>
       </c>
       <c r="F122" s="6">
@@ -8986,8 +9598,30 @@
         <f>E122/E114</f>
         <v>0.3322847612211291</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="O122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q122" s="43">
+        <f>AVERAGE(Z140:AE140)/R66</f>
+        <v>16.880365296803653</v>
+      </c>
+      <c r="R122" s="43">
+        <f>AVERAGE(AA208:AF208)/R66</f>
+        <v>2.3904109589041096</v>
+      </c>
+      <c r="S122" s="43">
+        <f t="shared" si="31"/>
+        <v>5.9821917808219176</v>
+      </c>
+      <c r="T122" s="43">
+        <f>AVERAGE(AA174:AF174)/R66</f>
+        <v>8.5077625570776263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="B123" t="s">
         <v>16</v>
       </c>
@@ -9000,7 +9634,7 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E123" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1.8333333333333348</v>
       </c>
       <c r="F123" s="6">
@@ -9018,8 +9652,27 @@
         <f>E123/E115</f>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="P123" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q123" s="43">
+        <f>SUM(AVERAGE(Z155:AE155),AVERAGE(Z160:AE160))/R66</f>
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="R123" s="43">
+        <f>SUM(AVERAGE(AA222:AF222),AVERAGE(AA227:AF227))/R66</f>
+        <v>8.6757990867579911E-3</v>
+      </c>
+      <c r="S123" s="43">
+        <f t="shared" si="31"/>
+        <v>1.8264840182648401E-2</v>
+      </c>
+      <c r="T123" s="43">
+        <f>SUM(AVERAGE(AA188:AF188),AVERAGE(AA193:AF193))/R66</f>
+        <v>4.1552511415525115E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="B124" t="s">
         <v>17</v>
       </c>
@@ -9050,8 +9703,27 @@
         <f>E124/E116</f>
         <v>0.34842563783447417</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="P124" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q124" s="43">
+        <f>SUM(AVERAGE(Z145:AE145),AVERAGE(Z150:AE150))/R66</f>
+        <v>14.78584474885845</v>
+      </c>
+      <c r="R124" s="43">
+        <f>SUM(AVERAGE(AA213:AF213),AVERAGE(AA217:AF217))/R66</f>
+        <v>1.7027397260273973</v>
+      </c>
+      <c r="S124" s="43">
+        <f>Q124-R124-T124</f>
+        <v>4.7068493150684958</v>
+      </c>
+      <c r="T124" s="43">
+        <f>SUM(AVERAGE(AA179:AF179),AVERAGE(AA183:AF183))/R66</f>
+        <v>8.3762557077625566</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="B125" t="s">
         <v>18</v>
       </c>
@@ -9064,7 +9736,7 @@
         <v>918.66666666666663</v>
       </c>
       <c r="E125" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2911.5</v>
       </c>
       <c r="F125" s="6">
@@ -9082,8 +9754,27 @@
         <f>E125/E117</f>
         <v>0.3204321587761616</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="P125" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q125" s="43">
+        <f>AVERAGE(Z165:AE165)/R66</f>
+        <v>2.026027397260274</v>
+      </c>
+      <c r="R125" s="43">
+        <f>AVERAGE(AA232:AF232)/R66</f>
+        <v>0.67899543378995442</v>
+      </c>
+      <c r="S125" s="43">
+        <f t="shared" ref="S125:S133" si="32">Q125-R125-T125</f>
+        <v>1.2570776255707763</v>
+      </c>
+      <c r="T125" s="43">
+        <f>AVERAGE(AA198:AF198)/R66</f>
+        <v>8.995433789954338E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" s="1" t="s">
         <v>6</v>
       </c>
@@ -9099,7 +9790,7 @@
         <v>758.66666666666663</v>
       </c>
       <c r="E126" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2335.666666666667</v>
       </c>
       <c r="F126" s="6">
@@ -9121,8 +9812,30 @@
         <f>E126/E114</f>
         <v>0.1479331165815142</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="O126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q126" s="43">
+        <f>AVERAGE(Z141:AE141)/R66</f>
+        <v>6.7497716894977167</v>
+      </c>
+      <c r="R126" s="43">
+        <f>AVERAGE(AA209:AF209)/R66</f>
+        <v>1.3881278538812787</v>
+      </c>
+      <c r="S126" s="43">
+        <f t="shared" si="32"/>
+        <v>2.6420091324200912</v>
+      </c>
+      <c r="T126" s="43">
+        <f>AVERAGE(AA175:AF175)/R66</f>
+        <v>2.719634703196347</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="B127" t="s">
         <v>16</v>
       </c>
@@ -9135,7 +9848,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E127" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>0.50000000000000089</v>
       </c>
       <c r="F127" s="6">
@@ -9154,8 +9867,27 @@
         <v>7.500000000000008E-2</v>
       </c>
       <c r="M127" s="5"/>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="P127" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q127" s="43">
+        <f>SUM(AVERAGE(Z156:AE156),AVERAGE(Z161:AE161))/R66</f>
+        <v>3.3789954337899539E-2</v>
+      </c>
+      <c r="R127" s="43">
+        <f>SUM(AVERAGE(AA223:AF223),AVERAGE(AA228:AF228))/R66</f>
+        <v>5.0228310502283104E-3</v>
+      </c>
+      <c r="S127" s="43">
+        <f t="shared" si="32"/>
+        <v>7.3059360730593562E-3</v>
+      </c>
+      <c r="T127" s="43">
+        <f>SUM(AVERAGE(AA189:AF189),AVERAGE(AA194:AF194))/R66</f>
+        <v>2.1461187214611873E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="B128" t="s">
         <v>17</v>
       </c>
@@ -9186,6 +9918,25 @@
         <f>E128/E116</f>
         <v>0.14401991288114496</v>
       </c>
+      <c r="P128" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q128" s="43">
+        <f>SUM(AVERAGE(Z146:AE146),AVERAGE(Z151:AE151))/R66</f>
+        <v>5.7328767123287667</v>
+      </c>
+      <c r="R128" s="43">
+        <f>SUM(AVERAGE(AA214:AF214),AVERAGE(AA218:AF218))/R66</f>
+        <v>1.0315068493150685</v>
+      </c>
+      <c r="S128" s="43">
+        <f>Q128-R128-T128</f>
+        <v>2.0292237442922372</v>
+      </c>
+      <c r="T128" s="43">
+        <f>SUM(AVERAGE(AA180:AF180),AVERAGE(AA184:AF184))/R66</f>
+        <v>2.6721461187214612</v>
+      </c>
     </row>
     <row r="129" spans="1:35">
       <c r="B129" t="s">
@@ -9200,7 +9951,7 @@
         <v>470.16666666666669</v>
       </c>
       <c r="E129" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1370.8333333333333</v>
       </c>
       <c r="F129" s="6">
@@ -9218,6 +9969,25 @@
         <f>E129/E117</f>
         <v>0.15087037071005374</v>
       </c>
+      <c r="P129" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q129" s="43">
+        <f>AVERAGE(Z166:AE166)/R66</f>
+        <v>0.98310502283105017</v>
+      </c>
+      <c r="R129" s="43">
+        <f>AVERAGE(AA233:AF233)/R66</f>
+        <v>0.35159817351598177</v>
+      </c>
+      <c r="S129" s="43">
+        <f t="shared" ref="S129:S133" si="33">Q129-R129-T129</f>
+        <v>0.60547945205479448</v>
+      </c>
+      <c r="T129" s="43">
+        <f>AVERAGE(AA199:AF199)/R66</f>
+        <v>2.6027397260273973E-2</v>
+      </c>
     </row>
     <row r="130" spans="1:35">
       <c r="A130" s="1" t="s">
@@ -9257,6 +10027,28 @@
         <f>E130/E114</f>
         <v>3.4022294472828611E-2</v>
       </c>
+      <c r="O130" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q130" s="43">
+        <f>AVERAGE(Z142:AE142)/R66</f>
+        <v>1.952511415525114</v>
+      </c>
+      <c r="R130" s="43">
+        <f>AVERAGE(AA210:AF210)/R66</f>
+        <v>0.23561643835616439</v>
+      </c>
+      <c r="S130" s="43">
+        <f>Q130-R130-T130</f>
+        <v>0.55022831050228316</v>
+      </c>
+      <c r="T130" s="43">
+        <f>AVERAGE(AA176:AF176)/R66</f>
+        <v>1.1666666666666665</v>
+      </c>
     </row>
     <row r="131" spans="1:35">
       <c r="B131" t="s">
@@ -9289,6 +10081,25 @@
         <f>E131/E115</f>
         <v>4.9999999999999968E-2</v>
       </c>
+      <c r="P131" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q131" s="43">
+        <f>SUM(AVERAGE(Z157:AE157),AVERAGE(Z162:AE162))/R66</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="R131" s="43">
+        <f>SUM(AVERAGE(AA224:AF224),AVERAGE(AA229:AF229))/R66</f>
+        <v>9.1324200913242006E-4</v>
+      </c>
+      <c r="S131" s="43">
+        <f>Q131-R131-T131</f>
+        <v>9.1324200913241952E-4</v>
+      </c>
+      <c r="T131" s="43">
+        <f>SUM(AVERAGE(AA190:AF190),AVERAGE(AA195:AF195))/R66</f>
+        <v>3.6529680365296807E-3</v>
+      </c>
     </row>
     <row r="132" spans="1:35">
       <c r="B132" t="s">
@@ -9321,6 +10132,25 @@
         <f>E132/E116</f>
         <v>3.5171126322339763E-2</v>
       </c>
+      <c r="P132" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q132" s="43">
+        <f>SUM(AVERAGE(Z147:AE147),AVERAGE(Z152:AE152))/R66</f>
+        <v>1.7707762557077624</v>
+      </c>
+      <c r="R132" s="43">
+        <f>SUM(AVERAGE(AA219:AF219),AVERAGE(0,0,0,0,0,0))/R66</f>
+        <v>0.17351598173515984</v>
+      </c>
+      <c r="S132" s="43">
+        <f>Q132-R132-T132</f>
+        <v>0.44292237442922366</v>
+      </c>
+      <c r="T132" s="43">
+        <f>SUM(AVERAGE(AA185:AF185),AVERAGE(0,0,0,0,0,0))/R66</f>
+        <v>1.1543378995433788</v>
+      </c>
     </row>
     <row r="133" spans="1:35">
       <c r="B133" t="s">
@@ -9335,7 +10165,7 @@
         <v>92.666666666666671</v>
       </c>
       <c r="E133" s="6">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>301.33333333333331</v>
       </c>
       <c r="F133" s="6">
@@ -9352,6 +10182,25 @@
       <c r="L133">
         <f>E133/E117</f>
         <v>3.3163967202890839E-2</v>
+      </c>
+      <c r="P133" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q133" s="43">
+        <f>AVERAGE(Z167:AE167)/R66</f>
+        <v>0.17625570776255706</v>
+      </c>
+      <c r="R133" s="43">
+        <f>AVERAGE(AA234:AF234)/R66</f>
+        <v>6.118721461187214E-2</v>
+      </c>
+      <c r="S133" s="43">
+        <f t="shared" ref="S133" si="34">Q133-R133-T133</f>
+        <v>0.10639269406392693</v>
+      </c>
+      <c r="T133" s="43">
+        <f>AVERAGE(AA200:AF200)/R66</f>
+        <v>8.6757990867579911E-3</v>
       </c>
     </row>
     <row r="134" spans="1:35">
@@ -9378,10 +10227,10 @@
       <c r="Y135" s="4"/>
     </row>
     <row r="137" spans="1:35">
-      <c r="A137" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B137" s="13"/>
+      <c r="A137" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B137" s="25"/>
       <c r="D137" s="1" t="s">
         <v>1</v>
       </c>
@@ -9486,119 +10335,119 @@
         <v>715213</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" ref="E138:AG138" si="31">E139+E140+E141+E142</f>
+        <f t="shared" ref="E138:AG138" si="35">E139+E140+E141+E142</f>
         <v>18134</v>
       </c>
       <c r="F138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>41364</v>
       </c>
       <c r="G138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>40012</v>
       </c>
       <c r="H138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>38135</v>
       </c>
       <c r="I138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>39384</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>37718</v>
       </c>
       <c r="K138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>36883</v>
       </c>
       <c r="L138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>36340</v>
       </c>
       <c r="M138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>35014</v>
       </c>
       <c r="N138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>32353</v>
       </c>
       <c r="O138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>30809</v>
       </c>
       <c r="P138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>29685</v>
       </c>
       <c r="Q138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>29496</v>
       </c>
       <c r="R138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>28537</v>
       </c>
       <c r="S138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27783</v>
       </c>
       <c r="T138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>27444</v>
       </c>
       <c r="U138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>26476</v>
       </c>
       <c r="V138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>25885</v>
       </c>
       <c r="W138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>24644</v>
       </c>
       <c r="X138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>22297</v>
       </c>
       <c r="Y138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20810</v>
       </c>
       <c r="Z138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>20368</v>
       </c>
       <c r="AA138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>19116</v>
       </c>
       <c r="AB138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>18523</v>
       </c>
       <c r="AC138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>17390</v>
       </c>
       <c r="AD138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>15855</v>
       </c>
       <c r="AE138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>14754</v>
       </c>
       <c r="AF138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>14081</v>
       </c>
       <c r="AG138" s="3">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>13671</v>
       </c>
     </row>
@@ -9613,119 +10462,119 @@
         <v>341845</v>
       </c>
       <c r="E139" s="3">
-        <f t="shared" ref="E139:AG139" si="32">SUM(E144,E149,E154,E159,E164)</f>
+        <f t="shared" ref="E139:AG139" si="36">SUM(E144,E149,E154,E159,E164)</f>
         <v>8857</v>
       </c>
       <c r="F139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>19997</v>
       </c>
       <c r="G139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>19448</v>
       </c>
       <c r="H139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>18423</v>
       </c>
       <c r="I139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>19011</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>18174</v>
       </c>
       <c r="K139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>17808</v>
       </c>
       <c r="L139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>17564</v>
       </c>
       <c r="M139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>16886</v>
       </c>
       <c r="N139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>15506</v>
       </c>
       <c r="O139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>14761</v>
       </c>
       <c r="P139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>14117</v>
       </c>
       <c r="Q139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>14109</v>
       </c>
       <c r="R139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>13738</v>
       </c>
       <c r="S139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>13399</v>
       </c>
       <c r="T139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>13053</v>
       </c>
       <c r="U139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>12759</v>
       </c>
       <c r="V139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>12312</v>
       </c>
       <c r="W139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>11719</v>
       </c>
       <c r="X139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>10688</v>
       </c>
       <c r="Y139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>10027</v>
       </c>
       <c r="Z139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9702</v>
       </c>
       <c r="AA139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>9046</v>
       </c>
       <c r="AB139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8812</v>
       </c>
       <c r="AC139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>8070</v>
       </c>
       <c r="AD139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>7476</v>
       </c>
       <c r="AE139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6874</v>
       </c>
       <c r="AF139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6525</v>
       </c>
       <c r="AG139" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>6365</v>
       </c>
     </row>
@@ -9740,119 +10589,119 @@
         <v>241421</v>
       </c>
       <c r="E140" s="3">
-        <f t="shared" ref="E140:AG140" si="33">SUM(E145,E150,E155,E160,E165)</f>
+        <f t="shared" ref="E140:AG140" si="37">SUM(E145,E150,E155,E160,E165)</f>
         <v>5835</v>
       </c>
       <c r="F140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13388</v>
       </c>
       <c r="G140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>13017</v>
       </c>
       <c r="H140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>12573</v>
       </c>
       <c r="I140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>12934</v>
       </c>
       <c r="J140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>12379</v>
       </c>
       <c r="K140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>12202</v>
       </c>
       <c r="L140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>12175</v>
       </c>
       <c r="M140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>11557</v>
       </c>
       <c r="N140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>10963</v>
       </c>
       <c r="O140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>10400</v>
       </c>
       <c r="P140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>10078</v>
       </c>
       <c r="Q140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>10001</v>
       </c>
       <c r="R140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>9457</v>
       </c>
       <c r="S140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>9374</v>
       </c>
       <c r="T140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>9238</v>
       </c>
       <c r="U140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8855</v>
       </c>
       <c r="V140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8791</v>
       </c>
       <c r="W140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8389</v>
       </c>
       <c r="X140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7569</v>
       </c>
       <c r="Y140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>7059</v>
       </c>
       <c r="Z140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>6989</v>
       </c>
       <c r="AA140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>6652</v>
       </c>
       <c r="AB140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>6457</v>
       </c>
       <c r="AC140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>6083</v>
       </c>
       <c r="AD140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5527</v>
       </c>
       <c r="AE140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5260</v>
       </c>
       <c r="AF140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>5169</v>
       </c>
       <c r="AG140" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>4847</v>
       </c>
       <c r="AH140" s="1"/>
@@ -9869,119 +10718,119 @@
         <v>103252</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" ref="E141:AG141" si="34">SUM(E146,E151,E156,E161,E166)</f>
+        <f t="shared" ref="E141:AG141" si="38">SUM(E146,E151,E156,E161,E166)</f>
         <v>2736</v>
       </c>
       <c r="F141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>6370</v>
       </c>
       <c r="G141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>6038</v>
       </c>
       <c r="H141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5667</v>
       </c>
       <c r="I141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5850</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5684</v>
       </c>
       <c r="K141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5425</v>
       </c>
       <c r="L141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5242</v>
       </c>
       <c r="M141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>5106</v>
       </c>
       <c r="N141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4630</v>
       </c>
       <c r="O141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4401</v>
       </c>
       <c r="P141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4250</v>
       </c>
       <c r="Q141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4191</v>
       </c>
       <c r="R141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4175</v>
       </c>
       <c r="S141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3898</v>
       </c>
       <c r="T141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>4060</v>
       </c>
       <c r="U141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3771</v>
       </c>
       <c r="V141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3700</v>
       </c>
       <c r="W141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3562</v>
       </c>
       <c r="X141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>3161</v>
       </c>
       <c r="Y141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2917</v>
       </c>
       <c r="Z141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2865</v>
       </c>
       <c r="AA141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2655</v>
       </c>
       <c r="AB141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2536</v>
       </c>
       <c r="AC141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2482</v>
       </c>
       <c r="AD141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2221</v>
       </c>
       <c r="AE141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2023</v>
       </c>
       <c r="AF141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1807</v>
       </c>
       <c r="AG141" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>1859</v>
       </c>
       <c r="AH141" s="1"/>
@@ -9998,119 +10847,119 @@
         <v>28695</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" ref="E142:AG142" si="35">SUM(E147,E152,E157,E162,E167)</f>
+        <f t="shared" ref="E142:AG142" si="39">SUM(E147,E152,E157,E162,E167)</f>
         <v>706</v>
       </c>
       <c r="F142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1609</v>
       </c>
       <c r="G142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1509</v>
       </c>
       <c r="H142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1472</v>
       </c>
       <c r="I142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1589</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1481</v>
       </c>
       <c r="K142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1448</v>
       </c>
       <c r="L142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1359</v>
       </c>
       <c r="M142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1465</v>
       </c>
       <c r="N142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1254</v>
       </c>
       <c r="O142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1247</v>
       </c>
       <c r="P142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1240</v>
       </c>
       <c r="Q142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1195</v>
       </c>
       <c r="R142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1167</v>
       </c>
       <c r="S142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1112</v>
       </c>
       <c r="T142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1093</v>
       </c>
       <c r="U142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1091</v>
       </c>
       <c r="V142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>1082</v>
       </c>
       <c r="W142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>974</v>
       </c>
       <c r="X142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>879</v>
       </c>
       <c r="Y142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>807</v>
       </c>
       <c r="Z142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>812</v>
       </c>
       <c r="AA142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>763</v>
       </c>
       <c r="AB142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>718</v>
       </c>
       <c r="AC142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>755</v>
       </c>
       <c r="AD142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>631</v>
       </c>
       <c r="AE142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>597</v>
       </c>
       <c r="AF142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>580</v>
       </c>
       <c r="AG142" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>600</v>
       </c>
       <c r="AH142" s="1"/>
@@ -10133,7 +10982,7 @@
         <v>7</v>
       </c>
       <c r="F143" s="1">
-        <f t="shared" ref="E143:AG143" si="36">F144+F145+F146+F147</f>
+        <f t="shared" ref="E143:AG143" si="40">F144+F145+F146+F147</f>
         <v>12</v>
       </c>
       <c r="G143" s="1">
@@ -10141,11 +10990,11 @@
         <v>8</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="I143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="J143" s="1">
@@ -10153,95 +11002,95 @@
         <v>0</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="S143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Z143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AA143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AB143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AC143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>35</v>
       </c>
       <c r="AD143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>64</v>
       </c>
       <c r="AE143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AF143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>6</v>
       </c>
       <c r="AG143" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>9</v>
       </c>
       <c r="AH143" s="1"/>
@@ -10656,23 +11505,23 @@
         <v>496372</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" ref="E148:AG148" si="37">E149+E150+E151+E152</f>
+        <f t="shared" ref="E148:AG148" si="41">E149+E150+E151+E152</f>
         <v>11689</v>
       </c>
       <c r="F148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>27099</v>
       </c>
       <c r="G148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>26976</v>
       </c>
       <c r="H148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>25708</v>
       </c>
       <c r="I148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>26030</v>
       </c>
       <c r="J148" s="3">
@@ -10680,95 +11529,95 @@
         <v>23850</v>
       </c>
       <c r="K148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>22749</v>
       </c>
       <c r="L148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>22012</v>
       </c>
       <c r="M148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>21151</v>
       </c>
       <c r="N148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19945</v>
       </c>
       <c r="O148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19615</v>
       </c>
       <c r="P148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18972</v>
       </c>
       <c r="Q148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19270</v>
       </c>
       <c r="R148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19133</v>
       </c>
       <c r="S148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18986</v>
       </c>
       <c r="T148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18953</v>
       </c>
       <c r="U148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19184</v>
       </c>
       <c r="V148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19739</v>
       </c>
       <c r="W148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>19439</v>
       </c>
       <c r="X148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>18053</v>
       </c>
       <c r="Y148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>17649</v>
       </c>
       <c r="Z148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>17305</v>
       </c>
       <c r="AA148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>16556</v>
       </c>
       <c r="AB148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>15838</v>
       </c>
       <c r="AC148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>15091</v>
       </c>
       <c r="AD148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>13818</v>
       </c>
       <c r="AE148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>12841</v>
       </c>
       <c r="AF148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>12247</v>
       </c>
       <c r="AG148" s="3">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>11641</v>
       </c>
       <c r="AH148" s="1"/>
@@ -11183,23 +12032,23 @@
         <v>995</v>
       </c>
       <c r="E153" s="1">
-        <f t="shared" ref="E153:AG153" si="38">E155+E154+E156+E157</f>
+        <f t="shared" ref="E153:AG153" si="42">E155+E154+E156+E157</f>
         <v>0</v>
       </c>
       <c r="F153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>11</v>
       </c>
       <c r="I153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>17</v>
       </c>
       <c r="J153" s="1">
@@ -11207,95 +12056,95 @@
         <v>10</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>12</v>
       </c>
       <c r="L153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>17</v>
       </c>
       <c r="M153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>15</v>
       </c>
       <c r="N153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>22</v>
       </c>
       <c r="O153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
       <c r="P153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>14</v>
       </c>
       <c r="Q153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>40</v>
       </c>
       <c r="R153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>44</v>
       </c>
       <c r="S153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>37</v>
       </c>
       <c r="T153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>43</v>
       </c>
       <c r="U153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>57</v>
       </c>
       <c r="V153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>55</v>
       </c>
       <c r="W153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>64</v>
       </c>
       <c r="X153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>36</v>
       </c>
       <c r="Y153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>51</v>
       </c>
       <c r="Z153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>39</v>
       </c>
       <c r="AA153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>53</v>
       </c>
       <c r="AB153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>54</v>
       </c>
       <c r="AC153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>68</v>
       </c>
       <c r="AD153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>50</v>
       </c>
       <c r="AE153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>59</v>
       </c>
       <c r="AF153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>54</v>
       </c>
       <c r="AG153" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>71</v>
       </c>
       <c r="AH153" s="1"/>
@@ -11710,23 +12559,23 @@
         <v>480</v>
       </c>
       <c r="E158" s="1">
-        <f t="shared" ref="E158:AG158" si="39">E159+E160+E161+E162</f>
+        <f t="shared" ref="E158:AG158" si="43">E159+E160+E161+E162</f>
         <v>0</v>
       </c>
       <c r="F158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="G158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="I158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="J158" s="1">
@@ -11734,95 +12583,95 @@
         <v>5</v>
       </c>
       <c r="K158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>3</v>
       </c>
       <c r="L158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="M158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
       <c r="N158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="O158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>7</v>
       </c>
       <c r="P158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>10</v>
       </c>
       <c r="Q158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>9</v>
       </c>
       <c r="R158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>11</v>
       </c>
       <c r="S158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>24</v>
       </c>
       <c r="T158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>19</v>
       </c>
       <c r="U158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>26</v>
       </c>
       <c r="V158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>24</v>
       </c>
       <c r="W158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>31</v>
       </c>
       <c r="X158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>36</v>
       </c>
       <c r="Y158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>39</v>
       </c>
       <c r="Z158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>44</v>
       </c>
       <c r="AA158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>27</v>
       </c>
       <c r="AB158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>33</v>
       </c>
       <c r="AC158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>26</v>
       </c>
       <c r="AD158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>21</v>
       </c>
       <c r="AE158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AF158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="AG158" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>27</v>
       </c>
       <c r="AH158" s="1"/>
@@ -12237,23 +13086,23 @@
         <v>217219</v>
       </c>
       <c r="E163" s="3">
-        <f t="shared" ref="E163:AG163" si="40">E164+E165+E166+E167</f>
+        <f t="shared" ref="E163:AG163" si="44">E164+E165+E166+E167</f>
         <v>6438</v>
       </c>
       <c r="F163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>14253</v>
       </c>
       <c r="G163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>13027</v>
       </c>
       <c r="H163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>12413</v>
       </c>
       <c r="I163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>13334</v>
       </c>
       <c r="J163" s="3">
@@ -12261,95 +13110,95 @@
         <v>13853</v>
       </c>
       <c r="K163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>14119</v>
       </c>
       <c r="L163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>14301</v>
       </c>
       <c r="M163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>13844</v>
       </c>
       <c r="N163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>12377</v>
       </c>
       <c r="O163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>11162</v>
       </c>
       <c r="P163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>10689</v>
       </c>
       <c r="Q163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>10177</v>
       </c>
       <c r="R163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>9349</v>
       </c>
       <c r="S163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>8736</v>
       </c>
       <c r="T163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>8429</v>
       </c>
       <c r="U163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>7209</v>
       </c>
       <c r="V163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>6067</v>
       </c>
       <c r="W163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>5110</v>
       </c>
       <c r="X163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>4172</v>
       </c>
       <c r="Y163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3071</v>
       </c>
       <c r="Z163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2980</v>
       </c>
       <c r="AA163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2480</v>
       </c>
       <c r="AB163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2598</v>
       </c>
       <c r="AC163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>2170</v>
       </c>
       <c r="AD163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1902</v>
       </c>
       <c r="AE163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1831</v>
       </c>
       <c r="AF163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1758</v>
       </c>
       <c r="AG163" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>1923</v>
       </c>
       <c r="AH163" s="1"/>
@@ -12789,10 +13638,10 @@
       <c r="AI168" s="1"/>
     </row>
     <row r="171" spans="1:35">
-      <c r="A171" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B171" s="13"/>
+      <c r="A171" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B171" s="25"/>
       <c r="E171" s="1" t="s">
         <v>1</v>
       </c>
@@ -12886,7 +13735,7 @@
     </row>
     <row r="172" spans="1:35">
       <c r="A172" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>9</v>
@@ -12899,119 +13748,119 @@
         <v>308602</v>
       </c>
       <c r="F172" s="3">
-        <f t="shared" ref="F172:AH172" si="41">SUM(F173,F174,F175,F176)</f>
+        <f t="shared" ref="F172:AH172" si="45">SUM(F173,F174,F175,F176)</f>
         <v>8673</v>
       </c>
       <c r="G172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>19617</v>
       </c>
       <c r="H172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>18682</v>
       </c>
       <c r="I172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>17573</v>
       </c>
       <c r="J172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>16518</v>
       </c>
       <c r="K172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>14714</v>
       </c>
       <c r="L172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>14022</v>
       </c>
       <c r="M172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>13418</v>
       </c>
       <c r="N172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>12236</v>
       </c>
       <c r="O172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>11559</v>
       </c>
       <c r="P172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>11153</v>
       </c>
       <c r="Q172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10851</v>
       </c>
       <c r="R172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>11026</v>
       </c>
       <c r="S172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10601</v>
       </c>
       <c r="T172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10432</v>
       </c>
       <c r="U172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10527</v>
       </c>
       <c r="V172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10573</v>
       </c>
       <c r="W172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>10605</v>
       </c>
       <c r="X172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9868</v>
       </c>
       <c r="Y172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>9294</v>
       </c>
       <c r="Z172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>8604</v>
       </c>
       <c r="AA172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>8453</v>
       </c>
       <c r="AB172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>8169</v>
       </c>
       <c r="AC172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>8040</v>
       </c>
       <c r="AD172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>7993</v>
       </c>
       <c r="AE172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>7991</v>
       </c>
       <c r="AF172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>7728</v>
       </c>
       <c r="AG172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>7659</v>
       </c>
       <c r="AH172" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>7638</v>
       </c>
     </row>
@@ -13026,119 +13875,119 @@
         <v>140322</v>
       </c>
       <c r="F173" s="3">
-        <f t="shared" ref="F173:AH173" si="42">SUM(F178,F182,F187,F192,F197)</f>
+        <f t="shared" ref="F173:AH173" si="46">SUM(F178,F182,F187,F192,F197)</f>
         <v>4073</v>
       </c>
       <c r="G173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>9173</v>
       </c>
       <c r="H173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8734</v>
       </c>
       <c r="I173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>8111</v>
       </c>
       <c r="J173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>7612</v>
       </c>
       <c r="K173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6683</v>
       </c>
       <c r="L173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6500</v>
       </c>
       <c r="M173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>6096</v>
       </c>
       <c r="N173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5662</v>
       </c>
       <c r="O173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5242</v>
       </c>
       <c r="P173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5121</v>
       </c>
       <c r="Q173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4892</v>
       </c>
       <c r="R173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>5050</v>
       </c>
       <c r="S173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4879</v>
       </c>
       <c r="T173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4722</v>
       </c>
       <c r="U173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4653</v>
       </c>
       <c r="V173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4898</v>
       </c>
       <c r="W173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4774</v>
       </c>
       <c r="X173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4442</v>
       </c>
       <c r="Y173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>4235</v>
       </c>
       <c r="Z173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3984</v>
       </c>
       <c r="AA173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3729</v>
       </c>
       <c r="AB173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3585</v>
       </c>
       <c r="AC173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3561</v>
       </c>
       <c r="AD173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3422</v>
       </c>
       <c r="AE173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3534</v>
       </c>
       <c r="AF173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3400</v>
       </c>
       <c r="AG173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3361</v>
       </c>
       <c r="AH173" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3427</v>
       </c>
     </row>
@@ -13153,119 +14002,119 @@
         <v>110950</v>
       </c>
       <c r="F174" s="3">
-        <f t="shared" ref="F174:AH174" si="43">SUM(F179,F183,F188,F193,F198)</f>
+        <f t="shared" ref="F174:AH174" si="47">SUM(F179,F183,F188,F193,F198)</f>
         <v>2893</v>
       </c>
       <c r="G174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>6631</v>
       </c>
       <c r="H174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>6428</v>
       </c>
       <c r="I174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>6110</v>
       </c>
       <c r="J174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>5742</v>
       </c>
       <c r="K174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>5091</v>
       </c>
       <c r="L174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4895</v>
       </c>
       <c r="M174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4834</v>
       </c>
       <c r="N174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4248</v>
       </c>
       <c r="O174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4224</v>
       </c>
       <c r="P174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>4027</v>
       </c>
       <c r="Q174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3916</v>
       </c>
       <c r="R174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3964</v>
       </c>
       <c r="S174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3714</v>
       </c>
       <c r="T174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3812</v>
       </c>
       <c r="U174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3866</v>
       </c>
       <c r="V174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3772</v>
       </c>
       <c r="W174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3849</v>
       </c>
       <c r="X174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3638</v>
       </c>
       <c r="Y174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3397</v>
       </c>
       <c r="Z174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3179</v>
       </c>
       <c r="AA174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3245</v>
       </c>
       <c r="AB174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3156</v>
       </c>
       <c r="AC174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3105</v>
       </c>
       <c r="AD174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3067</v>
       </c>
       <c r="AE174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3078</v>
       </c>
       <c r="AF174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2981</v>
       </c>
       <c r="AG174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3040</v>
       </c>
       <c r="AH174" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>2916</v>
       </c>
     </row>
@@ -13280,119 +14129,119 @@
         <v>41502</v>
       </c>
       <c r="F175" s="3">
-        <f t="shared" ref="F175:AH175" si="44">SUM(F180,F184,F189,F194,F199)</f>
+        <f t="shared" ref="F175:AH175" si="48">SUM(F180,F184,F189,F194,F199)</f>
         <v>1297</v>
       </c>
       <c r="G175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2892</v>
       </c>
       <c r="H175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2677</v>
       </c>
       <c r="I175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2477</v>
       </c>
       <c r="J175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2278</v>
       </c>
       <c r="K175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>2168</v>
       </c>
       <c r="L175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1898</v>
       </c>
       <c r="M175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1860</v>
       </c>
       <c r="N175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1599</v>
       </c>
       <c r="O175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1522</v>
       </c>
       <c r="P175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1423</v>
       </c>
       <c r="Q175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1430</v>
       </c>
       <c r="R175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1420</v>
       </c>
       <c r="S175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1422</v>
       </c>
       <c r="T175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1347</v>
       </c>
       <c r="U175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1474</v>
       </c>
       <c r="V175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1326</v>
       </c>
       <c r="W175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1408</v>
       </c>
       <c r="X175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1258</v>
       </c>
       <c r="Y175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1225</v>
       </c>
       <c r="Z175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1015</v>
       </c>
       <c r="AA175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1025</v>
       </c>
       <c r="AB175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>981</v>
       </c>
       <c r="AC175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>957</v>
       </c>
       <c r="AD175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1037</v>
       </c>
       <c r="AE175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>998</v>
       </c>
       <c r="AF175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>958</v>
       </c>
       <c r="AG175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>836</v>
       </c>
       <c r="AH175" s="3">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>896</v>
       </c>
     </row>
@@ -13407,119 +14256,119 @@
         <v>15828</v>
       </c>
       <c r="F176" s="3">
-        <f t="shared" ref="F176:AH176" si="45">SUM(F185,F190,F195,F200)</f>
+        <f t="shared" ref="F176:AH176" si="49">SUM(F185,F190,F195,F200)</f>
         <v>410</v>
       </c>
       <c r="G176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>921</v>
       </c>
       <c r="H176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>843</v>
       </c>
       <c r="I176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>875</v>
       </c>
       <c r="J176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>886</v>
       </c>
       <c r="K176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>772</v>
       </c>
       <c r="L176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>729</v>
       </c>
       <c r="M176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>628</v>
       </c>
       <c r="N176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>727</v>
       </c>
       <c r="O176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>571</v>
       </c>
       <c r="P176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>582</v>
       </c>
       <c r="Q176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>613</v>
       </c>
       <c r="R176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>592</v>
       </c>
       <c r="S176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>586</v>
       </c>
       <c r="T176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>551</v>
       </c>
       <c r="U176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>534</v>
       </c>
       <c r="V176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>577</v>
       </c>
       <c r="W176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>574</v>
       </c>
       <c r="X176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>530</v>
       </c>
       <c r="Y176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>437</v>
       </c>
       <c r="Z176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>426</v>
       </c>
       <c r="AA176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>454</v>
       </c>
       <c r="AB176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>447</v>
       </c>
       <c r="AC176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>417</v>
       </c>
       <c r="AD176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>467</v>
       </c>
       <c r="AE176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>381</v>
       </c>
       <c r="AF176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>389</v>
       </c>
       <c r="AG176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>422</v>
       </c>
       <c r="AH176" s="3">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>399</v>
       </c>
     </row>
@@ -15877,10 +16726,10 @@
       <c r="P203" s="6"/>
     </row>
     <row r="205" spans="1:34">
-      <c r="A205" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B205" s="15"/>
+      <c r="A205" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B205" s="20"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
@@ -15976,7 +16825,7 @@
     </row>
     <row r="206" spans="1:34">
       <c r="A206" s="1" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>9</v>
@@ -15990,119 +16839,119 @@
         <v>114364</v>
       </c>
       <c r="F206" s="3">
-        <f t="shared" ref="F206:AH206" si="46">F210+F209+F208+F207</f>
+        <f t="shared" ref="F206:AH206" si="50">F210+F209+F208+F207</f>
         <v>1415</v>
       </c>
       <c r="G206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4379</v>
       </c>
       <c r="H206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>5086</v>
       </c>
       <c r="I206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4974</v>
       </c>
       <c r="J206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3953</v>
       </c>
       <c r="K206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4163</v>
       </c>
       <c r="L206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4377</v>
       </c>
       <c r="M206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4782</v>
       </c>
       <c r="N206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4863</v>
       </c>
       <c r="O206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4834</v>
       </c>
       <c r="P206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4676</v>
       </c>
       <c r="Q206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4701</v>
       </c>
       <c r="R206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4866</v>
       </c>
       <c r="S206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4750</v>
       </c>
       <c r="T206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4747</v>
       </c>
       <c r="U206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4729</v>
       </c>
       <c r="V206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4608</v>
       </c>
       <c r="W206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4575</v>
       </c>
       <c r="X206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4228</v>
       </c>
       <c r="Y206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>4132</v>
       </c>
       <c r="Z206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3918</v>
       </c>
       <c r="AA206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3825</v>
       </c>
       <c r="AB206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3474</v>
       </c>
       <c r="AC206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3214</v>
       </c>
       <c r="AD206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>3330</v>
       </c>
       <c r="AE206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2449</v>
       </c>
       <c r="AF206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>2084</v>
       </c>
       <c r="AG206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1864</v>
       </c>
       <c r="AH206" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>1540</v>
       </c>
     </row>
@@ -16118,119 +16967,119 @@
         <v>59781</v>
       </c>
       <c r="F207" s="3">
-        <f t="shared" ref="F207:AH207" si="47">SUM(F212,F216,F221,F226,F231)</f>
+        <f t="shared" ref="F207:AH207" si="51">SUM(F212,F216,F221,F226,F231)</f>
         <v>738</v>
       </c>
       <c r="G207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2344</v>
       </c>
       <c r="H207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2721</v>
       </c>
       <c r="I207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2699</v>
       </c>
       <c r="J207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2137</v>
       </c>
       <c r="K207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2246</v>
       </c>
       <c r="L207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2278</v>
       </c>
       <c r="M207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2497</v>
       </c>
       <c r="N207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2521</v>
       </c>
       <c r="O207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2452</v>
       </c>
       <c r="P207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2423</v>
       </c>
       <c r="Q207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2462</v>
       </c>
       <c r="R207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2508</v>
       </c>
       <c r="S207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2469</v>
       </c>
       <c r="T207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2493</v>
       </c>
       <c r="U207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2506</v>
       </c>
       <c r="V207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2371</v>
       </c>
       <c r="W207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2334</v>
       </c>
       <c r="X207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2228</v>
       </c>
       <c r="Y207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2130</v>
       </c>
       <c r="Z207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1982</v>
       </c>
       <c r="AA207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>2019</v>
       </c>
       <c r="AB207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1788</v>
       </c>
       <c r="AC207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1687</v>
       </c>
       <c r="AD207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1703</v>
       </c>
       <c r="AE207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1304</v>
       </c>
       <c r="AF207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1084</v>
       </c>
       <c r="AG207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>944</v>
       </c>
       <c r="AH207" s="3">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>801</v>
       </c>
     </row>
@@ -16246,119 +17095,119 @@
         <v>33011</v>
       </c>
       <c r="F208" s="3">
-        <f t="shared" ref="F208:AH208" si="48">SUM(F213,F217,F222,F227,F232)</f>
+        <f t="shared" ref="F208:AH208" si="52">SUM(F213,F217,F222,F227,F232)</f>
         <v>425</v>
       </c>
       <c r="G208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1215</v>
       </c>
       <c r="H208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1431</v>
       </c>
       <c r="I208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1414</v>
       </c>
       <c r="J208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1064</v>
       </c>
       <c r="K208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1156</v>
       </c>
       <c r="L208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1273</v>
       </c>
       <c r="M208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1395</v>
       </c>
       <c r="N208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1429</v>
       </c>
       <c r="O208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1447</v>
       </c>
       <c r="P208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1393</v>
       </c>
       <c r="Q208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1386</v>
       </c>
       <c r="R208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1433</v>
       </c>
       <c r="S208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1362</v>
       </c>
       <c r="T208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1375</v>
       </c>
       <c r="U208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1343</v>
       </c>
       <c r="V208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1361</v>
       </c>
       <c r="W208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1374</v>
       </c>
       <c r="X208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1169</v>
       </c>
       <c r="Y208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1180</v>
       </c>
       <c r="Z208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1178</v>
       </c>
       <c r="AA208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1072</v>
       </c>
       <c r="AB208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>1008</v>
       </c>
       <c r="AC208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>941</v>
       </c>
       <c r="AD208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>948</v>
       </c>
       <c r="AE208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>668</v>
       </c>
       <c r="AF208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>598</v>
       </c>
       <c r="AG208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>585</v>
       </c>
       <c r="AH208" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>432</v>
       </c>
     </row>
@@ -16374,119 +17223,119 @@
         <v>18405</v>
       </c>
       <c r="F209" s="3">
-        <f t="shared" ref="F209:AH209" si="49">SUM(F214,F218,F223,F228,F233)</f>
+        <f t="shared" ref="F209:AH209" si="53">SUM(F214,F218,F223,F228,F233)</f>
         <v>220</v>
       </c>
       <c r="G209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>733</v>
       </c>
       <c r="H209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>827</v>
       </c>
       <c r="I209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>735</v>
       </c>
       <c r="J209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>652</v>
       </c>
       <c r="K209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>659</v>
       </c>
       <c r="L209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>727</v>
       </c>
       <c r="M209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>750</v>
       </c>
       <c r="N209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>777</v>
       </c>
       <c r="O209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>789</v>
       </c>
       <c r="P209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>727</v>
       </c>
       <c r="Q209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>727</v>
       </c>
       <c r="R209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>782</v>
       </c>
       <c r="S209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>749</v>
       </c>
       <c r="T209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>729</v>
       </c>
       <c r="U209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>734</v>
       </c>
       <c r="V209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>764</v>
       </c>
       <c r="W209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>720</v>
       </c>
       <c r="X209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>723</v>
       </c>
       <c r="Y209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>679</v>
       </c>
       <c r="Z209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>647</v>
       </c>
       <c r="AA209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>631</v>
       </c>
       <c r="AB209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>585</v>
       </c>
       <c r="AC209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>503</v>
       </c>
       <c r="AD209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>570</v>
       </c>
       <c r="AE209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>408</v>
       </c>
       <c r="AF209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>343</v>
       </c>
       <c r="AG209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>288</v>
       </c>
       <c r="AH209" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>261</v>
       </c>
     </row>
@@ -16502,119 +17351,119 @@
         <v>3167</v>
       </c>
       <c r="F210" s="3">
-        <f t="shared" ref="F210:AH210" si="50">SUM(F219,F224,F229,F234)</f>
+        <f t="shared" ref="F210:AH210" si="54">SUM(F219,F224,F229,F234)</f>
         <v>32</v>
       </c>
       <c r="G210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>87</v>
       </c>
       <c r="H210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>107</v>
       </c>
       <c r="I210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>126</v>
       </c>
       <c r="J210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>100</v>
       </c>
       <c r="K210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>102</v>
       </c>
       <c r="L210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>99</v>
       </c>
       <c r="M210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>140</v>
       </c>
       <c r="N210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>136</v>
       </c>
       <c r="O210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>146</v>
       </c>
       <c r="P210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>133</v>
       </c>
       <c r="Q210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>126</v>
       </c>
       <c r="R210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>143</v>
       </c>
       <c r="S210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>170</v>
       </c>
       <c r="T210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>150</v>
       </c>
       <c r="U210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>146</v>
       </c>
       <c r="V210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>112</v>
       </c>
       <c r="W210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>147</v>
       </c>
       <c r="X210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>108</v>
       </c>
       <c r="Y210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>143</v>
       </c>
       <c r="Z210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>111</v>
       </c>
       <c r="AA210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>103</v>
       </c>
       <c r="AB210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>93</v>
       </c>
       <c r="AC210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>83</v>
       </c>
       <c r="AD210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>109</v>
       </c>
       <c r="AE210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>69</v>
       </c>
       <c r="AF210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>59</v>
       </c>
       <c r="AG210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>47</v>
       </c>
       <c r="AH210" s="3">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>46</v>
       </c>
     </row>
@@ -16632,119 +17481,119 @@
         <v>10</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" ref="F211:AH211" si="51">F214+F213+F212</f>
+        <f t="shared" ref="F211:AH211" si="55">F214+F213+F212</f>
         <v>1</v>
       </c>
       <c r="G211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="H211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="I211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="J211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="K211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="M211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="N211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="O211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="P211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Q211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="R211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="S211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="T211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="U211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="V211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="W211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="X211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Y211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="Z211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AA211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AB211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AC211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AD211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AE211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>5</v>
       </c>
       <c r="AF211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AG211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AH211" s="1">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
     </row>
@@ -17056,119 +17905,119 @@
         <v>54566</v>
       </c>
       <c r="F215" s="3">
-        <f t="shared" ref="F215:AH215" si="52">F219+F218+F217+F216</f>
+        <f t="shared" ref="F215:AH215" si="56">F219+F218+F217+F216</f>
         <v>423</v>
       </c>
       <c r="G215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1388</v>
       </c>
       <c r="H215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1883</v>
       </c>
       <c r="I215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1907</v>
       </c>
       <c r="J215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1546</v>
       </c>
       <c r="K215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1590</v>
       </c>
       <c r="L215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1586</v>
       </c>
       <c r="M215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1734</v>
       </c>
       <c r="N215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1767</v>
       </c>
       <c r="O215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1862</v>
       </c>
       <c r="P215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1783</v>
       </c>
       <c r="Q215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1718</v>
       </c>
       <c r="R215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1848</v>
       </c>
       <c r="S215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1928</v>
       </c>
       <c r="T215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1955</v>
       </c>
       <c r="U215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2079</v>
       </c>
       <c r="V215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2189</v>
       </c>
       <c r="W215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2350</v>
       </c>
       <c r="X215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2302</v>
       </c>
       <c r="Y215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2403</v>
       </c>
       <c r="Z215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2659</v>
       </c>
       <c r="AA215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2774</v>
       </c>
       <c r="AB215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2548</v>
       </c>
       <c r="AC215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2387</v>
       </c>
       <c r="AD215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>2443</v>
       </c>
       <c r="AE215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1763</v>
       </c>
       <c r="AF215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1514</v>
       </c>
       <c r="AG215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1311</v>
       </c>
       <c r="AH215" s="3">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v>1044</v>
       </c>
     </row>
@@ -17578,119 +18427,119 @@
         <v>135</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" ref="F220:AH220" si="53">F224+F223+F222+F221</f>
+        <f t="shared" ref="F220:AH220" si="57">F224+F223+F222+F221</f>
         <v>0</v>
       </c>
       <c r="G220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="H220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="I220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="J220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="K220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="M220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="N220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="O220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
       <c r="P220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="Q220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
       <c r="R220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="S220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>10</v>
       </c>
       <c r="T220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>7</v>
       </c>
       <c r="U220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="V220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>10</v>
       </c>
       <c r="W220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>15</v>
       </c>
       <c r="X220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>12</v>
       </c>
       <c r="Y220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>6</v>
       </c>
       <c r="Z220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>7</v>
       </c>
       <c r="AA220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>10</v>
       </c>
       <c r="AB220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>8</v>
       </c>
       <c r="AC220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
       <c r="AD220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AE220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>5</v>
       </c>
       <c r="AF220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
       <c r="AG220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
       <c r="AH220" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>4</v>
       </c>
     </row>
@@ -18100,119 +18949,119 @@
         <v>49</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" ref="F225:AH225" si="54">F229+F228+F227+F226</f>
+        <f t="shared" ref="F225:AH225" si="58">F229+F228+F227+F226</f>
         <v>0</v>
       </c>
       <c r="G225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="H225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="I225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="J225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="K225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="M225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="N225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="O225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="P225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="Q225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="R225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="S225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="T225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="U225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
       <c r="V225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
       <c r="W225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
       <c r="X225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>4</v>
       </c>
       <c r="Y225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="Z225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="AA225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="AB225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>6</v>
       </c>
       <c r="AC225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>11</v>
       </c>
       <c r="AD225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="AE225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="AF225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>1</v>
       </c>
       <c r="AG225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="AH225" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
     </row>
@@ -18622,119 +19471,119 @@
         <v>59604</v>
       </c>
       <c r="F230" s="3">
-        <f t="shared" ref="F230:AH230" si="55">F234+F233+F232+F231</f>
+        <f t="shared" ref="F230:AH230" si="59">F234+F233+F232+F231</f>
         <v>991</v>
       </c>
       <c r="G230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2990</v>
       </c>
       <c r="H230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>3203</v>
       </c>
       <c r="I230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>3067</v>
       </c>
       <c r="J230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2406</v>
       </c>
       <c r="K230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2572</v>
       </c>
       <c r="L230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2789</v>
       </c>
       <c r="M230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>3047</v>
       </c>
       <c r="N230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>3095</v>
       </c>
       <c r="O230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2970</v>
       </c>
       <c r="P230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2893</v>
       </c>
       <c r="Q230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2979</v>
       </c>
       <c r="R230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>3009</v>
       </c>
       <c r="S230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2812</v>
       </c>
       <c r="T230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2783</v>
       </c>
       <c r="U230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2639</v>
       </c>
       <c r="V230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2405</v>
       </c>
       <c r="W230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>2206</v>
       </c>
       <c r="X230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1910</v>
       </c>
       <c r="Y230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1722</v>
       </c>
       <c r="Z230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1251</v>
       </c>
       <c r="AA230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>1039</v>
       </c>
       <c r="AB230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>912</v>
       </c>
       <c r="AC230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>813</v>
       </c>
       <c r="AD230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>876</v>
       </c>
       <c r="AE230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>675</v>
       </c>
       <c r="AF230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>565</v>
       </c>
       <c r="AG230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>550</v>
       </c>
       <c r="AH230" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>489</v>
       </c>
     </row>
@@ -19131,10 +19980,10 @@
       </c>
     </row>
     <row r="237" spans="1:40">
-      <c r="A237" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B237" s="15"/>
+      <c r="A237" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B237" s="20"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1" t="s">
         <v>1</v>
@@ -19253,7 +20102,7 @@
         <v>3</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="3">
@@ -19261,154 +20110,154 @@
         <v>553885</v>
       </c>
       <c r="E238" s="3">
-        <f t="shared" ref="E238:AN238" si="56">SUM(E240,E239)</f>
+        <f t="shared" ref="E238:AN238" si="60">SUM(E240,E239)</f>
         <v>11157</v>
       </c>
       <c r="F238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>25500</v>
       </c>
       <c r="G238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>24670</v>
       </c>
       <c r="H238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>22817</v>
       </c>
       <c r="I238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>23401</v>
       </c>
       <c r="J238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>21167</v>
       </c>
       <c r="K238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>19849</v>
       </c>
       <c r="L238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>19060</v>
       </c>
       <c r="M238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>17878</v>
       </c>
       <c r="N238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>17108</v>
       </c>
       <c r="O238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16896</v>
       </c>
       <c r="P238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16487</v>
       </c>
       <c r="Q238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16816</v>
       </c>
       <c r="R238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16900</v>
       </c>
       <c r="S238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16829</v>
       </c>
       <c r="T238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16521</v>
       </c>
       <c r="U238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16634</v>
       </c>
       <c r="V238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>17095</v>
       </c>
       <c r="W238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16485</v>
       </c>
       <c r="X238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>16007</v>
       </c>
       <c r="Y238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>15138</v>
       </c>
       <c r="Z238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>14781</v>
       </c>
       <c r="AA238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>14279</v>
       </c>
       <c r="AB238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>13631</v>
       </c>
       <c r="AC238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>12765</v>
       </c>
       <c r="AD238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>12451</v>
       </c>
       <c r="AE238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>11710</v>
       </c>
       <c r="AF238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>11411</v>
       </c>
       <c r="AG238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>11084</v>
       </c>
       <c r="AH238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>10646</v>
       </c>
       <c r="AI238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>10360</v>
       </c>
       <c r="AJ238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9738</v>
       </c>
       <c r="AK238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9677</v>
       </c>
       <c r="AL238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>9405</v>
       </c>
       <c r="AM238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>8655</v>
       </c>
       <c r="AN238" s="3">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>8877</v>
       </c>
     </row>
     <row r="239" spans="1:40">
       <c r="A239" s="1"/>
       <c r="B239" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C239" s="1"/>
       <c r="D239" s="3">
@@ -19416,154 +20265,154 @@
         <v>488019</v>
       </c>
       <c r="E239" s="3">
-        <f t="shared" ref="E239:AN239" si="57">SUM(E242,E245,E248,E251)</f>
+        <f t="shared" ref="E239:AN239" si="61">SUM(E242,E245,E248,E251)</f>
         <v>10003</v>
       </c>
       <c r="F239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>23175</v>
       </c>
       <c r="G239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>22196</v>
       </c>
       <c r="H239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>20642</v>
       </c>
       <c r="I239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>20993</v>
       </c>
       <c r="J239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>18973</v>
       </c>
       <c r="K239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>17583</v>
       </c>
       <c r="L239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>16705</v>
       </c>
       <c r="M239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>15554</v>
       </c>
       <c r="N239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>15098</v>
       </c>
       <c r="O239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14965</v>
       </c>
       <c r="P239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14498</v>
       </c>
       <c r="Q239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14909</v>
       </c>
       <c r="R239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14954</v>
       </c>
       <c r="S239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14868</v>
       </c>
       <c r="T239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14751</v>
       </c>
       <c r="U239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14814</v>
       </c>
       <c r="V239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>15112</v>
       </c>
       <c r="W239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14568</v>
       </c>
       <c r="X239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>14099</v>
       </c>
       <c r="Y239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>13343</v>
       </c>
       <c r="Z239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>13015</v>
       </c>
       <c r="AA239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>12549</v>
       </c>
       <c r="AB239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>11959</v>
       </c>
       <c r="AC239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>11300</v>
       </c>
       <c r="AD239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>10971</v>
       </c>
       <c r="AE239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>10324</v>
       </c>
       <c r="AF239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>10046</v>
       </c>
       <c r="AG239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>9734</v>
       </c>
       <c r="AH239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>9325</v>
       </c>
       <c r="AI239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>9025</v>
       </c>
       <c r="AJ239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>8181</v>
       </c>
       <c r="AK239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>7976</v>
       </c>
       <c r="AL239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>7775</v>
       </c>
       <c r="AM239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>7070</v>
       </c>
       <c r="AN239" s="3">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>6966</v>
       </c>
     </row>
     <row r="240" spans="1:40">
       <c r="A240" s="1"/>
       <c r="B240" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="3">
@@ -19571,147 +20420,147 @@
         <v>65866</v>
       </c>
       <c r="E240" s="3">
-        <f t="shared" ref="E240:AN240" si="58">SUM(E243,E246,E249,E252)</f>
+        <f t="shared" ref="E240:AN240" si="62">SUM(E243,E246,E249,E252)</f>
         <v>1154</v>
       </c>
       <c r="F240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2325</v>
       </c>
       <c r="G240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2474</v>
       </c>
       <c r="H240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2175</v>
       </c>
       <c r="I240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2408</v>
       </c>
       <c r="J240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2194</v>
       </c>
       <c r="K240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2266</v>
       </c>
       <c r="L240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2355</v>
       </c>
       <c r="M240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2324</v>
       </c>
       <c r="N240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>2010</v>
       </c>
       <c r="O240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1931</v>
       </c>
       <c r="P240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1989</v>
       </c>
       <c r="Q240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1907</v>
       </c>
       <c r="R240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1946</v>
       </c>
       <c r="S240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1961</v>
       </c>
       <c r="T240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1770</v>
       </c>
       <c r="U240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1820</v>
       </c>
       <c r="V240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1983</v>
       </c>
       <c r="W240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1917</v>
       </c>
       <c r="X240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1908</v>
       </c>
       <c r="Y240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1795</v>
       </c>
       <c r="Z240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1766</v>
       </c>
       <c r="AA240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1730</v>
       </c>
       <c r="AB240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1672</v>
       </c>
       <c r="AC240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1465</v>
       </c>
       <c r="AD240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1480</v>
       </c>
       <c r="AE240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1386</v>
       </c>
       <c r="AF240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1365</v>
       </c>
       <c r="AG240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1350</v>
       </c>
       <c r="AH240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1321</v>
       </c>
       <c r="AI240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1335</v>
       </c>
       <c r="AJ240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1557</v>
       </c>
       <c r="AK240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1701</v>
       </c>
       <c r="AL240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1630</v>
       </c>
       <c r="AM240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1585</v>
       </c>
       <c r="AN240" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1911</v>
       </c>
     </row>
@@ -19720,7 +20569,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="3">
@@ -19728,154 +20577,154 @@
         <v>250146</v>
       </c>
       <c r="E241" s="3">
-        <f t="shared" ref="E241:AN241" si="59">SUM(E243,E242)</f>
+        <f t="shared" ref="E241:AN241" si="63">SUM(E243,E242)</f>
         <v>5137</v>
       </c>
       <c r="F241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>11725</v>
       </c>
       <c r="G241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>11359</v>
       </c>
       <c r="H241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>10393</v>
       </c>
       <c r="I241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>10616</v>
       </c>
       <c r="J241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>9523</v>
       </c>
       <c r="K241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>8995</v>
       </c>
       <c r="L241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>8612</v>
       </c>
       <c r="M241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>8088</v>
       </c>
       <c r="N241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7659</v>
       </c>
       <c r="O241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7631</v>
       </c>
       <c r="P241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7314</v>
       </c>
       <c r="Q241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7606</v>
       </c>
       <c r="R241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7637</v>
       </c>
       <c r="S241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7604</v>
       </c>
       <c r="T241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7336</v>
       </c>
       <c r="U241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7606</v>
       </c>
       <c r="V241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7665</v>
       </c>
       <c r="W241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7407</v>
       </c>
       <c r="X241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>7312</v>
       </c>
       <c r="Y241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>6948</v>
       </c>
       <c r="Z241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>6631</v>
       </c>
       <c r="AA241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>6401</v>
       </c>
       <c r="AB241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>6129</v>
       </c>
       <c r="AC241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>5543</v>
       </c>
       <c r="AD241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>5546</v>
       </c>
       <c r="AE241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>5139</v>
       </c>
       <c r="AF241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>5077</v>
       </c>
       <c r="AG241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4936</v>
       </c>
       <c r="AH241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4860</v>
       </c>
       <c r="AI241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4660</v>
       </c>
       <c r="AJ241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4505</v>
       </c>
       <c r="AK241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4366</v>
       </c>
       <c r="AL241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4172</v>
       </c>
       <c r="AM241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>3968</v>
       </c>
       <c r="AN241" s="3">
-        <f t="shared" si="59"/>
+        <f t="shared" si="63"/>
         <v>4040</v>
       </c>
     </row>
     <row r="242" spans="1:40">
       <c r="A242" s="1"/>
       <c r="B242" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="3">
@@ -19993,7 +20842,7 @@
     <row r="243" spans="1:40">
       <c r="A243" s="1"/>
       <c r="B243" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C243" s="1"/>
       <c r="D243" s="3">
@@ -20113,7 +20962,7 @@
         <v>5</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="3">
@@ -20121,154 +20970,154 @@
         <v>205213</v>
       </c>
       <c r="E244" s="3">
-        <f t="shared" ref="E244:AN244" si="60">SUM(E246,E245)</f>
+        <f t="shared" ref="E244:AN244" si="64">SUM(E246,E245)</f>
         <v>3870</v>
       </c>
       <c r="F244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>8864</v>
       </c>
       <c r="G244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>8678</v>
       </c>
       <c r="H244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>8180</v>
       </c>
       <c r="I244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>8372</v>
       </c>
       <c r="J244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>7553</v>
       </c>
       <c r="K244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>7214</v>
       </c>
       <c r="L244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>7001</v>
       </c>
       <c r="M244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6470</v>
       </c>
       <c r="N244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6364</v>
       </c>
       <c r="O244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6254</v>
       </c>
       <c r="P244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6150</v>
       </c>
       <c r="Q244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6227</v>
       </c>
       <c r="R244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6124</v>
       </c>
       <c r="S244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6236</v>
       </c>
       <c r="T244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6158</v>
       </c>
       <c r="U244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6117</v>
       </c>
       <c r="V244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6354</v>
       </c>
       <c r="W244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>6187</v>
       </c>
       <c r="X244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>5931</v>
       </c>
       <c r="Y244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>5635</v>
       </c>
       <c r="Z244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>5610</v>
       </c>
       <c r="AA244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>5466</v>
       </c>
       <c r="AB244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>5216</v>
       </c>
       <c r="AC244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>4925</v>
       </c>
       <c r="AD244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>4768</v>
       </c>
       <c r="AE244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>4586</v>
       </c>
       <c r="AF244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>4474</v>
       </c>
       <c r="AG244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>4292</v>
       </c>
       <c r="AH244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>4046</v>
       </c>
       <c r="AI244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>4060</v>
       </c>
       <c r="AJ244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>3674</v>
       </c>
       <c r="AK244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>3760</v>
       </c>
       <c r="AL244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>3721</v>
       </c>
       <c r="AM244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>3263</v>
       </c>
       <c r="AN244" s="3">
-        <f t="shared" si="60"/>
+        <f t="shared" si="64"/>
         <v>3413</v>
       </c>
     </row>
     <row r="245" spans="1:40">
       <c r="A245" s="1"/>
       <c r="B245" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C245" s="1"/>
       <c r="D245" s="3">
@@ -20386,7 +21235,7 @@
     <row r="246" spans="1:40">
       <c r="A246" s="1"/>
       <c r="B246" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="3">
@@ -20506,7 +21355,7 @@
         <v>6</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="3">
@@ -20514,154 +21363,154 @@
         <v>72371</v>
       </c>
       <c r="E247" s="3">
-        <f t="shared" ref="E247:AN247" si="61">SUM(E249,E248)</f>
+        <f t="shared" ref="E247:AN247" si="65">SUM(E249,E248)</f>
         <v>1627</v>
       </c>
       <c r="F247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>3709</v>
       </c>
       <c r="G247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>3531</v>
       </c>
       <c r="H247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>3194</v>
       </c>
       <c r="I247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>3233</v>
       </c>
       <c r="J247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>3061</v>
       </c>
       <c r="K247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2672</v>
       </c>
       <c r="L247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2587</v>
       </c>
       <c r="M247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2366</v>
       </c>
       <c r="N247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2284</v>
       </c>
       <c r="O247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2196</v>
       </c>
       <c r="P247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2164</v>
       </c>
       <c r="Q247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2164</v>
       </c>
       <c r="R247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2314</v>
       </c>
       <c r="S247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2191</v>
       </c>
       <c r="T247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2259</v>
       </c>
       <c r="U247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2083</v>
       </c>
       <c r="V247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2254</v>
       </c>
       <c r="W247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2121</v>
       </c>
       <c r="X247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>2064</v>
       </c>
       <c r="Y247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1887</v>
       </c>
       <c r="Z247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1847</v>
       </c>
       <c r="AA247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1745</v>
       </c>
       <c r="AB247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1661</v>
       </c>
       <c r="AC247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1663</v>
       </c>
       <c r="AD247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1568</v>
       </c>
       <c r="AE247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1459</v>
       </c>
       <c r="AF247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1322</v>
       </c>
       <c r="AG247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1320</v>
       </c>
       <c r="AH247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1236</v>
       </c>
       <c r="AI247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1214</v>
       </c>
       <c r="AJ247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1102</v>
       </c>
       <c r="AK247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1117</v>
       </c>
       <c r="AL247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1093</v>
       </c>
       <c r="AM247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1041</v>
       </c>
       <c r="AN247" s="3">
-        <f t="shared" si="61"/>
+        <f t="shared" si="65"/>
         <v>1022</v>
       </c>
     </row>
     <row r="248" spans="1:40">
       <c r="A248" s="1"/>
       <c r="B248" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="3">
@@ -20779,7 +21628,7 @@
     <row r="249" spans="1:40">
       <c r="A249" s="1"/>
       <c r="B249" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C249" s="1"/>
       <c r="D249" s="3">
@@ -20899,7 +21748,7 @@
         <v>7</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C250" s="1"/>
       <c r="D250" s="3">
@@ -20907,154 +21756,154 @@
         <v>26155</v>
       </c>
       <c r="E250" s="3">
-        <f t="shared" ref="E250:AN250" si="62">SUM(E252,E251)</f>
+        <f t="shared" ref="E250:AN250" si="66">SUM(E252,E251)</f>
         <v>523</v>
       </c>
       <c r="F250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1202</v>
       </c>
       <c r="G250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1102</v>
       </c>
       <c r="H250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1050</v>
       </c>
       <c r="I250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1180</v>
       </c>
       <c r="J250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>1030</v>
       </c>
       <c r="K250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>968</v>
       </c>
       <c r="L250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>860</v>
       </c>
       <c r="M250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>954</v>
       </c>
       <c r="N250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>801</v>
       </c>
       <c r="O250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>815</v>
       </c>
       <c r="P250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>859</v>
       </c>
       <c r="Q250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>819</v>
       </c>
       <c r="R250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>825</v>
       </c>
       <c r="S250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>798</v>
       </c>
       <c r="T250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>768</v>
       </c>
       <c r="U250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>828</v>
       </c>
       <c r="V250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>822</v>
       </c>
       <c r="W250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>770</v>
       </c>
       <c r="X250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>700</v>
       </c>
       <c r="Y250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>668</v>
       </c>
       <c r="Z250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>693</v>
       </c>
       <c r="AA250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>667</v>
       </c>
       <c r="AB250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>625</v>
       </c>
       <c r="AC250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>634</v>
       </c>
       <c r="AD250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>569</v>
       </c>
       <c r="AE250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>526</v>
       </c>
       <c r="AF250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>538</v>
       </c>
       <c r="AG250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>536</v>
       </c>
       <c r="AH250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>504</v>
       </c>
       <c r="AI250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>426</v>
       </c>
       <c r="AJ250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>457</v>
       </c>
       <c r="AK250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>434</v>
       </c>
       <c r="AL250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>419</v>
       </c>
       <c r="AM250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>383</v>
       </c>
       <c r="AN250" s="3">
-        <f t="shared" si="62"/>
+        <f t="shared" si="66"/>
         <v>402</v>
       </c>
     </row>
     <row r="251" spans="1:40">
       <c r="A251" s="1"/>
       <c r="B251" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="3">
@@ -21172,7 +22021,7 @@
     <row r="252" spans="1:40">
       <c r="A252" s="1"/>
       <c r="B252" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C252" s="1"/>
       <c r="D252" s="3">
@@ -21288,35 +22137,38 @@
       </c>
     </row>
     <row r="256" spans="1:40">
-      <c r="A256" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B256" s="16"/>
-      <c r="C256" s="16"/>
-      <c r="D256" s="16"/>
-      <c r="E256" s="16"/>
-      <c r="F256" s="16"/>
-      <c r="G256" s="16"/>
-      <c r="H256" s="16"/>
-      <c r="I256" s="16"/>
-      <c r="J256" s="13"/>
+      <c r="A256" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B256" s="24"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="37"/>
+      <c r="F256" s="24"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="24"/>
+      <c r="J256" s="25"/>
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="21" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B257" s="22"/>
       <c r="C257" s="22"/>
-      <c r="D257" s="28" t="s">
-        <v>58</v>
+      <c r="D257" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E257" s="48" t="s">
+        <v>22</v>
       </c>
       <c r="G257" s="21" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="H257" s="22"/>
       <c r="I257" s="22"/>
-      <c r="J257" s="28" t="s">
-        <v>73</v>
+      <c r="J257" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="258" spans="1:10">
@@ -21324,19 +22176,22 @@
         <v>3</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="4">
         <f>AVERAGE(L238:Q238)</f>
         <v>17374.166666666668</v>
       </c>
-      <c r="E258" s="4"/>
+      <c r="E258" s="4">
+        <f>D258/R66</f>
+        <v>47.600456621004568</v>
+      </c>
       <c r="G258" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I258" s="1"/>
       <c r="J258">
@@ -21347,16 +22202,20 @@
     <row r="259" spans="1:10">
       <c r="A259" s="1"/>
       <c r="B259" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="4">
         <f>AVERAGE(L239:Q239)</f>
         <v>15288.166666666666</v>
       </c>
+      <c r="E259">
+        <f>D259/R66</f>
+        <v>41.885388127853879</v>
+      </c>
       <c r="G259" s="1"/>
       <c r="H259" s="1" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I259" s="1"/>
       <c r="J259">
@@ -21367,16 +22226,20 @@
     <row r="260" spans="1:10">
       <c r="A260" s="1"/>
       <c r="B260" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C260" s="1"/>
       <c r="D260" s="4">
         <f>AVERAGE(L240:Q240)</f>
         <v>2086</v>
       </c>
+      <c r="E260">
+        <f>D260/R66</f>
+        <v>5.7150684931506852</v>
+      </c>
       <c r="G260" s="1"/>
       <c r="H260" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260">
@@ -21385,22 +22248,37 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="34">
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="O113:P113"/>
+    <mergeCell ref="O112:T112"/>
+    <mergeCell ref="I80:K80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="L80:N80"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A237:B237"/>
     <mergeCell ref="A257:C257"/>
     <mergeCell ref="A112:L112"/>
     <mergeCell ref="G257:I257"/>
     <mergeCell ref="A256:J256"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A113:B113"/>
     <mergeCell ref="A171:B171"/>
     <mergeCell ref="A205:B205"/>
     <mergeCell ref="I113:J113"/>
